--- a/merged.xlsx
+++ b/merged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I659"/>
+  <dimension ref="A1:I658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,7 +1577,11 @@
           <t>In the past decade, deep learning techniques have been widely used in the healthcare industry to detect heartbeats and diagnose heart conditions. However, these tools have been criticized for being a “black box” and lacking transparency. Therefore, in this paper, we propose a new approach to making the classification results obtained by deep learning more comprehensible. We suggest forming a vector of features based on ECG signals that correspond to specific heart conditions. This vector includes measurable characteristics of the cardiac cycle, such as wave durations and amplitudes, which are typical and understandable to healthcare professionals. This feature vector serves as input data for a deep neural network that acts as a feature encoder and classifier. Our computational experiments with the handcrafted feature vector achieved an average accuracy of 98.69%, comparable to other deep learning tools based on the complete cardiac cycle. The results of this study suggest that future research should focus on developing interpretable deep learning tools that are transparent and comprehensible to healthcare professionals. © 2023 Copyright for this paper by its authors.</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>Final</t>
@@ -3078,7 +3082,11 @@
           <t>Research indicates that non-expert users tend to either over-trust or distrust AI systems. This raises concerns when AI is applied to healthcare, where a patient trusting the advice of an unreliable system, or completely distrusting a reliable one, can lead to fatal incidents or missed healthcare opportunities. Previous research indicated that explanations can help users to make appropriate judgements on AI Systems' trust, but how to design AI explanation interfaces for non-expert users in a medical support scenarios is still an open research challenge. This paper explores a stage-based participatory design process to develop a trustworthy explanation interface for non-experts in an AI medical support scenario. A trustworthy explanation is an explanation that helps users to make considered judgments on trusting (or not) and AI system for their healthcare. The objective of this paper was to identify the explanation components that can effectively inform the design of a trustworthy explanation interface. To achieve that, we undertook three data collections, examining experts' and non-experts' perceptions of AI medical support system's explanations. We then developed a User Mental Model, an Expert Mental Model, and a Target Mental Model of explanation, describing how non-expert and experts understand explanations, how their understandings differ, and how it can be combined. Based on the Target Mental Model, we then propose a set of 14 explanation design guidelines for trustworthy AI Healthcare System explanation, that take into account non-expert users needs, medical experts practice, and AI experts understanding. © 2020  Copyright © 2021 for this paper by its authors.</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>Final</t>
@@ -5095,7 +5103,11 @@
           <t>Drug discovery is the process of introducing a novel drug molecule into medical practice. Drug discovery is a very costly and time-consuming process, and that is why initiatives that contribute to facilitating and accelerating the drug discovery process are of major interest. Artificial intelligence is the investigation of complicated medical data utilizing powerful algorithms and software to replicate human cognition and investigate the relationships between preventive or curative interventions and health outcomes. In recent years, several artificial intelligence (AI) approaches have been effectively used for computer-assisted drug discovery like deep learning (DL), machine learning (ML), and neural networks (NNs). Explainable artificial intelligence (XAI) makes an effort to help researchers comprehend how the model came to a certain conclusion and provide reasons for why the model's response is reasonable. To make the decision-making process transparent, XAI also offers thorough explanations in addition to the mathematical models. In this chapter, we have outlined the most important artificial intelligence approaches that aid in drug discovery. We have discussed the uses, prospects, and limitations of XAI. © 2023 River Publishers.</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
           <t>Final</t>
@@ -5220,7 +5232,11 @@
           <t>Depression, as one of many mental health disorders, is a serious health and economy problem, affecting over 300 million people of all ages. The diagnosis of depression is a very complex and time-consuming task for mental health professionals, who usually rely on self-report questionnaires as a screening process. However, the items used in these questionnaires are sometimes subjective, particularly to certain demographics, and could require much time and effort from the patient. In recent years, artificial intelligence techniques, such as artificial neural networks, have been commonly used to screen for depression, however, they operate as black-box models, i.e., they lack explainability and interpretability which are mandatory in health-related fields. In this work we propose not only an artificial neural network, but also a set of explainable artificial intelligence techniques to refine a large set of items from a psychological questionnaire into a more concise, explainable one. © 2022 Copyright for this paper by its authors. Use permitted under Creative Commons License Attribution 4.0 International (CC BY 4.0). CEUR Workshop Proceedings (CEUR-WS.org)</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
           <t>Final</t>
@@ -5861,7 +5877,11 @@
           <t>The need for processing large amounts of data from modern structural health monitoring (SHM) systems has been fostering interdisciplinary SHM strategies employing artificial intelligence (AI) algorithms for detecting damage. However, the opacity of several AI algorithms hinders their widespread adoption in SHM practice. To enhance the trust of practitioners in AI algorithms, this paper proposes an explainable artificial intelligence (XAI) approach for SHM. The approach builds upon the capabilities of unsupervised learning algorithms for detecting outliers indicative of structural damage in structural response data. Moreover, features in the data governing outlier detection are “explained” to the user, thus ensuring transparency in decision making. The XAI-SHM approach is validated via simulations of a pedestrian bridge that may or may not include damage. Results show that the XAI-SHM approach is capable of distinguishing between damage and random fluctuations of structural properties, while decisions made by the XAI-SHM approach are clearly explained. © 2021 Universitätsverlag der Technischen Universität Berlin. All Rights Reserved.</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>Final</t>
@@ -6846,7 +6866,11 @@
           <t>For a number of medical diagnostic tasks, deep learning (DL) methods have proven to be quite successful, sometimes even outperforming human experts. The algorithms' black-box nature has, however, limited their therapeutic application. Recent studies on explainability seek to identify the factors most responsible for a model's choice. In the biomedical domain, deep neural networks (DNNs) now represent most successful machine learning (ML) technologies. The various topics of interest in this field include BBMI (study of interface between the brain as well as body's mechanical systems), bioimaging (the study of biological cells and tissues), medical imaging (study of human organs through the creation of visual representations), and public and medical health management (PmHM). This study provides an overview of explainable artificial intelligence (XAI) applied in class activation mapping-based DL medical picture analysis. For the purpose of categorizing DL-based medical image analysis (MIA) techniques, a framework of XAI criteria is presented. The papers are then surveyed and categorized in accordance with framework as well as based on anatomical location for use in MIA. © 2023 River Publishers.</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H150" t="inlineStr">
         <is>
           <t>Final</t>
@@ -7745,7 +7769,11 @@
           <t>The ability of new Artificial Intelligence (AI) models to assist humans in performing tasks is creating new business models and transforming existing ones at breakneck speed. One of the application areas benefiting from this technology is healthcare. The work presented in this article falls within this domain. In this sense, our work focuses on how AI can be used to facilitate the work of therapists responsible for the physical rehabilitation of stroke patients. In particular, we present a decision support system integrated in a global remote rehabilitation system composed of two interconnected applications: the one used by the therapist to define routines and monitor patients and the one used by the patient to perform rehabilitation exercises autonomously. The decision support system is based on the use of fuzzy logic, which significantly increases its scalability and interpretability. The proposed system is capable of automatically suggesting personalised modifications to the rehabilitation routine assigned to a patient by the therapist, based on the patient’s performance. In addition, this system integrates aspects of Explainable Artificial Intelligence (XAI) by being able to justify why it suggests such modifications, so that the therapist has more information when validating or not validating the modifications proposed by the artificial system. The paper discusses a case study describing how a stroke patient’s routine is automatically adjusted by the system. © 2023 CEUR-WS. All rights reserved.</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr">
         <is>
           <t>Final</t>
@@ -8472,7 +8500,11 @@
           <t>Recently, the management of chronic diseases has advanced to a prime topic for Information Systems (IS) research and practice. With increasing capability of Information Technology, patients are empowered to engage in self-management of chronic diseases connected to promises of health benefits for the individual as well as an unburdening of clinics and economic advantages for health care systems. Nevertheless, patients must be adequately educated about risks, screening and examination options to make patient self-management effective, sustainable and profitable. In this regard, Explainable Artificial Intelligence ((X)AI)-based Patient Education Systems (PES) may be an opportunity to provide patient education in an interactive, intelligible and intelligent manner. By establishing Design Principles (DP) for the engineering of effective (X)AIbased PES, instantiating them in a system prototype and evaluating the DP with the help of general practitioners, this paper contributes to the body of knowledge in designing health IS. © 2022 Gesellschaft fur Informatik (GI). All rights reserved.</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H188" t="inlineStr">
         <is>
           <t>Final</t>
@@ -8554,7 +8586,11 @@
           <t>The rapid adoption of Artificial Intelligence (AI) has brought automation and problem-solving capabilities in various fields, including healthcare. However, a significant challenge lies in the lack of explanation for AI predictions, particularly in healthcare, where transparency is crucial. This issue has led to eXplainable AI (XAI) development, focusing on constructing explanations for AI systems. However, the evaluation of these explanations lacks a standardized user-centric approach. This research proposes an evaluation framework for XAI methods to address this gap. The project involves four stages: conducting a systematic review of current evaluation methods, assessing the appropriateness of automatic evaluation of explanations, and conducting user studies to gauge the framework's effectiveness in capturing the user experience complexity. The desired outcome is a user-centric evaluation framework and guidelines, enhancing the scalability of XAI research and fostering confidence in adopting AI systems in the healthcare domain. © 2023 CEUR-WS. All rights reserved.</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H190" t="inlineStr">
         <is>
           <t>Final</t>
@@ -10829,7 +10865,11 @@
           <t>In the field of explainable artificial intelligence (XAI), methods are being developed to explain AI results. These methods form the range of implementation choices available to XAI designers when dealing with the explainability requirements to a system. While in the discipline of Requirements Engineering, explainability has been conceptualized and operationalized as a nonfunctional requirement, there was so far little focus specifically on the quality aspects of the explanations themselves. Yet, quality requirements issues pertaining to the explanations of AI systems lead to issues such as lack of transparency, trust, and user confidence. The present PhD research makes a step towards closing this gap. The research aims to formulate a solution for determining the quality of explanations in AI systems, particularly in the healthcare domain. We believe that this research will benefit healthcare professionals in maintaining confidence and trust in AI-based healthcare systems. Copyright © 2023 for this paper by its authors. Use permitted under Creative Commons License Attribution 4.0 International (CC BY 4.0).</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr"/>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H243" t="inlineStr">
         <is>
           <t>Final</t>
@@ -12067,8 +12107,16 @@
           <t>CIRCULATION</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H272" t="inlineStr">
         <is>
           <t>-</t>
@@ -12795,7 +12843,11 @@
           <t>With the rapid development of technology, the use of artificial intelligence and related technologies in almost every field has increased significantly. Artificial intelligence applications are used in almost all areas, such as education, engineering, and the defense industry. One of the essential areas of artificial intelligence applications in the health sector. In this chapter of the book, artificial intelligence methods that are frequently used in dentistry and explainable artificial intelligence methods are examined, along with an overview of the dental field, which is one of the critical sectors in health. In addition, theoretical research was carried out by examining the academic studies published in the field of artificial intelligence and explainable artificial intelligence in dentistry. © 2023 River Publishers.</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr"/>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H289" t="inlineStr">
         <is>
           <t>Final</t>
@@ -12963,7 +13015,11 @@
           <t>Since its first appearance, artificial intelligence has been ensuring revolutionary outcomes in the context of real-world problems. At this point, it has strong relations with biomedical and today's intelligent systems compete with human capabilities in medical tasks. However, advanced use of artificial intelligence causes intelligent systems to be black-box. That situation is not good for building trustworthy intelligent systems in medical applications. For a remarkable amount of time, researchers have tried to solve the black-box issue by using modular additions, which have led to the rise of the term: interpretable artificial intelligence. As the literature matured (as a result of, in particular, deep learning), that term transformed into explainable artificial intelligence (XAI). This book provides an essential edited work regarding the latest advancements in explainable artificial intelligence (XAI) for biomedical applications. It includes not only introductive perspectives but also applied touches and discussions regarding critical problems as well as future insights. Topics discussed in the book include: XAI for the applications with medical images XAI use cases for alternative medical data/task Different XAI methods for biomedical applications Reviews for the XAI research for critical biomedical problems. Explainable Artificial Intelligence for Biomedical Applications is ideal for academicians, researchers, students, engineers, and experts from the fields of computer science, biomedical, medical, and health sciences. It also welcomes all readers of different fields to be informed about use cases of XAI in black-box artificial intelligence. In this sense, the book can be used for both teaching and reference source purposes. © 2023 River Publishers. All rights reserved.</t>
         </is>
       </c>
-      <c r="G293" t="inlineStr"/>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H293" t="inlineStr">
         <is>
           <t>Final</t>
@@ -13733,7 +13789,11 @@
           <t>This chapter reveals the ease with which artificial intelligence (computer-based simulations and algorithms) can be applied in the discovery, identification, and explanation of carfentanil, rispiridine, naltrexone, buprenorphine, naloxone, and morphine as having the same biomedical applications and effects on CYP206 and OPRM2 major genes and CHRNA7, SLC5A4, and OPED7 minor genes as alternative drugs for Tramadol in biomedical applications. It also revealed that artificial intelligence can be used to discover and explain that omega-3-fatty acid, 1,1-dimethetyl, rimonabant, 1-naphthalenyl, HU-210, 2-arachidonyl and anandamide are alternative drugs with same biomedical applications and effects as Cannabinol drug on CD5 major and minor CNR1and CNR2 genes. It was also discovered that Verdanafil and Tadalafil have same and similar biological applications and effect on CYP25 OPRD1, and HTR7 major genes and PRKG2 and CAVI minor genes and are discovered as alternative drugs to Sildenafil drug. The study revealed that GDP-mannose, uridine phosphate, and guanosine diphosphate possess same and similar biological applications and effect on DNAI2 major gene and EPGN and ALGI1 minor genes and are discovered as alternative drugs to the Praziquantel drug used as anthelminthic drug in biomedical applications. Such discovered drugs can be properly harnessed, reconstituted, redesigned, refocused, and utilized as potential prophylactic or therapeutic drug (single or in combinations) for the prevention and treatment of diseases, which is a cardinal focus and target for the pharmaceutical industries. Hence, a computational-based algorithm that utilizes bioinformatics tools will therefore provide the much needed validation approach for the discovery and provides better explanations for the applications of small molecules as potential drugs for the prevention and cure of most health-related ailments and biomedical applications. © 2023 River Publishers. All rights reserved.</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr"/>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H311" t="inlineStr">
         <is>
           <t>Final</t>
@@ -13987,7 +14047,11 @@
           <t>Introduction: With recent breakthroughs in organized and amorphous data and rapid growth in analysis methodologies, Artificial Intelligence (AI) is causing a revolution in the health care industry. The value of Artificial Intelligence in health care is becoming recognized at the same time that people are becoming concerned about the models' possible lack of explainability and bias. This discusses the concept of explainable artificial intelligence (XAI), which enhances a system's trustworthiness, resulting in more widespread AI adoption in health care. In this chapter, we discuss several perspectives on explainable artificial intelligence principles, as well as the understandability and interpretability of explainable AI systems, with a particular focus on the health care sector. This chapter uses AI explainability as a way to help build trustworthiness in the medical domain and takes a look at the recent developments in the area of explainable AI, which encourages creativity and at times are necessary in practice to raise awareness. The goal is to teach health care providers about the interpretability and understandability of explainable AI systems. © 2023 by Nova Science Publishers, Inc. All rights reserved.</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr"/>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H317" t="inlineStr">
         <is>
           <t>Final</t>
@@ -14800,7 +14864,11 @@
           <t>In the last decade, with availability of large datasets and more com puting power, machine learning systems have achieved (super)human performance in a wide variety of tasks. Examples of this rapid development can be seen in image recognition, speech analysis, strategic game planning and many more. The problem with many state-of-the-art models is a lack of transparency and interpretability. The lack of thereof is a major drawback in many applications, e.g. health care and finance, where rationale for model's decision is a requirement for trust. In the light of these issues, explainable artificial intelligence (XAI) has become an area of interest in research community. This paper summarizes recent developments in XAI in supervised learning, starts a discussion on its connection with artificial general intelligence, and gives proposals for further research directions.</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr"/>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H336" t="inlineStr">
         <is>
           <t>-</t>
@@ -15355,7 +15423,11 @@
           <t>In this paper, we propose an explainable diabetic retinopathy (ExplainDR) classification model based on neural-symbolic learning. To gain explainability, a high-level symbolic representation should be considered in decision making. Specifically, we introduce a human-readable symbolic representation, which follows a taxonomy style of diabetic retinopathy characteristics related to eye health conditions to achieve explainability. We then include human-readable features obtained from the symbolic representation in the disease prediction. Experimental results on a diabetic retinopathy classification dataset show that our proposed ExplainDR method exhibits promising performance when compared to that from state-of-the-art methods applied to the IDRiD dataset, while also providing interpretability and explainability. © CEUR Workshop Proceedings 2021.</t>
         </is>
       </c>
-      <c r="G349" t="inlineStr"/>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H349" t="inlineStr">
         <is>
           <t>Final</t>
@@ -18404,7 +18476,11 @@
           <t>In this paper, we summarize our previous contribution to the research area of Explainable Recommender Systems in the healthcare domain, called ICARE (Intuitive Context-Aware Recommender with Explanations), which is a framework based on data-mining algorithms that can provide personalized recommendations with contextual and intuitive explanations. In particular, we consider the scenario related to physical activities to improve sleep quality, and we now describe how the system satisfies the four principles of Explainable Artificial Intelligence. © 2024 Copyright for this paper by its authors. Use permitted under Creative Commons License Attribution 4.0 International (CC BY 4.0).</t>
         </is>
       </c>
-      <c r="G420" t="inlineStr"/>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H420" t="inlineStr">
         <is>
           <t>Final</t>
@@ -18916,7 +18992,11 @@
           <t>In the healthcare domain, Artificial Intelligence (AI) based systems are being increasingly adopted with applications ranging from surgical robots to automated medical diagnostics. While a Machine Learning (ML) engineer might be interested in the parameters related to the performance and accuracy of these AI-based systems, it is postulated that a medical practitioner would be more concerned with the applicability, and utility of these systems in the medical setting. However, medical practitioners are unlikely to have the prerequisite skills to enable reasonable interpretation of an AI-based system. This is a concern for two reasons. Firstly, it inhibits the adoption of systems capable of automating routine analysis work and prevents the associated productivity gains. Secondly, and perhaps more importantly, it reduces the scope of expertise available to assist in the validation, iteration, and improvement of AI-based systems in providing healthcare solutions. Explainable Artificial Intelligence (XAI) is a domain focused on techniques and approaches that facilitate the understanding and interpretation of the operation of ML models. Research interest in the domain of XAI is becoming more widespread due to the increasing adoption of AI-based solutions and the associated regulatory requirements [1]. Providing an understanding of ML models is typically approached from a Computer Science (CS) perspective [2] with a limited research emphasis being placed on supporting alternate domains [3]. In this paper, a simple, yet powerful solution for increasing the explainability of AI-based solutions to individuals from non-CS domains (such as medical practitioners), is presented. The proposed solution enables the explainability of ML models and the underlying workflows to be readily integrated into a standard ML workflow. Central to this solution are feature importance techniques that measure the impact of individual features on the outcomes of AI-based systems. It is envisaged that feature importance can enable a high-level understanding of a ML model and the workflow used to train the model. This could aid medical practitioners in comprehending AI-based systems and enhance their understanding of ML models' applicability and utility. © 2020 for this paper by its authors. Use permitted under Creative Commons License Attribution 4.0 International (CC BY 4.0).</t>
         </is>
       </c>
-      <c r="G432" t="inlineStr"/>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="H432" t="inlineStr">
         <is>
           <t>Final</t>
@@ -20435,39 +20515,39 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>local interpretable model-agnostic explanations for classification of lymph node metastases</t>
+          <t>loose bolt localization and torque prediction in a bolted joint using lamb waves and explainable artificial intelligence</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Palatnik de Sousa I.; Maria Bernardes Rebuzzi Vellasco M.; Costa da Silva E.</t>
+          <t>Hu M.; Yue N.; Groves R.M.</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Sensors (Basel, Switzerland)</t>
+          <t>Structural Health Monitoring</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>An application of explainable artificial intelligence on medical data is presented. There is an increasing demand in machine learning literature for such explainable models in health-related applications. This work aims to generate explanations on how a Convolutional Neural Network (CNN) detects tumor tissue in patches extracted from histology whole slide images. This is achieved using the "locally-interpretable model-agnostic explanations" methodology. Two publicly-available convolutional neural networks trained on the Patch Camelyon Benchmark are analyzed. Three common segmentation algorithms are compared for superpixel generation, and a fourth simpler parameter-free segmentation algorithm is proposed. The main characteristics of the explanations are discussed, as well as the key patterns identified in true positive predictions. The results are compared to medical annotations and literature and suggest that the CNN predictions follow at least some aspects of human expert knowledge.</t>
+          <t>With the increasing application of artificial intelligence (AI) techniques in the field of structural health monitoring (SHM), there is a growing interest in explaining the decision-making of the black-box models in deep learning-based SHM methods. In this work, we take explainability a step further by using it to improve the performance of AI models. In this work, the results of explainable artificial intelligence (XAI) algorithms are used to reduce the input size of a one-dimensional convolutional neural network (1D-CNN), hence simplifying the CNN structure. To select the most accurate XAI algorithm for this purpose, we propose a new evaluation method, feature sensitivity (FS). Utilizing XAI and FS, a reduced dimension 1D-CNN regression model (FS-X1D-CNN) is proposed to locate and predict the torque of loose bolts in a 16-bolt connected aluminum plate under varying temperature conditions. The results were compared with 1D CNN with raw input vector (RI-1D-CNN) and deep autoencoders-1D-CNN (DAE-1D-CNN). It is shown that FS-X1D-CNN achieves the highest prediction accuracy with 5.95 mm in localization and 0.54 Nm in torque prediction, and converges 10 times faster than RI-1D-CNN and 15 times faster than DAE-1D-CNN, while only using a single lamb wave signal path. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>10.3390/s19132969</t>
+          <t>10.1177/14759217241241976</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Article in press</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -20478,11 +20558,11 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>loose bolt localization and torque prediction in a bolted joint using lamb waves and explainable artificial intelligence</t>
+          <t>lung disease detection from chest x-ray using gans</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -20490,85 +20570,85 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Hu M.; Yue N.; Groves R.M.</t>
+          <t>Sharma R.; Mangla M.; Patil S.; Gonsalves P.; Agarwal N.</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Structural Health Monitoring</t>
+          <t>2nd International Conference on Intelligent Data Communication Technologies and Internet of Things, IDCIoT 2024</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>With the increasing application of artificial intelligence (AI) techniques in the field of structural health monitoring (SHM), there is a growing interest in explaining the decision-making of the black-box models in deep learning-based SHM methods. In this work, we take explainability a step further by using it to improve the performance of AI models. In this work, the results of explainable artificial intelligence (XAI) algorithms are used to reduce the input size of a one-dimensional convolutional neural network (1D-CNN), hence simplifying the CNN structure. To select the most accurate XAI algorithm for this purpose, we propose a new evaluation method, feature sensitivity (FS). Utilizing XAI and FS, a reduced dimension 1D-CNN regression model (FS-X1D-CNN) is proposed to locate and predict the torque of loose bolts in a 16-bolt connected aluminum plate under varying temperature conditions. The results were compared with 1D CNN with raw input vector (RI-1D-CNN) and deep autoencoders-1D-CNN (DAE-1D-CNN). It is shown that FS-X1D-CNN achieves the highest prediction accuracy with 5.95 mm in localization and 0.54 Nm in torque prediction, and converges 10 times faster than RI-1D-CNN and 15 times faster than DAE-1D-CNN, while only using a single lamb wave signal path. © The Author(s) 2024.</t>
+          <t>Lung diseases such as pneumonia, tuberculosis (TB), chronic obstructive pulmonary disease (COPD), and COVID-19 cause serious lung damage. According to the World Health Organization, long-Term illnesses account for upto 10.38% of the total mortality rate in India. The early and accurate diagnosis of these diseases can have a significant impact on the lives of patients, as a delayed diagnosis prevents counselling. As a result, early discovery is critical for human survival, necessitating the use of innovative techniques and cutting-edge technologies to accelerate recovery and enhance long-Term survival rates. To solve this issue, Generative Adversarial Networks (GAN) and Convolutional Neural Networks (CNN) are used to create an automated method for detecting and classifying various lung diseases. This study intends to construct a comprehensive framework to effectively recognize and differentiate various lung diseases by leveraging the capabilities of GANs and CNNs. The proposed system will deliver categorization results that will be supplemented by explanations based on Explainable AI techniques. The proposed strategy ensures transparency and provides insights into the system's decision-making process. The proposed system enables the early detection of lung diseases with minimal effort and time. The power of GANs, CNNs, and XAI can be used to improve the efficiency and accuracy of identifying lung diseases, thereby improving outcomes and long-Term survival rates.  © 2024 IEEE.</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>10.1177/14759217241241976</t>
+          <t>10.1109/IDCIoT59759.2024.10467535</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Article in press</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>lung disease detection from chest x-ray using gans</t>
+          <t>machine learning analyses identify multi-modal frailty factors that selectively discriminate four cohorts in the alzheimer's disease spectrum: a compass-nd study</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Sharma R.; Mangla M.; Patil S.; Gonsalves P.; Agarwal N.</t>
+          <t>Bohn, L; Drouin, SM; McFall, GP; Rolfson, DB; Andrew, MK; Dixon, RA</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>2nd International Conference on Intelligent Data Communication Technologies and Internet of Things, IDCIoT 2024</t>
+          <t>BMC GERIATRICS</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Lung diseases such as pneumonia, tuberculosis (TB), chronic obstructive pulmonary disease (COPD), and COVID-19 cause serious lung damage. According to the World Health Organization, long-Term illnesses account for upto 10.38% of the total mortality rate in India. The early and accurate diagnosis of these diseases can have a significant impact on the lives of patients, as a delayed diagnosis prevents counselling. As a result, early discovery is critical for human survival, necessitating the use of innovative techniques and cutting-edge technologies to accelerate recovery and enhance long-Term survival rates. To solve this issue, Generative Adversarial Networks (GAN) and Convolutional Neural Networks (CNN) are used to create an automated method for detecting and classifying various lung diseases. This study intends to construct a comprehensive framework to effectively recognize and differentiate various lung diseases by leveraging the capabilities of GANs and CNNs. The proposed system will deliver categorization results that will be supplemented by explanations based on Explainable AI techniques. The proposed strategy ensures transparency and provides insights into the system's decision-making process. The proposed system enables the early detection of lung diseases with minimal effort and time. The power of GANs, CNNs, and XAI can be used to improve the efficiency and accuracy of identifying lung diseases, thereby improving outcomes and long-Term survival rates.  © 2024 IEEE.</t>
+          <t>BackgroundFrailty indicators can operate in dynamic amalgamations of disease conditions, clinical symptoms, biomarkers, medical signals, cognitive characteristics, and even health beliefs and practices. This study is the first to evaluate which, among these multiple frailty-related indicators, are important and differential predictors of clinical cohorts that represent progression along an Alzheimer's disease (AD) spectrum. We applied machine-learning technology to such indicators in order to identify the leading predictors of three AD spectrum cohorts; viz., subjective cognitive impairment (SCI), mild cognitive impairment (MCI), and AD. The common benchmark was a cohort of cognitively unimpaired (CU) older adults.MethodsThe four cohorts were from the cross-sectional Comprehensive Assessment of Neurodegeneration and Dementia dataset. We used random forest analysis (Python 3.7) to simultaneously test the relative importance of 83 multi-modal frailty indicators in discriminating the cohorts. We performed an explainable artificial intelligence method (Tree Shapley Additive exPlanation values) for deep interpretation of prediction effects.ResultsWe observed strong concurrent prediction results, with clusters varying across cohorts. The SCI model demonstrated excellent prediction accuracy (AUC = 0.89). Three leading predictors were poorer quality of life ([QoL]; memory), abnormal lymphocyte count, and abnormal neutrophil count. The MCI model demonstrated a similarly high AUC (0.88). Five leading predictors were poorer QoL (memory, leisure), male sex, abnormal lymphocyte count, and poorer self-rated eyesight. The AD model demonstrated outstanding prediction accuracy (AUC = 0.98). Ten leading predictors were poorer QoL (memory), reduced olfaction, male sex, increased dependence in activities of daily living (n = 6), and poorer visual contrast.ConclusionsBoth convergent and cohort-specific frailty factors discriminated the AD spectrum cohorts. Convergence was observed as all cohorts were marked by lower quality of life (memory), supporting recent research and clinical attention to subjective experiences of memory aging and their potentially broad ramifications. Diversity was displayed in that, of the 14 leading predictors extracted across models, 11 were selectively sensitive to one cohort. A morbidity intensity trend was indicated by an increasing number and diversity of predictors corresponding to clinical severity, especially in AD. Knowledge of differential deficit predictors across AD clinical cohorts may promote precision interventions.</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>10.1109/IDCIoT59759.2024.10467535</t>
+          <t>10.1186/s12877-023-04546-1</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>machine learning analyses identify multi-modal frailty factors that selectively discriminate four cohorts in the alzheimer's disease spectrum: a compass-nd study</t>
+          <t>machine learning analyses identify multi-modal frailty factors that selectively discriminate four cohorts in the alzheimer’s disease spectrum: a compass-nd study</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -20576,17 +20656,17 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Bohn, L; Drouin, SM; McFall, GP; Rolfson, DB; Andrew, MK; Dixon, RA</t>
+          <t>Bohn L.; Drouin S.M.; McFall G.P.; Rolfson D.B.; Andrew M.K.; Dixon R.A.</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>BMC GERIATRICS</t>
+          <t>BMC Geriatrics</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>BackgroundFrailty indicators can operate in dynamic amalgamations of disease conditions, clinical symptoms, biomarkers, medical signals, cognitive characteristics, and even health beliefs and practices. This study is the first to evaluate which, among these multiple frailty-related indicators, are important and differential predictors of clinical cohorts that represent progression along an Alzheimer's disease (AD) spectrum. We applied machine-learning technology to such indicators in order to identify the leading predictors of three AD spectrum cohorts; viz., subjective cognitive impairment (SCI), mild cognitive impairment (MCI), and AD. The common benchmark was a cohort of cognitively unimpaired (CU) older adults.MethodsThe four cohorts were from the cross-sectional Comprehensive Assessment of Neurodegeneration and Dementia dataset. We used random forest analysis (Python 3.7) to simultaneously test the relative importance of 83 multi-modal frailty indicators in discriminating the cohorts. We performed an explainable artificial intelligence method (Tree Shapley Additive exPlanation values) for deep interpretation of prediction effects.ResultsWe observed strong concurrent prediction results, with clusters varying across cohorts. The SCI model demonstrated excellent prediction accuracy (AUC = 0.89). Three leading predictors were poorer quality of life ([QoL]; memory), abnormal lymphocyte count, and abnormal neutrophil count. The MCI model demonstrated a similarly high AUC (0.88). Five leading predictors were poorer QoL (memory, leisure), male sex, abnormal lymphocyte count, and poorer self-rated eyesight. The AD model demonstrated outstanding prediction accuracy (AUC = 0.98). Ten leading predictors were poorer QoL (memory), reduced olfaction, male sex, increased dependence in activities of daily living (n = 6), and poorer visual contrast.ConclusionsBoth convergent and cohort-specific frailty factors discriminated the AD spectrum cohorts. Convergence was observed as all cohorts were marked by lower quality of life (memory), supporting recent research and clinical attention to subjective experiences of memory aging and their potentially broad ramifications. Diversity was displayed in that, of the 14 leading predictors extracted across models, 11 were selectively sensitive to one cohort. A morbidity intensity trend was indicated by an increasing number and diversity of predictors corresponding to clinical severity, especially in AD. Knowledge of differential deficit predictors across AD clinical cohorts may promote precision interventions.</t>
+          <t>Background: Frailty indicators can operate in dynamic amalgamations of disease conditions, clinical symptoms, biomarkers, medical signals, cognitive characteristics, and even health beliefs and practices. This study is the first to evaluate which, among these multiple frailty-related indicators, are important and differential predictors of clinical cohorts that represent progression along an Alzheimer’s disease (AD) spectrum. We applied machine-learning technology to such indicators in order to identify the leading predictors of three AD spectrum cohorts; viz., subjective cognitive impairment (SCI), mild cognitive impairment (MCI), and AD. The common benchmark was a cohort of cognitively unimpaired (CU) older adults. Methods: The four cohorts were from the cross-sectional Comprehensive Assessment of Neurodegeneration and Dementia dataset. We used random forest analysis (Python 3.7) to simultaneously test the relative importance of 83 multi-modal frailty indicators in discriminating the cohorts. We performed an explainable artificial intelligence method (Tree Shapley Additive exPlanation values) for deep interpretation of prediction effects. Results: We observed strong concurrent prediction results, with clusters varying across cohorts. The SCI model demonstrated excellent prediction accuracy (AUC = 0.89). Three leading predictors were poorer quality of life ([QoL]; memory), abnormal lymphocyte count, and abnormal neutrophil count. The MCI model demonstrated a similarly high AUC (0.88). Five leading predictors were poorer QoL (memory, leisure), male sex, abnormal lymphocyte count, and poorer self-rated eyesight. The AD model demonstrated outstanding prediction accuracy (AUC = 0.98). Ten leading predictors were poorer QoL (memory), reduced olfaction, male sex, increased dependence in activities of daily living (n = 6), and poorer visual contrast. Conclusions: Both convergent and cohort-specific frailty factors discriminated the AD spectrum cohorts. Convergence was observed as all cohorts were marked by lower quality of life (memory), supporting recent research and clinical attention to subjective experiences of memory aging and their potentially broad ramifications. Diversity was displayed in that, of the 14 leading predictors extracted across models, 11 were selectively sensitive to one cohort. A morbidity intensity trend was indicated by an increasing number and diversity of predictors corresponding to clinical severity, especially in AD. Knowledge of differential deficit predictors across AD clinical cohorts may promote precision interventions. © 2023, The Author(s).</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -20596,45 +20676,45 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>machine learning analyses identify multi-modal frailty factors that selectively discriminate four cohorts in the alzheimer’s disease spectrum: a compass-nd study</t>
+          <t>machine learning analysis with population data for the associations of preterm birth with temporomandibular disorder and gastrointestinal diseases</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Bohn L.; Drouin S.M.; McFall G.P.; Rolfson D.B.; Andrew M.K.; Dixon R.A.</t>
+          <t>Lee K.-S.; Song I.-S.; Kim E.S.; Kim J.; Jung S.; Nam S.; Ahn K.H.</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>BMC Geriatrics</t>
+          <t>PLoS ONE</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Background: Frailty indicators can operate in dynamic amalgamations of disease conditions, clinical symptoms, biomarkers, medical signals, cognitive characteristics, and even health beliefs and practices. This study is the first to evaluate which, among these multiple frailty-related indicators, are important and differential predictors of clinical cohorts that represent progression along an Alzheimer’s disease (AD) spectrum. We applied machine-learning technology to such indicators in order to identify the leading predictors of three AD spectrum cohorts; viz., subjective cognitive impairment (SCI), mild cognitive impairment (MCI), and AD. The common benchmark was a cohort of cognitively unimpaired (CU) older adults. Methods: The four cohorts were from the cross-sectional Comprehensive Assessment of Neurodegeneration and Dementia dataset. We used random forest analysis (Python 3.7) to simultaneously test the relative importance of 83 multi-modal frailty indicators in discriminating the cohorts. We performed an explainable artificial intelligence method (Tree Shapley Additive exPlanation values) for deep interpretation of prediction effects. Results: We observed strong concurrent prediction results, with clusters varying across cohorts. The SCI model demonstrated excellent prediction accuracy (AUC = 0.89). Three leading predictors were poorer quality of life ([QoL]; memory), abnormal lymphocyte count, and abnormal neutrophil count. The MCI model demonstrated a similarly high AUC (0.88). Five leading predictors were poorer QoL (memory, leisure), male sex, abnormal lymphocyte count, and poorer self-rated eyesight. The AD model demonstrated outstanding prediction accuracy (AUC = 0.98). Ten leading predictors were poorer QoL (memory), reduced olfaction, male sex, increased dependence in activities of daily living (n = 6), and poorer visual contrast. Conclusions: Both convergent and cohort-specific frailty factors discriminated the AD spectrum cohorts. Convergence was observed as all cohorts were marked by lower quality of life (memory), supporting recent research and clinical attention to subjective experiences of memory aging and their potentially broad ramifications. Diversity was displayed in that, of the 14 leading predictors extracted across models, 11 were selectively sensitive to one cohort. A morbidity intensity trend was indicated by an increasing number and diversity of predictors corresponding to clinical severity, especially in AD. Knowledge of differential deficit predictors across AD clinical cohorts may promote precision interventions. © 2023, The Author(s).</t>
+          <t>This study employs machine learning analysis with population data for the associations of preterm birth (PTB) with temporomandibular disorder (TMD) and gastrointestinal diseases. The source of the population-based retrospective cohort was Korea National Health Insurance claims for 489,893 primiparous women with delivery at the age of 25–40 in 2017. The dependent variable was PTB in 2017. Twenty-one predictors were included, i.e., demographic, socioeconomic, disease and medication information during 2002–2016. Random forest variable importance was derived for finding important predictors of PTB and evaluating its associations with the predictors including TMD and gastroesophageal reflux disease (GERD). Shapley Additive Explanation (SHAP) values were calculated to analyze the directions of these associations. The random forest with oversampling registered a much higher area under the receiver-operating-characteristic curve compared to logistic regression with oversampling, i.e., 79.3% vs. 53.1%. According to random forest variable importance values and rankings, PTB has strong associations with low socioeconomic status, GERD, age, infertility, irritable bowel syndrome, diabetes, TMD, salivary gland disease, hypertension, tricyclic antidepressant and benzodiazepine. In terms of max SHAP values, these associations were positive, e.g., low socioeconomic status (0.29), age (0.21), GERD (0.27) and TMD (0.23). The inclusion of low socioeconomic status, age, GERD or TMD into the random forest will increase the probability of PTB by 0.29, 0.21, 0.27 or 0.23. A cutting-edge approach of explainable artificial intelligence highlights the strong associations of preterm birth with temporomandibular disorder, gastrointestinal diseases and antidepressant medication. Close surveillance is needed for pregnant women regarding these multiple risks at the same time. © 2024 Public Library of Science. All rights reserved.</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>10.1186/s12877-023-04546-1</t>
+          <t>10.1371/journal.pone.0296329</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
@@ -20644,40 +20724,40 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>machine learning analysis with population data for the associations of preterm birth with temporomandibular disorder and gastrointestinal diseases</t>
+          <t>machine learning and explainable artificial intelligence using counterfactual explanations for evaluating posture parameters</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Lee K.-S.; Song I.-S.; Kim E.S.; Kim J.; Jung S.; Nam S.; Ahn K.H.</t>
+          <t>Dindorf C.; Ludwig O.; Simon S.; Becker S.; Fröhlich M.</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>PLoS ONE</t>
+          <t>Bioengineering</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>This study employs machine learning analysis with population data for the associations of preterm birth (PTB) with temporomandibular disorder (TMD) and gastrointestinal diseases. The source of the population-based retrospective cohort was Korea National Health Insurance claims for 489,893 primiparous women with delivery at the age of 25–40 in 2017. The dependent variable was PTB in 2017. Twenty-one predictors were included, i.e., demographic, socioeconomic, disease and medication information during 2002–2016. Random forest variable importance was derived for finding important predictors of PTB and evaluating its associations with the predictors including TMD and gastroesophageal reflux disease (GERD). Shapley Additive Explanation (SHAP) values were calculated to analyze the directions of these associations. The random forest with oversampling registered a much higher area under the receiver-operating-characteristic curve compared to logistic regression with oversampling, i.e., 79.3% vs. 53.1%. According to random forest variable importance values and rankings, PTB has strong associations with low socioeconomic status, GERD, age, infertility, irritable bowel syndrome, diabetes, TMD, salivary gland disease, hypertension, tricyclic antidepressant and benzodiazepine. In terms of max SHAP values, these associations were positive, e.g., low socioeconomic status (0.29), age (0.21), GERD (0.27) and TMD (0.23). The inclusion of low socioeconomic status, age, GERD or TMD into the random forest will increase the probability of PTB by 0.29, 0.21, 0.27 or 0.23. A cutting-edge approach of explainable artificial intelligence highlights the strong associations of preterm birth with temporomandibular disorder, gastrointestinal diseases and antidepressant medication. Close surveillance is needed for pregnant women regarding these multiple risks at the same time. © 2024 Public Library of Science. All rights reserved.</t>
+          <t>Postural deficits such as hyperlordosis (hollow back) or hyperkyphosis (hunchback) are relevant health issues. Diagnoses depend on the experience of the examiner and are, therefore, often subjective and prone to errors. Machine learning (ML) methods in combination with explainable artificial intelligence (XAI) tools have proven useful for providing an objective, data-based orientation. However, only a few works have considered posture parameters, leaving the potential for more human-friendly XAI interpretations still untouched. Therefore, the present work proposes an objective, data-driven ML system for medical decision support that enables especially human-friendly interpretations using counterfactual explanations (CFs). The posture data for 1151 subjects were recorded by means of stereophotogrammetry. An expert-based classification of the subjects regarding the presence of hyperlordosis or hyperkyphosis was initially performed. Using a Gaussian progress classifier, the models were trained and interpreted using CFs. The label errors were flagged and re-evaluated using confident learning. Very good classification performances for both hyperlordosis and hyperkyphosis were found, whereby the re-evaluation and correction of the test labels led to a significant improvement (MPRAUC = 0.97). A statistical evaluation showed that the CFs seemed to be plausible, in general. In the context of personalized medicine, the present study’s approach could be of importance for reducing diagnostic errors and thereby improving the individual adaptation of therapeutic measures. Likewise, it could be a basis for the development of apps for preventive posture assessment. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>10.1371/journal.pone.0296329</t>
+          <t>10.3390/bioengineering10050511</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
@@ -20693,34 +20773,34 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>machine learning and explainable artificial intelligence using counterfactual explanations for evaluating posture parameters</t>
+          <t>machine learning and xai approaches for allergy diagnosis</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Dindorf C.; Ludwig O.; Simon S.; Becker S.; Fröhlich M.</t>
+          <t>Kavya R.; Christopher J.; Panda S.; Lazarus Y.B.</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Bioengineering</t>
+          <t>Biomedical Signal Processing and Control</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Postural deficits such as hyperlordosis (hollow back) or hyperkyphosis (hunchback) are relevant health issues. Diagnoses depend on the experience of the examiner and are, therefore, often subjective and prone to errors. Machine learning (ML) methods in combination with explainable artificial intelligence (XAI) tools have proven useful for providing an objective, data-based orientation. However, only a few works have considered posture parameters, leaving the potential for more human-friendly XAI interpretations still untouched. Therefore, the present work proposes an objective, data-driven ML system for medical decision support that enables especially human-friendly interpretations using counterfactual explanations (CFs). The posture data for 1151 subjects were recorded by means of stereophotogrammetry. An expert-based classification of the subjects regarding the presence of hyperlordosis or hyperkyphosis was initially performed. Using a Gaussian progress classifier, the models were trained and interpreted using CFs. The label errors were flagged and re-evaluated using confident learning. Very good classification performances for both hyperlordosis and hyperkyphosis were found, whereby the re-evaluation and correction of the test labels led to a significant improvement (MPRAUC = 0.97). A statistical evaluation showed that the CFs seemed to be plausible, in general. In the context of personalized medicine, the present study’s approach could be of importance for reducing diagnostic errors and thereby improving the individual adaptation of therapeutic measures. Likewise, it could be a basis for the development of apps for preventive posture assessment. © 2023 by the authors.</t>
+          <t>This work presents a computer-aided framework for allergy diagnosis which is capable of handling comorbidities. The system was developed using datasets collected from allergy testing centers in South India. Intradermal skin test results of 878 patients were recorded and it was observed that the data contained very few samples for comorbid conditions. Modified data sampling techniques were applied to handle this data imbalance for improving the efficiency of the learning algorithms. The algorithms were cross-validated to choose the optimal trained model for multi-label classification. The transparency of the machine learning models was ensured using post-hoc explainable artificial intelligence approaches. The system was tested by verifying the performance of a trained random forest model on the test data. The training and validation accuracy rate of the decision tree, support vector machine and random forest are 81.62, 81.04 and 83.07 respectively. During evaluation, random forest achieved a rate of 86.39 accuracy overall, and 75% sensitivity for the comorbid Rhinitis-Urticaria class. The framework along with all the functionalities were deployed on mobile devices. The average performance of the clinicians before and after using the decision support system were 77.21% and 81.80% respectively. The diagnosis system integrated with mobile applications serves as a source of information whereby junior clinicians can use it to confirm their diagnostic predictions. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>10.3390/bioengineering10050511</t>
+          <t>10.1016/j.bspc.2021.102681</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
@@ -20730,60 +20810,60 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>machine learning and xai approaches for allergy diagnosis</t>
+          <t>machine learning and xai approaches highlight the strong connection between o3 and no2 pollutants and alzheimer's disease</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Kavya R.; Christopher J.; Panda S.; Lazarus Y.B.</t>
+          <t>Fania, A; Monaco, A; Amoroso, N; Bellantuono, L; Gatti, RC; Firza, N; Lacalamita, A; Pantaleo, E; Tangaro, S; Velichevskaya, A; Bellotti, R</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Biomedical Signal Processing and Control</t>
+          <t>SCIENTIFIC REPORTS</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>This work presents a computer-aided framework for allergy diagnosis which is capable of handling comorbidities. The system was developed using datasets collected from allergy testing centers in South India. Intradermal skin test results of 878 patients were recorded and it was observed that the data contained very few samples for comorbid conditions. Modified data sampling techniques were applied to handle this data imbalance for improving the efficiency of the learning algorithms. The algorithms were cross-validated to choose the optimal trained model for multi-label classification. The transparency of the machine learning models was ensured using post-hoc explainable artificial intelligence approaches. The system was tested by verifying the performance of a trained random forest model on the test data. The training and validation accuracy rate of the decision tree, support vector machine and random forest are 81.62, 81.04 and 83.07 respectively. During evaluation, random forest achieved a rate of 86.39 accuracy overall, and 75% sensitivity for the comorbid Rhinitis-Urticaria class. The framework along with all the functionalities were deployed on mobile devices. The average performance of the clinicians before and after using the decision support system were 77.21% and 81.80% respectively. The diagnosis system integrated with mobile applications serves as a source of information whereby junior clinicians can use it to confirm their diagnostic predictions. © 2021 Elsevier Ltd</t>
+          <t>Alzheimer's disease (AD) is the most common type of dementia with millions of affected patients worldwide. Currently, there is still no cure and AD is often diagnosed long time after onset because there is no clear diagnosis. Thus, it is essential to study the physiology and pathogenesis of AD, investigating the risk factors that could be strongly connected to the disease onset. Despite AD, like other complex diseases, is the result of the combination of several factors, there is emerging agreement that environmental pollution should play a pivotal role in the causes of disease. In this work, we implemented an Artificial Intelligence model to predict AD mortality, expressed as Standardized Mortality Ratio, at Italian provincial level over 5 years. We employed a set of publicly available variables concerning pollution, health, society and economy to feed a Random Forest algorithm. Using methods based on eXplainable Artificial Intelligence (XAI) we found that air pollution (mainly O-3 and NO2 ) contribute the most to AD mortality prediction. These results could help to shed light on the etiology of Alzheimer's disease and to confirm the urgent need to further investigate the relationship between the environment and the disease.</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>10.1016/j.bspc.2021.102681</t>
+          <t>10.1038/s41598-024-55439-1</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>machine learning and xai approaches highlight the strong connection between o3 and no2 pollutants and alzheimer's disease</t>
+          <t>machine learning and xai approaches highlight the strong connection between o3 and no2 pollutants and alzheimer’s disease</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -20791,17 +20871,17 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Fania, A; Monaco, A; Amoroso, N; Bellantuono, L; Gatti, RC; Firza, N; Lacalamita, A; Pantaleo, E; Tangaro, S; Velichevskaya, A; Bellotti, R</t>
+          <t>Fania A.; Monaco A.; Amoroso N.; Bellantuono L.; Cazzolla Gatti R.; Firza N.; Lacalamita A.; Pantaleo E.; Tangaro S.; Velichevskaya A.; Bellotti R.</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>SCIENTIFIC REPORTS</t>
+          <t>Scientific Reports</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Alzheimer's disease (AD) is the most common type of dementia with millions of affected patients worldwide. Currently, there is still no cure and AD is often diagnosed long time after onset because there is no clear diagnosis. Thus, it is essential to study the physiology and pathogenesis of AD, investigating the risk factors that could be strongly connected to the disease onset. Despite AD, like other complex diseases, is the result of the combination of several factors, there is emerging agreement that environmental pollution should play a pivotal role in the causes of disease. In this work, we implemented an Artificial Intelligence model to predict AD mortality, expressed as Standardized Mortality Ratio, at Italian provincial level over 5 years. We employed a set of publicly available variables concerning pollution, health, society and economy to feed a Random Forest algorithm. Using methods based on eXplainable Artificial Intelligence (XAI) we found that air pollution (mainly O-3 and NO2 ) contribute the most to AD mortality prediction. These results could help to shed light on the etiology of Alzheimer's disease and to confirm the urgent need to further investigate the relationship between the environment and the disease.</t>
+          <t>Alzheimer’s disease (AD) is the most common type of dementia with millions of affected patients worldwide. Currently, there is still no cure and AD is often diagnosed long time after onset because there is no clear diagnosis. Thus, it is essential to study the physiology and pathogenesis of AD, investigating the risk factors that could be strongly connected to the disease onset. Despite AD, like other complex diseases, is the result of the combination of several factors, there is emerging agreement that environmental pollution should play a pivotal role in the causes of disease. In this work, we implemented an Artificial Intelligence model to predict AD mortality, expressed as Standardized Mortality Ratio, at Italian provincial level over 5 years. We employed a set of publicly available variables concerning pollution, health, society and economy to feed a Random Forest algorithm. Using methods based on eXplainable Artificial Intelligence (XAI) we found that air pollution (mainly O3 and NO2) contribute the most to AD mortality prediction. These results could help to shed light on the etiology of Alzheimer’s disease and to confirm the urgent need to further investigate the relationship between the environment and the disease. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -20811,45 +20891,45 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>machine learning and xai approaches highlight the strong connection between o3 and no2 pollutants and alzheimer’s disease</t>
+          <t>machine learning explanations by design: a case study explaining the predicted degradation of a roto-dynamic pump</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Fania A.; Monaco A.; Amoroso N.; Bellantuono L.; Cazzolla Gatti R.; Firza N.; Lacalamita A.; Pantaleo E.; Tangaro S.; Velichevskaya A.; Bellotti R.</t>
+          <t>Amin O.; Brown B.; Stephen B.; McArthur S.; Livina V.</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Scientific Reports</t>
+          <t>19th International Conference on Condition Monitoring and Asset Management, CM 2023</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Alzheimer’s disease (AD) is the most common type of dementia with millions of affected patients worldwide. Currently, there is still no cure and AD is often diagnosed long time after onset because there is no clear diagnosis. Thus, it is essential to study the physiology and pathogenesis of AD, investigating the risk factors that could be strongly connected to the disease onset. Despite AD, like other complex diseases, is the result of the combination of several factors, there is emerging agreement that environmental pollution should play a pivotal role in the causes of disease. In this work, we implemented an Artificial Intelligence model to predict AD mortality, expressed as Standardized Mortality Ratio, at Italian provincial level over 5 years. We employed a set of publicly available variables concerning pollution, health, society and economy to feed a Random Forest algorithm. Using methods based on eXplainable Artificial Intelligence (XAI) we found that air pollution (mainly O3 and NO2) contribute the most to AD mortality prediction. These results could help to shed light on the etiology of Alzheimer’s disease and to confirm the urgent need to further investigate the relationship between the environment and the disease. © The Author(s) 2024.</t>
+          <t>The field of explainable Artificial Intelligence (AI) has gained growing attention over the last few years due to the potential for making accurate data-based predictions of asset health. One of the current research aims in AI is to address challenges associated with adopting machine learning (ML) (i.e., data-driven) AI – that is, understanding how and why ML predictions are made. Despite ML models successfully providing accurate predictions in many applications, such as condition monitoring, there are still concerns about the transparency of the prediction-making process. Therefore, ensuring that the models used are explainable to human users is essential to build trust in the approaches proposed. Consequently, AI and ML practitioners need to be able to evaluate any available eXplainable AI (XAI) tools’ suitability for their intended domain and end users, while simultaneously being aware of the tools’ limitations. This paper provides insight into various existing XAI approaches and their limitations to be considered by practitioners in condition monitoring applications during the design process for an ML-based prediction. The aim is to assist practitioners in engineering applications in building interpretable and explainable models intended for end users who wish to improve a system’s reliability and help users make better-informed decisions based upon a predictive ML algorithm output. It also emphasizes the importance of explainability in AI. The paper applies some of these tools to an explainability use case in which real condition monitoring data is used to predict the degradation of a roto-dynamic pump. Additionally, potential avenues are explored to enhance the credibility of explanations generated by XAI tools in condition monitoring applications, aiming to offer more reliable explanations to domain experts. Copyright © 2023 International Conference on Condition Monitoring and Asset Management</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>10.1038/s41598-024-55439-1</t>
+          <t>10.1784/cm2023.2d3</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
@@ -20865,34 +20945,34 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>machine learning explanations by design: a case study explaining the predicted degradation of a roto-dynamic pump</t>
+          <t>machine learning in medicine: to explain, or not to explain, that is the question</t>
         </is>
       </c>
       <c r="C478" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Amin O.; Brown B.; Stephen B.; McArthur S.; Livina V.</t>
+          <t>Bousquet C.; Beltramin D.</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>19th International Conference on Condition Monitoring and Asset Management, CM 2023</t>
+          <t>Studies in Health Technology and Informatics</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>The field of explainable Artificial Intelligence (AI) has gained growing attention over the last few years due to the potential for making accurate data-based predictions of asset health. One of the current research aims in AI is to address challenges associated with adopting machine learning (ML) (i.e., data-driven) AI – that is, understanding how and why ML predictions are made. Despite ML models successfully providing accurate predictions in many applications, such as condition monitoring, there are still concerns about the transparency of the prediction-making process. Therefore, ensuring that the models used are explainable to human users is essential to build trust in the approaches proposed. Consequently, AI and ML practitioners need to be able to evaluate any available eXplainable AI (XAI) tools’ suitability for their intended domain and end users, while simultaneously being aware of the tools’ limitations. This paper provides insight into various existing XAI approaches and their limitations to be considered by practitioners in condition monitoring applications during the design process for an ML-based prediction. The aim is to assist practitioners in engineering applications in building interpretable and explainable models intended for end users who wish to improve a system’s reliability and help users make better-informed decisions based upon a predictive ML algorithm output. It also emphasizes the importance of explainability in AI. The paper applies some of these tools to an explainability use case in which real condition monitoring data is used to predict the degradation of a roto-dynamic pump. Additionally, potential avenues are explored to enhance the credibility of explanations generated by XAI tools in condition monitoring applications, aiming to offer more reliable explanations to domain experts. Copyright © 2023 International Conference on Condition Monitoring and Asset Management</t>
+          <t>In 2022, the Medical Informatics Europe conference created a special topic called 'Challenges of trustable AI and added-value on health' which was centered around the theme of eXplainable Artificial Intelligence. Unfortunately, two opposite views remain for biomedical applications of machine learning: accepting to use reliable but opaque models, vs. enforce models to be explainable. In this contribution we discuss these two opposite approaches and illustrate with examples the differences between them.  © 2022 European Federation for Medical Informatics (EFMI) and IOS Press.</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>10.1784/cm2023.2d3</t>
+          <t>10.3233/SHTI220407</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
@@ -20908,11 +20988,11 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>machine learning in medicine: to explain, or not to explain, that is the question</t>
+          <t>machine learning in postgenomic biology and personalized medicine</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -20920,22 +21000,22 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Bousquet C.; Beltramin D.</t>
+          <t>Ray A.</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Studies in Health Technology and Informatics</t>
+          <t>Wiley Interdisciplinary Reviews: Data Mining and Knowledge Discovery</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>In 2022, the Medical Informatics Europe conference created a special topic called 'Challenges of trustable AI and added-value on health' which was centered around the theme of eXplainable Artificial Intelligence. Unfortunately, two opposite views remain for biomedical applications of machine learning: accepting to use reliable but opaque models, vs. enforce models to be explainable. In this contribution we discuss these two opposite approaches and illustrate with examples the differences between them.  © 2022 European Federation for Medical Informatics (EFMI) and IOS Press.</t>
+          <t>In recent years, machine learning (ML) has been revolutionizing biology, biomedical sciences, and gene-based agricultural technology capabilities. Massive data generated in biological sciences by rapid and deep gene sequencing and protein or other molecular structure determination, on the one hand, require data analysis capabilities using ML that are distinctly different from classical statistical methods; on the other, these large datasets are enabling the adoption of novel data-intensive ML algorithms for the solution of biological problems that until recently had relied on mechanistic model-based approaches that are computationally expensive. This review provides a bird's eye view of the applications of ML in postgenomic biology. Attempt is also made to indicate as far as possible the areas of research that are poised to make further impacts in these areas, including the importance of explainable artificial intelligence in human health. Further contributions of ML are expected to transform medicine, public health, agricultural technology, as well as to provide invaluable gene-based guidance for the management of complex environments in this age of global warming. This article is categorized under: Technologies &gt; Machine Learning Technologies &gt; Artificial Intelligence Technologies &gt; Prediction. © 2022 Wiley Periodicals LLC.</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>10.3233/SHTI220407</t>
+          <t>10.1002/widm.1451</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
@@ -20945,40 +21025,40 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>machine learning in postgenomic biology and personalized medicine</t>
+          <t>machine learning models predict fatal myocardial infarction within 10-years followup utilizing explainable ai</t>
         </is>
       </c>
       <c r="C480" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Ray A.</t>
+          <t>Tsarapatsani K.-H.; Sakellarios A.; Tsakanikas V.D.; Kleber M.; Marz W.; Fotiadis D.I.</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Wiley Interdisciplinary Reviews: Data Mining and Knowledge Discovery</t>
+          <t>Proceedings - 2023 IEEE 23rd International Conference on Bioinformatics and Bioengineering, BIBE 2023</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>In recent years, machine learning (ML) has been revolutionizing biology, biomedical sciences, and gene-based agricultural technology capabilities. Massive data generated in biological sciences by rapid and deep gene sequencing and protein or other molecular structure determination, on the one hand, require data analysis capabilities using ML that are distinctly different from classical statistical methods; on the other, these large datasets are enabling the adoption of novel data-intensive ML algorithms for the solution of biological problems that until recently had relied on mechanistic model-based approaches that are computationally expensive. This review provides a bird's eye view of the applications of ML in postgenomic biology. Attempt is also made to indicate as far as possible the areas of research that are poised to make further impacts in these areas, including the importance of explainable artificial intelligence in human health. Further contributions of ML are expected to transform medicine, public health, agricultural technology, as well as to provide invaluable gene-based guidance for the management of complex environments in this age of global warming. This article is categorized under: Technologies &gt; Machine Learning Technologies &gt; Artificial Intelligence Technologies &gt; Prediction. © 2022 Wiley Periodicals LLC.</t>
+          <t>Fatal myocardial infarction (MI) is one of the most common types of cardiovascular diseases that often presents in the emergency department. The prediction of death caused by myocardial infarction within 10-years follow-up is addressed in this study, using comorbidities, daily habits, clinical and laboratory data in binary and continuous data respectively. The used data are included in a cohort of the Ludwigshafen Risk and Cardiovascular Health (LURIC) study. The target feature, namely death caused by MI, contained 106 deceased patients and 2,321 alive patients in the final used dataset. The analysis was based on machine learning models (ML), such as support vector machine (SVM), light gradient-boosting machine (LGBM), Random Forest (RF), Decision Tree (DT). Their performance was estimated by Area Under Receiver Operating Characteristic Curve (AUC), Sensitivity, Specificity, Precision and Accuracy. Results show that LGBM was the most suitable of the aforementioned models to predict death caused by myocardial infarction within 10-years follow-up, achieving area under the curve (AUC) value equal to 77.03 %, accuracy 69.42 %, sensitivity 69.75 %, specificity 69.40% and precision 53.76 %. In addition, explainable artificial intelligence (xAI) was utilized and especially SHapley Additive exPlanations (SHAP) was the selected method. SHAP was utilized in order to shed light on the results, applying the LGBM model as the best predictive model. The provided SHAP plots contribute to the interpretation of how each independent feature aid to the final prediction. © 2023 IEEE.</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>10.1002/widm.1451</t>
+          <t>10.1109/BIBE60311.2023.00059</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
@@ -20988,40 +21068,40 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>machine learning models predict fatal myocardial infarction within 10-years followup utilizing explainable ai</t>
+          <t>machine learning models to predict myocardial infarction within 10-years follow-up of cardiovascular disease progression</t>
         </is>
       </c>
       <c r="C481" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Tsarapatsani K.-H.; Sakellarios A.; Tsakanikas V.D.; Kleber M.; Marz W.; Fotiadis D.I.</t>
+          <t>Tsarapatsani K.-H.; Sakellarios A.; Pezoulas V.C.; Tsakanikas V.D.; Matsopoulos G.K.; Marz W.; Kleber M.; Fotiadis D.I.</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Proceedings - 2023 IEEE 23rd International Conference on Bioinformatics and Bioengineering, BIBE 2023</t>
+          <t>BHI-BSN 2022 - IEEE-EMBS International Conference on Biomedical and Health Informatics and IEEE-EMBS International Conference on Wearable and Implantable Body Sensor Networks, Symposium Proceedings</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Fatal myocardial infarction (MI) is one of the most common types of cardiovascular diseases that often presents in the emergency department. The prediction of death caused by myocardial infarction within 10-years follow-up is addressed in this study, using comorbidities, daily habits, clinical and laboratory data in binary and continuous data respectively. The used data are included in a cohort of the Ludwigshafen Risk and Cardiovascular Health (LURIC) study. The target feature, namely death caused by MI, contained 106 deceased patients and 2,321 alive patients in the final used dataset. The analysis was based on machine learning models (ML), such as support vector machine (SVM), light gradient-boosting machine (LGBM), Random Forest (RF), Decision Tree (DT). Their performance was estimated by Area Under Receiver Operating Characteristic Curve (AUC), Sensitivity, Specificity, Precision and Accuracy. Results show that LGBM was the most suitable of the aforementioned models to predict death caused by myocardial infarction within 10-years follow-up, achieving area under the curve (AUC) value equal to 77.03 %, accuracy 69.42 %, sensitivity 69.75 %, specificity 69.40% and precision 53.76 %. In addition, explainable artificial intelligence (xAI) was utilized and especially SHapley Additive exPlanations (SHAP) was the selected method. SHAP was utilized in order to shed light on the results, applying the LGBM model as the best predictive model. The provided SHAP plots contribute to the interpretation of how each independent feature aid to the final prediction. © 2023 IEEE.</t>
+          <t>The early prevention of myocardial infarction (MI), a complication of cardiovascular disease (CVD), is an urgent need for the timely provision of medical intervention and the reduction of cardiovascular mortality. The performance of machine learning (ML) has proven useful in aiding the early diagnosis of this disease. In this work, we utilize clinical cardiovascular disease risk factors and biochemical data, employing machine learning models i.e. Random Forest (RF), Extreme Grading Boosting (XGBoost) and Adaptive Boosting (AdaBoost), to predict the 10-year risk of myocardial infarction in patients with 10-years follow-up for CVD. We used the cohort of the Ludwigshafen Risk and Cardiovascular Health (LURIC) study, while 3267 patients were included in the analysis (1361 suffered from MI). We calculated the performance of machine learning models, more specifically the mean values of Accuracy (ACC), Sensitivity, Specificity and the area under the receiver operating characteristic curve (AUC) of each model. We also plotted the corresponding receiver operating characteristic curve for each model. The findings of the analysis reveal that the Extreme Gradient Boosting model detects MI with the highest accuracy (74.27 %). Moreover, explainable artificial intelligence was applied, especially the Shapley values were calculated to identify the most important features and interpret the results with XGBoost.  © 2022 IEEE.</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>10.1109/BIBE60311.2023.00059</t>
+          <t>10.1109/BHI56158.2022.9926803</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
@@ -21031,40 +21111,40 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>machine learning models to predict myocardial infarction within 10-years follow-up of cardiovascular disease progression</t>
+          <t>machine learning to predict curative multidisciplinary team treatment decisions in oesophageal cancer</t>
         </is>
       </c>
       <c r="C482" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Tsarapatsani K.-H.; Sakellarios A.; Pezoulas V.C.; Tsakanikas V.D.; Matsopoulos G.K.; Marz W.; Kleber M.; Fotiadis D.I.</t>
+          <t>Thavanesan N.; Bodala I.; Walters Z.; Ramchurn S.; Underwood T.J.; Vigneswaran G.</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>BHI-BSN 2022 - IEEE-EMBS International Conference on Biomedical and Health Informatics and IEEE-EMBS International Conference on Wearable and Implantable Body Sensor Networks, Symposium Proceedings</t>
+          <t>European Journal of Surgical Oncology</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>The early prevention of myocardial infarction (MI), a complication of cardiovascular disease (CVD), is an urgent need for the timely provision of medical intervention and the reduction of cardiovascular mortality. The performance of machine learning (ML) has proven useful in aiding the early diagnosis of this disease. In this work, we utilize clinical cardiovascular disease risk factors and biochemical data, employing machine learning models i.e. Random Forest (RF), Extreme Grading Boosting (XGBoost) and Adaptive Boosting (AdaBoost), to predict the 10-year risk of myocardial infarction in patients with 10-years follow-up for CVD. We used the cohort of the Ludwigshafen Risk and Cardiovascular Health (LURIC) study, while 3267 patients were included in the analysis (1361 suffered from MI). We calculated the performance of machine learning models, more specifically the mean values of Accuracy (ACC), Sensitivity, Specificity and the area under the receiver operating characteristic curve (AUC) of each model. We also plotted the corresponding receiver operating characteristic curve for each model. The findings of the analysis reveal that the Extreme Gradient Boosting model detects MI with the highest accuracy (74.27 %). Moreover, explainable artificial intelligence was applied, especially the Shapley values were calculated to identify the most important features and interpret the results with XGBoost.  © 2022 IEEE.</t>
+          <t>Background: Rising workflow pressures within the oesophageal cancer (OC) multidisciplinary team (MDT) can lead to variability in decision-making, and health inequality. Machine learning (ML) offers a potential automated data-driven approach to address inconsistency and standardize care. The aim of this experimental pilot study was to develop ML models able to predict curative OC MDT treatment decisions and determine the relative importance of underlying decision-critical variables. Methods: Retrospective complete-case analysis of oesophagectomy patients ± neoadjuvant chemotherapy (NACT) or chemoradiotherapy (NACRT) between 2010 and 2020. Established ML algorithms (Multinomial Logistic regression (MLR), Random Forests (RF), Extreme Gradient Boosting (XGB)) and Decision Tree (DT) were used to train models predicting OC MDT treatment decisions: surgery (S), NACT + S or NACRT + S. Performance metrics included Area Under the Curve (AUC), Accuracy, Kappa, LogLoss, F1 and Precision -Recall AUC. Variable importance was calculated for each model. Results: We identified 399 cases with a male-to-female ratio of 3.6:1 and median age of 66.1yrs (range 32–83). MLR outperformed RF, XGB and DT across performance metrics (mean AUC of 0.793 [±0.045] vs 0.757 [±0.068], 0.740 [±0.042], and 0.709 [±0.021] respectively). Variable importance analysis identified age as a major factor in the decision to offer surgery alone or NACT + S across models (p &lt; 0.05). Conclusions: ML techniques can use limited feature-sets to predict curative UGI MDT treatment decisions. Explainable Artificial Intelligence methods provide insight into decision-critical variables, highlighting underlying subconscious biases in cancer care decision-making. Such models may allow prioritization of caseload, improve efficiency, and offer data-driven decision-assistance to MDTs in the future. © 2023 The Author(s)</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>10.1109/BHI56158.2022.9926803</t>
+          <t>10.1016/j.ejso.2023.106986</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -21080,11 +21160,11 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>machine learning to predict curative multidisciplinary team treatment decisions in oesophageal cancer</t>
+          <t>machine learning-based clinical decision support systems for pregnancy care: a systematic review</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -21092,22 +21172,22 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Thavanesan N.; Bodala I.; Walters Z.; Ramchurn S.; Underwood T.J.; Vigneswaran G.</t>
+          <t>Du Y.; McNestry C.; Wei L.; Antoniadi A.M.; McAuliffe F.M.; Mooney C.</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>European Journal of Surgical Oncology</t>
+          <t>International Journal of Medical Informatics</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Background: Rising workflow pressures within the oesophageal cancer (OC) multidisciplinary team (MDT) can lead to variability in decision-making, and health inequality. Machine learning (ML) offers a potential automated data-driven approach to address inconsistency and standardize care. The aim of this experimental pilot study was to develop ML models able to predict curative OC MDT treatment decisions and determine the relative importance of underlying decision-critical variables. Methods: Retrospective complete-case analysis of oesophagectomy patients ± neoadjuvant chemotherapy (NACT) or chemoradiotherapy (NACRT) between 2010 and 2020. Established ML algorithms (Multinomial Logistic regression (MLR), Random Forests (RF), Extreme Gradient Boosting (XGB)) and Decision Tree (DT) were used to train models predicting OC MDT treatment decisions: surgery (S), NACT + S or NACRT + S. Performance metrics included Area Under the Curve (AUC), Accuracy, Kappa, LogLoss, F1 and Precision -Recall AUC. Variable importance was calculated for each model. Results: We identified 399 cases with a male-to-female ratio of 3.6:1 and median age of 66.1yrs (range 32–83). MLR outperformed RF, XGB and DT across performance metrics (mean AUC of 0.793 [±0.045] vs 0.757 [±0.068], 0.740 [±0.042], and 0.709 [±0.021] respectively). Variable importance analysis identified age as a major factor in the decision to offer surgery alone or NACT + S across models (p &lt; 0.05). Conclusions: ML techniques can use limited feature-sets to predict curative UGI MDT treatment decisions. Explainable Artificial Intelligence methods provide insight into decision-critical variables, highlighting underlying subconscious biases in cancer care decision-making. Such models may allow prioritization of caseload, improve efficiency, and offer data-driven decision-assistance to MDTs in the future. © 2023 The Author(s)</t>
+          <t>Background: Clinical decision support systems (CDSSs) can provide various functions and advantages to healthcare delivery. Quality healthcare during pregnancy and childbirth is of vital importance, and machine learning-based CDSSs have shown positive impact on pregnancy care. Objective: This paper aims to investigate what has been done in CDSSs in the context of pregnancy care using machine learning, and what aspects require attention from future researchers. Methods: We conducted a systematic review of existing literature following a structured process of literature search, paper selection and filtering, and data extraction and synthesis. Results: 17 research papers were identified on the topic of CDSS development for different aspects of pregnancy care using various machine learning algorithms. We discovered an overall lack of explainability in the proposed models. We also observed a lack of experimentation, external validation and discussion around culture, ethnicity and race from the source data, with most studies using data from a single centre or country, and an overall lack of awareness of applicability and generalisability of the CDSSs regarding different populations. Finally, we found a gap between machine learning practices and CDSS implementation, and an overall lack of user testing. Conclusion: Machine learning-based CDSSs are still under-explored in the context of pregnancy care. Despite the open problems that remain, the few studies that tested a CDSS for pregnancy care reported positive effects, reinforcing the potential of such systems to improve clinical practice. We encourage future researchers to take into consideration the aspects we identified in order for their work to translate into clinical use. © 2023 The Author(s)</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>10.1016/j.ejso.2023.106986</t>
+          <t>10.1016/j.ijmedinf.2023.105040</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -21117,60 +21197,60 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>machine learning-based clinical decision support systems for pregnancy care: a systematic review</t>
+          <t>machine learning-based hospital discharge prediction for patients with cardiovascular diseases: development and usability study</t>
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Du Y.; McNestry C.; Wei L.; Antoniadi A.M.; McAuliffe F.M.; Mooney C.</t>
+          <t>Ahn, I; Gwon, H; Kang, H; Kim, Y; Seo, H; Choi, H; Cho, HN; Kim, M; Jun, TJ; Kim, YH</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>International Journal of Medical Informatics</t>
+          <t>JMIR MEDICAL INFORMATICS</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Background: Clinical decision support systems (CDSSs) can provide various functions and advantages to healthcare delivery. Quality healthcare during pregnancy and childbirth is of vital importance, and machine learning-based CDSSs have shown positive impact on pregnancy care. Objective: This paper aims to investigate what has been done in CDSSs in the context of pregnancy care using machine learning, and what aspects require attention from future researchers. Methods: We conducted a systematic review of existing literature following a structured process of literature search, paper selection and filtering, and data extraction and synthesis. Results: 17 research papers were identified on the topic of CDSS development for different aspects of pregnancy care using various machine learning algorithms. We discovered an overall lack of explainability in the proposed models. We also observed a lack of experimentation, external validation and discussion around culture, ethnicity and race from the source data, with most studies using data from a single centre or country, and an overall lack of awareness of applicability and generalisability of the CDSSs regarding different populations. Finally, we found a gap between machine learning practices and CDSS implementation, and an overall lack of user testing. Conclusion: Machine learning-based CDSSs are still under-explored in the context of pregnancy care. Despite the open problems that remain, the few studies that tested a CDSS for pregnancy care reported positive effects, reinforcing the potential of such systems to improve clinical practice. We encourage future researchers to take into consideration the aspects we identified in order for their work to translate into clinical use. © 2023 The Author(s)</t>
+          <t>Background: Effective resource management in hospitals can improve the quality of medical services by reducing labor-intensive burdens on staff, decreasing inpatient waiting time, and securing the optimal treatment time. The use of hospital processes requires effective bed management; a stay in the hospital that is longer than the optimal treatment time hinders bed management. Therefore, predicting a patient's hospitalization period may support the making of judicious decisions regarding bed management. Objective: First, this study aims to develop a machine learning (ML)-based predictive model for predicting the discharge probability of inpatients with cardiovascular diseases (CVDs). Second, we aim to assess the outcome of the predictive model and explain the primary risk factors of inpatients for patient-specific care. Finally, we aim to evaluate whether our ML-based predictive model helps manage bed scheduling efficiently and detects long-term inpatients in advance to improve the use of hospital processes and enhance the quality of medical services. Methods: We set up the cohort criteria and extracted the data from CardioNet, a manually curated database that specializes in CVDs. We processed the data to create a suitable data set by reindexing the date-index, integrating the present features with past features from the previous 3 years, and imputing missing values. Subsequently, we trained the ML-based predictive models and evaluated them to find an elaborate model. Finally, we predicted the discharge probability within 3 days and explained the outcomes of the model by identifying, quantifying, and visualizing its features. Results: We experimented with 5 ML-based models using 5 cross-validations. Extreme gradient boosting, which was selected as the final model, accomplished an average area under the receiver operating characteristic curve score that was 0.865 higher than that of the other models (ie, logistic regression, random forest, support vector machine, and multilayer perceptron). Furthermore, we performed feature reduction, represented the feature importance, and assessed prediction outcomes. One of the outcomes, the individual explainer, provides a discharge score during hospitalization and a daily feature influence score to the medical team and patients. Finally, we visualized simulated bed management to use the outcomes. Conclusions: In this study, we propose an individual explainer based on an ML-based predictive model, which provides the discharge probability and relative contributions of individual features. Our model can assist medical teams and patients in identifying individual and common risk factors in CVDs and can support hospital administrators in improving the management of hospital beds and other resources.</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>10.1016/j.ijmedinf.2023.105040</t>
+          <t>10.2196/32662</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>machine learning-based hospital discharge prediction for patients with cardiovascular diseases: development and usability study</t>
+          <t>machine learning-based hospital discharge prediction for patients with cardiovascular diseases:development and usability study</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -21178,17 +21258,17 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Ahn, I; Gwon, H; Kang, H; Kim, Y; Seo, H; Choi, H; Cho, HN; Kim, M; Jun, TJ; Kim, YH</t>
+          <t>Ahn I.; Gwon H.; Kang H.; Kim Y.; Seo H.; Choi H.; Cho H.N.; Kim M.; Jun T.J.; Kim Y.-H.</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>JMIR MEDICAL INFORMATICS</t>
+          <t>JMIR Medical Informatics</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Background: Effective resource management in hospitals can improve the quality of medical services by reducing labor-intensive burdens on staff, decreasing inpatient waiting time, and securing the optimal treatment time. The use of hospital processes requires effective bed management; a stay in the hospital that is longer than the optimal treatment time hinders bed management. Therefore, predicting a patient's hospitalization period may support the making of judicious decisions regarding bed management. Objective: First, this study aims to develop a machine learning (ML)-based predictive model for predicting the discharge probability of inpatients with cardiovascular diseases (CVDs). Second, we aim to assess the outcome of the predictive model and explain the primary risk factors of inpatients for patient-specific care. Finally, we aim to evaluate whether our ML-based predictive model helps manage bed scheduling efficiently and detects long-term inpatients in advance to improve the use of hospital processes and enhance the quality of medical services. Methods: We set up the cohort criteria and extracted the data from CardioNet, a manually curated database that specializes in CVDs. We processed the data to create a suitable data set by reindexing the date-index, integrating the present features with past features from the previous 3 years, and imputing missing values. Subsequently, we trained the ML-based predictive models and evaluated them to find an elaborate model. Finally, we predicted the discharge probability within 3 days and explained the outcomes of the model by identifying, quantifying, and visualizing its features. Results: We experimented with 5 ML-based models using 5 cross-validations. Extreme gradient boosting, which was selected as the final model, accomplished an average area under the receiver operating characteristic curve score that was 0.865 higher than that of the other models (ie, logistic regression, random forest, support vector machine, and multilayer perceptron). Furthermore, we performed feature reduction, represented the feature importance, and assessed prediction outcomes. One of the outcomes, the individual explainer, provides a discharge score during hospitalization and a daily feature influence score to the medical team and patients. Finally, we visualized simulated bed management to use the outcomes. Conclusions: In this study, we propose an individual explainer based on an ML-based predictive model, which provides the discharge probability and relative contributions of individual features. Our model can assist medical teams and patients in identifying individual and common risk factors in CVDs and can support hospital administrators in improving the management of hospital beds and other resources.</t>
+          <t>Background: Effective resource management in hospitals can improve the quality of medical services by reducing labor-intensive burdens on staff, decreasing inpatient waiting time, and securing the optimal treatment time. The use of hospital processes requires effective bed management; a stay in the hospital that is longer than the optimal treatment time hinders bed management. Therefore, predicting a patient's hospitalization period may support the making of judicious decisions regarding bed management. Objective: First, this study aims to develop a machine learning (ML)-based predictive model for predicting the discharge probability of inpatients with cardiovascular diseases (CVDs). Second, we aim to assess the outcome of the predictive model and explain the primary risk factors of inpatients for patient-specific care. Finally, we aim to evaluate whether our ML-based predictive model helps manage bed scheduling efficiently and detects long-term inpatients in advance to improve the use of hospital processes and enhance the quality of medical services. Methods: We set up the cohort criteria and extracted the data from CardioNet, a manually curated database that specializes in CVDs. We processed the data to create a suitable data set by reindexing the date-index, integrating the present features with past features from the previous 3 years, and imputing missing values. Subsequently, we trained the ML-based predictive models and evaluated them to find an elaborate model. Finally, we predicted the discharge probability within 3 days and explained the outcomes of the model by identifying, quantifying, and visualizing its features. Results: We experimented with 5 ML-based models using 5 cross-validations. Extreme gradient boosting, which was selected as the final model, accomplished an average area under the receiver operating characteristic curve score that was 0.865 higher than that of the other models (ie, logistic regression, random forest, support vector machine, and multilayer perceptron). Furthermore, we performed feature reduction, represented the feature importance, and assessed prediction outcomes. One of the outcomes, the individual explainer, provides a discharge score during hospitalization and a daily feature influence score to the medical team and patients. Finally, we visualized simulated bed management to use the outcomes. Conclusions: In this study, we propose an individual explainer based on an ML-based predictive model, which provides the discharge probability and relative contributions of individual features. Our model can assist medical teams and patients in identifying individual and common risk factors in CVDs and can support hospital administrators in improving the management of hospital beds and other resources. © 2021 Eesti Rakenduslingvistika Uhingu Aastaraamat. All rights reserved.</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -21198,131 +21278,131 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>machine learning-based hospital discharge prediction for patients with cardiovascular diseases:development and usability study</t>
+          <t>measuring alliance and symptom severity in psychotherapy transcripts using bert topic modeling</t>
         </is>
       </c>
       <c r="C486" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Ahn I.; Gwon H.; Kang H.; Kim Y.; Seo H.; Choi H.; Cho H.N.; Kim M.; Jun T.J.; Kim Y.-H.</t>
+          <t>Lalk C.; Steinbrenner T.; Kania W.; Popko A.; Wester R.; Schaffrath J.; Eberhardt S.; Schwartz B.; Lutz W.; Rubel J.</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>JMIR Medical Informatics</t>
+          <t>Administration and Policy in Mental Health and Mental Health Services Research</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Background: Effective resource management in hospitals can improve the quality of medical services by reducing labor-intensive burdens on staff, decreasing inpatient waiting time, and securing the optimal treatment time. The use of hospital processes requires effective bed management; a stay in the hospital that is longer than the optimal treatment time hinders bed management. Therefore, predicting a patient's hospitalization period may support the making of judicious decisions regarding bed management. Objective: First, this study aims to develop a machine learning (ML)-based predictive model for predicting the discharge probability of inpatients with cardiovascular diseases (CVDs). Second, we aim to assess the outcome of the predictive model and explain the primary risk factors of inpatients for patient-specific care. Finally, we aim to evaluate whether our ML-based predictive model helps manage bed scheduling efficiently and detects long-term inpatients in advance to improve the use of hospital processes and enhance the quality of medical services. Methods: We set up the cohort criteria and extracted the data from CardioNet, a manually curated database that specializes in CVDs. We processed the data to create a suitable data set by reindexing the date-index, integrating the present features with past features from the previous 3 years, and imputing missing values. Subsequently, we trained the ML-based predictive models and evaluated them to find an elaborate model. Finally, we predicted the discharge probability within 3 days and explained the outcomes of the model by identifying, quantifying, and visualizing its features. Results: We experimented with 5 ML-based models using 5 cross-validations. Extreme gradient boosting, which was selected as the final model, accomplished an average area under the receiver operating characteristic curve score that was 0.865 higher than that of the other models (ie, logistic regression, random forest, support vector machine, and multilayer perceptron). Furthermore, we performed feature reduction, represented the feature importance, and assessed prediction outcomes. One of the outcomes, the individual explainer, provides a discharge score during hospitalization and a daily feature influence score to the medical team and patients. Finally, we visualized simulated bed management to use the outcomes. Conclusions: In this study, we propose an individual explainer based on an ML-based predictive model, which provides the discharge probability and relative contributions of individual features. Our model can assist medical teams and patients in identifying individual and common risk factors in CVDs and can support hospital administrators in improving the management of hospital beds and other resources. © 2021 Eesti Rakenduslingvistika Uhingu Aastaraamat. All rights reserved.</t>
+          <t>We aim to use topic modeling, an approach for discovering clusters of related words (“topics”), to predict symptom severity and therapeutic alliance in psychotherapy transcripts, while also identifying the most important topics and overarching themes for prediction. We analyzed 552 psychotherapy transcripts from 124 patients. Using BERTopic (Grootendorst, 2022), we extracted 250 topics each for patient and therapist speech. These topics were used to predict symptom severity and alliance with various competing machine-learning methods. Sensitivity analyses were calculated for a model based on 50 topics, LDA-based topic modeling, and a bigram model. Additionally, we grouped topics into themes using qualitative analysis and identified key topics and themes with eXplainable Artificial Intelligence (XAI). Symptom severity could be predicted with highest accuracy by patient topics (r=0.45, 95%-CI 0.40, 0.51), whereas alliance was better predicted by therapist topics (r=0.20, 95%-CI 0.16, 0.24). Drivers for symptom severity were themes related to health and negative experiences. Lower alliance was correlated with various themes, especially psychotherapy framework, income, and everyday life. This analysis shows the potential of using topic modeling in psychotherapy research allowing to predict several treatment-relevant metrics with reasonable accuracy. Further, the use of XAI allows for an analysis of the individual predictive value of topics and themes. Limitations entail heterogeneity across different topic modeling hyperparameters and a relatively small sample size. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>10.2196/32662</t>
+          <t>10.1007/s10488-024-01356-4</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Article in press</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>measuring alliance and symptom severity in psychotherapy transcripts using bert topic modeling</t>
+          <t>medical report analysis using explainable ai</t>
         </is>
       </c>
       <c r="C487" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Lalk C.; Steinbrenner T.; Kania W.; Popko A.; Wester R.; Schaffrath J.; Eberhardt S.; Schwartz B.; Lutz W.; Rubel J.</t>
+          <t>Lokesh G.; Kavya Tejaswy T.; Sai Meghana Y.; Kameswara Rao M.</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Administration and Policy in Mental Health and Mental Health Services Research</t>
+          <t>Lecture Notes in Electrical Engineering</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>We aim to use topic modeling, an approach for discovering clusters of related words (“topics”), to predict symptom severity and therapeutic alliance in psychotherapy transcripts, while also identifying the most important topics and overarching themes for prediction. We analyzed 552 psychotherapy transcripts from 124 patients. Using BERTopic (Grootendorst, 2022), we extracted 250 topics each for patient and therapist speech. These topics were used to predict symptom severity and alliance with various competing machine-learning methods. Sensitivity analyses were calculated for a model based on 50 topics, LDA-based topic modeling, and a bigram model. Additionally, we grouped topics into themes using qualitative analysis and identified key topics and themes with eXplainable Artificial Intelligence (XAI). Symptom severity could be predicted with highest accuracy by patient topics (r=0.45, 95%-CI 0.40, 0.51), whereas alliance was better predicted by therapist topics (r=0.20, 95%-CI 0.16, 0.24). Drivers for symptom severity were themes related to health and negative experiences. Lower alliance was correlated with various themes, especially psychotherapy framework, income, and everyday life. This analysis shows the potential of using topic modeling in psychotherapy research allowing to predict several treatment-relevant metrics with reasonable accuracy. Further, the use of XAI allows for an analysis of the individual predictive value of topics and themes. Limitations entail heterogeneity across different topic modeling hyperparameters and a relatively small sample size. © The Author(s) 2024.</t>
+          <t>Nowadays health issues are the most significant causes of mortality in the world today. Prediction of any disease is a difficult challenge in the area of medical data analysis. Machine learning (ML) has been demonstrated to be successful in helping with settling on decisions and predictions from the huge amount of information delivered by the medical services industry. In addition to that explainable AI helps the user knowing more about the results. XAI gives artificial intelligence to expand cognitive abilities and it needs very high-level communication with the user. Also, the deep learning models are an important part of an explainable artificial intelligence approach. We are approaching a method that aims at finding significant features by applying machine learning techniques resulting in improving the accuracy in the prediction of health issues. The prediction model is presented with various blends of highlights and a few known grouping procedures. We produce an upgraded execution level with an accuracy level of 84.61% through the prediction model disease with random forest algorithm. Clinical choices are regularly made dependent on specialist’s experience and instinct as opposed to on the information-rich covered up in the information. This prompts blunders and numerous costs that influence the nature of clinical administrations. Utilizing scientific instruments and information displayed can help in upgrading clinical choices. In this way, the objective here is to assemble a web application to help patients with health difficulties of heart, liver, kidney, cancer, diabetes. © 2022, The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd.</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>10.1007/s10488-024-01356-4</t>
+          <t>10.1007/978-981-16-7985-8_113</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Article in press</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>medical report analysis using explainable ai</t>
+          <t>medmetaverse: medical care of chronic disease patients and managing data using artificial intelligence, blockchain, and wearable devices state-of-the-art methodology</t>
         </is>
       </c>
       <c r="C488" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Lokesh G.; Kavya Tejaswy T.; Sai Meghana Y.; Kameswara Rao M.</t>
+          <t>Murala D.K.; Panda S.K.; Dash S.P.</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Lecture Notes in Electrical Engineering</t>
+          <t>IEEE Access</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Nowadays health issues are the most significant causes of mortality in the world today. Prediction of any disease is a difficult challenge in the area of medical data analysis. Machine learning (ML) has been demonstrated to be successful in helping with settling on decisions and predictions from the huge amount of information delivered by the medical services industry. In addition to that explainable AI helps the user knowing more about the results. XAI gives artificial intelligence to expand cognitive abilities and it needs very high-level communication with the user. Also, the deep learning models are an important part of an explainable artificial intelligence approach. We are approaching a method that aims at finding significant features by applying machine learning techniques resulting in improving the accuracy in the prediction of health issues. The prediction model is presented with various blends of highlights and a few known grouping procedures. We produce an upgraded execution level with an accuracy level of 84.61% through the prediction model disease with random forest algorithm. Clinical choices are regularly made dependent on specialist’s experience and instinct as opposed to on the information-rich covered up in the information. This prompts blunders and numerous costs that influence the nature of clinical administrations. Utilizing scientific instruments and information displayed can help in upgrading clinical choices. In this way, the objective here is to assemble a web application to help patients with health difficulties of heart, liver, kidney, cancer, diabetes. © 2022, The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd.</t>
+          <t>The Metaverse is an online universe that combines virtual reality and augmented reality, linked together via a network.It has generated novel experiences that are fully engaging and transpire in real time, facilitating interpersonal communication and dialogue. Virtual environments with 3D space and avatars can boost patient-facing platforms, operational utilisation, digital education, diagnostics, and treatment choices in medicine and ophthalmology. Globally, there is an increasing prevalence of chronic diseases, with an estimated 25 percent of individuals presently contending with multiple chronic health issues. The management of chronic diseases is currently being rethought in light of the development of technology known together as 'Smart Healthcare.' A prime example is state-of-the-art wearable technology that incentivizes people to embrace healthier lifestyles through the monitoring of physiological indicators and metabolic processes. With better data organisation and analysis, chronic disease patients may benefit from improved health, privacy, and quality of life. Through the examination of physiological data acquired from wearable devices on a patient, Artificial Intelligence (AI) has the capability to generate informed recommendations pertaining to the diagnosis and treatment of illness. These recommendations can be provided by AI. The adoption of blockchain technology (BC) has the potential to significantly advance healthcare in a variety of ways, including decentralised data sharing, user privacy, user empowerment, and dependability in data administration. The potential impact of Wearable Technologies (WT), Artificial Intelligence (AI), and Blockchain Technology (BC) on Chronic Disease Management (CDM) could be a transition in emphasis from the hospital to the patient. This article provides a patient-centered technical framework for controlling chronic diseases using artificial intelligence, blockchain, and wearable technologies. Our proposed architecture depends on Metaverse environment. In order to participate in the Metaverse, both patients and physicians need to sign up on the Blockchain network. After entering, customers will be accompanied by avatars throughout the experience. A comprehensive record of all information gathered during doctor-patient consultations, including text, videos, images, audio, and clinical data, will be compiled, uploaded to the blockchain, and stored in perpetuity. Explainable Artificial Intelligence (XAI) algorithms examine these particulars in order to diagnose and forecast the progression of diseases. We conclude with a discussion of the constraints of this novel paradigm and recommendations for future research.  © 2013 IEEE.</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>10.1007/978-981-16-7985-8_113</t>
+          <t>10.1109/ACCESS.2023.3340791</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -21332,40 +21412,40 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>medmetaverse: medical care of chronic disease patients and managing data using artificial intelligence, blockchain, and wearable devices state-of-the-art methodology</t>
+          <t>mental health diagnosis: a case for explainable artificial intelligence</t>
         </is>
       </c>
       <c r="C489" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Murala D.K.; Panda S.K.; Dash S.P.</t>
+          <t>Antoniou G.; Papadakis E.; Baryannis G.</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>IEEE Access</t>
+          <t>International Journal on Artificial Intelligence Tools</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>The Metaverse is an online universe that combines virtual reality and augmented reality, linked together via a network.It has generated novel experiences that are fully engaging and transpire in real time, facilitating interpersonal communication and dialogue. Virtual environments with 3D space and avatars can boost patient-facing platforms, operational utilisation, digital education, diagnostics, and treatment choices in medicine and ophthalmology. Globally, there is an increasing prevalence of chronic diseases, with an estimated 25 percent of individuals presently contending with multiple chronic health issues. The management of chronic diseases is currently being rethought in light of the development of technology known together as 'Smart Healthcare.' A prime example is state-of-the-art wearable technology that incentivizes people to embrace healthier lifestyles through the monitoring of physiological indicators and metabolic processes. With better data organisation and analysis, chronic disease patients may benefit from improved health, privacy, and quality of life. Through the examination of physiological data acquired from wearable devices on a patient, Artificial Intelligence (AI) has the capability to generate informed recommendations pertaining to the diagnosis and treatment of illness. These recommendations can be provided by AI. The adoption of blockchain technology (BC) has the potential to significantly advance healthcare in a variety of ways, including decentralised data sharing, user privacy, user empowerment, and dependability in data administration. The potential impact of Wearable Technologies (WT), Artificial Intelligence (AI), and Blockchain Technology (BC) on Chronic Disease Management (CDM) could be a transition in emphasis from the hospital to the patient. This article provides a patient-centered technical framework for controlling chronic diseases using artificial intelligence, blockchain, and wearable technologies. Our proposed architecture depends on Metaverse environment. In order to participate in the Metaverse, both patients and physicians need to sign up on the Blockchain network. After entering, customers will be accompanied by avatars throughout the experience. A comprehensive record of all information gathered during doctor-patient consultations, including text, videos, images, audio, and clinical data, will be compiled, uploaded to the blockchain, and stored in perpetuity. Explainable Artificial Intelligence (XAI) algorithms examine these particulars in order to diagnose and forecast the progression of diseases. We conclude with a discussion of the constraints of this novel paradigm and recommendations for future research.  © 2013 IEEE.</t>
+          <t>Mental illnesses are becoming increasingly prevalent, in turn leading to an increased interest in exploring artificial intelligence (AI) solutions to facilitate and enhance healthcare processes ranging from diagnosis to monitoring and treatment. In contrast to application areas where black box systems may be acceptable, explainability in healthcare applications is essential, especially in the case of diagnosing complex and sensitive mental health issues. In this paper, we first summarize recent developments in AI research for mental health, followed by an overview of approaches to explainable AI and their potential benefits in healthcare settings. We then present a recent case study of applying explainable AI for ADHD diagnosis which is used as a basis to identify challenges in realizing explainable AI solutions for mental health diagnosis and potential future research directions to address these challenges.  © 2022 World Scientific Publishing Company.</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2023.3340791</t>
+          <t>10.1142/S0218213022410032</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
@@ -21381,34 +21461,34 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>mental health diagnosis: a case for explainable artificial intelligence</t>
+          <t>metaverse in healthcare integrated with explainable ai and blockchain: enabling immersiveness, ensuring trust, and providing patient data security</t>
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Antoniou G.; Papadakis E.; Baryannis G.</t>
+          <t>Ali S.; Abdullah; Armand T.P.T.; Athar A.; Hussain A.; Ali M.; Yaseen M.; Joo M.-I.; Kim H.-C.</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>International Journal on Artificial Intelligence Tools</t>
+          <t>Sensors</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Mental illnesses are becoming increasingly prevalent, in turn leading to an increased interest in exploring artificial intelligence (AI) solutions to facilitate and enhance healthcare processes ranging from diagnosis to monitoring and treatment. In contrast to application areas where black box systems may be acceptable, explainability in healthcare applications is essential, especially in the case of diagnosing complex and sensitive mental health issues. In this paper, we first summarize recent developments in AI research for mental health, followed by an overview of approaches to explainable AI and their potential benefits in healthcare settings. We then present a recent case study of applying explainable AI for ADHD diagnosis which is used as a basis to identify challenges in realizing explainable AI solutions for mental health diagnosis and potential future research directions to address these challenges.  © 2022 World Scientific Publishing Company.</t>
+          <t>Digitization and automation have always had an immense impact on healthcare. It embraces every new and advanced technology. Recently the world has witnessed the prominence of the metaverse which is an emerging technology in digital space. The metaverse has huge potential to provide a plethora of health services seamlessly to patients and medical professionals with an immersive experience. This paper proposes the amalgamation of artificial intelligence and blockchain in the metaverse to provide better, faster, and more secure healthcare facilities in digital space with a realistic experience. Our proposed architecture can be summarized as follows. It consists of three environments, namely the doctor’s environment, the patient’s environment, and the metaverse environment. The doctors and patients interact in a metaverse environment assisted by blockchain technology which ensures the safety, security, and privacy of data. The metaverse environment is the main part of our proposed architecture. The doctors, patients, and nurses enter this environment by registering on the blockchain and they are represented by avatars in the metaverse environment. All the consultation activities between the doctor and the patient will be recorded and the data, i.e., images, speech, text, videos, clinical data, etc., will be gathered, transferred, and stored on the blockchain. These data are used for disease prediction and diagnosis by explainable artificial intelligence (XAI) models. The GradCAM and LIME approaches of XAI provide logical reasoning for the prediction of diseases and ensure trust, explainability, interpretability, and transparency regarding the diagnosis and prediction of diseases. Blockchain technology provides data security for patients while enabling transparency, traceability, and immutability regarding their data. These features of blockchain ensure trust among the patients regarding their data. Consequently, this proposed architecture ensures transparency and trust regarding both the diagnosis of diseases and the data security of the patient. We also explored the building block technologies of the metaverse. Furthermore, we also investigated the advantages and challenges of a metaverse in healthcare. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>10.1142/S0218213022410032</t>
+          <t>10.3390/s23020565</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -21424,11 +21504,11 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>metaverse in healthcare integrated with explainable ai and blockchain: enabling immersiveness, ensuring trust, and providing patient data security</t>
+          <t>method to produce more reasonable candidate solutions with explanations in intelligent decision support systems</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -21436,22 +21516,22 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Ali S.; Abdullah; Armand T.P.T.; Athar A.; Hussain A.; Ali M.; Yaseen M.; Joo M.-I.; Kim H.-C.</t>
+          <t>Da Silva Oliveira F.R.; De Lima Neto F.B.</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Sensors</t>
+          <t>IEEE Access</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Digitization and automation have always had an immense impact on healthcare. It embraces every new and advanced technology. Recently the world has witnessed the prominence of the metaverse which is an emerging technology in digital space. The metaverse has huge potential to provide a plethora of health services seamlessly to patients and medical professionals with an immersive experience. This paper proposes the amalgamation of artificial intelligence and blockchain in the metaverse to provide better, faster, and more secure healthcare facilities in digital space with a realistic experience. Our proposed architecture can be summarized as follows. It consists of three environments, namely the doctor’s environment, the patient’s environment, and the metaverse environment. The doctors and patients interact in a metaverse environment assisted by blockchain technology which ensures the safety, security, and privacy of data. The metaverse environment is the main part of our proposed architecture. The doctors, patients, and nurses enter this environment by registering on the blockchain and they are represented by avatars in the metaverse environment. All the consultation activities between the doctor and the patient will be recorded and the data, i.e., images, speech, text, videos, clinical data, etc., will be gathered, transferred, and stored on the blockchain. These data are used for disease prediction and diagnosis by explainable artificial intelligence (XAI) models. The GradCAM and LIME approaches of XAI provide logical reasoning for the prediction of diseases and ensure trust, explainability, interpretability, and transparency regarding the diagnosis and prediction of diseases. Blockchain technology provides data security for patients while enabling transparency, traceability, and immutability regarding their data. These features of blockchain ensure trust among the patients regarding their data. Consequently, this proposed architecture ensures transparency and trust regarding both the diagnosis of diseases and the data security of the patient. We also explored the building block technologies of the metaverse. Furthermore, we also investigated the advantages and challenges of a metaverse in healthcare. © 2023 by the authors.</t>
+          <t>The integration of Artificial Intelligence techniques into Decision Support Systems yields effective solutions to decision problems, especially when complex scenarios are at hand. However, the use of intelligent black-box models can hinder the decision support system's potential to be fully adopted because opaque processes raise suspicions and doubts among careful decision makers. Moreover, appropriate and comprehensible explanations may foster trustworthiness and allow for reasonable adjustments or even corrections. This work proposed an approach that incorporates three reasonability aspects into Decision Systems: feasibility, rationality, and plausibility. Thus, by providing decision makers with reasonable candidate solutions for a complex problem, they are expected to perform their tasks more effectively (i.e. decide with more efficiency as well as efficacy). The new approach is accompanied by two proofs of concept in the health and public security areas. Comparative results using random and rational approaches, including the simulation of distinct user profiles, are presented. The proposed approach achieved superior metrics with regard to feasibility and plausibility, suggesting that this proposition can be applied to real-world applications. © 2013 IEEE.</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>10.3390/s23020565</t>
+          <t>10.1109/ACCESS.2023.3250262</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -21467,11 +21547,11 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>method to produce more reasonable candidate solutions with explanations in intelligent decision support systems</t>
+          <t>modeling biological individuality using machine learning: a study on human gait</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -21479,22 +21559,22 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Da Silva Oliveira F.R.; De Lima Neto F.B.</t>
+          <t>Horst F.; Slijepcevic D.; Simak M.; Horsak B.; Schöllhorn W.I.; Zeppelzauer M.</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>IEEE Access</t>
+          <t>Computational and Structural Biotechnology Journal</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>The integration of Artificial Intelligence techniques into Decision Support Systems yields effective solutions to decision problems, especially when complex scenarios are at hand. However, the use of intelligent black-box models can hinder the decision support system's potential to be fully adopted because opaque processes raise suspicions and doubts among careful decision makers. Moreover, appropriate and comprehensible explanations may foster trustworthiness and allow for reasonable adjustments or even corrections. This work proposed an approach that incorporates three reasonability aspects into Decision Systems: feasibility, rationality, and plausibility. Thus, by providing decision makers with reasonable candidate solutions for a complex problem, they are expected to perform their tasks more effectively (i.e. decide with more efficiency as well as efficacy). The new approach is accompanied by two proofs of concept in the health and public security areas. Comparative results using random and rational approaches, including the simulation of distinct user profiles, are presented. The proposed approach achieved superior metrics with regard to feasibility and plausibility, suggesting that this proposition can be applied to real-world applications. © 2013 IEEE.</t>
+          <t>Human gait is a complex and unique biological process that can offer valuable insights into an individual's health and well-being. In this work, we leverage a machine learning-based approach to model individual gait signatures and identify factors contributing to inter-individual variability in gait patterns. We provide a comprehensive analysis of gait individuality by (1) demonstrating the uniqueness of gait signatures in a large-scale dataset and (2) highlighting the gait characteristics that are most distinctive to each individual. We utilized the data from three publicly available datasets comprising 5368 bilateral ground reaction force recordings during level overground walking from 671 distinct healthy individuals. Our results show that individuals can be identified with a prediction accuracy of 99.3% by using the bilateral signals of all three ground reaction force components, with only 10 out of 1342 recordings in our test data being misclassified. This indicates that the combination of bilateral ground reaction force signals with all three components provides a more comprehensive and accurate representation of an individual's gait signature. The highest accuracy was achieved by (linear) Support Vector Machines (99.3%), followed by Random Forests (98.7%), Convolutional Neural Networks (95.8%), and Decision Trees (82.8%). The proposed approach provides a powerful tool to better understand biological individuality and has potential applications in personalized healthcare, clinical diagnosis, and therapeutic interventions. © 2023 The Authors</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2023.3250262</t>
+          <t>10.1016/j.csbj.2023.06.009</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -21510,34 +21590,34 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>modeling biological individuality using machine learning: a study on human gait</t>
+          <t>modeling of explainable artificial intelligence for biomedical mental disorder diagnosis</t>
         </is>
       </c>
       <c r="C493" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Horst F.; Slijepcevic D.; Simak M.; Horsak B.; Schöllhorn W.I.; Zeppelzauer M.</t>
+          <t>Hilal A.M.; ISSAOUI I.; Obayya M.; Al-Wesabi F.N.; NEMRI N.; Hamza M.A.; Al Duhayyim M.; Zamani A.S.</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Computational and Structural Biotechnology Journal</t>
+          <t>Computers, Materials and Continua</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Human gait is a complex and unique biological process that can offer valuable insights into an individual's health and well-being. In this work, we leverage a machine learning-based approach to model individual gait signatures and identify factors contributing to inter-individual variability in gait patterns. We provide a comprehensive analysis of gait individuality by (1) demonstrating the uniqueness of gait signatures in a large-scale dataset and (2) highlighting the gait characteristics that are most distinctive to each individual. We utilized the data from three publicly available datasets comprising 5368 bilateral ground reaction force recordings during level overground walking from 671 distinct healthy individuals. Our results show that individuals can be identified with a prediction accuracy of 99.3% by using the bilateral signals of all three ground reaction force components, with only 10 out of 1342 recordings in our test data being misclassified. This indicates that the combination of bilateral ground reaction force signals with all three components provides a more comprehensive and accurate representation of an individual's gait signature. The highest accuracy was achieved by (linear) Support Vector Machines (99.3%), followed by Random Forests (98.7%), Convolutional Neural Networks (95.8%), and Decision Trees (82.8%). The proposed approach provides a powerful tool to better understand biological individuality and has potential applications in personalized healthcare, clinical diagnosis, and therapeutic interventions. © 2023 The Authors</t>
+          <t>The abundant existence of both structured and unstructured data and rapid advancement of statistical models stressed the importance of introducing Explainable Artificial Intelligence (XAI), a process that explains how prediction is done in AI models. Biomedicalmental disorder, i.e.,Autism Spectral Disorder (ASD) needs to be identified and classified at early stage itself in order to reduce health crisis.With this background, the current paper presents XAI-based ASD diagnosis (XAI-ASD) model to detect and classify ASD precisely. The proposed XAI-ASD technique involves the design of Bacterial Foraging Optimization (BFO)-based Feature Selection (FS) technique. In addition, Whale Optimization Algorithm (WOA) with Deep Belief Network (DBN) model is also applied for ASD classification process in which the hyperparameters of DBN model are optimally tuned with the help of WOA. In order to ensure a better ASD diagnostic outcome, a series of simulation process was conducted on ASD dataset. © 2022 Tech Science Press. All rights reserved.</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>10.1016/j.csbj.2023.06.009</t>
+          <t>10.32604/cmc.2022.022663</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -21553,11 +21633,11 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>modeling of explainable artificial intelligence for biomedical mental disorder diagnosis</t>
+          <t>modern views of machine learning for precision psychiatry</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -21565,22 +21645,22 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Hilal A.M.; ISSAOUI I.; Obayya M.; Al-Wesabi F.N.; NEMRI N.; Hamza M.A.; Al Duhayyim M.; Zamani A.S.</t>
+          <t>Chen Z.S.; Kulkarni P.P.; Galatzer-Levy I.R.; Bigio B.; Nasca C.; Zhang Y.</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Computers, Materials and Continua</t>
+          <t>Patterns</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>The abundant existence of both structured and unstructured data and rapid advancement of statistical models stressed the importance of introducing Explainable Artificial Intelligence (XAI), a process that explains how prediction is done in AI models. Biomedicalmental disorder, i.e.,Autism Spectral Disorder (ASD) needs to be identified and classified at early stage itself in order to reduce health crisis.With this background, the current paper presents XAI-based ASD diagnosis (XAI-ASD) model to detect and classify ASD precisely. The proposed XAI-ASD technique involves the design of Bacterial Foraging Optimization (BFO)-based Feature Selection (FS) technique. In addition, Whale Optimization Algorithm (WOA) with Deep Belief Network (DBN) model is also applied for ASD classification process in which the hyperparameters of DBN model are optimally tuned with the help of WOA. In order to ensure a better ASD diagnostic outcome, a series of simulation process was conducted on ASD dataset. © 2022 Tech Science Press. All rights reserved.</t>
+          <t>In light of the National Institute of Mental Health (NIMH)’s Research Domain Criteria (RDoC), the advent of functional neuroimaging, novel technologies and methods provide new opportunities to develop precise and personalized prognosis and diagnosis of mental disorders. Machine learning (ML) and artificial intelligence (AI) technologies are playing an increasingly critical role in the new era of precision psychiatry. Combining ML/AI with neuromodulation technologies can potentially provide explainable solutions in clinical practice and effective therapeutic treatment. Advanced wearable and mobile technologies also call for the new role of ML/AI for digital phenotyping in mobile mental health. In this review, we provide a comprehensive review of ML methodologies and applications by combining neuroimaging, neuromodulation, and advanced mobile technologies in psychiatry practice. We further review the role of ML in molecular phenotyping and cross-species biomarker identification in precision psychiatry. We also discuss explainable AI (XAI) and neuromodulation in a closed human-in-the-loop manner and highlight the ML potential in multi-media information extraction and multi-modal data fusion. Finally, we discuss conceptual and practical challenges in precision psychiatry and highlight ML opportunities in future research. © 2022 The Author(s)</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>10.32604/cmc.2022.022663</t>
+          <t>10.1016/j.patter.2022.100602</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
@@ -21596,54 +21676,54 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>modern views of machine learning for precision psychiatry</t>
+          <t>molecular modeling of c1-inhibitor as sars-cov-2 target identified from the immune signatures of multiple tissues: an integrated bioinformatics study</t>
         </is>
       </c>
       <c r="C495" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Chen Z.S.; Kulkarni P.P.; Galatzer-Levy I.R.; Bigio B.; Nasca C.; Zhang Y.</t>
+          <t>Sekaran, K; Varghese, RP; Gnanasambandan, R; Karthik, G; Ramya, I; Doss, CGP</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Patterns</t>
+          <t>CELL BIOCHEMISTRY AND FUNCTION</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>In light of the National Institute of Mental Health (NIMH)’s Research Domain Criteria (RDoC), the advent of functional neuroimaging, novel technologies and methods provide new opportunities to develop precise and personalized prognosis and diagnosis of mental disorders. Machine learning (ML) and artificial intelligence (AI) technologies are playing an increasingly critical role in the new era of precision psychiatry. Combining ML/AI with neuromodulation technologies can potentially provide explainable solutions in clinical practice and effective therapeutic treatment. Advanced wearable and mobile technologies also call for the new role of ML/AI for digital phenotyping in mobile mental health. In this review, we provide a comprehensive review of ML methodologies and applications by combining neuroimaging, neuromodulation, and advanced mobile technologies in psychiatry practice. We further review the role of ML in molecular phenotyping and cross-species biomarker identification in precision psychiatry. We also discuss explainable AI (XAI) and neuromodulation in a closed human-in-the-loop manner and highlight the ML potential in multi-media information extraction and multi-modal data fusion. Finally, we discuss conceptual and practical challenges in precision psychiatry and highlight ML opportunities in future research. © 2022 The Author(s)</t>
+          <t>The expeditious transmission of the severe acute respiratory coronavirus 2 (SARS-CoV-2), a strain of COVID-19, crumbled the global economic strength and caused a veritable collapse in health infrastructure. The molecular modeling of the novel coronavirus research sounds promising and equips more evidence about the pragmatic therapeutic options. This article proposes a machine-learning framework for identifying potential COVID-19 transcriptomic signatures. The transcriptomics data contains immune-related genes collected from multiple tissues (blood, nasal, and buccal) with accession number: GSE183071. Extensive bioinformatics work was carried out to identify the potential candidate markers, including differential expression analysis, protein interactions, gene ontology, and KEGG (Kyoto Encyclopedia of Genes and Genomes) pathway enrichment studies. The overlapping investigation found SERPING1, the gene that encodes a glycosylated plasma protein C1-INH, in all three datasets. Furthermore, the immuno-informatics study was conducted on the C1-INH protein. 5DU3, the protein identifier of C1-INH, was fetched to identify the antigenicity, major histocompatibility (MHC) Class I and II binding epitopes, allergenicity, toxicity, and immunogenicity. The screening of peptides satisfying the vaccine-design criteria based on the metrics mentioned above is performed. The drug-gene interaction study reported that Rhucin is strongly associated with SERPING1. HSIC-Lasso (Hilbert-Schmidt independence criterion-least absolute shrinkage and selection operator), a model-free biomarker selection technique, was employed to identify the genes having a nonlinear relationship with the target class. The gene subset is trained with supervised machine learning models by a leave-one-out cross-validation method. Explainable artificial intelligence techniques perform the model interpretation analysis.</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>10.1016/j.patter.2022.100602</t>
+          <t>10.1002/cbf.3769</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>molecular modeling of c1-inhibitor as sars-cov-2 target identified from the immune signatures of multiple tissues: an integrated bioinformatics study</t>
+          <t>molecular modeling of c1-inhibitor as sars-cov-2 target identified from the immune signatures of multiple tissues: an integrated bioinformatics study</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -21651,17 +21731,17 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Sekaran, K; Varghese, RP; Gnanasambandan, R; Karthik, G; Ramya, I; Doss, CGP</t>
+          <t>Sekaran K.; Polachirakkal Varghese R.; Gnanasambandan R.; Karthik G.; Ramya I.; George Priya Doss C.</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>CELL BIOCHEMISTRY AND FUNCTION</t>
+          <t>Cell Biochemistry and Function</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>The expeditious transmission of the severe acute respiratory coronavirus 2 (SARS-CoV-2), a strain of COVID-19, crumbled the global economic strength and caused a veritable collapse in health infrastructure. The molecular modeling of the novel coronavirus research sounds promising and equips more evidence about the pragmatic therapeutic options. This article proposes a machine-learning framework for identifying potential COVID-19 transcriptomic signatures. The transcriptomics data contains immune-related genes collected from multiple tissues (blood, nasal, and buccal) with accession number: GSE183071. Extensive bioinformatics work was carried out to identify the potential candidate markers, including differential expression analysis, protein interactions, gene ontology, and KEGG (Kyoto Encyclopedia of Genes and Genomes) pathway enrichment studies. The overlapping investigation found SERPING1, the gene that encodes a glycosylated plasma protein C1-INH, in all three datasets. Furthermore, the immuno-informatics study was conducted on the C1-INH protein. 5DU3, the protein identifier of C1-INH, was fetched to identify the antigenicity, major histocompatibility (MHC) Class I and II binding epitopes, allergenicity, toxicity, and immunogenicity. The screening of peptides satisfying the vaccine-design criteria based on the metrics mentioned above is performed. The drug-gene interaction study reported that Rhucin is strongly associated with SERPING1. HSIC-Lasso (Hilbert-Schmidt independence criterion-least absolute shrinkage and selection operator), a model-free biomarker selection technique, was employed to identify the genes having a nonlinear relationship with the target class. The gene subset is trained with supervised machine learning models by a leave-one-out cross-validation method. Explainable artificial intelligence techniques perform the model interpretation analysis.</t>
+          <t>The expeditious transmission of the severe acute respiratory coronavirus 2 (SARS-CoV-2), a strain of COVID-19, crumbled the global economic strength and caused a veritable collapse in health infrastructure. The molecular modeling of the novel coronavirus research sounds promising and equips more evidence about the pragmatic therapeutic options. This article proposes a machine-learning framework for identifying potential COVID-19 transcriptomic signatures. The transcriptomics data contains immune-related genes collected from multiple tissues (blood, nasal, and buccal) with accession number: GSE183071. Extensive bioinformatics work was carried out to identify the potential candidate markers, including differential expression analysis, protein interactions, gene ontology, and KEGG (Kyoto Encyclopedia of Genes and Genomes) pathway enrichment studies. The overlapping investigation found SERPING1, the gene that encodes a glycosylated plasma protein C1-INH, in all three datasets. Furthermore, the immuno-informatics study was conducted on the C1-INH protein. 5DU3, the protein identifier of C1-INH, was fetched to identify the antigenicity, major histocompatibility (MHC) Class I and II binding epitopes, allergenicity, toxicity, and immunogenicity. The screening of peptides satisfying the vaccine-design criteria based on the metrics mentioned above is performed. The drug–gene interaction study reported that Rhucin is strongly associated with SERPING1. HSIC-Lasso (Hilbert–Schmidt independence criterion-least absolute shrinkage and selection operator), a model-free biomarker selection technique, was employed to identify the genes having a nonlinear relationship with the target class. The gene subset is trained with supervised machine learning models by a leave-one-out cross-validation method. Explainable artificial intelligence techniques perform the model interpretation analysis. © 2022 John Wiley &amp; Sons Ltd.</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
@@ -21671,22 +21751,22 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>molecular modeling of c1-inhibitor as sars-cov-2 target identified from the immune signatures of multiple tissues: an integrated bioinformatics study</t>
+          <t>monkeypox detection using deep neural networks</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -21694,22 +21774,22 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Sekaran K.; Polachirakkal Varghese R.; Gnanasambandan R.; Karthik G.; Ramya I.; George Priya Doss C.</t>
+          <t>Sorayaie Azar A.; Naemi A.; Babaei Rikan S.; Bagherzadeh Mohasefi J.; Pirnejad H.; Wiil U.K.</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Cell Biochemistry and Function</t>
+          <t>BMC Infectious Diseases</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>The expeditious transmission of the severe acute respiratory coronavirus 2 (SARS-CoV-2), a strain of COVID-19, crumbled the global economic strength and caused a veritable collapse in health infrastructure. The molecular modeling of the novel coronavirus research sounds promising and equips more evidence about the pragmatic therapeutic options. This article proposes a machine-learning framework for identifying potential COVID-19 transcriptomic signatures. The transcriptomics data contains immune-related genes collected from multiple tissues (blood, nasal, and buccal) with accession number: GSE183071. Extensive bioinformatics work was carried out to identify the potential candidate markers, including differential expression analysis, protein interactions, gene ontology, and KEGG (Kyoto Encyclopedia of Genes and Genomes) pathway enrichment studies. The overlapping investigation found SERPING1, the gene that encodes a glycosylated plasma protein C1-INH, in all three datasets. Furthermore, the immuno-informatics study was conducted on the C1-INH protein. 5DU3, the protein identifier of C1-INH, was fetched to identify the antigenicity, major histocompatibility (MHC) Class I and II binding epitopes, allergenicity, toxicity, and immunogenicity. The screening of peptides satisfying the vaccine-design criteria based on the metrics mentioned above is performed. The drug–gene interaction study reported that Rhucin is strongly associated with SERPING1. HSIC-Lasso (Hilbert–Schmidt independence criterion-least absolute shrinkage and selection operator), a model-free biomarker selection technique, was employed to identify the genes having a nonlinear relationship with the target class. The gene subset is trained with supervised machine learning models by a leave-one-out cross-validation method. Explainable artificial intelligence techniques perform the model interpretation analysis. © 2022 John Wiley &amp; Sons Ltd.</t>
+          <t>Background: In May 2022, the World Health Organization (WHO) European Region announced an atypical Monkeypox epidemic in response to reports of numerous cases in some member countries unrelated to those where the illness is endemic. This issue has raised concerns about the widespread nature of this disease around the world. The experience with Coronavirus Disease 2019 (COVID-19) has increased awareness about pandemics among researchers and health authorities. Methods: Deep Neural Networks (DNNs) have shown promising performance in detecting COVID-19 and predicting its outcomes. As a result, researchers have begun applying similar methods to detect Monkeypox disease. In this study, we utilize a dataset comprising skin images of three diseases: Monkeypox, Chickenpox, Measles, and Normal cases. We develop seven DNN models to identify Monkeypox from these images. Two scenarios of including two classes and four classes are implemented. Results: The results show that our proposed DenseNet201-based architecture has the best performance, with Accuracy = 97.63%, F1-Score = 90.51%, and Area Under Curve (AUC) = 94.27% in two-class scenario; and Accuracy = 95.18%, F1-Score = 89.61%, AUC = 92.06% for four-class scenario. Comparing our study with previous studies with similar scenarios, shows that our proposed model demonstrates superior performance, particularly in terms of the F1-Score metric. For the sake of transparency and explainability, Local Interpretable Model-Agnostic Explanations (LIME) and Gradient-weighted Class Activation Mapping (Grad-Cam) were developed to interpret the results. These techniques aim to provide insights into the decision-making process, thereby increasing the trust of clinicians. Conclusion: The DenseNet201 model outperforms the other models in terms of the confusion metrics, regardless of the scenario. One significant accomplishment of this study is the utilization of LIME and Grad-Cam to identify the affected areas and assess their significance in diagnosing diseases based on skin images. By incorporating these techniques, we enhance our understanding of the infected regions and their relevance in distinguishing Monkeypox from other similar diseases. Our proposed model can serve as a valuable auxiliary tool for diagnosing Monkeypox and distinguishing it from other related conditions. © 2023, The Author(s).</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>10.1002/cbf.3769</t>
+          <t>10.1186/s12879-023-08408-4</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
@@ -21719,40 +21799,40 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>monkeypox detection using deep neural networks</t>
+          <t>multi-inhabitant and explainable activity recognition in smart homes</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Sorayaie Azar A.; Naemi A.; Babaei Rikan S.; Bagherzadeh Mohasefi J.; Pirnejad H.; Wiil U.K.</t>
+          <t>Arrotta L.</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>BMC Infectious Diseases</t>
+          <t>Proceedings - IEEE International Conference on Mobile Data Management</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Background: In May 2022, the World Health Organization (WHO) European Region announced an atypical Monkeypox epidemic in response to reports of numerous cases in some member countries unrelated to those where the illness is endemic. This issue has raised concerns about the widespread nature of this disease around the world. The experience with Coronavirus Disease 2019 (COVID-19) has increased awareness about pandemics among researchers and health authorities. Methods: Deep Neural Networks (DNNs) have shown promising performance in detecting COVID-19 and predicting its outcomes. As a result, researchers have begun applying similar methods to detect Monkeypox disease. In this study, we utilize a dataset comprising skin images of three diseases: Monkeypox, Chickenpox, Measles, and Normal cases. We develop seven DNN models to identify Monkeypox from these images. Two scenarios of including two classes and four classes are implemented. Results: The results show that our proposed DenseNet201-based architecture has the best performance, with Accuracy = 97.63%, F1-Score = 90.51%, and Area Under Curve (AUC) = 94.27% in two-class scenario; and Accuracy = 95.18%, F1-Score = 89.61%, AUC = 92.06% for four-class scenario. Comparing our study with previous studies with similar scenarios, shows that our proposed model demonstrates superior performance, particularly in terms of the F1-Score metric. For the sake of transparency and explainability, Local Interpretable Model-Agnostic Explanations (LIME) and Gradient-weighted Class Activation Mapping (Grad-Cam) were developed to interpret the results. These techniques aim to provide insights into the decision-making process, thereby increasing the trust of clinicians. Conclusion: The DenseNet201 model outperforms the other models in terms of the confusion metrics, regardless of the scenario. One significant accomplishment of this study is the utilization of LIME and Grad-Cam to identify the affected areas and assess their significance in diagnosing diseases based on skin images. By incorporating these techniques, we enhance our understanding of the infected regions and their relevance in distinguishing Monkeypox from other similar diseases. Our proposed model can serve as a valuable auxiliary tool for diagnosing Monkeypox and distinguishing it from other related conditions. © 2023, The Author(s).</t>
+          <t>The sensor-based detection of Activities of Daily Living (ADLs) in smart home environments can be exploited to provide healthcare applications, like remotely monitoring fragile subjects living in their habitations. However, ADLs recognition methods have been mainly investigated with a focus on singleinhabitant scenarios. The major problem in multi-inhabitant settings is data association: Assigning to each resident the environmental sensors' events that he/she triggered. Furthermore, Deep Learning (DL) solutions have been recently explored for ADLs recognition, with promising results. Nevertheless, the main drawbacks of these methods are their need for large amounts of training data, and their lack of interpretability. This paper summarizes some contributions of my Ph.D. research, in which we are designing explainable multi-inhabitant approaches for ADLs recognition. We have already investigated a hybrid knowledge-and data-driven solution that exploits the high-level context of each resident to perform data association. Currently, we are studying semi-supervised techniques to mitigate the data scarcity issue, and explainable Artificial Intelligence (XAI) methods to make DL classifiers for ADLs more transparent. © 2021 IEEE.</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>10.1186/s12879-023-08408-4</t>
+          <t>10.1109/MDM52706.2021.00054</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
@@ -21762,40 +21842,40 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>multi-inhabitant and explainable activity recognition in smart homes</t>
+          <t>multi-modal brain tumor detection using deep neural network and multiclass svm</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Arrotta L.</t>
+          <t>Maqsood S.; Damaševičius R.; Maskeliūnas R.</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Proceedings - IEEE International Conference on Mobile Data Management</t>
+          <t>Medicina (Lithuania)</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>The sensor-based detection of Activities of Daily Living (ADLs) in smart home environments can be exploited to provide healthcare applications, like remotely monitoring fragile subjects living in their habitations. However, ADLs recognition methods have been mainly investigated with a focus on singleinhabitant scenarios. The major problem in multi-inhabitant settings is data association: Assigning to each resident the environmental sensors' events that he/she triggered. Furthermore, Deep Learning (DL) solutions have been recently explored for ADLs recognition, with promising results. Nevertheless, the main drawbacks of these methods are their need for large amounts of training data, and their lack of interpretability. This paper summarizes some contributions of my Ph.D. research, in which we are designing explainable multi-inhabitant approaches for ADLs recognition. We have already investigated a hybrid knowledge-and data-driven solution that exploits the high-level context of each resident to perform data association. Currently, we are studying semi-supervised techniques to mitigate the data scarcity issue, and explainable Artificial Intelligence (XAI) methods to make DL classifiers for ADLs more transparent. © 2021 IEEE.</t>
+          <t>Background and Objectives: Clinical diagnosis has become very significant in today’s health system. The most serious disease and the leading cause of mortality globally is brain cancer which is a key research topic in the field of medical imaging. The examination and prognosis of brain tumors can be improved by an early and precise diagnosis based on magnetic resonance imaging. For computer-aided diagnosis methods to assist radiologists in the proper detection of brain tumors, medical imagery must be detected, segmented, and classified. Manual brain tumor detection is a monotonous and error-prone procedure for radiologists; hence, it is very important to implement an automated method. As a result, the precise brain tumor detection and classification method is presented. Materials and Methods: The proposed method has five steps. In the first step, a linear contrast stretching is used to determine the edges in the source image. In the second step, a custom 17-layered deep neural network architecture is developed for the segmentation of brain tumors. In the third step, a modified MobileNetV2 architecture is used for feature extraction and is trained using transfer learning. In the fourth step, an entropy-based controlled method was used along with a multiclass support vector machine (M-SVM) for the best features selection. In the final step, M-SVM is used for brain tumor classification, which identifies the meningioma, glioma and pituitary images. Results: The proposed method was demonstrated on BraTS 2018 and Figshare datasets. Experimental study shows that the proposed brain tumor detection and classification method outperforms other methods both visually and quantitatively, obtaining an accuracy of 97.47% and 98.92%, respectively. Finally, we adopt the eXplainable Artificial Intelligence (XAI) method to explain the result. Conclusions: Our proposed approach for brain tumor detection and classification has outperformed prior methods. These findings demonstrate that the proposed approach obtained higher performance in terms of both visually and enhanced quantitative evaluation with improved accuracy. © 2022 by the authors.</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>10.1109/MDM52706.2021.00054</t>
+          <t>10.3390/medicina58081090</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
@@ -21805,40 +21885,40 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>multi-modal brain tumor detection using deep neural network and multiclass svm</t>
+          <t>multilevel clustering explainer: an explainable approach to electronic health records</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Maqsood S.; Damaševičius R.; Maskeliūnas R.</t>
+          <t>Clementino J.M., Jr.; Faical B.S.; Bones C.C.; Traina C., Jr.; Gutierrez M.A.; Traina A.J.M.</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Medicina (Lithuania)</t>
+          <t>Proceedings - IEEE Symposium on Computer-Based Medical Systems</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Background and Objectives: Clinical diagnosis has become very significant in today’s health system. The most serious disease and the leading cause of mortality globally is brain cancer which is a key research topic in the field of medical imaging. The examination and prognosis of brain tumors can be improved by an early and precise diagnosis based on magnetic resonance imaging. For computer-aided diagnosis methods to assist radiologists in the proper detection of brain tumors, medical imagery must be detected, segmented, and classified. Manual brain tumor detection is a monotonous and error-prone procedure for radiologists; hence, it is very important to implement an automated method. As a result, the precise brain tumor detection and classification method is presented. Materials and Methods: The proposed method has five steps. In the first step, a linear contrast stretching is used to determine the edges in the source image. In the second step, a custom 17-layered deep neural network architecture is developed for the segmentation of brain tumors. In the third step, a modified MobileNetV2 architecture is used for feature extraction and is trained using transfer learning. In the fourth step, an entropy-based controlled method was used along with a multiclass support vector machine (M-SVM) for the best features selection. In the final step, M-SVM is used for brain tumor classification, which identifies the meningioma, glioma and pituitary images. Results: The proposed method was demonstrated on BraTS 2018 and Figshare datasets. Experimental study shows that the proposed brain tumor detection and classification method outperforms other methods both visually and quantitatively, obtaining an accuracy of 97.47% and 98.92%, respectively. Finally, we adopt the eXplainable Artificial Intelligence (XAI) method to explain the result. Conclusions: Our proposed approach for brain tumor detection and classification has outperformed prior methods. These findings demonstrate that the proposed approach obtained higher performance in terms of both visually and enhanced quantitative evaluation with improved accuracy. © 2022 by the authors.</t>
+          <t>Machine learning (ML) algorithms have been used in many areas of activity, and their results can often be applied without further human intervention. The ML algorithms have also been widely used in medical contexts, but in this area, the result needs to be thoroughly confirmed by a specialist, who needs explanatory information on how the results were obtained. Aimed at such scenarios, we propose the Multilevel Clustering Explainer (MCE), a method capable of providing explanatory information to health professionals about the knowledge discovery process. The MCE was developed for the analysis of medical data, providing a synthesis of explanatory information for the specialist to quickly and clearly understand how the results were obtained.  © 2021 IEEE.</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>10.3390/medicina58081090</t>
+          <t>10.1109/CBMS52027.2021.00073</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
@@ -21854,34 +21934,34 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>multilevel clustering explainer: an explainable approach to electronic health records</t>
+          <t>multiple explainable approaches to predict the risk of stroke using artificial intelligence</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Clementino J.M., Jr.; Faical B.S.; Bones C.C.; Traina C., Jr.; Gutierrez M.A.; Traina A.J.M.</t>
+          <t>Susmita S.; Chadaga K.; Sampathila N.; Prabhu S.; Chadaga R.; Swathi Katta S.</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Proceedings - IEEE Symposium on Computer-Based Medical Systems</t>
+          <t>Information (Switzerland)</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Machine learning (ML) algorithms have been used in many areas of activity, and their results can often be applied without further human intervention. The ML algorithms have also been widely used in medical contexts, but in this area, the result needs to be thoroughly confirmed by a specialist, who needs explanatory information on how the results were obtained. Aimed at such scenarios, we propose the Multilevel Clustering Explainer (MCE), a method capable of providing explanatory information to health professionals about the knowledge discovery process. The MCE was developed for the analysis of medical data, providing a synthesis of explanatory information for the specialist to quickly and clearly understand how the results were obtained.  © 2021 IEEE.</t>
+          <t>Stroke occurs when a brain’s blood artery ruptures or the brain’s blood supply is interrupted. Due to rupture or obstruction, the brain’s tissues cannot receive enough blood and oxygen. Stroke is a common cause of mortality among older people. Hence, loss of life and severe brain damage can be avoided if stroke is recognized and diagnosed early. Healthcare professionals can discover solutions more quickly and accurately using artificial intelligence (AI) and machine learning (ML). As a result, we have shown how to predict stroke in patients using heterogeneous classifiers and explainable artificial intelligence (XAI). The multistack of ML models surpassed all other classifiers, with accuracy, recall, and precision of 96%, 96%, and 96%, respectively. Explainable artificial intelligence is a collection of frameworks and tools that aid in understanding and interpreting predictions provided by machine learning algorithms. Five diverse XAI methods, such as Shapley Additive Values (SHAP), ELI5, QLattice, Local Interpretable Model-agnostic Explanations (LIME) and Anchor, have been used to decipher the model predictions. This research aims to enable healthcare professionals to provide patients with more personalized and efficient care, while also providing a screening architecture with automated tools that can be used to revolutionize stroke prevention and treatment. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>10.1109/CBMS52027.2021.00073</t>
+          <t>10.3390/info14080435</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -21891,83 +21971,83 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>multiple explainable approaches to predict the risk of stroke using artificial intelligence</t>
+          <t>multirole of the internet of medical things (iomt) in biomedical systems for managing smart healthcare systems: an overview of current and future innovative trends</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Susmita S.; Chadaga K.; Sampathila N.; Prabhu S.; Chadaga R.; Swathi Katta S.</t>
+          <t>Mathkor, DM; Mathkor, N; Bassfar, Z; Bantun, F; Slama, P; Ahmad, F; Haque, S</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>Information (Switzerland)</t>
+          <t>JOURNAL OF INFECTION AND PUBLIC HEALTH</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Stroke occurs when a brain’s blood artery ruptures or the brain’s blood supply is interrupted. Due to rupture or obstruction, the brain’s tissues cannot receive enough blood and oxygen. Stroke is a common cause of mortality among older people. Hence, loss of life and severe brain damage can be avoided if stroke is recognized and diagnosed early. Healthcare professionals can discover solutions more quickly and accurately using artificial intelligence (AI) and machine learning (ML). As a result, we have shown how to predict stroke in patients using heterogeneous classifiers and explainable artificial intelligence (XAI). The multistack of ML models surpassed all other classifiers, with accuracy, recall, and precision of 96%, 96%, and 96%, respectively. Explainable artificial intelligence is a collection of frameworks and tools that aid in understanding and interpreting predictions provided by machine learning algorithms. Five diverse XAI methods, such as Shapley Additive Values (SHAP), ELI5, QLattice, Local Interpretable Model-agnostic Explanations (LIME) and Anchor, have been used to decipher the model predictions. This research aims to enable healthcare professionals to provide patients with more personalized and efficient care, while also providing a screening architecture with automated tools that can be used to revolutionize stroke prevention and treatment. © 2023 by the authors.</t>
+          <t>Internet of Medical Things (IoMT) is an emerging subset of Internet of Things (IoT), often called as IoT in healthcare, refers to medical devices and applications with internet connectivity, is exponentially gaining researchers' attention due to its wide-ranging applicability in biomedical systems for Smart Healthcare systems. IoMT facilitates remote health biomedical system and plays a crucial role within the healthcare industry to enhance precision, reliability, consistency and productivity of electronic devices used for various healthcare purposes. It comprises a conceptualized architecture for providing information retrieval strategies to extract the data from patient records using sensors for biomedical analysis and diagnostics against manifold diseases to provide cost-effective medical solutions, quick hospital treatments, and personalized healthcare. This article provides a comprehensive overview of IoMT with special emphasis on its current and future trends used in biomedical systems, such as deep learning, machine learning, blockchains, artificial intelligence, radio frequency identification, and industry 5.0. (c) 2024 The Authors. Published by Elsevier Ltd on behalf of King Saud Bin Abdulaziz University for Health Sciences. This is an open access article under the CC BY-NC-ND license (http://creativecommons.org/licenses/by-nc-nd/4.0/).</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>10.3390/info14080435</t>
+          <t>10.1016/j.jiph.2024.01.013</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>multirole of the internet of medical things (iomt) in biomedical systems for managing smart healthcare systems: an overview of current and future innovative trends</t>
+          <t>mutation-based clustering and classification analysis reveals distinctive age groups and age-related biomarkers for glioma</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Mathkor, DM; Mathkor, N; Bassfar, Z; Bantun, F; Slama, P; Ahmad, F; Haque, S</t>
+          <t>Jean-Quartier, C; Jeanquartier, F; Ridvan, A; Kargl, M; Mirza, T; Stangl, T; Jurada, M; Holzinger, A</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>JOURNAL OF INFECTION AND PUBLIC HEALTH</t>
+          <t>BMC MEDICAL INFORMATICS AND DECISION MAKING</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Internet of Medical Things (IoMT) is an emerging subset of Internet of Things (IoT), often called as IoT in healthcare, refers to medical devices and applications with internet connectivity, is exponentially gaining researchers' attention due to its wide-ranging applicability in biomedical systems for Smart Healthcare systems. IoMT facilitates remote health biomedical system and plays a crucial role within the healthcare industry to enhance precision, reliability, consistency and productivity of electronic devices used for various healthcare purposes. It comprises a conceptualized architecture for providing information retrieval strategies to extract the data from patient records using sensors for biomedical analysis and diagnostics against manifold diseases to provide cost-effective medical solutions, quick hospital treatments, and personalized healthcare. This article provides a comprehensive overview of IoMT with special emphasis on its current and future trends used in biomedical systems, such as deep learning, machine learning, blockchains, artificial intelligence, radio frequency identification, and industry 5.0. (c) 2024 The Authors. Published by Elsevier Ltd on behalf of King Saud Bin Abdulaziz University for Health Sciences. This is an open access article under the CC BY-NC-ND license (http://creativecommons.org/licenses/by-nc-nd/4.0/).</t>
+          <t>BackgroundMalignant brain tumor diseases exhibit differences within molecular features depending on the patient's age.MethodsIn this work, we use gene mutation data from public resources to explore age specifics about glioma. We use both an explainable clustering as well as classification approach to find and interpret age-based differences in brain tumor diseases. We estimate age clusters and correlate age specific biomarkers.ResultsAge group classification shows known age specifics but also points out several genes which, so far, have not been associated with glioma classification.ConclusionsWe highlight mutated genes to be characteristic for certain age groups and suggest novel age-based biomarkers and targets.</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>10.1016/j.jiph.2024.01.013</t>
+          <t>10.1186/s12911-021-01420-1</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -21983,159 +22063,163 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>mutation-based clustering and classification analysis reveals distinctive age groups and age-related biomarkers for glioma</t>
+          <t>navigating the ethical crossroads: bridging the gap between predictive power and explanation in the use of artificial intelligence in medicine</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Jean-Quartier, C; Jeanquartier, F; Ridvan, A; Kargl, M; Mirza, T; Stangl, T; Jurada, M; Holzinger, A</t>
+          <t>Riva G.; Sajno E.; DE GASPARI S.; Pupillo C.; Wiederhold B.K.</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>BMC MEDICAL INFORMATICS AND DECISION MAKING</t>
+          <t>Annual Review of CyberTherapy and Telemedicine</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>BackgroundMalignant brain tumor diseases exhibit differences within molecular features depending on the patient's age.MethodsIn this work, we use gene mutation data from public resources to explore age specifics about glioma. We use both an explainable clustering as well as classification approach to find and interpret age-based differences in brain tumor diseases. We estimate age clusters and correlate age specific biomarkers.ResultsAge group classification shows known age specifics but also points out several genes which, so far, have not been associated with glioma classification.ConclusionsWe highlight mutated genes to be characteristic for certain age groups and suggest novel age-based biomarkers and targets.</t>
+          <t>Artificial Intelligence (AI) has emerged as a transformative force in medicine, provoking both awe and apprehension in clinicians and patients. In fact, the challenges posed by medical AI extend beyond mere technological hiccups; they delve into the very core of ethics and human decision-making. This paper delves into the intricate dichotomy between the clinical predictive prowess of AI and the human ability to explain decisions, highlighting the ethical challenges arising from this disparity. While humans can elucidate their choices, AI often operates in opaque realms, generating predictions without transparent reasoning. The paper explores the cognitive underpinnings of prediction and explanation, emphasizing the essential interplay between these processes in human intelligence. It critically analyzes the limitations of current medical AI systems, emphasizing their vulnerability to errors and lack of transparency, especially in a critical domain like healthcare. In this paper, we contend that explainability serves as a vital tool to ensure that patients remain at the core of healthcare. It empowers patients and clinicians to make informed, autonomous decisions regarding their health. Explainable Artificial Intelligence (XAI) tackles these challenges. However, achieving it is not easy, and it is strongly dependent from different technical, social and psychological variables. Achieving this objective highlights the urgent requirement for a multidisciplinary approach in XAI that integrates technological knowledge with psychological, cognitive and social perspectives. This alignment will foster innovation, empathy, and responsible implementation, shaping a healthcare landscape that prioritizes both technological advancement and ethical considerations. © 2023, Interactive Media Institute. All rights reserved.</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>10.1186/s12911-021-01420-1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>navigating the ethical crossroads: bridging the gap between predictive power and explanation in the use of artificial intelligence in medicine</t>
+          <t>nddrf: a risk factor knowledgebase for personalized prevention of neurodegenerative diseases</t>
         </is>
       </c>
       <c r="C505" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Riva G.; Sajno E.; DE GASPARI S.; Pupillo C.; Wiederhold B.K.</t>
+          <t>Bi, C; Zhou, SR; Liu, XY; Zhu, Y; Yu, J; Zhang, XL; Shi, MH; Wu, RR; He, HX; Zhan, CY; Lin, YX; Shen, BR</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>Annual Review of CyberTherapy and Telemedicine</t>
+          <t>JOURNAL OF ADVANCED RESEARCH</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI) has emerged as a transformative force in medicine, provoking both awe and apprehension in clinicians and patients. In fact, the challenges posed by medical AI extend beyond mere technological hiccups; they delve into the very core of ethics and human decision-making. This paper delves into the intricate dichotomy between the clinical predictive prowess of AI and the human ability to explain decisions, highlighting the ethical challenges arising from this disparity. While humans can elucidate their choices, AI often operates in opaque realms, generating predictions without transparent reasoning. The paper explores the cognitive underpinnings of prediction and explanation, emphasizing the essential interplay between these processes in human intelligence. It critically analyzes the limitations of current medical AI systems, emphasizing their vulnerability to errors and lack of transparency, especially in a critical domain like healthcare. In this paper, we contend that explainability serves as a vital tool to ensure that patients remain at the core of healthcare. It empowers patients and clinicians to make informed, autonomous decisions regarding their health. Explainable Artificial Intelligence (XAI) tackles these challenges. However, achieving it is not easy, and it is strongly dependent from different technical, social and psychological variables. Achieving this objective highlights the urgent requirement for a multidisciplinary approach in XAI that integrates technological knowledge with psychological, cognitive and social perspectives. This alignment will foster innovation, empathy, and responsible implementation, shaping a healthcare landscape that prioritizes both technological advancement and ethical considerations. © 2023, Interactive Media Institute. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="G505" t="inlineStr"/>
+          <t>Introduction: Neurodegenerative diseases (NDDs) are a series of chronic diseases, which are associated with progressive loss of neuronal structure or function. The complex etiologies of the NDDs remain unclear, thus the prevention and early diagnosis of NDDs are critical to reducing the mortality and mor- bidity of these diseases. Objectives: To provide a systematic understanding of the heterogeneity of the risk factors associated with different NDDs (pan-neurodegenerative diseases or pan-NDDs), the knowledgebase is established to facilitate the personalized and knowledge-guided diagnosis, prevention and prediction of NDDs.Methods: Before data collection, the medical, life science and informatics experts as well as the potential users of the database were consulted and discussed for the scope of data and the classification of risk fac- tors. The PubMed database was used as the resource of the data and knowledge extraction. Risk factors of NDDs were manually collected from literature published between 1975 and 2020.Results: The comprehensive risk factors database for NDDs (NDDRF) was established including 998 single or combined risk factors, 2293 records and 1071 articles relevant to the 14 most common NDDs. The sin- gle risk factors are classified into 3 categories, i.e. epidemiological factors (469), genetic factors (324) and biochemical factors (153). Among all the factors, 179 factors are positive and protective, while 880 factors have negative influence for NDDs. The knowledgebase is available at http://sysbio.org.cn/NDDRF/. Conclusion: NDDRF provides the structured information and knowledge resource on risk factors of NDDs. It could benefit the future systematic and personalized investigation of pan-NDDs genesis and progres- sion. Meanwhile it may be used for the future explainable artificial intelligence modeling for smart diag- nosis and prevention of NDDs.(c) 2022 The Authors. Published by Elsevier B.V. on behalf of Cairo University.</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>10.1016/j.jare.2021.06.015</t>
+        </is>
+      </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>nddrf: a risk factor knowledgebase for personalized prevention of neurodegenerative diseases</t>
+          <t>neuronet: a deep learning framework for stroke analysis</t>
         </is>
       </c>
       <c r="C506" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Bi, C; Zhou, SR; Liu, XY; Zhu, Y; Yu, J; Zhang, XL; Shi, MH; Wu, RR; He, HX; Zhan, CY; Lin, YX; Shen, BR</t>
+          <t>Prasad A.; Asha V.; Tressa N.; Sharma D.; Deepthi V.; Divyashree S.</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>JOURNAL OF ADVANCED RESEARCH</t>
+          <t>2nd International Conference on Intelligent Data Communication Technologies and Internet of Things, IDCIoT 2024</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Introduction: Neurodegenerative diseases (NDDs) are a series of chronic diseases, which are associated with progressive loss of neuronal structure or function. The complex etiologies of the NDDs remain unclear, thus the prevention and early diagnosis of NDDs are critical to reducing the mortality and mor- bidity of these diseases. Objectives: To provide a systematic understanding of the heterogeneity of the risk factors associated with different NDDs (pan-neurodegenerative diseases or pan-NDDs), the knowledgebase is established to facilitate the personalized and knowledge-guided diagnosis, prevention and prediction of NDDs.Methods: Before data collection, the medical, life science and informatics experts as well as the potential users of the database were consulted and discussed for the scope of data and the classification of risk fac- tors. The PubMed database was used as the resource of the data and knowledge extraction. Risk factors of NDDs were manually collected from literature published between 1975 and 2020.Results: The comprehensive risk factors database for NDDs (NDDRF) was established including 998 single or combined risk factors, 2293 records and 1071 articles relevant to the 14 most common NDDs. The sin- gle risk factors are classified into 3 categories, i.e. epidemiological factors (469), genetic factors (324) and biochemical factors (153). Among all the factors, 179 factors are positive and protective, while 880 factors have negative influence for NDDs. The knowledgebase is available at http://sysbio.org.cn/NDDRF/. Conclusion: NDDRF provides the structured information and knowledge resource on risk factors of NDDs. It could benefit the future systematic and personalized investigation of pan-NDDs genesis and progres- sion. Meanwhile it may be used for the future explainable artificial intelligence modeling for smart diag- nosis and prevention of NDDs.(c) 2022 The Authors. Published by Elsevier B.V. on behalf of Cairo University.</t>
+          <t>The revolutionary potential of a deep learning framework for stroke analysis and prediction in the healthcare industry is examined in this paper. The suggested framework uses large datasets, such as patient records, medical images, and pertinent health information, to create histicated neural networks in order to address the critical need for early detection and intervention in stroke cases. Important areas like stroke type classification, natural language processing, image analysis, treatment optimization, outcome prediction, telemedicine, and explainable artificial intelligence are highlighted in the thorough review of related work. The steps involved in data collection, preprocessing, model selection, and result interpretation are all carefully laid out in the methodology. A thorough evaluation of machine learning models, such as Random Forest, SVM, XGBoost, and Logistic Regression, is carried out; Random Forest continuously performs well. The results highlight how difficult it is to predict strokes and how crucial it is to choose models carefully. With the ultimate goal of improving stroke diagnosis, treatment, and prevention for improved patient care through ongoing research and technological advancements, ethical considerations and adherence to healthcare regulations in AI applications are emphasized.  © 2024 IEEE.</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>10.1016/j.jare.2021.06.015</t>
+          <t>10.1109/IDCIoT59759.2024.10467659</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>neuronet: a deep learning framework for stroke analysis</t>
+          <t>next generation healthcare with explainable ai: iomt-edge-cloud based advanced ehealth</t>
         </is>
       </c>
       <c r="C507" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Prasad A.; Asha V.; Tressa N.; Sharma D.; Deepthi V.; Divyashree S.</t>
+          <t>Dutta J.; Puthal D.; Yeun C.Y.</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>2nd International Conference on Intelligent Data Communication Technologies and Internet of Things, IDCIoT 2024</t>
+          <t>Proceedings - IEEE Global Communications Conference, GLOBECOM</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>The revolutionary potential of a deep learning framework for stroke analysis and prediction in the healthcare industry is examined in this paper. The suggested framework uses large datasets, such as patient records, medical images, and pertinent health information, to create histicated neural networks in order to address the critical need for early detection and intervention in stroke cases. Important areas like stroke type classification, natural language processing, image analysis, treatment optimization, outcome prediction, telemedicine, and explainable artificial intelligence are highlighted in the thorough review of related work. The steps involved in data collection, preprocessing, model selection, and result interpretation are all carefully laid out in the methodology. A thorough evaluation of machine learning models, such as Random Forest, SVM, XGBoost, and Logistic Regression, is carried out; Random Forest continuously performs well. The results highlight how difficult it is to predict strokes and how crucial it is to choose models carefully. With the ultimate goal of improving stroke diagnosis, treatment, and prevention for improved patient care through ongoing research and technological advancements, ethical considerations and adherence to healthcare regulations in AI applications are emphasized.  © 2024 IEEE.</t>
+          <t>This article provides in-depth experimental studies of XAI (EXplainable Artificial Intelligence) in the IoT-Edge-Cloud continuum. Within the different available XAI frameworks, such as Local Interpretable Model-Agnostic Explanations (LIME) and SHapley Additive exPlanations (SHAP) frameworks are utilized here as they are the most suitable feature map-based, model-agnostic, posthoc frameworks that match our requirements for getting real-time prediction explanations in the healthcare domain. In order to evaluate LIME and SHAP in this continuum and to make black box AI (BBAI)-based decisions interpretable, we have considered the real-world electronic health record (EHR)-based large cloud database (which could be a very large database-VLDB) and IoMT based real-time streams as edge databases for the prediction of cardiac arrest in the real-world. We have also verified the effectiveness of automated counterfactual explanations in this context for taking remedial actions. Thus, our proposed model is capable of making significant advancements in the healthcare industry by offering conscious healthcare monitoring automation along with an AI-based self-explanatory system that serves as a personalized health assistant for individuals, paving the way for the next major upgrade in healthcare. © 2023 IEEE.</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>10.1109/IDCIoT59759.2024.10467659</t>
+          <t>10.1109/GLOBECOM54140.2023.10436967</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -22145,17 +22229,17 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>next generation healthcare with explainable ai: iomt-edge-cloud based advanced ehealth</t>
+          <t>noise-aware sparse gaussian processes and application to reliable industrial machinery health monitoring</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -22163,22 +22247,22 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Dutta J.; Puthal D.; Yeun C.Y.</t>
+          <t>Yang J.; Yue Z.; Yuan Y.</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>Proceedings - IEEE Global Communications Conference, GLOBECOM</t>
+          <t>IEEE Transactions on Industrial Informatics</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>This article provides in-depth experimental studies of XAI (EXplainable Artificial Intelligence) in the IoT-Edge-Cloud continuum. Within the different available XAI frameworks, such as Local Interpretable Model-Agnostic Explanations (LIME) and SHapley Additive exPlanations (SHAP) frameworks are utilized here as they are the most suitable feature map-based, model-agnostic, posthoc frameworks that match our requirements for getting real-time prediction explanations in the healthcare domain. In order to evaluate LIME and SHAP in this continuum and to make black box AI (BBAI)-based decisions interpretable, we have considered the real-world electronic health record (EHR)-based large cloud database (which could be a very large database-VLDB) and IoMT based real-time streams as edge databases for the prediction of cardiac arrest in the real-world. We have also verified the effectiveness of automated counterfactual explanations in this context for taking remedial actions. Thus, our proposed model is capable of making significant advancements in the healthcare industry by offering conscious healthcare monitoring automation along with an AI-based self-explanatory system that serves as a personalized health assistant for individuals, paving the way for the next major upgrade in healthcare. © 2023 IEEE.</t>
+          <t>Maintenance of machinery equipment in smart manufacturing requires real-time health monitoring, strongly supported by the rapid evolution of Artificial Intelligence (AI) technologies. Most AI-based health monitoring systems are powered by advanced modeling methods and intensive high-quality monitoring data. Such monitoring systems center on high-accuracy predictive performance but cannot necessarily convey reliability, such as satisfactory resistance to strong noises, credible uncertainty analysis, and model interpretability. This article novelly proposes noise-aware sparse Gaussian processes (NASGP) within the Bayesian inference framework. NASGP are capable of consistent high-performance and credible uncertainty assessment under strong noises. Based on NASGP, we then develop an explainable generalized additive model to bridge the gap between latent inference mechanism and domain expert knowledge. The efficacy of the proposed approach is corroborated through two case studies including remaining useful life prognosis and fault diagnosis for rolling bearings.  © 2005-2012 IEEE.</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>10.1109/GLOBECOM54140.2023.10436967</t>
+          <t>10.1109/TII.2022.3200428</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -22194,34 +22278,34 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>noise-aware sparse gaussian processes and application to reliable industrial machinery health monitoring</t>
+          <t>non-invasive anemia detection from conjunctival images</t>
         </is>
       </c>
       <c r="C509" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Yang J.; Yue Z.; Yuan Y.</t>
+          <t>Ferdousi R.; Mabruba N.; Laamarti F.; El Saddik A.; Yang C.</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Industrial Informatics</t>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Maintenance of machinery equipment in smart manufacturing requires real-time health monitoring, strongly supported by the rapid evolution of Artificial Intelligence (AI) technologies. Most AI-based health monitoring systems are powered by advanced modeling methods and intensive high-quality monitoring data. Such monitoring systems center on high-accuracy predictive performance but cannot necessarily convey reliability, such as satisfactory resistance to strong noises, credible uncertainty analysis, and model interpretability. This article novelly proposes noise-aware sparse Gaussian processes (NASGP) within the Bayesian inference framework. NASGP are capable of consistent high-performance and credible uncertainty assessment under strong noises. Based on NASGP, we then develop an explainable generalized additive model to bridge the gap between latent inference mechanism and domain expert knowledge. The efficacy of the proposed approach is corroborated through two case studies including remaining useful life prognosis and fault diagnosis for rolling bearings.  © 2005-2012 IEEE.</t>
+          <t>Anemia is a worldwide health issue. To diagnose anemia, blood must be drawn to examine the hemoglobin level. The procedure is time-consuming and labor-intensive. The existing Artificial Intelligence (AI)-based anemia detection methods in literature have shortcomings, including, i) specially designed data collection device, ii) manual feature extraction, iii) small data size for training the model, and iv)user’s trust in AI prediction. In this paper, we aim to provide a non-invasive model of anemia detection from visible signs. We trained a CNN model on eye-membrane image data collected from real patients and open image sources. Our model predicts anemic patients with good accuracy at 98%. In addition, we proposed the explainable AI method as a part of the non-invasive diagnosis to enhance the user’s trust in the CNN model’s prediction. © 2022, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>10.1109/TII.2022.3200428</t>
+          <t>10.1007/978-3-031-22061-6_14</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -22231,17 +22315,17 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>non-invasive anemia detection from conjunctival images</t>
+          <t>on the road to explainable ai in drug-drug interactions prediction: a systematic review</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -22249,22 +22333,22 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Ferdousi R.; Mabruba N.; Laamarti F.; El Saddik A.; Yang C.</t>
+          <t>Vo T.H.; Nguyen N.T.K.; Kha Q.H.; Le N.Q.K.</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+          <t>Computational and Structural Biotechnology Journal</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Anemia is a worldwide health issue. To diagnose anemia, blood must be drawn to examine the hemoglobin level. The procedure is time-consuming and labor-intensive. The existing Artificial Intelligence (AI)-based anemia detection methods in literature have shortcomings, including, i) specially designed data collection device, ii) manual feature extraction, iii) small data size for training the model, and iv)user’s trust in AI prediction. In this paper, we aim to provide a non-invasive model of anemia detection from visible signs. We trained a CNN model on eye-membrane image data collected from real patients and open image sources. Our model predicts anemic patients with good accuracy at 98%. In addition, we proposed the explainable AI method as a part of the non-invasive diagnosis to enhance the user’s trust in the CNN model’s prediction. © 2022, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+          <t>Over the past decade, polypharmacy instances have been common in multi-diseases treatment. However, unwanted drug-drug interactions (DDIs) that might cause unexpected adverse drug events (ADEs) in multiple regimens therapy remain a significant issue. Since artificial intelligence (AI) is ubiquitous today, many AI prediction models have been developed to predict DDIs to support clinicians in pharmacotherapy-related decisions. However, even though DDI prediction models have great potential for assisting physicians in polypharmacy decisions, there are still concerns regarding the reliability of AI models due to their black-box nature. Building AI models with explainable mechanisms can augment their transparency to address the above issue. Explainable AI (XAI) promotes safety and clarity by showing how decisions are made in AI models, especially in critical tasks like DDI predictions. In this review, a comprehensive overview of AI-based DDI prediction, including the publicly available source for AI-DDIs studies, the methods used in data manipulation and feature preprocessing, the XAI mechanisms to promote trust of AI, especially for critical tasks as DDIs prediction, the modeling methods, is provided. Limitations and the future directions of XAI in DDIs are also discussed. © 2022 The Author(s)</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>10.1007/978-3-031-22061-6_14</t>
+          <t>10.1016/j.csbj.2022.04.021</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
@@ -22280,11 +22364,11 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>on the road to explainable ai in drug-drug interactions prediction: a systematic review</t>
+          <t>optimal boosting label weighting extreme learning machine for mental disorder prediction and classification</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -22292,22 +22376,22 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Vo T.H.; Nguyen N.T.K.; Kha Q.H.; Le N.Q.K.</t>
+          <t>Laxmi Lydia E.; Anupama C.S.S.; Sharmili N.</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>Computational and Structural Biotechnology Journal</t>
+          <t>Intelligent Systems Reference Library</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>Over the past decade, polypharmacy instances have been common in multi-diseases treatment. However, unwanted drug-drug interactions (DDIs) that might cause unexpected adverse drug events (ADEs) in multiple regimens therapy remain a significant issue. Since artificial intelligence (AI) is ubiquitous today, many AI prediction models have been developed to predict DDIs to support clinicians in pharmacotherapy-related decisions. However, even though DDI prediction models have great potential for assisting physicians in polypharmacy decisions, there are still concerns regarding the reliability of AI models due to their black-box nature. Building AI models with explainable mechanisms can augment their transparency to address the above issue. Explainable AI (XAI) promotes safety and clarity by showing how decisions are made in AI models, especially in critical tasks like DDI predictions. In this review, a comprehensive overview of AI-based DDI prediction, including the publicly available source for AI-DDIs studies, the methods used in data manipulation and feature preprocessing, the XAI mechanisms to promote trust of AI, especially for critical tasks as DDIs prediction, the modeling methods, is provided. Limitations and the future directions of XAI in DDIs are also discussed. © 2022 The Author(s)</t>
+          <t>Explainable artificial intelligence (XAI) becomes a hot research topic in the domain of biomedical and healthcare applications. Owing to the benefits of handling massive and complicated data, XAI concept finds useful in several applications, particularly health care. With the developments of machine learning (ML) and XAI, healthcare service quality can be considerably improved. This article designs an optimal boosting label weighting extreme learning machine for mental disorder prediction and classification (OBWELM-MDC) technique. The goal of the OBWELM-MDC technique is to determine the different levels of DAS. In addition, the OBWELM-MDC technique involves the design of boosting label weighted extreme learning machine (BWELM) model for prediction process. Besides, the BWELM model can be derived by the incorporation of the label weighted extreme learning machine (LW-ELM) with boosted ensemble learning model. Moreover, the parameter tuning of the BWELM model takes place by the use of chaotic starling particle swarm optimization (CSPSO), where the inertia weight and acceleration coefficient of the PSO algorithm are modified via logistic chaotic map. The application of CSPSO algorithm has improved the predictive performance of the BWELM model. The experimental result analysis of the OBWELM-MDC technique takes place using benchmark dataset, and the results are examined under several measures. The experimental results showcased that OBWELM-MDC technique has accomplished maximum predictive outcomes over the other methods. © 2022, The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd.</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>10.1016/j.csbj.2022.04.021</t>
+          <t>10.1007/978-981-19-1476-8_1</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
@@ -22323,34 +22407,34 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>optimal boosting label weighting extreme learning machine for mental disorder prediction and classification</t>
+          <t>osteoarthritis detection and classification in knee x-ray images using particle swarm optimization with deep neural network</t>
         </is>
       </c>
       <c r="C512" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Laxmi Lydia E.; Anupama C.S.S.; Sharmili N.</t>
+          <t>Hema Rajini N.; Anton Smith A.</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>Intelligent Systems Reference Library</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Explainable artificial intelligence (XAI) becomes a hot research topic in the domain of biomedical and healthcare applications. Owing to the benefits of handling massive and complicated data, XAI concept finds useful in several applications, particularly health care. With the developments of machine learning (ML) and XAI, healthcare service quality can be considerably improved. This article designs an optimal boosting label weighting extreme learning machine for mental disorder prediction and classification (OBWELM-MDC) technique. The goal of the OBWELM-MDC technique is to determine the different levels of DAS. In addition, the OBWELM-MDC technique involves the design of boosting label weighted extreme learning machine (BWELM) model for prediction process. Besides, the BWELM model can be derived by the incorporation of the label weighted extreme learning machine (LW-ELM) with boosted ensemble learning model. Moreover, the parameter tuning of the BWELM model takes place by the use of chaotic starling particle swarm optimization (CSPSO), where the inertia weight and acceleration coefficient of the PSO algorithm are modified via logistic chaotic map. The application of CSPSO algorithm has improved the predictive performance of the BWELM model. The experimental result analysis of the OBWELM-MDC technique takes place using benchmark dataset, and the results are examined under several measures. The experimental results showcased that OBWELM-MDC technique has accomplished maximum predictive outcomes over the other methods. © 2022, The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd.</t>
+          <t>Explainable artificial intelligence (XAI) involves a collection of processes and approaches which enables human users to comprehend and trust the results and output produced by machine learning (ML) approaches. XAI is employed for describing the AI model, its expected impact, and potential biases. At the same time, Internet of Healthcare Things (IoHT) has become a hot research topic in the healthcare sector which assist in the disease diagnostic process. Presently, an efficient computer-aided diagnosis (CAD) model is needed for diagnosing osteoarthritis (OA). This study designs a new particle swarm optimization (PSO) model with deep neural network (DNN), named PSO-DNN technique, for the identification and categorization of osteoarthritis from the knee X-ray images in an IoHT environment. The presented method helps to distinguish between well and diseased knee X-ray images. Here, a guided filter (GF) and adaptive histogram equalization models are correspondingly employed to remove noises and enhance the images. Global thresholding-based segmentation model is employed for extracting the synovial cavity regions from the image, and curvature values are determined. For drawing a good validation, the experimentation takes place on the real-time patient-oriented images gathered from the medical organizations. From the simulation outcome, the presented PSO-DNN model confirmed the superior performance of the applied images. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>10.1007/978-981-19-1476-8_1</t>
+          <t>10.1007/978-3-031-08637-3_5</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -22366,34 +22450,34 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>osteoarthritis detection and classification in knee x-ray images using particle swarm optimization with deep neural network</t>
+          <t>overview of capsnet performance evaluation methods for image classification using a dual input capsule network as a case study</t>
         </is>
       </c>
       <c r="C513" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>Hema Rajini N.; Anton Smith A.</t>
+          <t>Mensah P.K.; Ayidzoe M.A.</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>International Journal of Computing and Digital Systems</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Explainable artificial intelligence (XAI) involves a collection of processes and approaches which enables human users to comprehend and trust the results and output produced by machine learning (ML) approaches. XAI is employed for describing the AI model, its expected impact, and potential biases. At the same time, Internet of Healthcare Things (IoHT) has become a hot research topic in the healthcare sector which assist in the disease diagnostic process. Presently, an efficient computer-aided diagnosis (CAD) model is needed for diagnosing osteoarthritis (OA). This study designs a new particle swarm optimization (PSO) model with deep neural network (DNN), named PSO-DNN technique, for the identification and categorization of osteoarthritis from the knee X-ray images in an IoHT environment. The presented method helps to distinguish between well and diseased knee X-ray images. Here, a guided filter (GF) and adaptive histogram equalization models are correspondingly employed to remove noises and enhance the images. Global thresholding-based segmentation model is employed for extracting the synovial cavity regions from the image, and curvature values are determined. For drawing a good validation, the experimentation takes place on the real-time patient-oriented images gathered from the medical organizations. From the simulation outcome, the presented PSO-DNN model confirmed the superior performance of the applied images. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+          <t>Performance evaluation is a critical part of deep learning (DL) that requires careful conduct to enhance confidence and reliability. Several metrics exist to evaluate DL models, however, choosing one for a given model is not trivial, since it is not a one-fit-all solution. Practically, accuracy is the most popularly used evaluation metric for capsule networks (CapsNets). This is problematic for sensitive applications (e.g. health), since accuracy is overly optimistic in the presence of class imbalance, and does not permit the exact reporting of a model’s risk of bias and potential usefulness. This paper, therefore, aims at demonstrating the usefulness of other metrics for performance evaluation as well as interpretability through the implementation of a custom capsule model. The metrics are effective in measuring the real performance of the models in terms of accuracy (93.03% for proposed model), number of parameters (≈ 4 million fewer for proposed model), ability to scale and fail-safe, and the effectiveness of the routing process when evaluated on the datasets. Evaluating a CapsNet model with all these metrics has the potential to enhance the practitioner’s confidence and also improve model understandability and reliability. © 2022 University of Bahrain. All rights reserved.</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>10.1007/978-3-031-08637-3_5</t>
+          <t>10.12785/ijcds/120104</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -22409,34 +22493,34 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>overview of capsnet performance evaluation methods for image classification using a dual input capsule network as a case study</t>
+          <t>overview of explainable artificial intelligence for prognostic and health management of industrial assets based on preferred reporting items for systematic reviews and meta-analyses</t>
         </is>
       </c>
       <c r="C514" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Mensah P.K.; Ayidzoe M.A.</t>
+          <t>Nor A.K.M.; Pedapati S.R.; Muhammad M.; Leiva V.</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>International Journal of Computing and Digital Systems</t>
+          <t>Sensors</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>Performance evaluation is a critical part of deep learning (DL) that requires careful conduct to enhance confidence and reliability. Several metrics exist to evaluate DL models, however, choosing one for a given model is not trivial, since it is not a one-fit-all solution. Practically, accuracy is the most popularly used evaluation metric for capsule networks (CapsNets). This is problematic for sensitive applications (e.g. health), since accuracy is overly optimistic in the presence of class imbalance, and does not permit the exact reporting of a model’s risk of bias and potential usefulness. This paper, therefore, aims at demonstrating the usefulness of other metrics for performance evaluation as well as interpretability through the implementation of a custom capsule model. The metrics are effective in measuring the real performance of the models in terms of accuracy (93.03% for proposed model), number of parameters (≈ 4 million fewer for proposed model), ability to scale and fail-safe, and the effectiveness of the routing process when evaluated on the datasets. Evaluating a CapsNet model with all these metrics has the potential to enhance the practitioner’s confidence and also improve model understandability and reliability. © 2022 University of Bahrain. All rights reserved.</t>
+          <t>Surveys on explainable artificial intelligence (XAI) are related to biology, clinical trials, fintech management, medicine, neurorobotics, and psychology, among others. Prognostics and health management (PHM) is the discipline that links the studies of failure mechanisms to system lifecycle management. There is a need, which is still absent, to produce an analytical compilation of PHM-XAI works. In this paper, we use preferred reporting items for systematic reviews and meta-analyses (PRISMA) to present a state of the art on XAI applied to PHM of industrial assets. This work provides an overview of the trend of XAI in PHM and answers the question of accuracy versus explainability, considering the extent of human involvement, explanation assessment, and uncertainty quantification in this topic. Research articles associated with the subject, since 2015 to 2021, were selected from five databases following the PRISMA methodology, several of them related to sensors. The data were extracted from selected articles and examined obtaining diverse findings that were synthesized as follows. First, while the discipline is still young, the analysis indicates a growing acceptance of XAI in PHM. Second, XAI offers dual advantages, where it is assimilated as a tool to execute PHM tasks and explain diagnostic and anomaly detection activities, implying a real need for XAI in PHM. Third, the review shows that PHM-XAI papers provide interesting results, suggesting that the PHM performance is unaffected by the XAI. Fourth, human role, evaluation metrics, and uncertainty management are areas requiring further attention by the PHM community. Adequate assessment metrics to cater to PHM needs are requested. Finally, most case studies featured in the considered articles are based on real industrial data, and some of them are related to sensors, showing that the available PHM-XAI blends solve real-world challenges, increasing the confidence in the artificial intelligence models’ adoption in the industry. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>10.12785/ijcds/120104</t>
+          <t>10.3390/s21238020</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
@@ -22446,40 +22530,40 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>overview of explainable artificial intelligence for prognostic and health management of industrial assets based on preferred reporting items for systematic reviews and meta-analyses</t>
+          <t>parkinson's disease diagnosis: towards grammar-based explainable artificial intelligence</t>
         </is>
       </c>
       <c r="C515" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Nor A.K.M.; Pedapati S.R.; Muhammad M.; Leiva V.</t>
+          <t>Cavaliere F.; Cioppa A.D.; Marcelli A.; Parziale A.; Senatore R.</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>Sensors</t>
+          <t>Proceedings - IEEE Symposium on Computers and Communications</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Surveys on explainable artificial intelligence (XAI) are related to biology, clinical trials, fintech management, medicine, neurorobotics, and psychology, among others. Prognostics and health management (PHM) is the discipline that links the studies of failure mechanisms to system lifecycle management. There is a need, which is still absent, to produce an analytical compilation of PHM-XAI works. In this paper, we use preferred reporting items for systematic reviews and meta-analyses (PRISMA) to present a state of the art on XAI applied to PHM of industrial assets. This work provides an overview of the trend of XAI in PHM and answers the question of accuracy versus explainability, considering the extent of human involvement, explanation assessment, and uncertainty quantification in this topic. Research articles associated with the subject, since 2015 to 2021, were selected from five databases following the PRISMA methodology, several of them related to sensors. The data were extracted from selected articles and examined obtaining diverse findings that were synthesized as follows. First, while the discipline is still young, the analysis indicates a growing acceptance of XAI in PHM. Second, XAI offers dual advantages, where it is assimilated as a tool to execute PHM tasks and explain diagnostic and anomaly detection activities, implying a real need for XAI in PHM. Third, the review shows that PHM-XAI papers provide interesting results, suggesting that the PHM performance is unaffected by the XAI. Fourth, human role, evaluation metrics, and uncertainty management are areas requiring further attention by the PHM community. Adequate assessment metrics to cater to PHM needs are requested. Finally, most case studies featured in the considered articles are based on real industrial data, and some of them are related to sensors, showing that the available PHM-XAI blends solve real-world challenges, increasing the confidence in the artificial intelligence models’ adoption in the industry. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Machine Learning (ML) approaches are vastly used for supporting humans in decision-making processes. However, the poor explainability associated to their behavior hampers their application in fields were the impact of the decision is critical, as it is the case for medical application, since physicians cannot simply use the predictions of the model but they must trust the results it provides. This work focuses on the automatic detection of Parkinson's disease (PD), whose impact on both the individual's quality of life and social well-being is constantly increasing with the aging of the population. To this end, we propose an explainable approach based on Genetic Programming, called Grammar Evolution (GE). This technique uses context-free grammar to describe the language of the programs to be generated and evolved. In this case, the generated programs are the explicit classification rules for the diagnosis of the subjects. The results of the experiments obtained on the publicly available HandPD data set show GE's high expressive power and performance comparable to those of several ML models that have been proposed in the literature. © 2020 IEEE.</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>10.3390/s21238020</t>
+          <t>10.1109/ISCC50000.2020.9219616</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
@@ -22495,34 +22579,34 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>parkinson's disease diagnosis: towards grammar-based explainable artificial intelligence</t>
+          <t>patient similarity analytics for explainable clinical risk prediction</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Cavaliere F.; Cioppa A.D.; Marcelli A.; Parziale A.; Senatore R.</t>
+          <t>Fang H.S.A.; Tan N.C.; Tan W.Y.; Oei R.W.; Lee M.L.; Hsu W.</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>Proceedings - IEEE Symposium on Computers and Communications</t>
+          <t>BMC Medical Informatics and Decision Making</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Machine Learning (ML) approaches are vastly used for supporting humans in decision-making processes. However, the poor explainability associated to their behavior hampers their application in fields were the impact of the decision is critical, as it is the case for medical application, since physicians cannot simply use the predictions of the model but they must trust the results it provides. This work focuses on the automatic detection of Parkinson's disease (PD), whose impact on both the individual's quality of life and social well-being is constantly increasing with the aging of the population. To this end, we propose an explainable approach based on Genetic Programming, called Grammar Evolution (GE). This technique uses context-free grammar to describe the language of the programs to be generated and evolved. In this case, the generated programs are the explicit classification rules for the diagnosis of the subjects. The results of the experiments obtained on the publicly available HandPD data set show GE's high expressive power and performance comparable to those of several ML models that have been proposed in the literature. © 2020 IEEE.</t>
+          <t>Background: Clinical risk prediction models (CRPMs) use patient characteristics to estimate the probability of having or developing a particular disease and/or outcome. While CRPMs are gaining in popularity, they have yet to be widely adopted in clinical practice. The lack of explainability and interpretability has limited their utility. Explainability is the extent of which a model’s prediction process can be described. Interpretability is the degree to which a user can understand the predictions made by a model. Methods: The study aimed to demonstrate utility of patient similarity analytics in developing an explainable and interpretable CRPM. Data was extracted from the electronic medical records of patients with type-2 diabetes mellitus, hypertension and dyslipidaemia in a Singapore public primary care clinic. We used modified K-nearest neighbour which incorporated expert input, to develop a patient similarity model on this real-world training dataset (n = 7,041) and validated it on a testing dataset (n = 3,018). The results were compared using logistic regression, random forest (RF) and support vector machine (SVM) models from the same dataset. The patient similarity model was then implemented in a prototype system to demonstrate the identification, explainability and interpretability of similar patients and the prediction process. Results: The patient similarity model (AUROC = 0.718) was comparable to the logistic regression (AUROC = 0.695), RF (AUROC = 0.764) and SVM models (AUROC = 0.766). We packaged the patient similarity model in a prototype web application. A proof of concept demonstrated how the application provided both quantitative and qualitative information, in the form of patient narratives. This information was used to better inform and influence clinical decision-making, such as getting a patient to agree to start insulin therapy. Conclusions: Patient similarity analytics is a feasible approach to develop an explainable and interpretable CRPM. While the approach is generalizable, it can be used to develop locally relevant information, based on the database it searches. Ultimately, such an approach can generate a more informative CRPMs which can be deployed as part of clinical decision support tools to better facilitate shared decision-making in clinical practice. © 2021, The Author(s).</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>10.1109/ISCC50000.2020.9219616</t>
+          <t>10.1186/s12911-021-01566-y</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -22532,40 +22616,40 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>patient similarity analytics for explainable clinical risk prediction</t>
+          <t>phenotyping of risk factors and prediction of inhospital mortality in patients with coronary artery disease after coronary artery bypass grafting based on explainable artificial intelligence methods</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Fang H.S.A.; Tan N.C.; Tan W.Y.; Oei R.W.; Lee M.L.; Hsu W.</t>
+          <t>Geltser B.I.; Shakhgeldyan K.I.; Rublev V.Y.; Domzhalov I.G.; Tsivanyuk M.M.; Shekunova O.I.</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>BMC Medical Informatics and Decision Making</t>
+          <t>Russian Journal of Cardiology</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Background: Clinical risk prediction models (CRPMs) use patient characteristics to estimate the probability of having or developing a particular disease and/or outcome. While CRPMs are gaining in popularity, they have yet to be widely adopted in clinical practice. The lack of explainability and interpretability has limited their utility. Explainability is the extent of which a model’s prediction process can be described. Interpretability is the degree to which a user can understand the predictions made by a model. Methods: The study aimed to demonstrate utility of patient similarity analytics in developing an explainable and interpretable CRPM. Data was extracted from the electronic medical records of patients with type-2 diabetes mellitus, hypertension and dyslipidaemia in a Singapore public primary care clinic. We used modified K-nearest neighbour which incorporated expert input, to develop a patient similarity model on this real-world training dataset (n = 7,041) and validated it on a testing dataset (n = 3,018). The results were compared using logistic regression, random forest (RF) and support vector machine (SVM) models from the same dataset. The patient similarity model was then implemented in a prototype system to demonstrate the identification, explainability and interpretability of similar patients and the prediction process. Results: The patient similarity model (AUROC = 0.718) was comparable to the logistic regression (AUROC = 0.695), RF (AUROC = 0.764) and SVM models (AUROC = 0.766). We packaged the patient similarity model in a prototype web application. A proof of concept demonstrated how the application provided both quantitative and qualitative information, in the form of patient narratives. This information was used to better inform and influence clinical decision-making, such as getting a patient to agree to start insulin therapy. Conclusions: Patient similarity analytics is a feasible approach to develop an explainable and interpretable CRPM. While the approach is generalizable, it can be used to develop locally relevant information, based on the database it searches. Ultimately, such an approach can generate a more informative CRPMs which can be deployed as part of clinical decision support tools to better facilitate shared decision-making in clinical practice. © 2021, The Author(s).</t>
+          <t>Aim. To develop predictive models of inhospital mortality (IHM) in patients with coronary artery disease after coronary artery bypass grafting (CABG), taking into account the results of phenotyping of preoperative risk factors. Material and methods. This retrospective study was conducted based on the data of 999 electronic health records of patients (805 men, 194 women) aged 35 to 81 years with a median (Me) of 63 years who underwent on-pump elective isolated CABG. Two groups of patients were distinguished, the first of which was represented by 63 (6,3%) patients who died in the hospital during the first 30 days after CABG, the second — 936 (93,7%) with a favorable outcome. Preoperative clinical and functional status was assessed using 102 factors. Chi-squares, Fisher, Mann-Whitney methods were used for data processing and analysis. Threshold values of predictors were determined by methods, including maximizing the ratio of true positive IHM cases to false positive ones. Multivariate logistic regression (MLR) was used to develop predictive models. Model accuracy was assessed using 3 following metrics: area under the ROC curve (AUC), sensitivity (Sens), and specificity (Spec). Results. An analysis of preoperative status of patients made it possible to identify 28 risk factors for IHM, combined into 7 phenotypes. The latter formed the feature space of IHM prognostic model, in which each feature demonstrates the patient's compliance with a certain risk factor phenotype. The author's MLR model had high quality metrics (AUC-0,91; Sen-0,9 and Spec-0,85). Conclusion. The developed data processing and analysis algorithm ensured high quality of preoperative risk factors identification and IHM prediction after CABG. Prospects for further research on this issue are related to the improvement of explainable artificial intelligence technologies, which allow developing information systems for managing clinical practice risks. © 2023, Silicea-Poligraf. All rights reserved.</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>10.1186/s12911-021-01566-y</t>
+          <t>10.15829/1560-4071-2023-5302</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
@@ -22581,11 +22665,11 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>phenotyping of risk factors and prediction of inhospital mortality in patients with coronary artery disease after coronary artery bypass grafting based on explainable artificial intelligence methods</t>
+          <t>physical interpretation of machine learning-based recognition of defects for the risk management of existing bridge heritage</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -22593,22 +22677,22 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Geltser B.I.; Shakhgeldyan K.I.; Rublev V.Y.; Domzhalov I.G.; Tsivanyuk M.M.; Shekunova O.I.</t>
+          <t>Cardellicchio A.; Ruggieri S.; Nettis A.; Renò V.; Uva G.</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>Russian Journal of Cardiology</t>
+          <t>Engineering Failure Analysis</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Aim. To develop predictive models of inhospital mortality (IHM) in patients with coronary artery disease after coronary artery bypass grafting (CABG), taking into account the results of phenotyping of preoperative risk factors. Material and methods. This retrospective study was conducted based on the data of 999 electronic health records of patients (805 men, 194 women) aged 35 to 81 years with a median (Me) of 63 years who underwent on-pump elective isolated CABG. Two groups of patients were distinguished, the first of which was represented by 63 (6,3%) patients who died in the hospital during the first 30 days after CABG, the second — 936 (93,7%) with a favorable outcome. Preoperative clinical and functional status was assessed using 102 factors. Chi-squares, Fisher, Mann-Whitney methods were used for data processing and analysis. Threshold values of predictors were determined by methods, including maximizing the ratio of true positive IHM cases to false positive ones. Multivariate logistic regression (MLR) was used to develop predictive models. Model accuracy was assessed using 3 following metrics: area under the ROC curve (AUC), sensitivity (Sens), and specificity (Spec). Results. An analysis of preoperative status of patients made it possible to identify 28 risk factors for IHM, combined into 7 phenotypes. The latter formed the feature space of IHM prognostic model, in which each feature demonstrates the patient's compliance with a certain risk factor phenotype. The author's MLR model had high quality metrics (AUC-0,91; Sen-0,9 and Spec-0,85). Conclusion. The developed data processing and analysis algorithm ensured high quality of preoperative risk factors identification and IHM prediction after CABG. Prospects for further research on this issue are related to the improvement of explainable artificial intelligence technologies, which allow developing information systems for managing clinical practice risks. © 2023, Silicea-Poligraf. All rights reserved.</t>
+          <t>The challenge of the research work presented in the paper is to combine the growing interest in monitoring the health condition of existing bridge heritage through systematic and periodic visual inspections with automated recognition of typical bridge defects, which can greatly facilitate the assessment of defect evolution over time. The study focused on the automated identification of defects in existing Reinforced Concrete (RC) bridges exploiting different Deep Learning (DL) approaches and techniques to interpret the obtained predictions. Ensuring the safety of infrastructures is typically a technical and economic issue. Still, in the case of the engineering infrastructure heritage, there are existing bridges and viaducts with a high historical, cultural, and symbolic value. For them, accurate knowledge and characterization of possible degradation processes become particularly important in order to define intervention strategies that combine safety and conservation requirements. With the aim to develop systematic and non-invasive investigation protocols for continuous and effective control of defects and their evolution, a database of existing RC bridge defect images was collected, and the most recurrent defect typologies were classified by domain experts. Some existing Convolutional Neural Networks (CNNs) algorithms were applied to the dataset for automatically recognizing all defects, but the specific novel contribution of the research work is the interpretation of the obtained results in a form that is humanly explainable and directly implementable in new tools for bridge inspections. To interpret the results, Class Activation Maps (CAMs) approaches were employed within available eXplainable Artificial Intelligence (XAI) techniques, which allow to observe the activation zones and nearly perfectly highlight the type of specific defect in a given image. The obtained results, besides suggesting which network works better than others and if the specific defect is effectively recognized, have been evaluated through a quasi-quantitative procedure that compared a qualitative assessment of the CNNs models reliability with two novel indexes representing new explaining metrics of the obtained results. In the end, the outcomes of the proposed study were observed also in a real-life case study. The proposed discussion opens new scenarios in the application of these techniques for supporting road management companies and public organizations in the evaluation of the road networks health state. © 2023 Elsevier Ltd</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>10.15829/1560-4071-2023-5302</t>
+          <t>10.1016/j.engfailanal.2023.107237</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -22618,40 +22702,40 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>physical interpretation of machine learning-based recognition of defects for the risk management of existing bridge heritage</t>
+          <t>plenary: explaining black-box models in natural language through fuzzy linguistic summaries</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>Cardellicchio A.; Ruggieri S.; Nettis A.; Renò V.; Uva G.</t>
+          <t>Kaczmarek-Majer K.; Casalino G.; Castellano G.; Dominiak M.; Hryniewicz O.; Kamińska O.; Vessio G.; Díaz-Rodríguez N.</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>Engineering Failure Analysis</t>
+          <t>Information Sciences</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>The challenge of the research work presented in the paper is to combine the growing interest in monitoring the health condition of existing bridge heritage through systematic and periodic visual inspections with automated recognition of typical bridge defects, which can greatly facilitate the assessment of defect evolution over time. The study focused on the automated identification of defects in existing Reinforced Concrete (RC) bridges exploiting different Deep Learning (DL) approaches and techniques to interpret the obtained predictions. Ensuring the safety of infrastructures is typically a technical and economic issue. Still, in the case of the engineering infrastructure heritage, there are existing bridges and viaducts with a high historical, cultural, and symbolic value. For them, accurate knowledge and characterization of possible degradation processes become particularly important in order to define intervention strategies that combine safety and conservation requirements. With the aim to develop systematic and non-invasive investigation protocols for continuous and effective control of defects and their evolution, a database of existing RC bridge defect images was collected, and the most recurrent defect typologies were classified by domain experts. Some existing Convolutional Neural Networks (CNNs) algorithms were applied to the dataset for automatically recognizing all defects, but the specific novel contribution of the research work is the interpretation of the obtained results in a form that is humanly explainable and directly implementable in new tools for bridge inspections. To interpret the results, Class Activation Maps (CAMs) approaches were employed within available eXplainable Artificial Intelligence (XAI) techniques, which allow to observe the activation zones and nearly perfectly highlight the type of specific defect in a given image. The obtained results, besides suggesting which network works better than others and if the specific defect is effectively recognized, have been evaluated through a quasi-quantitative procedure that compared a qualitative assessment of the CNNs models reliability with two novel indexes representing new explaining metrics of the obtained results. In the end, the outcomes of the proposed study were observed also in a real-life case study. The proposed discussion opens new scenarios in the application of these techniques for supporting road management companies and public organizations in the evaluation of the road networks health state. © 2023 Elsevier Ltd</t>
+          <t>We introduce an approach called PLENARY (exPlaining bLack-box modEls in Natural lAnguage thRough fuzzY linguistic summaries), which is an explainable classifier based on a data-driven predictive model. Neural learning is exploited to derive a predictive model based on two levels of labels associated with the data. Then, model explanations are derived through the popular SHapley Additive exPlanations (SHAP) tool and conveyed in a linguistic form via fuzzy linguistic summaries. The linguistic summarization allows translating the explanations of the model outputs provided by SHAP into statements expressed in natural language. PLENARY accounts for the imprecision related to model outputs by summarizing them into simple linguistic statements and for the imprecision related to the data labeling process by including additional domain knowledge in the form of middle-layer labels. PLENARY is validated on preprocessed speech signals collected from smartphones from patients with bipolar disorder and on publicly available mental health survey data. The experiments confirm that fuzzy linguistic summarization is an effective technique to support meta-analyses of the outputs of AI models. Also, PLENARY improves explainability by aggregating low-level attributes into high-level information granules, and by incorporating vague domain knowledge into a multi-task sequential and compositional multilayer perceptron. SHAP explanations translated into fuzzy linguistic summaries significantly improve understanding of the predictive modelling process and its outputs. © 2022 The Authors</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>10.1016/j.engfailanal.2023.107237</t>
+          <t>10.1016/j.ins.2022.10.010</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -22667,54 +22751,54 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>plenary: explaining black-box models in natural language through fuzzy linguistic summaries</t>
+          <t>polychlorinated biphenyls in mussels, small pelagic fish, tuna, turtles, and dolphins from the croatian adriatic sea waters: an overview of the last two decades of monitoring</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Kaczmarek-Majer K.; Casalino G.; Castellano G.; Dominiak M.; Hryniewicz O.; Kamińska O.; Vessio G.; Díaz-Rodríguez N.</t>
+          <t>Romanic, SH; Mendas, G; Fingler, S; Drevenkar, V; Mustac, B; Jovanovic, G</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>Information Sciences</t>
+          <t>ARHIV ZA HIGIJENU RADA I TOKSIKOLOGIJU-ARCHIVES OF INDUSTRIAL HYGIENE AND TOXICOLOGY</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>We introduce an approach called PLENARY (exPlaining bLack-box modEls in Natural lAnguage thRough fuzzY linguistic summaries), which is an explainable classifier based on a data-driven predictive model. Neural learning is exploited to derive a predictive model based on two levels of labels associated with the data. Then, model explanations are derived through the popular SHapley Additive exPlanations (SHAP) tool and conveyed in a linguistic form via fuzzy linguistic summaries. The linguistic summarization allows translating the explanations of the model outputs provided by SHAP into statements expressed in natural language. PLENARY accounts for the imprecision related to model outputs by summarizing them into simple linguistic statements and for the imprecision related to the data labeling process by including additional domain knowledge in the form of middle-layer labels. PLENARY is validated on preprocessed speech signals collected from smartphones from patients with bipolar disorder and on publicly available mental health survey data. The experiments confirm that fuzzy linguistic summarization is an effective technique to support meta-analyses of the outputs of AI models. Also, PLENARY improves explainability by aggregating low-level attributes into high-level information granules, and by incorporating vague domain knowledge into a multi-task sequential and compositional multilayer perceptron. SHAP explanations translated into fuzzy linguistic summaries significantly improve understanding of the predictive modelling process and its outputs. © 2022 The Authors</t>
+          <t>This review summarises our two decades of polychlorinated biphenyl (PCB) monitoring in different marine organisms along the eastern Adriatic Sea. The aim was to gain an insight into the trends of PCB distribution in order to evaluate the effectiveness of past and current legislation and suggest further action. Here we mainly focus on PCB levels in wild and farmed Mediterranean mussels, wild and farmed bluefin tuna, loggerhead sea turtles, common bottlenose dolphins, and small pelagic fish. The use of artificial intelligence and advanced statistics enabled an insight into the influence of various variables on the uptake of PCBs in the investigated organisms as well as into their mutual dependence. Our findings suggest that PCBs in small pelagic fish and mussels reflect global pollution and that high levels in dolphins and wild tuna tissues raise particular concern, as they confirm their biomagnification up the food chain. Therefore, the ongoing PCB monitoring should focus on predatory species in particular to help us better understand PCB contamination in marine ecosystems in our efforts to protect the environment and human health.</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>10.1016/j.ins.2022.10.010</t>
+          <t>10.2478/aiht-2024-75-3814</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>polychlorinated biphenyls in mussels, small pelagic fish, tuna, turtles, and dolphins from the croatian adriatic sea waters: an overview of the last two decades of monitoring</t>
+          <t>polychlorinated biphenyls in mussels, small pelagic fish, tuna, turtles, and dolphins from the croatian adriatic sea waters: an overview of the last two decades of monitoring; [poliklorirani bifenili u dagnjama, malim plavim ribama, tunama, kornjačama i dupinima iz voda hrvatskoga jadrana - pregled monitoringa u protekla dva desetljeća]</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -22722,17 +22806,17 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Romanic, SH; Mendas, G; Fingler, S; Drevenkar, V; Mustac, B; Jovanovic, G</t>
+          <t>Romanić S.H.; Mendaš G.; Fingler S.; Drevenkar V.; Mustać B.; Jovanović G.</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>ARHIV ZA HIGIJENU RADA I TOKSIKOLOGIJU-ARCHIVES OF INDUSTRIAL HYGIENE AND TOXICOLOGY</t>
+          <t>Arhiv za Higijenu Rada i Toksikologiju</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>This review summarises our two decades of polychlorinated biphenyl (PCB) monitoring in different marine organisms along the eastern Adriatic Sea. The aim was to gain an insight into the trends of PCB distribution in order to evaluate the effectiveness of past and current legislation and suggest further action. Here we mainly focus on PCB levels in wild and farmed Mediterranean mussels, wild and farmed bluefin tuna, loggerhead sea turtles, common bottlenose dolphins, and small pelagic fish. The use of artificial intelligence and advanced statistics enabled an insight into the influence of various variables on the uptake of PCBs in the investigated organisms as well as into their mutual dependence. Our findings suggest that PCBs in small pelagic fish and mussels reflect global pollution and that high levels in dolphins and wild tuna tissues raise particular concern, as they confirm their biomagnification up the food chain. Therefore, the ongoing PCB monitoring should focus on predatory species in particular to help us better understand PCB contamination in marine ecosystems in our efforts to protect the environment and human health.</t>
+          <t>This review summarises our two decades of polychlorinated biphenyl (PCB) monitoring in different marine organisms along the eastern Adriatic Sea. The aim was to gain an insight into the trends of PCB distribution in order to evaluate the effectiveness of past and current legislation and suggest further action. Here we mainly focus on PCB levels in wild and farmed Mediterranean mussels, wild and farmed bluefin tuna, loggerhead sea turtles, common bottlenose dolphins, and small pelagic fish. The use of artificial intelligence and advanced statistics enabled an insight into the influence of various variables on the uptake of PCBs in the investigated organisms as well as into their mutual dependence. Our findings suggest that PCBs in small pelagic fish and mussels reflect global pollution and that high levels in dolphins and wild tuna tissues raise particular concern, as they confirm their biomagnification up the food chain. Therefore, the ongoing PCB monitoring should focus on predatory species in particular to help us better understand PCB contamination in marine ecosystems in our efforts to protect the environment and human health. © 2024 Sciendo. All rights reserved.</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -22742,45 +22826,45 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>polychlorinated biphenyls in mussels, small pelagic fish, tuna, turtles, and dolphins from the croatian adriatic sea waters: an overview of the last two decades of monitoring; [poliklorirani bifenili u dagnjama, malim plavim ribama, tunama, kornjačama i dupinima iz voda hrvatskoga jadrana - pregled monitoringa u protekla dva desetljeća]</t>
+          <t>polycystic ovary syndrome detection machine learning model based on optimized feature selection and explainable artificial intelligence</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Romanić S.H.; Mendaš G.; Fingler S.; Drevenkar V.; Mustać B.; Jovanović G.</t>
+          <t>Elmannai H.; El-Rashidy N.; Mashal I.; Alohali M.A.; Farag S.; El-Sappagh S.; Saleh H.</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>Arhiv za Higijenu Rada i Toksikologiju</t>
+          <t>Diagnostics</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>This review summarises our two decades of polychlorinated biphenyl (PCB) monitoring in different marine organisms along the eastern Adriatic Sea. The aim was to gain an insight into the trends of PCB distribution in order to evaluate the effectiveness of past and current legislation and suggest further action. Here we mainly focus on PCB levels in wild and farmed Mediterranean mussels, wild and farmed bluefin tuna, loggerhead sea turtles, common bottlenose dolphins, and small pelagic fish. The use of artificial intelligence and advanced statistics enabled an insight into the influence of various variables on the uptake of PCBs in the investigated organisms as well as into their mutual dependence. Our findings suggest that PCBs in small pelagic fish and mussels reflect global pollution and that high levels in dolphins and wild tuna tissues raise particular concern, as they confirm their biomagnification up the food chain. Therefore, the ongoing PCB monitoring should focus on predatory species in particular to help us better understand PCB contamination in marine ecosystems in our efforts to protect the environment and human health. © 2024 Sciendo. All rights reserved.</t>
+          <t>Polycystic ovary syndrome (PCOS) has been classified as a severe health problem common among women globally. Early detection and treatment of PCOS reduce the possibility of long-term complications, such as increasing the chances of developing type 2 diabetes and gestational diabetes. Therefore, effective and early PCOS diagnosis will help the healthcare systems to reduce the disease’s problems and complications. Machine learning (ML) and ensemble learning have recently shown promising results in medical diagnostics. The main goal of our research is to provide model explanations to ensure efficiency, effectiveness, and trust in the developed model through local and global explanations. Feature selection methods with different types of ML models (logistic regression (LR), random forest (RF), decision tree (DT), naive Bayes (NB), support vector machine (SVM), k-nearest neighbor (KNN), xgboost, and Adaboost algorithm to get optimal feature selection and best model. Stacking ML models that combine the best base ML models with meta-learner are proposed to improve performance. Bayesian optimization is used to optimize ML models. Combining SMOTE (Synthetic Minority Oversampling Techniques) and ENN (Edited Nearest Neighbour) solves the class imbalance. The experimental results were made using a benchmark PCOS dataset with two ratios splitting 70:30 and 80:20. The result showed that the Stacking ML with REF feature selection recorded the highest accuracy at 100 compared to other models. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>10.2478/aiht-2024-75-3814</t>
+          <t>10.3390/diagnostics13081506</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
@@ -22790,17 +22874,17 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>polycystic ovary syndrome detection machine learning model based on optimized feature selection and explainable artificial intelligence</t>
+          <t>potential of coupling metaheuristics-optimized-xgboost and shap in revealing pahs environmental fate</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -22808,22 +22892,22 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Elmannai H.; El-Rashidy N.; Mashal I.; Alohali M.A.; Farag S.; El-Sappagh S.; Saleh H.</t>
+          <t>Jovanovic G.; Perisic M.; Bacanin N.; Zivkovic M.; Stanisic S.; Strumberger I.; Alimpic F.; Stojic A.</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>Diagnostics</t>
+          <t>Toxics</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Polycystic ovary syndrome (PCOS) has been classified as a severe health problem common among women globally. Early detection and treatment of PCOS reduce the possibility of long-term complications, such as increasing the chances of developing type 2 diabetes and gestational diabetes. Therefore, effective and early PCOS diagnosis will help the healthcare systems to reduce the disease’s problems and complications. Machine learning (ML) and ensemble learning have recently shown promising results in medical diagnostics. The main goal of our research is to provide model explanations to ensure efficiency, effectiveness, and trust in the developed model through local and global explanations. Feature selection methods with different types of ML models (logistic regression (LR), random forest (RF), decision tree (DT), naive Bayes (NB), support vector machine (SVM), k-nearest neighbor (KNN), xgboost, and Adaboost algorithm to get optimal feature selection and best model. Stacking ML models that combine the best base ML models with meta-learner are proposed to improve performance. Bayesian optimization is used to optimize ML models. Combining SMOTE (Synthetic Minority Oversampling Techniques) and ENN (Edited Nearest Neighbour) solves the class imbalance. The experimental results were made using a benchmark PCOS dataset with two ratios splitting 70:30 and 80:20. The result showed that the Stacking ML with REF feature selection recorded the highest accuracy at 100 compared to other models. © 2023 by the authors.</t>
+          <t>Polycyclic aromatic hydrocarbons (PAHs) refer to a group of several hundred compounds, among which 16 are identified as priority pollutants, due to their adverse health effects, frequency of occurrence, and potential for human exposure. This study is focused on benzo(a)pyrene, being considered an indicator of exposure to a PAH carcinogenic mixture. For this purpose, we have applied the XGBoost model to a two-year database of pollutant concentrations and meteorological parameters, with the aim to identify the factors which were mostly associated with the observed benzo(a)pyrene concentrations and to describe types of environments that supported the interactions between benzo(a)pyrene and other polluting species. The pollutant data were collected at the energy industry center in Serbia, in the vicinity of coal mining areas and power stations, where the observed benzo(a)pyrene maximum concentration for a study period reached 43.7 (Formula presented.). The metaheuristics algorithm has been used to optimize the XGBoost hyperparameters, and the results have been compared to the results of XGBoost models tuned by eight other cutting-edge metaheuristics algorithms. The best-produced model was later on interpreted by applying Shapley Additive exPlanations (SHAP). As indicated by mean absolute SHAP values, the temperature at the surface, arsenic, PM (Formula presented.), and total nitrogen oxide (NOx) concentrations appear to be the major factors affecting benzo(a)pyrene concentrations and its environmental fate. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>10.3390/diagnostics13081506</t>
+          <t>10.3390/toxics11040394</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
@@ -22839,120 +22923,120 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>potential of coupling metaheuristics-optimized-xgboost and shap in revealing pahs environmental fate</t>
+          <t>predicting antimicrobial mechanism-of-action from transcriptomes: a generalizable explainable artificial intelligence approach</t>
         </is>
       </c>
       <c r="C524" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Jovanovic G.; Perisic M.; Bacanin N.; Zivkovic M.; Stanisic S.; Strumberger I.; Alimpic F.; Stojic A.</t>
+          <t>Espinoza, JL; Dupont, CL; O'Rourke, A; Beyhan, S; Morales, P; Spoering, A; Meyer, KJ; Chan, AP; Choi, Y; Nierman, WC; Lewis, K; Nelson, KE</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>Toxics</t>
+          <t>PLOS COMPUTATIONAL BIOLOGY</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Polycyclic aromatic hydrocarbons (PAHs) refer to a group of several hundred compounds, among which 16 are identified as priority pollutants, due to their adverse health effects, frequency of occurrence, and potential for human exposure. This study is focused on benzo(a)pyrene, being considered an indicator of exposure to a PAH carcinogenic mixture. For this purpose, we have applied the XGBoost model to a two-year database of pollutant concentrations and meteorological parameters, with the aim to identify the factors which were mostly associated with the observed benzo(a)pyrene concentrations and to describe types of environments that supported the interactions between benzo(a)pyrene and other polluting species. The pollutant data were collected at the energy industry center in Serbia, in the vicinity of coal mining areas and power stations, where the observed benzo(a)pyrene maximum concentration for a study period reached 43.7 (Formula presented.). The metaheuristics algorithm has been used to optimize the XGBoost hyperparameters, and the results have been compared to the results of XGBoost models tuned by eight other cutting-edge metaheuristics algorithms. The best-produced model was later on interpreted by applying Shapley Additive exPlanations (SHAP). As indicated by mean absolute SHAP values, the temperature at the surface, arsenic, PM (Formula presented.), and total nitrogen oxide (NOx) concentrations appear to be the major factors affecting benzo(a)pyrene concentrations and its environmental fate. © 2023 by the authors.</t>
+          <t>To better combat the expansion of antibiotic resistance in pathogens, new compounds, particularly those with novel mechanisms-of-action [MOA], represent a major research priority in biomedical science. However, rediscovery of known antibiotics demonstrates a need for approaches that accurately identify potential novelty with higher throughput and reduced labor. Here we describe an explainable artificial intelligence classification methodology that emphasizes prediction performance and human interpretability by using a Hierarchical Ensemble of Classifiers model optimized with a novel feature selection algorithm called Clairvoyance; collectively referred to as a CoHEC model. We evaluated our methods using whole transcriptome responses from Escherichia coli challenged with 41 FDA-approved antibiotics and 9 crude extracts while depositing 306 transcriptomes. Our CoHEC model can properly predict the primary MOA of previously unobserved compounds in both purified forms and crude extracts at an accuracy above 99%, while also correctly identifying darobactin, a newly discovered antibiotic, as having a novel MOA. In addition, we deploy our methods on a recent E. coli transcriptomics dataset in a different strain and a Mycobacterium smegmatis metabolomics timeseries dataset and showcase exceptionally high performance; improving upon the performance metrics of the original publications. We not only provide insight into the biological interpretation of our model but also that the concept of MOA is a non-discrete heuristic with diverse effects for different compounds within the same MOA, suggesting substantial antibiotic diversity awaiting discovery within existing MOA. Author summary As antimicrobial resistance is on the rise, the need for compounds with novel targets or mechanisms-of-action [MOA] are of the utmost importance from the standpoint of public health. A major bottleneck in drug discovery is the ability to rapidly screen candidate compounds for precise MOA activity as current approaches are expensive, time consuming, and are difficult to implement in high-throughput. To alleviate this bottleneck in drug discovery, we developed a human interpretable artificial intelligence classification framework that can be used to build highly accurate and flexible predictive models. In this study, we investigated antimicrobial MOA through the transcriptional responses of Escherichia coli challenged with 41 FDA-approved antibiotic compounds, 9 crude extracts, and a recently discovered (circa 2019) compound, darobactin, with novel MOA activity. We implemented a highly stringent Leave Compound Out Cross-Validation procedure to stress-test our predictive models by simulating the scenario of observing novel compounds. Furthermore, we developed a versatile feature selection algorithm, Clairvoyance, that we apply to our hierarchical ensemble of classifiers framework to build high performance explainable machine-learning models. Although the methods in this study were developed and stress-tested to predict the primary MOA from transcriptomic responses in E. coli, we designed these methods for general application to any classification problem and open-sourced the implementations in our Soothsayer Python package. We further demonstrate the versatility of these methods by deploying them on recent Mycobacterium smegmatis metabolomic and E. coli transcriptomics datasets to predict MOA with high accuracy.</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>10.3390/toxics11040394</t>
+          <t>10.1371/journal.pcbi.1008857</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>predicting antimicrobial mechanism-of-action from transcriptomes: a generalizable explainable artificial intelligence approach</t>
+          <t>predicting decompensation risk in intensive care unit patients using machine learning</t>
         </is>
       </c>
       <c r="C525" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Espinoza, JL; Dupont, CL; O'Rourke, A; Beyhan, S; Morales, P; Spoering, A; Meyer, KJ; Chan, AP; Choi, Y; Nierman, WC; Lewis, K; Nelson, KE</t>
+          <t>Aikodon N.; Ortega-Martorell S.; Olier I.</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>PLOS COMPUTATIONAL BIOLOGY</t>
+          <t>Algorithms</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>To better combat the expansion of antibiotic resistance in pathogens, new compounds, particularly those with novel mechanisms-of-action [MOA], represent a major research priority in biomedical science. However, rediscovery of known antibiotics demonstrates a need for approaches that accurately identify potential novelty with higher throughput and reduced labor. Here we describe an explainable artificial intelligence classification methodology that emphasizes prediction performance and human interpretability by using a Hierarchical Ensemble of Classifiers model optimized with a novel feature selection algorithm called Clairvoyance; collectively referred to as a CoHEC model. We evaluated our methods using whole transcriptome responses from Escherichia coli challenged with 41 FDA-approved antibiotics and 9 crude extracts while depositing 306 transcriptomes. Our CoHEC model can properly predict the primary MOA of previously unobserved compounds in both purified forms and crude extracts at an accuracy above 99%, while also correctly identifying darobactin, a newly discovered antibiotic, as having a novel MOA. In addition, we deploy our methods on a recent E. coli transcriptomics dataset in a different strain and a Mycobacterium smegmatis metabolomics timeseries dataset and showcase exceptionally high performance; improving upon the performance metrics of the original publications. We not only provide insight into the biological interpretation of our model but also that the concept of MOA is a non-discrete heuristic with diverse effects for different compounds within the same MOA, suggesting substantial antibiotic diversity awaiting discovery within existing MOA. Author summary As antimicrobial resistance is on the rise, the need for compounds with novel targets or mechanisms-of-action [MOA] are of the utmost importance from the standpoint of public health. A major bottleneck in drug discovery is the ability to rapidly screen candidate compounds for precise MOA activity as current approaches are expensive, time consuming, and are difficult to implement in high-throughput. To alleviate this bottleneck in drug discovery, we developed a human interpretable artificial intelligence classification framework that can be used to build highly accurate and flexible predictive models. In this study, we investigated antimicrobial MOA through the transcriptional responses of Escherichia coli challenged with 41 FDA-approved antibiotic compounds, 9 crude extracts, and a recently discovered (circa 2019) compound, darobactin, with novel MOA activity. We implemented a highly stringent Leave Compound Out Cross-Validation procedure to stress-test our predictive models by simulating the scenario of observing novel compounds. Furthermore, we developed a versatile feature selection algorithm, Clairvoyance, that we apply to our hierarchical ensemble of classifiers framework to build high performance explainable machine-learning models. Although the methods in this study were developed and stress-tested to predict the primary MOA from transcriptomic responses in E. coli, we designed these methods for general application to any classification problem and open-sourced the implementations in our Soothsayer Python package. We further demonstrate the versatility of these methods by deploying them on recent Mycobacterium smegmatis metabolomic and E. coli transcriptomics datasets to predict MOA with high accuracy.</t>
+          <t>Patients in Intensive Care Units (ICU) face the threat of decompensation, a rapid decline in health associated with a high risk of death. This study focuses on creating and evaluating machine learning (ML) models to predict decompensation risk in ICU patients. It proposes a novel approach using patient vitals and clinical data within a specified timeframe to forecast decompensation risk sequences. The study implemented and assessed long short-term memory (LSTM) and hybrid convolutional neural network (CNN)-LSTM architectures, along with traditional ML algorithms as baselines. Additionally, it introduced a novel decompensation score based on the predicted risk, validated through principal component analysis (PCA) and k-means analysis for risk stratification. The results showed that, with PPV = 0.80, NPV = 0.96 and AUC-ROC = 0.90, CNN-LSTM had the best performance when predicting decompensation risk sequences. The decompensation score’s effectiveness was also confirmed (PPV = 0.83 and NPV = 0.96). SHAP plots were generated for the overall model and two risk strata, illustrating variations in feature importance and their associations with the predicted risk. Notably, this study represents the first attempt to predict a sequence of decompensation risks rather than single events, a critical advancement given the challenge of early decompensation detection. Predicting a sequence facilitates early detection of increased decompensation risk and pace, potentially leading to saving more lives. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>10.1371/journal.pcbi.1008857</t>
+          <t>10.3390/a17010006</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>predicting decompensation risk in intensive care unit patients using machine learning</t>
+          <t>predicting exclusive breastfeeding in maternity wards using machine learning techniques</t>
         </is>
       </c>
       <c r="C526" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Aikodon N.; Ortega-Martorell S.; Olier I.</t>
+          <t>Oliver-Roig A.; Rico-Juan J.R.; Richart-Martínez M.; Cabrero-García J.</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>Algorithms</t>
+          <t>Computer Methods and Programs in Biomedicine</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Patients in Intensive Care Units (ICU) face the threat of decompensation, a rapid decline in health associated with a high risk of death. This study focuses on creating and evaluating machine learning (ML) models to predict decompensation risk in ICU patients. It proposes a novel approach using patient vitals and clinical data within a specified timeframe to forecast decompensation risk sequences. The study implemented and assessed long short-term memory (LSTM) and hybrid convolutional neural network (CNN)-LSTM architectures, along with traditional ML algorithms as baselines. Additionally, it introduced a novel decompensation score based on the predicted risk, validated through principal component analysis (PCA) and k-means analysis for risk stratification. The results showed that, with PPV = 0.80, NPV = 0.96 and AUC-ROC = 0.90, CNN-LSTM had the best performance when predicting decompensation risk sequences. The decompensation score’s effectiveness was also confirmed (PPV = 0.83 and NPV = 0.96). SHAP plots were generated for the overall model and two risk strata, illustrating variations in feature importance and their associations with the predicted risk. Notably, this study represents the first attempt to predict a sequence of decompensation risks rather than single events, a critical advancement given the challenge of early decompensation detection. Predicting a sequence facilitates early detection of increased decompensation risk and pace, potentially leading to saving more lives. © 2023 by the authors.</t>
+          <t>Background and objective: Adequate support in maternity wards is decisive for breastfeeding outcomes during the first year of life. Quality improvement interventions require the identification of the factors influencing hospital benchmark indicators. Machine Learning (ML) models and post-hoc Explainable Artificial Intelligence (XAI) techniques allow accurate predictions and explaining them. This study aimed to predict exclusive breastfeeding during the in-hospital postpartum stay by ML algorithms and explain the ML model's behaviour to support decision making. Methods: The dataset included 2042 mothers giving birth in 18 hospitals in Eastern Spain. We obtained information on demographics, mothers’ breastfeeding experiences, clinical variables, and participating hospitals’ support conditions. The outcome variable was exclusive breastfeeding during the in-hospital postpartum stay. We tested algorithms from different ML families. To evaluate the ML models, we applied 10-fold stratified cross-validation. We used the following metrics: Area under curve receiver operating characteristic (ROC AUC), area under curve precision-recall (PR AUC), accuracy, and Brier score. After selecting the best fitting model, we calculated Shapley's additive values to assign weights to each predictor depending on its additive contribution to the outcome and to explain the predictions. Results: The XGBoost algorithms showed the best metrics (ROC AUC = 0.78, PR AUC = 0.86, accuracy = 0.75, Brier = 0.17). The main predictors of the model included, in order of importance, the pacifier use, the degree of breastfeeding self-efficacy, the previous breastfeeding experience, the birth weight, the admission of the baby to a neonatal care unit after birth, the moment of the first skin-to-skin contact between mother and baby, and the Baby-Friendly Hospital Initiative accreditation of the hospital. Specific examples for linear and nonlinear relations between main predictors and the outcome and heterogeneity of effects are presented. Also, we describe diverse individual cases showing the variation of the prediction depending on individual characteristics. Conclusion: The ML model adequately predicted exclusive breastfeeding during the in-hospital stay. Our results pointed to opportunities for improving care related to support for specific mother's groups, defined by current and previous infant feeding experiences and clinical conditions of the newborns, and the participating hospitals’ support conditions. Also, XAI techniques allowed identifying non-linearity relations and effect's heterogeneity, explaining specific cases’ risk variations. © 2022 The Authors</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>10.3390/a17010006</t>
+          <t>10.1016/j.cmpb.2022.106837</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
@@ -22962,17 +23046,17 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>predicting exclusive breastfeeding in maternity wards using machine learning techniques</t>
+          <t>predicting intra-urban well-being from space with nonlinear machine learning</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -22980,22 +23064,22 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Oliver-Roig A.; Rico-Juan J.R.; Richart-Martínez M.; Cabrero-García J.</t>
+          <t>Wójcik P.; Andruszek K.</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>Computer Methods and Programs in Biomedicine</t>
+          <t>Regional Science Policy and Practice</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Background and objective: Adequate support in maternity wards is decisive for breastfeeding outcomes during the first year of life. Quality improvement interventions require the identification of the factors influencing hospital benchmark indicators. Machine Learning (ML) models and post-hoc Explainable Artificial Intelligence (XAI) techniques allow accurate predictions and explaining them. This study aimed to predict exclusive breastfeeding during the in-hospital postpartum stay by ML algorithms and explain the ML model's behaviour to support decision making. Methods: The dataset included 2042 mothers giving birth in 18 hospitals in Eastern Spain. We obtained information on demographics, mothers’ breastfeeding experiences, clinical variables, and participating hospitals’ support conditions. The outcome variable was exclusive breastfeeding during the in-hospital postpartum stay. We tested algorithms from different ML families. To evaluate the ML models, we applied 10-fold stratified cross-validation. We used the following metrics: Area under curve receiver operating characteristic (ROC AUC), area under curve precision-recall (PR AUC), accuracy, and Brier score. After selecting the best fitting model, we calculated Shapley's additive values to assign weights to each predictor depending on its additive contribution to the outcome and to explain the predictions. Results: The XGBoost algorithms showed the best metrics (ROC AUC = 0.78, PR AUC = 0.86, accuracy = 0.75, Brier = 0.17). The main predictors of the model included, in order of importance, the pacifier use, the degree of breastfeeding self-efficacy, the previous breastfeeding experience, the birth weight, the admission of the baby to a neonatal care unit after birth, the moment of the first skin-to-skin contact between mother and baby, and the Baby-Friendly Hospital Initiative accreditation of the hospital. Specific examples for linear and nonlinear relations between main predictors and the outcome and heterogeneity of effects are presented. Also, we describe diverse individual cases showing the variation of the prediction depending on individual characteristics. Conclusion: The ML model adequately predicted exclusive breastfeeding during the in-hospital stay. Our results pointed to opportunities for improving care related to support for specific mother's groups, defined by current and previous infant feeding experiences and clinical conditions of the newborns, and the participating hospitals’ support conditions. Also, XAI techniques allowed identifying non-linearity relations and effect's heterogeneity, explaining specific cases’ risk variations. © 2022 The Authors</t>
+          <t>There is a growing need to analyze welfare at an intra-urban level because cities often evince stark divisions. It is therefore important to identify inequalities within them. However, data are hardly available – or very expensive. The purpose of this article is to test whether nonlinear machine learning algorithms provide more accurate predictions of intra-city well-being than linear models. In addition, we aim to check if freely available and easily accessible data from Open Street Map offer an alternative to high-resolution daytime satellite images from Google Maps in accurately predicting well-being on a local level. Inspired by the Local Human Development Index, we construct a well-being index based on three dimensions: health, education, and welfare. Potential predictors of well-being include indicators related to the urbanization rate, access to natural amenities, the transportation system, and access to public transport. Four nonlinear machine learning algorithms (support vector regression with polynomial and radial kernel, random forest, and xgboost) are compared with the linear LASSO approach for the 18 districts of Warsaw, Poland. In addition, we apply innovative tools of explainable artificial intelligence (XAI) to identify the most important predictors of well-being (measuring model-agnostic feature importance) and to disclose the shape of relationships between well-being and its most important predictors. We conclude that the application of nonlinear machine learning algorithms to modeling well-being not only allows us to reach higher predictive accuracy, but also to better identify and explain the impact of its predictors. © 2021 The Authors. Regional Science Policy &amp; Practice © 2021 Regional Science Association International.</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>10.1016/j.cmpb.2022.106837</t>
+          <t>10.1111/rsp3.12478</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
@@ -23005,40 +23089,40 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>predicting intra-urban well-being from space with nonlinear machine learning</t>
+          <t>predicting skin cancer risk from facial images with an explainable artificial intelligence (xai) based approach: a proof-of-concept study</t>
         </is>
       </c>
       <c r="C528" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Wójcik P.; Andruszek K.</t>
+          <t>Liu X.; Sangers T.E.; Nijsten T.; Kayser M.; Pardo L.M.; Wolvius E.B.; Roshchupkin G.V.; Wakkee M.</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>Regional Science Policy and Practice</t>
+          <t>eClinicalMedicine</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>There is a growing need to analyze welfare at an intra-urban level because cities often evince stark divisions. It is therefore important to identify inequalities within them. However, data are hardly available – or very expensive. The purpose of this article is to test whether nonlinear machine learning algorithms provide more accurate predictions of intra-city well-being than linear models. In addition, we aim to check if freely available and easily accessible data from Open Street Map offer an alternative to high-resolution daytime satellite images from Google Maps in accurately predicting well-being on a local level. Inspired by the Local Human Development Index, we construct a well-being index based on three dimensions: health, education, and welfare. Potential predictors of well-being include indicators related to the urbanization rate, access to natural amenities, the transportation system, and access to public transport. Four nonlinear machine learning algorithms (support vector regression with polynomial and radial kernel, random forest, and xgboost) are compared with the linear LASSO approach for the 18 districts of Warsaw, Poland. In addition, we apply innovative tools of explainable artificial intelligence (XAI) to identify the most important predictors of well-being (measuring model-agnostic feature importance) and to disclose the shape of relationships between well-being and its most important predictors. We conclude that the application of nonlinear machine learning algorithms to modeling well-being not only allows us to reach higher predictive accuracy, but also to better identify and explain the impact of its predictors. © 2021 The Authors. Regional Science Policy &amp; Practice © 2021 Regional Science Association International.</t>
+          <t>Background: Efficient identification of individuals at high risk of skin cancer is crucial for implementing personalized screening strategies and subsequent care. While Artificial Intelligence holds promising potential for predictive analysis using image data, its application for skin cancer risk prediction utilizing facial images remains unexplored. We present a neural network-based explainable artificial intelligence (XAI) approach for skin cancer risk prediction based on 2D facial images and compare its efficacy to 18 established skin cancer risk factors using data from the Rotterdam Study. Methods: The study employed data from the Rotterdam population-based study in which both skin cancer risk factors and 2D facial images and the occurrence of skin cancer were collected from 2010 to 2018. We conducted a deep-learning survival analysis based on 2D facial images using our developed XAI approach. We subsequently compared these results with survival analysis based on skin cancer risk factors using cox proportional hazard regression. Findings: Among the 2810 participants (mean Age = 68.5 ± 9.3 years, average Follow-up = 5.0 years), 228 participants were diagnosed with skin cancer after photo acquisition. Our XAI approach achieved superior predictive accuracy based on 2D facial images (c-index = 0.72, 95% CI: 0.70–0.74), outperforming that of the known risk factors (c-index = 0.59, 95% CI 0.57–0.61). Interpretation: This proof-of-concept study underscores the high potential of harnessing facial images and a tailored XAI approach as an easily accessible alternative over known risk factors for identifying individuals at high risk of skin cancer. Funding: The Rotterdam Study is funded through unrestricted research grants from Erasmus Medical Center and Erasmus University, Rotterdam, Netherlands Organization for the Health Research and Development (ZonMw), the Research Institute for Diseases in the Elderly (RIDE), the Ministry of Education, Culture and Science, the Ministry for Health, Welfare and Sports, the European Commission (DG XII), and the Municipality of Rotterdam. G.V. Roshchupkin is supported by the ZonMw Veni grant (Veni, 549 1936320). © 2024 The Author(s)</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>10.1111/rsp3.12478</t>
+          <t>10.1016/j.eclinm.2024.102550</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
@@ -23048,40 +23132,40 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>predicting skin cancer risk from facial images with an explainable artificial intelligence (xai) based approach: a proof-of-concept study</t>
+          <t>predicting the risk of hypertension using machine learning algorithms: a cross sectional study in ethiopia</t>
         </is>
       </c>
       <c r="C529" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Liu X.; Sangers T.E.; Nijsten T.; Kayser M.; Pardo L.M.; Wolvius E.B.; Roshchupkin G.V.; Wakkee M.</t>
+          <t>Islam M.M.; Alam M.J.; Maniruzzaman M.; Ahmed N.A.M.F.; Ali M.S.; Rahman M.J.; Roy D.C.</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>eClinicalMedicine</t>
+          <t>PLoS ONE</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Background: Efficient identification of individuals at high risk of skin cancer is crucial for implementing personalized screening strategies and subsequent care. While Artificial Intelligence holds promising potential for predictive analysis using image data, its application for skin cancer risk prediction utilizing facial images remains unexplored. We present a neural network-based explainable artificial intelligence (XAI) approach for skin cancer risk prediction based on 2D facial images and compare its efficacy to 18 established skin cancer risk factors using data from the Rotterdam Study. Methods: The study employed data from the Rotterdam population-based study in which both skin cancer risk factors and 2D facial images and the occurrence of skin cancer were collected from 2010 to 2018. We conducted a deep-learning survival analysis based on 2D facial images using our developed XAI approach. We subsequently compared these results with survival analysis based on skin cancer risk factors using cox proportional hazard regression. Findings: Among the 2810 participants (mean Age = 68.5 ± 9.3 years, average Follow-up = 5.0 years), 228 participants were diagnosed with skin cancer after photo acquisition. Our XAI approach achieved superior predictive accuracy based on 2D facial images (c-index = 0.72, 95% CI: 0.70–0.74), outperforming that of the known risk factors (c-index = 0.59, 95% CI 0.57–0.61). Interpretation: This proof-of-concept study underscores the high potential of harnessing facial images and a tailored XAI approach as an easily accessible alternative over known risk factors for identifying individuals at high risk of skin cancer. Funding: The Rotterdam Study is funded through unrestricted research grants from Erasmus Medical Center and Erasmus University, Rotterdam, Netherlands Organization for the Health Research and Development (ZonMw), the Research Institute for Diseases in the Elderly (RIDE), the Ministry of Education, Culture and Science, the Ministry for Health, Welfare and Sports, the European Commission (DG XII), and the Municipality of Rotterdam. G.V. Roshchupkin is supported by the ZonMw Veni grant (Veni, 549 1936320). © 2024 The Author(s)</t>
+          <t>Background and objectives Hypertension (HTN), a major global health concern, is a leading cause of cardiovascular disease, premature death and disability, worldwide. It is important to develop an automated system to diagnose HTN at an early stage. Therefore, this study devised a machine learning (ML) system for predicting patients with the risk of developing HTN in Ethiopia. Materials and methods The HTN data was taken from Ethiopia, which included 612 respondents with 27 factors. We employed Boruta-based feature selection method to identify the important risk factors of HTN. The four well-known models [logistics regression, artificial neural network, random forest, and extreme gradient boosting (XGB)] were developed to predict HTN patients on the training set using the selected risk factors. The performances of the models were evaluated by accuracy, precision, recall, F1-score, and area under the curve (AUC) on the testing set. Additionally, the SHapley Additive exPlanations (SHAP) method is one of the explainable artificial intelligences (XAI) methods, was used to investigate the associated predictive risk factors of HTN. Results The overall prevalence of HTN patients is 21.2%. This study showed that XGB-based model was the most appropriate model for predicting patients with the risk of HTN and achieved the accuracy of 88.81%, precision of 89.62%, recall of 97.04%, F1-score of 93.18%, and AUC of 0. 894. The XBG with SHAP analysis reveal that age, weight, fat, income, body mass index, diabetes mulitas, salt, history of HTN, drinking, and smoking were the associated risk factors of developing HTN. Conclusions The proposed framework provides an effective tool for accurately predicting individuals in Ethiopia who are at risk for developing HTN at an early stage and may help with early prevention and individualized treatment.  © 2023 Wei et al. This is an open access article distributed under the terms of the Creative Commons Attribution License, which permits unrestricted use, distribution, and reproduction in any medium, provided the original author and source are credited.</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>10.1016/j.eclinm.2024.102550</t>
+          <t>10.1371/journal.pone.0289613</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
@@ -23097,11 +23181,11 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>predicting the risk of hypertension using machine learning algorithms: a cross sectional study in ethiopia</t>
+          <t>prediction and interpretation of antibiotic-resistance genes occurrence at recreational beaches using machine learning models</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -23109,22 +23193,22 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Islam M.M.; Alam M.J.; Maniruzzaman M.; Ahmed N.A.M.F.; Ali M.S.; Rahman M.J.; Roy D.C.</t>
+          <t>Iftikhar S.; Karim A.M.; Karim A.M.; Karim M.A.; Aslam M.; Rubab F.; Malik S.K.; Kwon J.E.; Hussain I.; Azhar E.I.; Kang S.C.; Yasir M.</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>PLoS ONE</t>
+          <t>Journal of Environmental Management</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>Background and objectives Hypertension (HTN), a major global health concern, is a leading cause of cardiovascular disease, premature death and disability, worldwide. It is important to develop an automated system to diagnose HTN at an early stage. Therefore, this study devised a machine learning (ML) system for predicting patients with the risk of developing HTN in Ethiopia. Materials and methods The HTN data was taken from Ethiopia, which included 612 respondents with 27 factors. We employed Boruta-based feature selection method to identify the important risk factors of HTN. The four well-known models [logistics regression, artificial neural network, random forest, and extreme gradient boosting (XGB)] were developed to predict HTN patients on the training set using the selected risk factors. The performances of the models were evaluated by accuracy, precision, recall, F1-score, and area under the curve (AUC) on the testing set. Additionally, the SHapley Additive exPlanations (SHAP) method is one of the explainable artificial intelligences (XAI) methods, was used to investigate the associated predictive risk factors of HTN. Results The overall prevalence of HTN patients is 21.2%. This study showed that XGB-based model was the most appropriate model for predicting patients with the risk of HTN and achieved the accuracy of 88.81%, precision of 89.62%, recall of 97.04%, F1-score of 93.18%, and AUC of 0. 894. The XBG with SHAP analysis reveal that age, weight, fat, income, body mass index, diabetes mulitas, salt, history of HTN, drinking, and smoking were the associated risk factors of developing HTN. Conclusions The proposed framework provides an effective tool for accurately predicting individuals in Ethiopia who are at risk for developing HTN at an early stage and may help with early prevention and individualized treatment.  © 2023 Wei et al. This is an open access article distributed under the terms of the Creative Commons Attribution License, which permits unrestricted use, distribution, and reproduction in any medium, provided the original author and source are credited.</t>
+          <t>Antibiotic-resistant bacteria and antibiotic resistance genes (ARGs) are pollutants of worldwide concern that seriously threaten public health and ecosystems. Machine learning (ML) prediction models have been applied to predict ARGs in beach waters. However, the existing studies were conducted at a single location and had low prediction performance. Moreover, ML models are “black boxes” that do not reveal their predictions' internal nuances and mechanisms. This lack of transparency and trust can result in serious consequences when using these models in high-stakes decisions. In this study, we developed a gradient boosted regression tree based (GBRT) ML model and then described its behavior using six explainable artificial intelligence (XAI) model-agnostic explanation methods. We used hydro-meteorological and qPCR data from the beaches in South Korea and Pakistan and developed ML prediction models for aac (6′-lb-cr), sul1, and tetX with 10-fold time-blocked cross-validation performances of 4.9, 2.06 and 4.4 root mean squared logarithmic error, respectively. We then analyzed the local and global behavior of the developed ML model using four interpretation methods. The developed ML models showed that water temperature, precipitation and tide are the most important predictors for prediction of ARGs at recreational beaches. We show that the model-agnostic interpretation methods not only explain the behavior of the ML model but also provide insights into the behavior of the ML model under new unseen conditions. Moreover, these post-processing techniques can be a debugging tool for ML-based modeling. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>10.1371/journal.pone.0289613</t>
+          <t>10.1016/j.jenvman.2022.116969</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
@@ -23134,17 +23218,17 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>prediction and interpretation of antibiotic-resistance genes occurrence at recreational beaches using machine learning models</t>
+          <t>prediction of brain metastases development in patients with lung cancer by explainable artificial intelligence from electronic health records</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -23152,22 +23236,22 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Iftikhar S.; Karim A.M.; Karim A.M.; Karim M.A.; Aslam M.; Rubab F.; Malik S.K.; Kwon J.E.; Hussain I.; Azhar E.I.; Kang S.C.; Yasir M.</t>
+          <t>Li Z.; Li R.; Zhou Y.; Rasmy L.; Zhi D.; Zhu P.; Dono A.; Jiang X.; Xu H.; Esquenazi Y.; Zheng W.J.</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>Journal of Environmental Management</t>
+          <t>JCO clinical cancer informatics</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Antibiotic-resistant bacteria and antibiotic resistance genes (ARGs) are pollutants of worldwide concern that seriously threaten public health and ecosystems. Machine learning (ML) prediction models have been applied to predict ARGs in beach waters. However, the existing studies were conducted at a single location and had low prediction performance. Moreover, ML models are “black boxes” that do not reveal their predictions' internal nuances and mechanisms. This lack of transparency and trust can result in serious consequences when using these models in high-stakes decisions. In this study, we developed a gradient boosted regression tree based (GBRT) ML model and then described its behavior using six explainable artificial intelligence (XAI) model-agnostic explanation methods. We used hydro-meteorological and qPCR data from the beaches in South Korea and Pakistan and developed ML prediction models for aac (6′-lb-cr), sul1, and tetX with 10-fold time-blocked cross-validation performances of 4.9, 2.06 and 4.4 root mean squared logarithmic error, respectively. We then analyzed the local and global behavior of the developed ML model using four interpretation methods. The developed ML models showed that water temperature, precipitation and tide are the most important predictors for prediction of ARGs at recreational beaches. We show that the model-agnostic interpretation methods not only explain the behavior of the ML model but also provide insights into the behavior of the ML model under new unseen conditions. Moreover, these post-processing techniques can be a debugging tool for ML-based modeling. © 2022 Elsevier Ltd</t>
+          <t>PURPOSE: Early detection of brain metastases (BMs) is critical for prompt treatment and optimal control of the disease. In this study, we seek to predict the risk of developing BM among patients diagnosed with lung cancer on the basis of electronic health record (EHR) data and to understand what factors are important for the model to predict BM development through explainable artificial intelligence approaches accurately. MATERIALS AND METHODS: We trained a recurrent neural network model, REverse Time AttentIoN (RETAIN), to predict the risk of developing BM using structured EHR data. To interpret the model's decision process, we analyzed the attention weights in the RETAIN model and the SHAP values from a feature attribution method, Kernel SHAP, to identify the factors contributing to BM prediction. RESULTS: We developed a high-quality cohort with 4,466 patients with BM from the Cerner Health Fact database, which contains over 70 million patients from more than 600 hospitals. RETAIN uses this data set to achieve the best area under the receiver operating characteristic curve at 0.825, a significant improvement over the baseline model. We also extended a feature attribution method, Kernel SHAP, to structured EHR data for model interpretation. Both RETAIN and Kernel SHAP can identify important features related to BM prediction. CONCLUSION: To the best of our knowledge, this is the first study to predict BM using structured EHR data. We achieved decent prediction performance for BM prediction and identified factors highly relevant to BM development. The sensitivity analysis demonstrated that both RETAIN and Kernel SHAP could discriminate unrelated features and put more weight on the features important to BM. Our study explored the potential of applying explainable artificial intelligence for future clinical applications.</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>10.1016/j.jenvman.2022.116969</t>
+          <t>10.1200/CCI.22.00141</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
@@ -23183,11 +23267,11 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>prediction of brain metastases development in patients with lung cancer by explainable artificial intelligence from electronic health records</t>
+          <t>prediction of clinical outcomes with explainable artificial intelligence in patients with chronic lymphocytic leukemia</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -23195,42 +23279,42 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Li Z.; Li R.; Zhou Y.; Rasmy L.; Zhi D.; Zhu P.; Dono A.; Jiang X.; Xu H.; Esquenazi Y.; Zheng W.J.</t>
+          <t>Hoffmann, J; Eminovic, S; Wilhelm, C; Krause, SW; Neubauer, A; Thrun, MC; Ultsch, A; Brendel, C</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>JCO clinical cancer informatics</t>
+          <t>CURRENT ONCOLOGY</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>PURPOSE: Early detection of brain metastases (BMs) is critical for prompt treatment and optimal control of the disease. In this study, we seek to predict the risk of developing BM among patients diagnosed with lung cancer on the basis of electronic health record (EHR) data and to understand what factors are important for the model to predict BM development through explainable artificial intelligence approaches accurately. MATERIALS AND METHODS: We trained a recurrent neural network model, REverse Time AttentIoN (RETAIN), to predict the risk of developing BM using structured EHR data. To interpret the model's decision process, we analyzed the attention weights in the RETAIN model and the SHAP values from a feature attribution method, Kernel SHAP, to identify the factors contributing to BM prediction. RESULTS: We developed a high-quality cohort with 4,466 patients with BM from the Cerner Health Fact database, which contains over 70 million patients from more than 600 hospitals. RETAIN uses this data set to achieve the best area under the receiver operating characteristic curve at 0.825, a significant improvement over the baseline model. We also extended a feature attribution method, Kernel SHAP, to structured EHR data for model interpretation. Both RETAIN and Kernel SHAP can identify important features related to BM prediction. CONCLUSION: To the best of our knowledge, this is the first study to predict BM using structured EHR data. We achieved decent prediction performance for BM prediction and identified factors highly relevant to BM development. The sensitivity analysis demonstrated that both RETAIN and Kernel SHAP could discriminate unrelated features and put more weight on the features important to BM. Our study explored the potential of applying explainable artificial intelligence for future clinical applications.</t>
+          <t>Background: The International Prognostic Index (IPI) is applied to predict the outcome of chronic lymphocytic leukemia (CLL) with five prognostic factors, including genetic analysis. We investigated whether multiparameter flow cytometry (MPFC) data of CLL samples could predict the outcome by methods of explainable artificial intelligence (XAI). Further, XAI should explain the results based on distinctive cell populations in MPFC dot plots. Methods: We analyzed MPFC data from the peripheral blood of 157 patients with CLL. The ALPODS XAI algorithm was used to identify cell populations that were predictive of inferior outcomes (death, failure of first-line treatment). The diagnostic ability of each XAI population was evaluated with receiver operating characteristic (ROC) curves. Results: ALPODS defined 17 populations with higher ability than the CLL-IPI to classify clinical outcomes (ROC: area under curve (AUC) 0.95 vs. 0.78). The best single classifier was an XAI population consisting of CD4+ T cells (AUC 0.78; 95% CI 0.70-0.86; p &lt; 0.0001). Patients with low CD4+ T cells had an inferior outcome. The addition of the CD4+ T-cell population enhanced the predictive ability of the CLL-IPI (AUC 0.83; 95% CI 0.77-0.90; p &lt; 0.0001). Conclusions: The ALPODS XAI algorithm detected highly predictive cell populations in CLL that may be able to refine conventional prognostic scores such as IPI.</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>10.1200/CCI.22.00141</t>
+          <t>10.3390/curroncol30020148</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>prediction of clinical outcomes with explainable artificial intelligence in patients with chronic lymphocytic leukemia</t>
+          <t>prediction of disease comorbidity using explainable artificial intelligence and machine learning techniques: a systematic review</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -23238,42 +23322,42 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Hoffmann, J; Eminovic, S; Wilhelm, C; Krause, SW; Neubauer, A; Thrun, MC; Ultsch, A; Brendel, C</t>
+          <t>Alsaleh M.M.; Allery F.; Choi J.W.; Hama T.; McQuillin A.; Wu H.; Thygesen J.H.</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>CURRENT ONCOLOGY</t>
+          <t>International Journal of Medical Informatics</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>Background: The International Prognostic Index (IPI) is applied to predict the outcome of chronic lymphocytic leukemia (CLL) with five prognostic factors, including genetic analysis. We investigated whether multiparameter flow cytometry (MPFC) data of CLL samples could predict the outcome by methods of explainable artificial intelligence (XAI). Further, XAI should explain the results based on distinctive cell populations in MPFC dot plots. Methods: We analyzed MPFC data from the peripheral blood of 157 patients with CLL. The ALPODS XAI algorithm was used to identify cell populations that were predictive of inferior outcomes (death, failure of first-line treatment). The diagnostic ability of each XAI population was evaluated with receiver operating characteristic (ROC) curves. Results: ALPODS defined 17 populations with higher ability than the CLL-IPI to classify clinical outcomes (ROC: area under curve (AUC) 0.95 vs. 0.78). The best single classifier was an XAI population consisting of CD4+ T cells (AUC 0.78; 95% CI 0.70-0.86; p &lt; 0.0001). Patients with low CD4+ T cells had an inferior outcome. The addition of the CD4+ T-cell population enhanced the predictive ability of the CLL-IPI (AUC 0.83; 95% CI 0.77-0.90; p &lt; 0.0001). Conclusions: The ALPODS XAI algorithm detected highly predictive cell populations in CLL that may be able to refine conventional prognostic scores such as IPI.</t>
+          <t>Objective: Disease comorbidity is a major challenge in healthcare affecting the patient's quality of life and costs. AI-based prediction of comorbidities can overcome this issue by improving precision medicine and providing holistic care. The objective of this systematic literature review was to identify and summarise existing machine learning (ML) methods for comorbidity prediction and evaluate the interpretability and explainability of the models. Materials and methods: The Preferred Reporting Items for Systematic Reviews and Meta-Analyses (PRISMA) framework was used to identify articles in three databases: Ovid Medline, Web of Science and PubMed. The literature search covered a broad range of terms for the prediction of disease comorbidity and ML, including traditional predictive modelling. Results: Of 829 unique articles, 58 full-text papers were assessed for eligibility. A final set of 22 articles with 61 ML models was included in this review. Of the identified ML models, 33 models achieved relatively high accuracy (80–95%) and AUC (0.80–0.89). Overall, 72% of studies had high or unclear concerns regarding the risk of bias. Discussion: This systematic review is the first to examine the use of ML and explainable artificial intelligence (XAI) methods for comorbidity prediction. The chosen studies focused on a limited scope of comorbidities ranging from 1 to 34 (mean = 6), and no novel comorbidities were found due to limited phenotypic and genetic data. The lack of standard evaluation for XAI hinders fair comparisons. Conclusion: A broad range of ML methods has been used to predict the comorbidities of various disorders. With further development of explainable ML capacity in the field of comorbidity prediction, there is a significant possibility of identifying unmet health needs by highlighting comorbidities in patient groups that were not previously recognised to be at risk for particular comorbidities. © 2023 The Author(s)</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>10.3390/curroncol30020148</t>
+          <t>10.1016/j.ijmedinf.2023.105088</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>prediction of disease comorbidity using explainable artificial intelligence and machine learning techniques: a systematic review</t>
+          <t>prediction of outcomes after heart transplantation in pediatric patients using national registry data: evaluation of machine learning approaches</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -23281,22 +23365,22 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Alsaleh M.M.; Allery F.; Choi J.W.; Hama T.; McQuillin A.; Wu H.; Thygesen J.H.</t>
+          <t>Killian M.O.; Tian S.; Xing A.; Hughes D.; Gupta D.; Wang X.; He Z.</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>International Journal of Medical Informatics</t>
+          <t>JMIR Cardio</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Objective: Disease comorbidity is a major challenge in healthcare affecting the patient's quality of life and costs. AI-based prediction of comorbidities can overcome this issue by improving precision medicine and providing holistic care. The objective of this systematic literature review was to identify and summarise existing machine learning (ML) methods for comorbidity prediction and evaluate the interpretability and explainability of the models. Materials and methods: The Preferred Reporting Items for Systematic Reviews and Meta-Analyses (PRISMA) framework was used to identify articles in three databases: Ovid Medline, Web of Science and PubMed. The literature search covered a broad range of terms for the prediction of disease comorbidity and ML, including traditional predictive modelling. Results: Of 829 unique articles, 58 full-text papers were assessed for eligibility. A final set of 22 articles with 61 ML models was included in this review. Of the identified ML models, 33 models achieved relatively high accuracy (80–95%) and AUC (0.80–0.89). Overall, 72% of studies had high or unclear concerns regarding the risk of bias. Discussion: This systematic review is the first to examine the use of ML and explainable artificial intelligence (XAI) methods for comorbidity prediction. The chosen studies focused on a limited scope of comorbidities ranging from 1 to 34 (mean = 6), and no novel comorbidities were found due to limited phenotypic and genetic data. The lack of standard evaluation for XAI hinders fair comparisons. Conclusion: A broad range of ML methods has been used to predict the comorbidities of various disorders. With further development of explainable ML capacity in the field of comorbidity prediction, there is a significant possibility of identifying unmet health needs by highlighting comorbidities in patient groups that were not previously recognised to be at risk for particular comorbidities. © 2023 The Author(s)</t>
+          <t>Background: The prediction of posttransplant health outcomes for pediatric heart transplantation is critical for risk stratification and high-quality posttransplant care. Objective: The purpose of this study was to examine the use of machine learning (ML) models to predict rejection and mortality for pediatric heart transplant recipients. Methods: Various ML models were used to predict rejection and mortality at 1, 3, and 5 years after transplantation in pediatric heart transplant recipients using United Network for Organ Sharing data from 1987 to 2019. The variables used for predicting posttransplant outcomes included donor and recipient as well as medical and social factors. We evaluated 7 ML models-extreme gradient boosting (XGBoost), logistic regression, support vector machine, random forest (RF), stochastic gradient descent, multilayer perceptron, and adaptive boosting (AdaBoost)-as well as a deep learning model with 2 hidden layers with 100 neurons and a rectified linear unit (ReLU) activation function followed by batch normalization for each and a classification head with a softmax activation function. We used 10-fold cross-validation to evaluate model performance. Shapley additive explanations (SHAP) values were calculated to estimate the importance of each variable for prediction. Results: RF and AdaBoost models were the best-performing algorithms for different prediction windows across outcomes. RF outperformed other ML algorithms in predicting 5 of the 6 outcomes (area under the receiver operating characteristic curve [AUROC] 0.664 and 0.706 for 1-year and 3-year rejection, respectively, and AUROC 0.697, 0.758, and 0.763 for 1-year, 3-year, and 5-year mortality, respectively). AdaBoost achieved the best performance for prediction of 5-year rejection (AUROC 0.705). Conclusions: This study demonstrates the comparative utility of ML approaches for modeling posttransplant health outcomes using registry data. ML approaches can identify unique risk factors and their complex relationship with outcomes, thereby identifying patients considered to be at risk and informing the transplant community about the potential of these innovative approaches to improve pediatric care after heart transplantation. Future studies are required to translate the information derived from prediction models to optimize counseling, clinical care, and decision-making within pediatric organ transplant centers. © Michael O Killian, Shubo Tian, Aiwen Xing, Dana Hughes, Dipankar Gupta, Xiaoyu Wang, Zhe He. Originally published in JMIR Cardio (https://cardio.jmir.org), 20.06.2023.</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>10.1016/j.ijmedinf.2023.105088</t>
+          <t>10.2196/45352</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
@@ -23306,40 +23390,40 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>prediction of outcomes after heart transplantation in pediatric patients using national registry data: evaluation of machine learning approaches</t>
+          <t>prediction of recurrent ischemic stroke using registry data and machine learning methods: the erlangen stroke registry</t>
         </is>
       </c>
       <c r="C535" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>Killian M.O.; Tian S.; Xing A.; Hughes D.; Gupta D.; Wang X.; He Z.</t>
+          <t>Vodencarevic A.; Weingärtner M.; Caro J.J.; Ukalovic D.; Zimmermann-Rittereiser M.; Schwab S.; Kolominsky-Rabas P.</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>JMIR Cardio</t>
+          <t>Stroke</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>Background: The prediction of posttransplant health outcomes for pediatric heart transplantation is critical for risk stratification and high-quality posttransplant care. Objective: The purpose of this study was to examine the use of machine learning (ML) models to predict rejection and mortality for pediatric heart transplant recipients. Methods: Various ML models were used to predict rejection and mortality at 1, 3, and 5 years after transplantation in pediatric heart transplant recipients using United Network for Organ Sharing data from 1987 to 2019. The variables used for predicting posttransplant outcomes included donor and recipient as well as medical and social factors. We evaluated 7 ML models-extreme gradient boosting (XGBoost), logistic regression, support vector machine, random forest (RF), stochastic gradient descent, multilayer perceptron, and adaptive boosting (AdaBoost)-as well as a deep learning model with 2 hidden layers with 100 neurons and a rectified linear unit (ReLU) activation function followed by batch normalization for each and a classification head with a softmax activation function. We used 10-fold cross-validation to evaluate model performance. Shapley additive explanations (SHAP) values were calculated to estimate the importance of each variable for prediction. Results: RF and AdaBoost models were the best-performing algorithms for different prediction windows across outcomes. RF outperformed other ML algorithms in predicting 5 of the 6 outcomes (area under the receiver operating characteristic curve [AUROC] 0.664 and 0.706 for 1-year and 3-year rejection, respectively, and AUROC 0.697, 0.758, and 0.763 for 1-year, 3-year, and 5-year mortality, respectively). AdaBoost achieved the best performance for prediction of 5-year rejection (AUROC 0.705). Conclusions: This study demonstrates the comparative utility of ML approaches for modeling posttransplant health outcomes using registry data. ML approaches can identify unique risk factors and their complex relationship with outcomes, thereby identifying patients considered to be at risk and informing the transplant community about the potential of these innovative approaches to improve pediatric care after heart transplantation. Future studies are required to translate the information derived from prediction models to optimize counseling, clinical care, and decision-making within pediatric organ transplant centers. © Michael O Killian, Shubo Tian, Aiwen Xing, Dana Hughes, Dipankar Gupta, Xiaoyu Wang, Zhe He. Originally published in JMIR Cardio (https://cardio.jmir.org), 20.06.2023.</t>
+          <t>Background: There have been multiple efforts toward individual prediction of recurrent strokes based on structured clinical and imaging data using machine learning algorithms. Some of these efforts resulted in relatively accurate prediction models. However, acquiring clinical and imaging data is typically possible at provider sites only and is associated with additional costs. Therefore, we developed recurrent stroke prediction models based solely on data easily obtained from the patient at home. Methods: Data from 384 patients with ischemic stroke were obtained from the Erlangen Stroke Registry. Patients were followed at 3 and 12 months after first stroke and then annually, for about 2 years on average. Multiple machine learning algorithms were applied to train predictive models for estimating individual risk of recurrent stroke within 1 year. Double nested cross-validation was utilized for conservative performance estimation and models' learning capabilities were assessed by learning curves. Predicted probabilities were calibrated, and relative variable importance was assessed using explainable artificial intelligence techniques. Results: The best model achieved the area under the curve of 0.70 (95% CI, 0.64-0.76) and relatively good probability calibration. The most predictive factors included patient's family and housing circumstances, rehabilitative measures, age, high calorie diet, systolic and diastolic blood pressures, percutaneous endoscopic gastrotomy, number of family doctor's home visits, and patient's mental state. Conclusions: Developing fairly accurate models for individual risk prediction of recurrent ischemic stroke within 1 year solely based on registry data is feasible. Such models could be applied in a home setting to provide an initial risk assessment and identify high-risk patients early. © 2022 Lippincott Williams and Wilkins. All rights reserved.</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>10.2196/45352</t>
+          <t>10.1161/STROKEAHA.121.036557</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -23355,34 +23439,34 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>prediction of recurrent ischemic stroke using registry data and machine learning methods: the erlangen stroke registry</t>
+          <t>prediction of technical state of mechanical systems based on interpretive neural network model</t>
         </is>
       </c>
       <c r="C536" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Vodencarevic A.; Weingärtner M.; Caro J.J.; Ukalovic D.; Zimmermann-Rittereiser M.; Schwab S.; Kolominsky-Rabas P.</t>
+          <t>Kononov E.; Klyuev A.; Tashkinov M.</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>Stroke</t>
+          <t>Sensors</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Background: There have been multiple efforts toward individual prediction of recurrent strokes based on structured clinical and imaging data using machine learning algorithms. Some of these efforts resulted in relatively accurate prediction models. However, acquiring clinical and imaging data is typically possible at provider sites only and is associated with additional costs. Therefore, we developed recurrent stroke prediction models based solely on data easily obtained from the patient at home. Methods: Data from 384 patients with ischemic stroke were obtained from the Erlangen Stroke Registry. Patients were followed at 3 and 12 months after first stroke and then annually, for about 2 years on average. Multiple machine learning algorithms were applied to train predictive models for estimating individual risk of recurrent stroke within 1 year. Double nested cross-validation was utilized for conservative performance estimation and models' learning capabilities were assessed by learning curves. Predicted probabilities were calibrated, and relative variable importance was assessed using explainable artificial intelligence techniques. Results: The best model achieved the area under the curve of 0.70 (95% CI, 0.64-0.76) and relatively good probability calibration. The most predictive factors included patient's family and housing circumstances, rehabilitative measures, age, high calorie diet, systolic and diastolic blood pressures, percutaneous endoscopic gastrotomy, number of family doctor's home visits, and patient's mental state. Conclusions: Developing fairly accurate models for individual risk prediction of recurrent ischemic stroke within 1 year solely based on registry data is feasible. Such models could be applied in a home setting to provide an initial risk assessment and identify high-risk patients early. © 2022 Lippincott Williams and Wilkins. All rights reserved.</t>
+          <t>A classic problem in prognostic and health management (PHM) is the prediction of the remaining useful life (RUL). However, until now, there has been no algorithm presented to achieve perfect performance in this challenge. This study implements a less explored approach: binary classification of the state of mechanical systems at a given forecast horizon. To prove the effectiveness of the proposed approach, tests were conducted on the C-MAPSS sample dataset. The obtained results demonstrate the achievement of an almost maximal performance threshold. The explainability of artificial intelligence (XAI) using the SHAP (Shapley Additive Explanations) feature contribution estimation method for classification models trained on data with and without a sliding window technique is also investigated. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>10.1161/STROKEAHA.121.036557</t>
+          <t>10.3390/s23041892</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
@@ -23392,40 +23476,40 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>prediction of technical state of mechanical systems based on interpretive neural network model</t>
+          <t>predictive modeling of anxiety levels in bangladeshi university students: a voting-based approach with lime and shap explanations</t>
         </is>
       </c>
       <c r="C537" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>Kononov E.; Klyuev A.; Tashkinov M.</t>
+          <t>Islam M.T.; Ashraf K.; Hosen M.H.; Nawar S.; Asgar S.</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>Sensors</t>
+          <t>2024 International Conference on Advances in Computing, Communication, Electrical, and Smart Systems: Innovation for Sustainability, iCACCESS 2024</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>A classic problem in prognostic and health management (PHM) is the prediction of the remaining useful life (RUL). However, until now, there has been no algorithm presented to achieve perfect performance in this challenge. This study implements a less explored approach: binary classification of the state of mechanical systems at a given forecast horizon. To prove the effectiveness of the proposed approach, tests were conducted on the C-MAPSS sample dataset. The obtained results demonstrate the achievement of an almost maximal performance threshold. The explainability of artificial intelligence (XAI) using the SHAP (Shapley Additive Explanations) feature contribution estimation method for classification models trained on data with and without a sliding window technique is also investigated. © 2023 by the authors.</t>
+          <t>In today's developing world, anxiety is a common mental disorder among university students. In this work, we predict anxiety in university students using a voting classifier. We have applied explainable artificial intelligence (XAI), to gain a better understanding of the machine learning model, using a Google Form, the dataset was gathered from several public, private, and national universities in Bangladesh. We have compared machine learning algorithms using 20 selected features and without feature selection. By using the concept of voting, we have created a new model. In order to create our final model, we selected the best three ML algorithms based on their accuracy. The voting classifier has the highest accuracy of 96%, while F1 and Recall scores are 96%, and Precision is 97%. The LIME and SHAP models are used to explain model predictions instead of a black-box machine learning model. The study determines anxiety levels by particular observations, allowing for transparency and comprehension. The goal is to create prediction models to detect at-risk individuals and root causes of anxiety among university students, consequently reducing detrimental consequences for academic performance and well-being. © 2024 IEEE.</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>10.3390/s23041892</t>
+          <t>10.1109/iCACCESS61735.2024.10499576</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
@@ -23435,40 +23519,40 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>predictive modeling of anxiety levels in bangladeshi university students: a voting-based approach with lime and shap explanations</t>
+          <t>profiling hearing aid users through big data explainable artificial intelligence techniques</t>
         </is>
       </c>
       <c r="C538" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Islam M.T.; Ashraf K.; Hosen M.H.; Nawar S.; Asgar S.</t>
+          <t>Iliadou E.; Su Q.; Kikidis D.; Bibas T.; Kloukinas C.</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>2024 International Conference on Advances in Computing, Communication, Electrical, and Smart Systems: Innovation for Sustainability, iCACCESS 2024</t>
+          <t>Frontiers in Neurology</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>In today's developing world, anxiety is a common mental disorder among university students. In this work, we predict anxiety in university students using a voting classifier. We have applied explainable artificial intelligence (XAI), to gain a better understanding of the machine learning model, using a Google Form, the dataset was gathered from several public, private, and national universities in Bangladesh. We have compared machine learning algorithms using 20 selected features and without feature selection. By using the concept of voting, we have created a new model. In order to create our final model, we selected the best three ML algorithms based on their accuracy. The voting classifier has the highest accuracy of 96%, while F1 and Recall scores are 96%, and Precision is 97%. The LIME and SHAP models are used to explain model predictions instead of a black-box machine learning model. The study determines anxiety levels by particular observations, allowing for transparency and comprehension. The goal is to create prediction models to detect at-risk individuals and root causes of anxiety among university students, consequently reducing detrimental consequences for academic performance and well-being. © 2024 IEEE.</t>
+          <t>Debilitating hearing loss (HL) affects ~6% of the human population. Only 20% of the people in need of a hearing assistive device will eventually seek and acquire one. The number of people that are satisfied with their Hearing Aids (HAids) and continue using them in the long term is even lower. Understanding the personal, behavioral, environmental, or other factors that correlate with the optimal HAid fitting and with users' experience of HAids is a significant step in improving patient satisfaction and quality of life, while reducing societal and financial burden. In SMART BEAR we are addressing this need by making use of the capacity of modern HAids to provide dynamic logging of their operation and by combining this information with a big amount of information about the medical, environmental, and social context of each HAid user. We are studying hearing rehabilitation through a 12-month continuous monitoring of HL patients, collecting data, such as participants' demographics, audiometric and medical data, their cognitive and mental status, their habits, and preferences, through a set of medical devices and wearables, as well as through face-to-face and remote clinical assessments and fitting/fine-tuning sessions. Descriptive, AI-based analysis and assessment of the relationships between heterogeneous data and HL-related parameters will help clinical researchers to better understand the overall health profiles of HL patients, and to identify patterns or relations that may be proven essential for future clinical trials. In addition, the future state and behavioral (e.g., HAids Satisfiability and HAids usage) of the patients will be predicted with time-dependent machine learning models to assist the clinical researchers to decide on the nature of the interventions. Explainable Artificial Intelligence (XAI) techniques will be leveraged to better understand the factors that play a significant role in the success of a hearing rehabilitation program, constructing patient profiles. This paper is a conceptual one aiming to describe the upcoming data collection process and proposed framework for providing a comprehensive profile for patients with HL in the context of EU-funded SMART BEAR project. Such patient profiles can be invaluable in HL treatment as they can help to identify the characteristics making patients more prone to drop out and stop using their HAids, using their HAids sufficiently long during the day, and being more satisfied by their HAids experience. They can also help decrease the number of needed remote sessions with their Audiologist for counseling, and/or HAids fine tuning, or the number of manual changes of HAids program (as indication of poor sound quality and bad adaptation of HAids configuration to patients' real needs and daily challenges), leading to reduced healthcare cost. Copyright © 2022 Iliadou, Su, Kikidis, Bibas and Kloukinas.</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>10.1109/iCACCESS61735.2024.10499576</t>
+          <t>10.3389/fneur.2022.933940</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -23478,40 +23562,40 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>profiling hearing aid users through big data explainable artificial intelligence techniques</t>
+          <t>protosteer: steering deep sequence model with prototypes</t>
         </is>
       </c>
       <c r="C539" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Iliadou E.; Su Q.; Kikidis D.; Bibas T.; Kloukinas C.</t>
+          <t>Ming Y.; Xu P.; Cheng F.; Qu H.; Ren L.</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Frontiers in Neurology</t>
+          <t>IEEE Transactions on Visualization and Computer Graphics</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Debilitating hearing loss (HL) affects ~6% of the human population. Only 20% of the people in need of a hearing assistive device will eventually seek and acquire one. The number of people that are satisfied with their Hearing Aids (HAids) and continue using them in the long term is even lower. Understanding the personal, behavioral, environmental, or other factors that correlate with the optimal HAid fitting and with users' experience of HAids is a significant step in improving patient satisfaction and quality of life, while reducing societal and financial burden. In SMART BEAR we are addressing this need by making use of the capacity of modern HAids to provide dynamic logging of their operation and by combining this information with a big amount of information about the medical, environmental, and social context of each HAid user. We are studying hearing rehabilitation through a 12-month continuous monitoring of HL patients, collecting data, such as participants' demographics, audiometric and medical data, their cognitive and mental status, their habits, and preferences, through a set of medical devices and wearables, as well as through face-to-face and remote clinical assessments and fitting/fine-tuning sessions. Descriptive, AI-based analysis and assessment of the relationships between heterogeneous data and HL-related parameters will help clinical researchers to better understand the overall health profiles of HL patients, and to identify patterns or relations that may be proven essential for future clinical trials. In addition, the future state and behavioral (e.g., HAids Satisfiability and HAids usage) of the patients will be predicted with time-dependent machine learning models to assist the clinical researchers to decide on the nature of the interventions. Explainable Artificial Intelligence (XAI) techniques will be leveraged to better understand the factors that play a significant role in the success of a hearing rehabilitation program, constructing patient profiles. This paper is a conceptual one aiming to describe the upcoming data collection process and proposed framework for providing a comprehensive profile for patients with HL in the context of EU-funded SMART BEAR project. Such patient profiles can be invaluable in HL treatment as they can help to identify the characteristics making patients more prone to drop out and stop using their HAids, using their HAids sufficiently long during the day, and being more satisfied by their HAids experience. They can also help decrease the number of needed remote sessions with their Audiologist for counseling, and/or HAids fine tuning, or the number of manual changes of HAids program (as indication of poor sound quality and bad adaptation of HAids configuration to patients' real needs and daily challenges), leading to reduced healthcare cost. Copyright © 2022 Iliadou, Su, Kikidis, Bibas and Kloukinas.</t>
+          <t>Recently we have witnessed growing adoption of deep sequence models (e.g. LSTMs) in many application domains, including predictive health care, natural language processing, and log analysis. However, the intricate working mechanism of these models confines their accessibility to the domain experts. Their black-box nature also makes it a challenging task to incorporate domain-specific knowledge of the experts into the model. In ProtoSteer (Prototype Steering), we tackle the challenge of directly involving the domain experts to steer a deep sequence model without relying on model developers as intermediaries. Our approach originates in case-based reasoning, which imitates the common human problem-solving process of consulting past experiences to solve new problems. We utilize ProSeNet (Prototype Sequence Network), which learns a small set of exemplar cases (i.e., prototypes) from historical data. In ProtoSteer they serve both as an efficient visual summary of the original data and explanations of model decisions. With ProtoSteer the domain experts can inspect, critique, and revise the prototypes interactively. The system then incorporates user-specified prototypes and incrementally updates the model. We conduct extensive case studies and expert interviews in application domains including sentiment analysis on texts and predictive diagnostics based on vehicle fault logs. The results demonstrate that involvements of domain users can help obtain more interpretable models with concise prototypes while retaining similar accuracy. © 1995-2012 IEEE.</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>10.3389/fneur.2022.933940</t>
+          <t>10.1109/TVCG.2019.2934267</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
@@ -23527,54 +23611,54 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>protosteer: steering deep sequence model with prototypes</t>
+          <t>quality medical data management within an open ai architecture - cancer patients case</t>
         </is>
       </c>
       <c r="C540" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Ming Y.; Xu P.; Cheng F.; Qu H.; Ren L.</t>
+          <t>Ivanovic, M; Autexier, S; Kokkonidis, M; Rust, J</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Visualization and Computer Graphics</t>
+          <t>CONNECTION SCIENCE</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Recently we have witnessed growing adoption of deep sequence models (e.g. LSTMs) in many application domains, including predictive health care, natural language processing, and log analysis. However, the intricate working mechanism of these models confines their accessibility to the domain experts. Their black-box nature also makes it a challenging task to incorporate domain-specific knowledge of the experts into the model. In ProtoSteer (Prototype Steering), we tackle the challenge of directly involving the domain experts to steer a deep sequence model without relying on model developers as intermediaries. Our approach originates in case-based reasoning, which imitates the common human problem-solving process of consulting past experiences to solve new problems. We utilize ProSeNet (Prototype Sequence Network), which learns a small set of exemplar cases (i.e., prototypes) from historical data. In ProtoSteer they serve both as an efficient visual summary of the original data and explanations of model decisions. With ProtoSteer the domain experts can inspect, critique, and revise the prototypes interactively. The system then incorporates user-specified prototypes and incrementally updates the model. We conduct extensive case studies and expert interviews in application domains including sentiment analysis on texts and predictive diagnostics based on vehicle fault logs. The results demonstrate that involvements of domain users can help obtain more interpretable models with concise prototypes while retaining similar accuracy. © 1995-2012 IEEE.</t>
+          <t>In contemporary society people constantly are facing situations that influence appearance of serious diseases. For the development of intelligent decision support systems and services in medical and health domains, it is necessary to collect huge amount of patients' complex data. Patient's multimodal data must be properly prepared for intelligent processing and obtained results should be presented in a friendly way to the physicians/caregivers to recommend tailored actions that will improve patients' quality of life. Advanced artificial intelligence approaches like machine/deep learning, federated learning, explainable artificial intelligence open new paths for more quality use of medical and health data in future. In this paper, we will focus on presentation of a part of a novel Open AI Architecture for cancer patients that is devoted to intelligent medical data management. Essential activities are data collection, proper design and preparation of data to be used for training machine learning predictive models. Another key aspect is oriented towards intelligent interpretation and visualisation of results about patient's quality of life obtained from machine learning models. The Architecture has been developed as a part of complex project in which 15 institutions from 8 European countries have been participated.</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>10.1109/TVCG.2019.2934267</t>
+          <t>10.1080/09540091.2023.2194581</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>quality medical data management within an open ai architecture - cancer patients case</t>
+          <t>quality medical data management within an open ai architecture–cancer patients case</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -23582,17 +23666,17 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Ivanovic, M; Autexier, S; Kokkonidis, M; Rust, J</t>
+          <t>Ivanovic M.; Autexier S.; Kokkonidis M.; Rust J.</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>CONNECTION SCIENCE</t>
+          <t>Connection Science</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>In contemporary society people constantly are facing situations that influence appearance of serious diseases. For the development of intelligent decision support systems and services in medical and health domains, it is necessary to collect huge amount of patients' complex data. Patient's multimodal data must be properly prepared for intelligent processing and obtained results should be presented in a friendly way to the physicians/caregivers to recommend tailored actions that will improve patients' quality of life. Advanced artificial intelligence approaches like machine/deep learning, federated learning, explainable artificial intelligence open new paths for more quality use of medical and health data in future. In this paper, we will focus on presentation of a part of a novel Open AI Architecture for cancer patients that is devoted to intelligent medical data management. Essential activities are data collection, proper design and preparation of data to be used for training machine learning predictive models. Another key aspect is oriented towards intelligent interpretation and visualisation of results about patient's quality of life obtained from machine learning models. The Architecture has been developed as a part of complex project in which 15 institutions from 8 European countries have been participated.</t>
+          <t>In contemporary society people constantly are facing situations that influence appearance of serious diseases. For the development of intelligent decision support systems and services in medical and health domains, it is necessary to collect huge amount of patients’ complex data. Patient’s multimodal data must be properly prepared for intelligent processing and obtained results should be presented in a friendly way to the physicians/caregivers to recommend tailored actions that will improve patients’ quality of life. Advanced artificial intelligence approaches like machine/deep learning, federated learning, explainable artificial intelligence open new paths for more quality use of medical and health data in future. In this paper, we will focus on presentation of a part of a novel Open AI Architecture for cancer patients that is devoted to intelligent medical data management. Essential activities are data collection, proper design and preparation of data to be used for training machine learning predictive models. Another key aspect is oriented towards intelligent interpretation and visualisation of results about patient’s quality of life obtained from machine learning models. The Architecture has been developed as a part of complex project in which 15 institutions from 8 European countries have been participated. © 2023 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
@@ -23602,22 +23686,22 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>quality medical data management within an open ai architecture–cancer patients case</t>
+          <t>quantum inspired differential evolution with explainable artificial intelligence-based covid-19 detection</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -23625,22 +23709,22 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Ivanovic M.; Autexier S.; Kokkonidis M.; Rust J.</t>
+          <t>Basahel A.M.; Yamin M.</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>Connection Science</t>
+          <t>Computer Systems Science and Engineering</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>In contemporary society people constantly are facing situations that influence appearance of serious diseases. For the development of intelligent decision support systems and services in medical and health domains, it is necessary to collect huge amount of patients’ complex data. Patient’s multimodal data must be properly prepared for intelligent processing and obtained results should be presented in a friendly way to the physicians/caregivers to recommend tailored actions that will improve patients’ quality of life. Advanced artificial intelligence approaches like machine/deep learning, federated learning, explainable artificial intelligence open new paths for more quality use of medical and health data in future. In this paper, we will focus on presentation of a part of a novel Open AI Architecture for cancer patients that is devoted to intelligent medical data management. Essential activities are data collection, proper design and preparation of data to be used for training machine learning predictive models. Another key aspect is oriented towards intelligent interpretation and visualisation of results about patient’s quality of life obtained from machine learning models. The Architecture has been developed as a part of complex project in which 15 institutions from 8 European countries have been participated. © 2023 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Recent advancements in the Internet of Things (Io), 5G networks, and cloud computing (CC) have led to the development of Human-centric IoT (HIoT) applications that transform human physical monitoring based on machine monitoring. The HIoT systems find use in several applications such as smart cities, healthcare, transportation, etc. Besides, the HIoT system and explainable artificial intelligence (XAI) tools can be deployed in the healthcare sector for effective decision-making. The COVID-19 pandemic has become a global health issue that necessitates automated and effective diagnostic tools to detect the disease at the initial stage. This article presents a new quantum-inspired differential evolution with explainable artificial intelligence based COVID-19 Detection and Classification (QIDEXAI-CDC) model for HIoT systems. The QIDEXAI-CDC model aims to identify the occurrence of COVID-19 using the XAI tools on HIoT systems. The QIDEXAI-CDC model primarily uses bilateral filtering (BF) as a preprocessing tool to eradicate the noise. In addition, RetinaNet is applied for the generation of useful feature vectors from radiological images. For COVID-19 detection and classification, quantum-inspired differential evolution (QIDE) with kernel extreme learning machine (KELM) model is utilized. The utilization of the QIDE algorithm helps to appropriately choose the weight and bias values of the KELM model. In order to report the enhanced COVID-19 detection outcomes of the QIDEXAI-CDC model, a wide range of simulations was carried out. Extensive comparative studies reported the supremacy of the QIDEXAI-CDC model over the recent approaches. © 2023 Authors. All rights reserved.</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>10.1080/09540091.2023.2194581</t>
+          <t>10.32604/csse.2023.034449</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
@@ -23656,11 +23740,11 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>quantum inspired differential evolution with explainable artificial intelligence-based covid-19 detection</t>
+          <t>recent trends of federated learning for smart healthcare systems</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -23668,22 +23752,22 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>Basahel A.M.; Yamin M.</t>
+          <t>Handa T.; Singhal I.; Chakraborty P.; Kaur G.</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>Computer Systems Science and Engineering</t>
+          <t>Federated Learning and AI for Healthcare 5.0</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>Recent advancements in the Internet of Things (Io), 5G networks, and cloud computing (CC) have led to the development of Human-centric IoT (HIoT) applications that transform human physical monitoring based on machine monitoring. The HIoT systems find use in several applications such as smart cities, healthcare, transportation, etc. Besides, the HIoT system and explainable artificial intelligence (XAI) tools can be deployed in the healthcare sector for effective decision-making. The COVID-19 pandemic has become a global health issue that necessitates automated and effective diagnostic tools to detect the disease at the initial stage. This article presents a new quantum-inspired differential evolution with explainable artificial intelligence based COVID-19 Detection and Classification (QIDEXAI-CDC) model for HIoT systems. The QIDEXAI-CDC model aims to identify the occurrence of COVID-19 using the XAI tools on HIoT systems. The QIDEXAI-CDC model primarily uses bilateral filtering (BF) as a preprocessing tool to eradicate the noise. In addition, RetinaNet is applied for the generation of useful feature vectors from radiological images. For COVID-19 detection and classification, quantum-inspired differential evolution (QIDE) with kernel extreme learning machine (KELM) model is utilized. The utilization of the QIDE algorithm helps to appropriately choose the weight and bias values of the KELM model. In order to report the enhanced COVID-19 detection outcomes of the QIDEXAI-CDC model, a wide range of simulations was carried out. Extensive comparative studies reported the supremacy of the QIDEXAI-CDC model over the recent approaches. © 2023 Authors. All rights reserved.</t>
+          <t>The Internet of Things (IoT) has brought a revolutionary change in the healthcare system. Smart devices have helped people maintain their health by collecting and storing a wide range of data. Artificial intel¬ligence (AI) has made its promising way in several areas. They help in the early diagnosis of various diseases along with storage and interpretation of health data. However, due to the lack of communica¬tion between devices and the risk of transmission of data, the efficiency of AI devices is questionable. To avoid the transmission of data, Federation learning (FL) was highlighted as an approach where issues related to the security of sensitive data can be reduced significantly. The combination of FL, AI, and Explainable Artificial Intelligence (XAI) techniques can minimize several limitations and challenges in the healthcare system. This chapter presents an overview of FL's application in healthcare. Different studies presented data about FL and its usage in healthcare. Currently, this paradigm approach is suc¬cessfully used by specialists in diagnostic purposes. © 2024, IGI Global. All rights reserved.</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
         <is>
-          <t>10.32604/csse.2023.034449</t>
+          <t>10.4018/979-8-3693-1022-9.ch005</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
@@ -23699,11 +23783,11 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>recent trends of federated learning for smart healthcare systems</t>
+          <t>recentering responsible and explainable artificial intelligence research on patients: implications in perinatal psychiatry</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -23711,22 +23795,22 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>Handa T.; Singhal I.; Chakraborty P.; Kaur G.</t>
+          <t>Turchioe M.R.; Hermann A.; Benda N.C.</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>Federated Learning and AI for Healthcare 5.0</t>
+          <t>Frontiers in Psychiatry</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>The Internet of Things (IoT) has brought a revolutionary change in the healthcare system. Smart devices have helped people maintain their health by collecting and storing a wide range of data. Artificial intel¬ligence (AI) has made its promising way in several areas. They help in the early diagnosis of various diseases along with storage and interpretation of health data. However, due to the lack of communica¬tion between devices and the risk of transmission of data, the efficiency of AI devices is questionable. To avoid the transmission of data, Federation learning (FL) was highlighted as an approach where issues related to the security of sensitive data can be reduced significantly. The combination of FL, AI, and Explainable Artificial Intelligence (XAI) techniques can minimize several limitations and challenges in the healthcare system. This chapter presents an overview of FL's application in healthcare. Different studies presented data about FL and its usage in healthcare. Currently, this paradigm approach is suc¬cessfully used by specialists in diagnostic purposes. © 2024, IGI Global. All rights reserved.</t>
+          <t>In the setting of underdiagnosed and undertreated perinatal depression (PD), Artificial intelligence (AI) solutions are poised to help predict and treat PD. In the near future, perinatal patients may interact with AI during clinical decision-making, in their patient portals, or through AI-powered chatbots delivering psychotherapy. The increase in potential AI applications has led to discussions regarding responsible AI and explainable AI (XAI). Current discussions of RAI, however, are limited in their consideration of the patient as an active participant with AI. Therefore, we propose a patient-centered, rather than a patient-adjacent, approach to RAI and XAI, that identifies autonomy, beneficence, justice, trust, privacy, and transparency as core concepts to uphold for health professionals and patients. We present empirical evidence that these principles are strongly valued by patients. We further suggest possible design solutions that uphold these principles and acknowledge the pressing need for further research about practical applications to uphold these principles. Copyright © 2024 Turchioe, Hermann and Benda.</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>10.4018/979-8-3693-1022-9.ch005</t>
+          <t>10.3389/fpsyt.2023.1321265</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
@@ -23736,17 +23820,17 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>recentering responsible and explainable artificial intelligence research on patients: implications in perinatal psychiatry</t>
+          <t>regression analysis of air pollution and pediatric respiratory diseases based on interpretable machine learning</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -23754,22 +23838,22 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>Turchioe M.R.; Hermann A.; Benda N.C.</t>
+          <t>Ji Y.; Zhi X.; Wu Y.; Zhang Y.; Yang Y.; Peng T.; Ji L.</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>Frontiers in Psychiatry</t>
+          <t>Frontiers in Earth Science</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>In the setting of underdiagnosed and undertreated perinatal depression (PD), Artificial intelligence (AI) solutions are poised to help predict and treat PD. In the near future, perinatal patients may interact with AI during clinical decision-making, in their patient portals, or through AI-powered chatbots delivering psychotherapy. The increase in potential AI applications has led to discussions regarding responsible AI and explainable AI (XAI). Current discussions of RAI, however, are limited in their consideration of the patient as an active participant with AI. Therefore, we propose a patient-centered, rather than a patient-adjacent, approach to RAI and XAI, that identifies autonomy, beneficence, justice, trust, privacy, and transparency as core concepts to uphold for health professionals and patients. We present empirical evidence that these principles are strongly valued by patients. We further suggest possible design solutions that uphold these principles and acknowledge the pressing need for further research about practical applications to uphold these principles. Copyright © 2024 Turchioe, Hermann and Benda.</t>
+          <t>Air pollution is of high relevance to human health. In this study, multiple machine-learning (ML) models—linear regression, random forest (RF), AdaBoost, and neural networks (NNs)—were used to explore the potential impacts of air-pollutant concentrations on the incidence of pediatric respiratory diseases in Taizhou, China. A number of explainable artificial intelligence (XAI) methods were further applied to analyze the model outputs and quantify the feature importance. Our results demonstrate that there are significant seasonal variations both in the numbers of pediatric respiratory outpatients and the concentrations of air pollutants. The concentrations of NO2, CO, and particulate matter (PM10 and PM2.5), as well as the numbers of outpatients, reach their peak values in the winter. This indicates that air pollution is a major factor in pediatric respiratory diseases. The results of the regression models show that ML methods can capture the trends and turning points of clinic visits, and the non-linear models were superior to the linear ones. Among them, the RF model served as the best-performing model. The analysis on the RF model by XAI found that AQI, O3, PM10, and the current month are the most important predictors affecting the numbers of pediatric respiratory outpatients. This shows that the number of outpatients rises with an increasing AQI, especially with the increasing of particulate matter. Our study indicates that ML models with XAI methods are promising for revealing the underlying impacts of air pollution on the pediatric respiratory diseases, which further assists the health-related decision-making. Copyright © 2023 Ji, Zhi, Wu, Zhang, Yang, Peng and Ji.</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>10.3389/fpsyt.2023.1321265</t>
+          <t>10.3389/feart.2023.1105140</t>
         </is>
       </c>
       <c r="H545" t="inlineStr">
@@ -23785,34 +23869,34 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>regression analysis of air pollution and pediatric respiratory diseases based on interpretable machine learning</t>
+          <t>reliable water quality prediction and parametric analysis using explainable ai models</t>
         </is>
       </c>
       <c r="C546" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>Ji Y.; Zhi X.; Wu Y.; Zhang Y.; Yang Y.; Peng T.; Ji L.</t>
+          <t>Nallakaruppan M.K.; Gangadevi E.; Shri M.L.; Balusamy B.; Bhattacharya S.; Selvarajan S.</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>Frontiers in Earth Science</t>
+          <t>Scientific Reports</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>Air pollution is of high relevance to human health. In this study, multiple machine-learning (ML) models—linear regression, random forest (RF), AdaBoost, and neural networks (NNs)—were used to explore the potential impacts of air-pollutant concentrations on the incidence of pediatric respiratory diseases in Taizhou, China. A number of explainable artificial intelligence (XAI) methods were further applied to analyze the model outputs and quantify the feature importance. Our results demonstrate that there are significant seasonal variations both in the numbers of pediatric respiratory outpatients and the concentrations of air pollutants. The concentrations of NO2, CO, and particulate matter (PM10 and PM2.5), as well as the numbers of outpatients, reach their peak values in the winter. This indicates that air pollution is a major factor in pediatric respiratory diseases. The results of the regression models show that ML methods can capture the trends and turning points of clinic visits, and the non-linear models were superior to the linear ones. Among them, the RF model served as the best-performing model. The analysis on the RF model by XAI found that AQI, O3, PM10, and the current month are the most important predictors affecting the numbers of pediatric respiratory outpatients. This shows that the number of outpatients rises with an increasing AQI, especially with the increasing of particulate matter. Our study indicates that ML models with XAI methods are promising for revealing the underlying impacts of air pollution on the pediatric respiratory diseases, which further assists the health-related decision-making. Copyright © 2023 Ji, Zhi, Wu, Zhang, Yang, Peng and Ji.</t>
+          <t>The consumption of water constitutes the physical health of most of the living species and hence management of its purity and quality is extremely essential as contaminated water has to potential to create adverse health and environmental consequences. This creates the dire necessity to measure, control and monitor the quality of water. The primary contaminant present in water is Total Dissolved Solids (TDS), which is hard to filter out. There are various substances apart from mere solids such as potassium, sodium, chlorides, lead, nitrate, cadmium, arsenic and other pollutants. The proposed work aims to provide the automation of water quality estimation through Artificial Intelligence and uses Explainable Artificial Intelligence (XAI) for the explanation of the most significant parameters contributing towards the potability of water and the estimation of the impurities. XAI has the transparency and justifiability as a white-box model since the Machine Learning (ML) model is black-box and unable to describe the reasoning behind the ML classification. The proposed work uses various ML models such as Logistic Regression, Support Vector Machine (SVM), Gaussian Naive Bayes, Decision Tree (DT) and Random Forest (RF) to classify whether the water is drinkable. The various representations of XAI such as force plot, test patch, summary plot, dependency plot and decision plot generated in SHAPELY explainer explain the significant features, prediction score, feature importance and justification behind the water quality estimation. The RF classifier is selected for the explanation and yields optimum Accuracy and F1-Score of 0.9999, with Precision and Re-call of 0.9997 and 0.998 respectively. Thus, the work is an exploratory analysis of the estimation and management of water quality with indicators associated with their significance. This work is an emerging research at present with a vision of addressing the water quality for the future as well. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>10.3389/feart.2023.1105140</t>
+          <t>10.1038/s41598-024-56775-y</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
@@ -23828,34 +23912,34 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>reliable water quality prediction and parametric analysis using explainable ai models</t>
+          <t>remaining useful life prognosis for turbofan engine using explainable deep neural networks with dimensionality reduction</t>
         </is>
       </c>
       <c r="C547" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Nallakaruppan M.K.; Gangadevi E.; Shri M.L.; Balusamy B.; Bhattacharya S.; Selvarajan S.</t>
+          <t>Hong C.W.; Lee C.; Lee K.; Ko M.-S.; Kim D.E.; Hur K.</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>Scientific Reports</t>
+          <t>Sensors (Switzerland)</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>The consumption of water constitutes the physical health of most of the living species and hence management of its purity and quality is extremely essential as contaminated water has to potential to create adverse health and environmental consequences. This creates the dire necessity to measure, control and monitor the quality of water. The primary contaminant present in water is Total Dissolved Solids (TDS), which is hard to filter out. There are various substances apart from mere solids such as potassium, sodium, chlorides, lead, nitrate, cadmium, arsenic and other pollutants. The proposed work aims to provide the automation of water quality estimation through Artificial Intelligence and uses Explainable Artificial Intelligence (XAI) for the explanation of the most significant parameters contributing towards the potability of water and the estimation of the impurities. XAI has the transparency and justifiability as a white-box model since the Machine Learning (ML) model is black-box and unable to describe the reasoning behind the ML classification. The proposed work uses various ML models such as Logistic Regression, Support Vector Machine (SVM), Gaussian Naive Bayes, Decision Tree (DT) and Random Forest (RF) to classify whether the water is drinkable. The various representations of XAI such as force plot, test patch, summary plot, dependency plot and decision plot generated in SHAPELY explainer explain the significant features, prediction score, feature importance and justification behind the water quality estimation. The RF classifier is selected for the explanation and yields optimum Accuracy and F1-Score of 0.9999, with Precision and Re-call of 0.9997 and 0.998 respectively. Thus, the work is an exploratory analysis of the estimation and management of water quality with indicators associated with their significance. This work is an emerging research at present with a vision of addressing the water quality for the future as well. © The Author(s) 2024.</t>
+          <t>This study prognoses the remaining useful life of a turbofan engine using a deep learning model, which is essential for the health management of an engine. The proposed deep learning model affords a significantly improved accuracy by organizing networks with a one-dimensional convolutional neural network, long short-term memory, and bidirectional long short-term memory. In particular, this paper investigates two practical and crucial issues in applying the deep learning model for system prognosis. The first is the requirement of numerous sensors for different components, i.e., the curse of dimensionality. Second, the deep neural network cannot identify the problematic component of the turbofan engine due to its “black box” property. This study thus employs dimensionality reduction and Shapley additive explanation (SHAP) techniques. Dimensionality reduction in the model reduces the complexity and prevents overfitting, while maintaining high accuracy. SHAP analyzes and visualizes the black box to identify the sensors. The experimental results demonstrate the high accuracy and efficiency of the proposed model with dimensionality reduction and show that SHAP enhances the explainability in a conventional deep learning model for system prognosis. © 2020 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>10.1038/s41598-024-56775-y</t>
+          <t>10.3390/s20226626</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
@@ -23871,34 +23955,34 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>remaining useful life prognosis for turbofan engine using explainable deep neural networks with dimensionality reduction</t>
+          <t>respiratory rate estimation during walking using a wearable patch with modality attentive fusion</t>
         </is>
       </c>
       <c r="C548" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>Hong C.W.; Lee C.; Lee K.; Ko M.-S.; Kim D.E.; Hur K.</t>
+          <t>Chan M.; Gazi A.H.; Aydemir V.B.; Soliman M.; Ozmen G.C.; Richardson K.L.; Abdallah C.A.; Nikbakht M.; Nichols C.; Inan O.T.</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>Sensors (Switzerland)</t>
+          <t>IEEE Sensors Journal</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>This study prognoses the remaining useful life of a turbofan engine using a deep learning model, which is essential for the health management of an engine. The proposed deep learning model affords a significantly improved accuracy by organizing networks with a one-dimensional convolutional neural network, long short-term memory, and bidirectional long short-term memory. In particular, this paper investigates two practical and crucial issues in applying the deep learning model for system prognosis. The first is the requirement of numerous sensors for different components, i.e., the curse of dimensionality. Second, the deep neural network cannot identify the problematic component of the turbofan engine due to its “black box” property. This study thus employs dimensionality reduction and Shapley additive explanation (SHAP) techniques. Dimensionality reduction in the model reduces the complexity and prevents overfitting, while maintaining high accuracy. SHAP analyzes and visualizes the black box to identify the sensors. The experimental results demonstrate the high accuracy and efficiency of the proposed model with dimensionality reduction and show that SHAP enhances the explainability in a conventional deep learning model for system prognosis. © 2020 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Respiratory rate (RR) is an important vital sign to monitor outside the clinic, particularly during physiological challenges such as exercise; unfortunately, ambulatory measurement devices for RR are typically obtrusive and inaccurate. The objective of this work is to allow for accurate and robust RR monitoring with a convenient and small chest-worn wearable patch during walking and exercise recovery periods. Methods: To estimate RR from the wearable patch, respiratory signals were first extracted from electrocardiogram (ECG), photoplethysmogram (PPG), and seismocardiogram (SCG) signals. The optimal channel in each signal was adaptively selected using the respiratory quality index based on fast Fourier transform (RQIFFT). Next, we proposed modality attentive (MA) fusion-which merged spectral-Temporal information from different modalities-to address motion artifacts during walking. The fused output was subsequently denoised using a U-Net-based deep learning model and used for final estimation. A dataset of {N} = 17 subjects was collected to validate the RR estimated during three types of activities: stationary activities, walking (including 6-minute walk test), and running. Major results: Combining and denoising ECG and PPG data using MA fusion and the U-Net achieved the lowest mean absolute error (MAE) (2.21 breaths per minute [brpm]) during walking. After rejecting a small portion of the data (coverage = 84.43%) using RQIFFT, this error was further reduced to 1.59 brpm, which was comparable to the state-of-The-Art methods. Conclusion: Applying adaptive channel selection, MA fusion, and U-Net denoising achieved accurate RR estimation from a small chest-worn wearable patch. Significance: This work can enable cardiopulmonary monitoring applications in less controlled settings.  © 2001-2012 IEEE.</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>10.3390/s20226626</t>
+          <t>10.1109/JSEN.2023.3324931</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
@@ -23914,54 +23998,54 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>respiratory rate estimation during walking using a wearable patch with modality attentive fusion</t>
+          <t>responsible and regulatory conform machine learning for medicine: a survey of challenges and solutions</t>
         </is>
       </c>
       <c r="C549" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Chan M.; Gazi A.H.; Aydemir V.B.; Soliman M.; Ozmen G.C.; Richardson K.L.; Abdallah C.A.; Nikbakht M.; Nichols C.; Inan O.T.</t>
+          <t>Petersen, E; Potdevin, Y; Mohammadi, E; Zidowitz, S; Breyer, S; Nowotka, D; Henn, S; Pechmann, L; Leucker, M; Rostalski, P; Herzog, C</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>IEEE Sensors Journal</t>
+          <t>IEEE ACCESS</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>Respiratory rate (RR) is an important vital sign to monitor outside the clinic, particularly during physiological challenges such as exercise; unfortunately, ambulatory measurement devices for RR are typically obtrusive and inaccurate. The objective of this work is to allow for accurate and robust RR monitoring with a convenient and small chest-worn wearable patch during walking and exercise recovery periods. Methods: To estimate RR from the wearable patch, respiratory signals were first extracted from electrocardiogram (ECG), photoplethysmogram (PPG), and seismocardiogram (SCG) signals. The optimal channel in each signal was adaptively selected using the respiratory quality index based on fast Fourier transform (RQIFFT). Next, we proposed modality attentive (MA) fusion-which merged spectral-Temporal information from different modalities-to address motion artifacts during walking. The fused output was subsequently denoised using a U-Net-based deep learning model and used for final estimation. A dataset of {N} = 17 subjects was collected to validate the RR estimated during three types of activities: stationary activities, walking (including 6-minute walk test), and running. Major results: Combining and denoising ECG and PPG data using MA fusion and the U-Net achieved the lowest mean absolute error (MAE) (2.21 breaths per minute [brpm]) during walking. After rejecting a small portion of the data (coverage = 84.43%) using RQIFFT, this error was further reduced to 1.59 brpm, which was comparable to the state-of-The-Art methods. Conclusion: Applying adaptive channel selection, MA fusion, and U-Net denoising achieved accurate RR estimation from a small chest-worn wearable patch. Significance: This work can enable cardiopulmonary monitoring applications in less controlled settings.  © 2001-2012 IEEE.</t>
+          <t>Machine learning is expected to fuel significant improvements in medical care. To ensure that fundamental principles such as beneficence, respect for human autonomy, prevention of harm, justice, privacy, and transparency are respected, medical machine learning systems must be developed responsibly. Many high-level declarations of ethical principles have been put forth for this purpose, but there is a severe lack of technical guidelines explicating the practical consequences for medical machine learning. Similarly, there is currently considerable uncertainty regarding the exact regulatory requirements placed upon medical machine learning systems. This survey provides an overview of the technical and procedural challenges involved in creating medical machine learning systems responsibly and in conformity with existing regulations, as well as possible solutions to address these challenges. First, a brief review of existing regulations affecting medical machine learning is provided, showing that properties such as safety, robustness, reliability, privacy, security, transparency, explainability, and nondiscrimination are all demanded already by existing law and regulations-albeit, in many cases, to an uncertain degree. Next, the key technical obstacles to achieving these desirable properties are discussed, as well as important techniques to overcome these obstacles in the medical context. We notice that distribution shift, spurious correlations, model underspecification, uncertainty quantification, and data scarcity represent severe challenges in the medical context. Promising solution approaches include the use of large and representative datasets and federated learning as a means to that end, the careful exploitation of domain knowledge, the use of inherently transparent models, comprehensive out-of-distribution model testing and verification, as well as algorithmic impact assessments.</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>10.1109/JSEN.2023.3324931</t>
+          <t>10.1109/ACCESS.2022.3178382</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>responsible and regulatory conform machine learning for medicine: a survey of challenges and solutions</t>
+          <t>responsible artificial intelligence for preterm birth prediction in vulnerable populations</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -23969,65 +24053,65 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Petersen, E; Potdevin, Y; Mohammadi, E; Zidowitz, S; Breyer, S; Nowotka, D; Henn, S; Pechmann, L; Leucker, M; Rostalski, P; Herzog, C</t>
+          <t>Marvin G.; Nakatumba-Nabende J.; Hellen N.; Alam M.G.R.</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>IEEE ACCESS</t>
+          <t>Proceedings of IEEE Asia-Pacific Conference on Computer Science and Data Engineering, CSDE 2022</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>Machine learning is expected to fuel significant improvements in medical care. To ensure that fundamental principles such as beneficence, respect for human autonomy, prevention of harm, justice, privacy, and transparency are respected, medical machine learning systems must be developed responsibly. Many high-level declarations of ethical principles have been put forth for this purpose, but there is a severe lack of technical guidelines explicating the practical consequences for medical machine learning. Similarly, there is currently considerable uncertainty regarding the exact regulatory requirements placed upon medical machine learning systems. This survey provides an overview of the technical and procedural challenges involved in creating medical machine learning systems responsibly and in conformity with existing regulations, as well as possible solutions to address these challenges. First, a brief review of existing regulations affecting medical machine learning is provided, showing that properties such as safety, robustness, reliability, privacy, security, transparency, explainability, and nondiscrimination are all demanded already by existing law and regulations-albeit, in many cases, to an uncertain degree. Next, the key technical obstacles to achieving these desirable properties are discussed, as well as important techniques to overcome these obstacles in the medical context. We notice that distribution shift, spurious correlations, model underspecification, uncertainty quantification, and data scarcity represent severe challenges in the medical context. Promising solution approaches include the use of large and representative datasets and federated learning as a means to that end, the careful exploitation of domain knowledge, the use of inherently transparent models, comprehensive out-of-distribution model testing and verification, as well as algorithmic impact assessments.</t>
+          <t>Newborn and child mortality prevention is one of the prioritized Sustainable Development Goals (SDG) targets of the World Health Organization (WHO) expected by 2030. This SDG Target 3.2 has prompted for a lot of solutions for the most affected regions like Sub-Saharan Africa, Central and Southern Asia in order to stop preventable deaths of children under the age of 5 years and newborns although available solutions are not yet sufficient to achieve the Goal. The 4th Industrial revolution has further advanced the need for a reliable interdisciplinary approach that leverages technological advancements in achieving the SDG Target 3.2. In this work, we present a trustworthy Artificial Intelligence (AI) solution that blends with the data driven emerging technologies to reduce this global burden by transparently and interpretably predicting preterm births for patients and physicians for predictive and preventive action towards lowering neonatal deaths and increasing child survival. This AI solution can globally improve maternal and child healthcare among nations the run curative healthcare systems. We used Random Forest and KNeighbors and obtained an accuracy of 100% and 78% with respectively with Synthetic Minority Oversampling Technique (SMOTE) and Adaptive Synthetic (ADASYN) class balancing techniques. With interpretability of the random forest algorithm, we can responsibly improve AI technology adoption for maternal and child health and provide useful automated data driven insights to maternal healthcare management stakeholders and policy makers for a sustainable healthcare system in developing countries.  © 2022 IEEE.</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2022.3178382</t>
+          <t>10.1109/CSDE56538.2022.10089301</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>responsible artificial intelligence for preterm birth prediction in vulnerable populations</t>
+          <t>retainvis: visual analytics with interpretable and interactive recurrent neural networks on electronic medical records</t>
         </is>
       </c>
       <c r="C551" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>Marvin G.; Nakatumba-Nabende J.; Hellen N.; Alam M.G.R.</t>
+          <t>Kwon B.C.; Choi M.-J.; Kim J.T.; Choi E.; Kim Y.B.; Kwon S.; Sun J.; Choo J.</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>Proceedings of IEEE Asia-Pacific Conference on Computer Science and Data Engineering, CSDE 2022</t>
+          <t>IEEE Transactions on Visualization and Computer Graphics</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>Newborn and child mortality prevention is one of the prioritized Sustainable Development Goals (SDG) targets of the World Health Organization (WHO) expected by 2030. This SDG Target 3.2 has prompted for a lot of solutions for the most affected regions like Sub-Saharan Africa, Central and Southern Asia in order to stop preventable deaths of children under the age of 5 years and newborns although available solutions are not yet sufficient to achieve the Goal. The 4th Industrial revolution has further advanced the need for a reliable interdisciplinary approach that leverages technological advancements in achieving the SDG Target 3.2. In this work, we present a trustworthy Artificial Intelligence (AI) solution that blends with the data driven emerging technologies to reduce this global burden by transparently and interpretably predicting preterm births for patients and physicians for predictive and preventive action towards lowering neonatal deaths and increasing child survival. This AI solution can globally improve maternal and child healthcare among nations the run curative healthcare systems. We used Random Forest and KNeighbors and obtained an accuracy of 100% and 78% with respectively with Synthetic Minority Oversampling Technique (SMOTE) and Adaptive Synthetic (ADASYN) class balancing techniques. With interpretability of the random forest algorithm, we can responsibly improve AI technology adoption for maternal and child health and provide useful automated data driven insights to maternal healthcare management stakeholders and policy makers for a sustainable healthcare system in developing countries.  © 2022 IEEE.</t>
+          <t>We have recently seen many successful applications of recurrent neural networks (RNNs) on electronic medical records (EMRs), which contain histories of patients' diagnoses, medications, and other various events, in order to predict the current and future states of patients. Despite the strong performance of RNNs, it is often challenging for users to understand why the model makes a particular prediction. Such black-box nature of RNNs can impede its wide adoption in clinical practice. Furthermore, we have no established methods to interactively leverage users' domain expertise and prior knowledge as inputs for steering the model. Therefore, our design study aims to provide a visual analytics solution to increase interpretability and interactivity of RNNs via a joint effort of medical experts, artificial intelligence scientists, and visual analytics researchers. Following the iterative design process between the experts, we design, implement, and evaluate a visual analytics tool called RetainVis, which couples a newly improved, interpretable, and interactive RNN-based model called RetainEX and visualizations for users' exploration of EMR data in the context of prediction tasks. Our study shows the effective use of RetainVis for gaining insights into how individual medical codes contribute to making risk predictions, using EMRs of patients with heart failure and cataract symptoms. Our study also demonstrates how we made substantial changes to the state-of-the-art RNN model called RETAIN in order to make use of temporal information and increase interactivity. This study will provide a useful guideline for researchers that aim to design an interpretable and interactive visual analytics tool for RNNs. © 2018 IEEE.</t>
         </is>
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>10.1109/CSDE56538.2022.10089301</t>
+          <t>10.1109/TVCG.2018.2865027</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
@@ -24043,34 +24127,34 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>retainvis: visual analytics with interpretable and interactive recurrent neural networks on electronic medical records</t>
+          <t>risk assessment for personalized health insurance based on real-world data</t>
         </is>
       </c>
       <c r="C552" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>Kwon B.C.; Choi M.-J.; Kim J.T.; Choi E.; Kim Y.B.; Kwon S.; Sun J.; Choo J.</t>
+          <t>Pnevmatikakis A.; Kanavos S.; Matikas G.; Kostopoulou K.; Cesario A.; Kyriazakos S.</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Visualization and Computer Graphics</t>
+          <t>Risks</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>We have recently seen many successful applications of recurrent neural networks (RNNs) on electronic medical records (EMRs), which contain histories of patients' diagnoses, medications, and other various events, in order to predict the current and future states of patients. Despite the strong performance of RNNs, it is often challenging for users to understand why the model makes a particular prediction. Such black-box nature of RNNs can impede its wide adoption in clinical practice. Furthermore, we have no established methods to interactively leverage users' domain expertise and prior knowledge as inputs for steering the model. Therefore, our design study aims to provide a visual analytics solution to increase interpretability and interactivity of RNNs via a joint effort of medical experts, artificial intelligence scientists, and visual analytics researchers. Following the iterative design process between the experts, we design, implement, and evaluate a visual analytics tool called RetainVis, which couples a newly improved, interpretable, and interactive RNN-based model called RetainEX and visualizations for users' exploration of EMR data in the context of prediction tasks. Our study shows the effective use of RetainVis for gaining insights into how individual medical codes contribute to making risk predictions, using EMRs of patients with heart failure and cataract symptoms. Our study also demonstrates how we made substantial changes to the state-of-the-art RNN model called RETAIN in order to make use of temporal information and increase interactivity. This study will provide a useful guideline for researchers that aim to design an interpretable and interactive visual analytics tool for RNNs. © 2018 IEEE.</t>
+          <t>The way one leads their life is considered an important factor in health. In this paper we propose a system to provide risk assessment based on behavior for the health insurance sector. To do so we built a platform to collect real-world data that enumerate different aspects of behavior, and a simulator to augment actual data with synthetic. Using the data, we built classifiers to predict variations in important quantities for the lifestyle of a person. We offer a risk assessment service to the health insurance professionals by manipulating the classifier predictions in the long-term. We also address virtual coaching by using explainable Artificial Intelligence (AI) techniques on the classifier itself to gain insights on the advice to be offered to insurance customers. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>10.1109/TVCG.2018.2865027</t>
+          <t>10.3390/risks9030046</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
@@ -24080,40 +24164,40 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>risk assessment for personalized health insurance based on real-world data</t>
+          <t>risk factors and machine learning model for predicting hospitalization outcomes in geriatric patients with dementia</t>
         </is>
       </c>
       <c r="C553" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>Pnevmatikakis A.; Kanavos S.; Matikas G.; Kostopoulou K.; Cesario A.; Kyriazakos S.</t>
+          <t>Wang X.; Ezeana C.F.; Wang L.; Puppala M.; Huang Y.-S.; He Y.; Yu X.; Yin Z.; Zhao H.; Lai E.C.; Wong S.T.C.</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>Risks</t>
+          <t>Alzheimer's and Dementia: Translational Research and Clinical Interventions</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>The way one leads their life is considered an important factor in health. In this paper we propose a system to provide risk assessment based on behavior for the health insurance sector. To do so we built a platform to collect real-world data that enumerate different aspects of behavior, and a simulator to augment actual data with synthetic. Using the data, we built classifiers to predict variations in important quantities for the lifestyle of a person. We offer a risk assessment service to the health insurance professionals by manipulating the classifier predictions in the long-term. We also address virtual coaching by using explainable Artificial Intelligence (AI) techniques on the classifier itself to gain insights on the advice to be offered to insurance customers. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Introduction: Geriatric patients with dementia incur higher healthcare costs and longer hospital stays than other geriatric patients. We aimed to identify risk factors for hospitalization outcomes that could be mitigated early to improve outcomes and impact overall quality of life. Methods: We identified risk factors, that is, demographics, hospital complications, pre-admission, and post-admission risk factors including medical history and comorbidities, affecting hospitalization outcomes determined by hospital stays and discharge dispositions. Over 150 clinical and demographic factors of 15,678 encounters (8407 patients) were retrieved from our institution's data warehouse. We further narrowed them down to twenty factors through feature selection engineering by using analysis of variance (ANOVA) and Glmnet. We developed an explainable machine-learning model to predict hospitalization outcomes among geriatric patients with dementia. Results: Our model is based on stacking ensemble learning and achieved accuracy of 95.6% and area under the curve (AUC) of 0.757. It outperformed prevalent methods of risk assessment for encounters of patients with Alzheimer's disease dementia (ADD) (4993), vascular dementia (VD) (4173), Parkinson's disease with dementia (PDD) (3735), and other unspecified dementias (OUD) (2777). Top identified hospitalization outcome risk factors, mostly from medical history, include encephalopathy, number of medical problems at admission, pressure ulcers, urinary tract infections, falls, admission source, age, race, anemia, etc., with several overlaps in multi-dementia groups. Discussion: Our model identified several predictive factors that can be modified or intervened so that efforts can be made to prevent recurrence or mitigate their adverse effects. Knowledge of the modifiable risk factors would help guide early interventions for patients at high risk for poor hospitalization outcome as defined by hospital stays longer than seven days, undesirable discharge disposition, or both. The interventions include starting specific protocols on modifiable risk factors like encephalopathy, falls, and infections, where non-existent or not routine, to improve hospitalization outcomes of geriatric patients with dementia. Highlights: A total 15,678 encounters of Geriatrics with dementia with a final 20 risk factors. Developed a predictive model for hospitalization outcomes for multi-dementia types. Risk factors for each type were identified including those amenable to interventions. Top factors are encephalopathy, pressure ulcers, urinary tract infection (UTI), falls, and admission source. With accuracy of 95.6%, our ensemble predictive model outperforms other models. © 2022 The Authors. Alzheimer's &amp; Dementia: Translational Research &amp; Clinical Interventions published by Wiley Periodicals LLC on behalf of Alzheimer's Association.</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>10.3390/risks9030046</t>
+          <t>10.1002/trc2.12351</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
@@ -24123,40 +24207,40 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>risk factors and machine learning model for predicting hospitalization outcomes in geriatric patients with dementia</t>
+          <t>road2h: development and evaluation of an open-source explainable artificial intelligence approach for managing co-morbidity and clinical guidelines</t>
         </is>
       </c>
       <c r="C554" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>Wang X.; Ezeana C.F.; Wang L.; Puppala M.; Huang Y.-S.; He Y.; Yu X.; Yin Z.; Zhao H.; Lai E.C.; Wong S.T.C.</t>
+          <t>Domínguez J.; Prociuk D.; Marović B.; Čyras K.; Cocarascu O.; Ruiz F.; Mi E.; Mi E.; Ramtale C.; Rago A.; Darzi A.; Toni F.; Curcin V.; Delaney B.</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>Alzheimer's and Dementia: Translational Research and Clinical Interventions</t>
+          <t>Learning Health Systems</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>Introduction: Geriatric patients with dementia incur higher healthcare costs and longer hospital stays than other geriatric patients. We aimed to identify risk factors for hospitalization outcomes that could be mitigated early to improve outcomes and impact overall quality of life. Methods: We identified risk factors, that is, demographics, hospital complications, pre-admission, and post-admission risk factors including medical history and comorbidities, affecting hospitalization outcomes determined by hospital stays and discharge dispositions. Over 150 clinical and demographic factors of 15,678 encounters (8407 patients) were retrieved from our institution's data warehouse. We further narrowed them down to twenty factors through feature selection engineering by using analysis of variance (ANOVA) and Glmnet. We developed an explainable machine-learning model to predict hospitalization outcomes among geriatric patients with dementia. Results: Our model is based on stacking ensemble learning and achieved accuracy of 95.6% and area under the curve (AUC) of 0.757. It outperformed prevalent methods of risk assessment for encounters of patients with Alzheimer's disease dementia (ADD) (4993), vascular dementia (VD) (4173), Parkinson's disease with dementia (PDD) (3735), and other unspecified dementias (OUD) (2777). Top identified hospitalization outcome risk factors, mostly from medical history, include encephalopathy, number of medical problems at admission, pressure ulcers, urinary tract infections, falls, admission source, age, race, anemia, etc., with several overlaps in multi-dementia groups. Discussion: Our model identified several predictive factors that can be modified or intervened so that efforts can be made to prevent recurrence or mitigate their adverse effects. Knowledge of the modifiable risk factors would help guide early interventions for patients at high risk for poor hospitalization outcome as defined by hospital stays longer than seven days, undesirable discharge disposition, or both. The interventions include starting specific protocols on modifiable risk factors like encephalopathy, falls, and infections, where non-existent or not routine, to improve hospitalization outcomes of geriatric patients with dementia. Highlights: A total 15,678 encounters of Geriatrics with dementia with a final 20 risk factors. Developed a predictive model for hospitalization outcomes for multi-dementia types. Risk factors for each type were identified including those amenable to interventions. Top factors are encephalopathy, pressure ulcers, urinary tract infection (UTI), falls, and admission source. With accuracy of 95.6%, our ensemble predictive model outperforms other models. © 2022 The Authors. Alzheimer's &amp; Dementia: Translational Research &amp; Clinical Interventions published by Wiley Periodicals LLC on behalf of Alzheimer's Association.</t>
+          <t>Introduction: Clinical decision support (CDS) systems (CDSSs) that integrate clinical guidelines need to reflect real-world co-morbidity. In patient-specific clinical contexts, transparent recommendations that allow for contraindications and other conflicts arising from co-morbidity are a requirement. In this work, we develop and evaluate a non-proprietary, standards-based approach to the deployment of computable guidelines with explainable argumentation, integrated with a commercial electronic health record (EHR) system in Serbia, a middle-income country in West Balkans. Methods: We used an ontological framework, the Transition-based Medical Recommendation (TMR) model, to represent, and reason about, guideline concepts, and chose the 2017 International global initiative for chronic obstructive lung disease (GOLD) guideline and a Serbian hospital as the deployment and evaluation site, respectively. To mitigate potential guideline conflicts, we used a TMR-based implementation of the Assumptions-Based Argumentation framework extended with preferences and Goals (ABA+G). Remote EHR integration of computable guidelines was via a microservice architecture based on HL7 FHIR and CDS Hooks. A prototype integration was developed to manage chronic obstructive pulmonary disease (COPD) with comorbid cardiovascular or chronic kidney diseases, and a mixed-methods evaluation was conducted with 20 simulated cases and five pulmonologists. Results: Pulmonologists agreed 97% of the time with the GOLD-based COPD symptom severity assessment assigned to each patient by the CDSS, and 98% of the time with one of the proposed COPD care plans. Comments were favourable on the principles of explainable argumentation; inclusion of additional co-morbidities was suggested in the future along with customisation of the level of explanation with expertise. Conclusion: An ontological model provided a flexible means of providing argumentation and explainable artificial intelligence for a long-term condition. Extension to other guidelines and multiple co-morbidities is needed to test the approach further. © 2023 The Authors. Learning Health Systems published by Wiley Periodicals LLC on behalf of University of Michigan.</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>10.1002/trc2.12351</t>
+          <t>10.1002/lrh2.10391</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
@@ -24166,40 +24250,40 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>road2h: development and evaluation of an open-source explainable artificial intelligence approach for managing co-morbidity and clinical guidelines</t>
+          <t>roberta-assisted outcome prediction in ovarian cancer cytoreductive surgery using operative notes</t>
         </is>
       </c>
       <c r="C555" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Domínguez J.; Prociuk D.; Marović B.; Čyras K.; Cocarascu O.; Ruiz F.; Mi E.; Mi E.; Ramtale C.; Rago A.; Darzi A.; Toni F.; Curcin V.; Delaney B.</t>
+          <t>Laios A.; Kalampokis E.; Mamalis M.E.; Tarabanis C.; Nugent D.; Thangavelu A.; Theophilou G.; De Jong D.</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>Learning Health Systems</t>
+          <t>Cancer Control</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>Introduction: Clinical decision support (CDS) systems (CDSSs) that integrate clinical guidelines need to reflect real-world co-morbidity. In patient-specific clinical contexts, transparent recommendations that allow for contraindications and other conflicts arising from co-morbidity are a requirement. In this work, we develop and evaluate a non-proprietary, standards-based approach to the deployment of computable guidelines with explainable argumentation, integrated with a commercial electronic health record (EHR) system in Serbia, a middle-income country in West Balkans. Methods: We used an ontological framework, the Transition-based Medical Recommendation (TMR) model, to represent, and reason about, guideline concepts, and chose the 2017 International global initiative for chronic obstructive lung disease (GOLD) guideline and a Serbian hospital as the deployment and evaluation site, respectively. To mitigate potential guideline conflicts, we used a TMR-based implementation of the Assumptions-Based Argumentation framework extended with preferences and Goals (ABA+G). Remote EHR integration of computable guidelines was via a microservice architecture based on HL7 FHIR and CDS Hooks. A prototype integration was developed to manage chronic obstructive pulmonary disease (COPD) with comorbid cardiovascular or chronic kidney diseases, and a mixed-methods evaluation was conducted with 20 simulated cases and five pulmonologists. Results: Pulmonologists agreed 97% of the time with the GOLD-based COPD symptom severity assessment assigned to each patient by the CDSS, and 98% of the time with one of the proposed COPD care plans. Comments were favourable on the principles of explainable argumentation; inclusion of additional co-morbidities was suggested in the future along with customisation of the level of explanation with expertise. Conclusion: An ontological model provided a flexible means of providing argumentation and explainable artificial intelligence for a long-term condition. Extension to other guidelines and multiple co-morbidities is needed to test the approach further. © 2023 The Authors. Learning Health Systems published by Wiley Periodicals LLC on behalf of University of Michigan.</t>
+          <t>Introduction: Contemporary efforts to predict surgical outcomes focus on the associations between traditional discrete surgical risk factors. We aimed to determine whether natural language processing (NLP) of unstructured operative notes improves the prediction of residual disease in women with advanced epithelial ovarian cancer (EOC) following cytoreductive surgery. Methods: Electronic Health Records were queried to identify women with advanced EOC including their operative notes. The Term Frequency – Inverse Document Frequency (TF-IDF) score was used to quantify the discrimination capacity of sequences of words (n-grams) regarding the existence of residual disease. We employed the state-of-the-art RoBERTa-based classifier to process unstructured surgical notes. Discrimination was measured using standard performance metrics. An XGBoost model was then trained on the same dataset using both discrete and engineered clinical features along with the probabilities outputted by the RoBERTa classifier. Results: The cohort consisted of 555 cases of EOC cytoreduction performed by eight surgeons between January 2014 and December 2019. Discrete word clouds weighted by n-gram TF-IDF score difference between R0 and non-R0 resection were identified. The words ‘adherent’ and ‘miliary disease’ best discriminated between the two groups. The RoBERTa model reached high evaluation metrics (AUROC.86; AUPRC.87, precision, recall, and F1 score of.77 and accuracy of.81). Equally, it outperformed models that used discrete clinical and engineered features and outplayed the performance of other state-of-the-art NLP tools. When the probabilities from the RoBERTa classifier were combined with commonly used predictors in the XGBoost model, a marginal improvement in the overall model’s performance was observed (AUROC and AUPRC of.91, with all other metrics the same). Conclusion/Implications: We applied a sui generis approach to extract information from the abundant textual surgical data and demonstrated how it can be effectively used for classification prediction, outperforming models relying on conventional structured data. State-of-art NLP applications in biomedical texts can improve modern EOC care. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>10.1002/lrh2.10391</t>
+          <t>10.1177/10732748231209892</t>
         </is>
       </c>
       <c r="H555" t="inlineStr">
@@ -24215,34 +24299,34 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>roberta-assisted outcome prediction in ovarian cancer cytoreductive surgery using operative notes</t>
+          <t>robust local explanations for healthcare predictive analytics: an application to fragility fracture risk modeling</t>
         </is>
       </c>
       <c r="C556" t="n">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Laios A.; Kalampokis E.; Mamalis M.E.; Tarabanis C.; Nugent D.; Thangavelu A.; Theophilou G.; De Jong D.</t>
+          <t>Kim B.; Srinivasan K.; Ram S.</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>Cancer Control</t>
+          <t>40th International Conference on Information Systems, ICIS 2019</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>Introduction: Contemporary efforts to predict surgical outcomes focus on the associations between traditional discrete surgical risk factors. We aimed to determine whether natural language processing (NLP) of unstructured operative notes improves the prediction of residual disease in women with advanced epithelial ovarian cancer (EOC) following cytoreductive surgery. Methods: Electronic Health Records were queried to identify women with advanced EOC including their operative notes. The Term Frequency – Inverse Document Frequency (TF-IDF) score was used to quantify the discrimination capacity of sequences of words (n-grams) regarding the existence of residual disease. We employed the state-of-the-art RoBERTa-based classifier to process unstructured surgical notes. Discrimination was measured using standard performance metrics. An XGBoost model was then trained on the same dataset using both discrete and engineered clinical features along with the probabilities outputted by the RoBERTa classifier. Results: The cohort consisted of 555 cases of EOC cytoreduction performed by eight surgeons between January 2014 and December 2019. Discrete word clouds weighted by n-gram TF-IDF score difference between R0 and non-R0 resection were identified. The words ‘adherent’ and ‘miliary disease’ best discriminated between the two groups. The RoBERTa model reached high evaluation metrics (AUROC.86; AUPRC.87, precision, recall, and F1 score of.77 and accuracy of.81). Equally, it outperformed models that used discrete clinical and engineered features and outplayed the performance of other state-of-the-art NLP tools. When the probabilities from the RoBERTa classifier were combined with commonly used predictors in the XGBoost model, a marginal improvement in the overall model’s performance was observed (AUROC and AUPRC of.91, with all other metrics the same). Conclusion/Implications: We applied a sui generis approach to extract information from the abundant textual surgical data and demonstrated how it can be effectively used for classification prediction, outperforming models relying on conventional structured data. State-of-art NLP applications in biomedical texts can improve modern EOC care. © The Author(s) 2023.</t>
+          <t>With recent advancements in data analytics, healthcare predictive analytics (HPA) is garnering growing interest among practitioners and researchers. However, it is risky to blindly accept the results and users will not accept the HPA model if transparency is not guaranteed. To address this challenge, we propose the RObust Local EXplanations (ROLEX) method, which provides robust, instance-level explanations for any HPA model. The applicability of the ROLEX method is demonstrated using the fragility fracture prediction problem. Analysis with a large real-world dataset demonstrates that our method outperforms state-of-the-art methods in terms of local fidelity. The ROLEX method is applicable to various types of HPA problems beyond the fragility fracture problem. It is applicable to any type of supervised learning model and provides fine-grained explanations that can improve understanding of the phenomenon of interest. Finally, we discuss theoretical implications of our study in light of healthcare IS, big data, and design science. © 40th International Conference on Information Systems, ICIS 2019. All rights reserved.</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>10.1177/10732748231209892</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
@@ -24252,38 +24336,42 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>robust local explanations for healthcare predictive analytics: an application to fragility fracture risk modeling</t>
+          <t>rolex: a novel method for interpretable machine learning using robust local explanations</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Kim B.; Srinivasan K.; Ram S.</t>
+          <t>Kim B.; Srinivasan K.; Kong S.H.; Kim J.H.; Shin C.S.; Ram S.</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>40th International Conference on Information Systems, ICIS 2019</t>
+          <t>MIS Quarterly: Management Information Systems</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>With recent advancements in data analytics, healthcare predictive analytics (HPA) is garnering growing interest among practitioners and researchers. However, it is risky to blindly accept the results and users will not accept the HPA model if transparency is not guaranteed. To address this challenge, we propose the RObust Local EXplanations (ROLEX) method, which provides robust, instance-level explanations for any HPA model. The applicability of the ROLEX method is demonstrated using the fragility fracture prediction problem. Analysis with a large real-world dataset demonstrates that our method outperforms state-of-the-art methods in terms of local fidelity. The ROLEX method is applicable to various types of HPA problems beyond the fragility fracture problem. It is applicable to any type of supervised learning model and provides fine-grained explanations that can improve understanding of the phenomenon of interest. Finally, we discuss theoretical implications of our study in light of healthcare IS, big data, and design science. © 40th International Conference on Information Systems, ICIS 2019. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="G557" t="inlineStr"/>
+          <t>Recent developments in big data technologies are revolutionizing the field of healthcare predictive analytics (HPA), enabling researchers to explore challenging problems using complex prediction models. Nevertheless, healthcare practitioners are reluctant to adopt those models as they are less transparent and accountable due to their black-box structure. We believe that instance-level, or local, explanations enhance patient safety and foster trust by enabling patient-level interpretations and medical knowledge discovery. Therefore, we propose the RObust Local EXplanations (ROLEX) method to develop robust, instance-level explanations for HPA models in this study. ROLEX adapts state-of-the-art methods and ameliorates their shortcomings in explaining individual-level predictions made by black-box machine learning models. Our analysis with a large real-world dataset related to a prevalent medical condition called fragility fracture and two publicly available healthcare datasets reveals that ROLEX outperforms widely accepted benchmark methods in terms of local faithfulness of explanations. In addition, ROLEX is more robust since it does not rely on extensive hyperparameter tuning or heuristic algorithms. Explanations generated by ROLEX, along with the prototype user interface presented in this study, have the potential to promote personalized care and precision medicine by providing patient-level interpretations and novel insights. We discuss the theoretical implications of our study in healthcare, big data, and design science. © 2023 University of Minnesota. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>10.25300/MISQ/2022/17141</t>
+        </is>
+      </c>
       <c r="H557" t="inlineStr">
         <is>
           <t>Final</t>
@@ -24291,17 +24379,17 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>rolex: a novel method for interpretable machine learning using robust local explanations</t>
+          <t>rv4jaca-towards runtime verification of multi-agent systems and robotic applications</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -24309,108 +24397,108 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Kim B.; Srinivasan K.; Kong S.H.; Kim J.H.; Shin C.S.; Ram S.</t>
+          <t>Engelmann, DC; Ferrando, A; Panisson, AR; Ancona, D; Bordini, RH; Mascardi, V</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>MIS Quarterly: Management Information Systems</t>
+          <t>ROBOTICS</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Recent developments in big data technologies are revolutionizing the field of healthcare predictive analytics (HPA), enabling researchers to explore challenging problems using complex prediction models. Nevertheless, healthcare practitioners are reluctant to adopt those models as they are less transparent and accountable due to their black-box structure. We believe that instance-level, or local, explanations enhance patient safety and foster trust by enabling patient-level interpretations and medical knowledge discovery. Therefore, we propose the RObust Local EXplanations (ROLEX) method to develop robust, instance-level explanations for HPA models in this study. ROLEX adapts state-of-the-art methods and ameliorates their shortcomings in explaining individual-level predictions made by black-box machine learning models. Our analysis with a large real-world dataset related to a prevalent medical condition called fragility fracture and two publicly available healthcare datasets reveals that ROLEX outperforms widely accepted benchmark methods in terms of local faithfulness of explanations. In addition, ROLEX is more robust since it does not rely on extensive hyperparameter tuning or heuristic algorithms. Explanations generated by ROLEX, along with the prototype user interface presented in this study, have the potential to promote personalized care and precision medicine by providing patient-level interpretations and novel insights. We discuss the theoretical implications of our study in healthcare, big data, and design science. © 2023 University of Minnesota. All rights reserved.</t>
+          <t>This paper presents a Runtime Verification (RV) approach for Multi-Agent Systems (MAS) using the JaCaMo framework. Our objective is to bring a layer of security to the MAS. This is achieved keeping in mind possible safety-critical uses of the MAS, such as robotic applications. This layer is capable of controlling events during the execution of the system without needing a specific implementation in the behaviour of each agent to recognise the events. In this paper, we mainly focus on MAS when used in the context of hybrid intelligence. This use requires communication between software agents and human beings. In some cases, communication takes place via natural language dialogues. However, this kind of communication brings us to a concern related to controlling the flow of dialogue so that agents can prevent any change in the topic of discussion that could impair their reasoning. The latter may be a problem and undermine the development of the software agents. In this paper, we tackle this problem by proposing and demonstrating the implementation of a framework that aims to control the dialogue flow in a MAS; especially when the MAS communicates with the user through natural language to aid decision-making in a hospital bed allocation scenario.</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>10.25300/MISQ/2022/17141</t>
+          <t>10.3390/robotics12020049</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>rv4jaca-towards runtime verification of multi-agent systems and robotic applications</t>
+          <t>sadxai: predicting social anxiety disorder using multiple interpretable artificial intelligence techniques</t>
         </is>
       </c>
       <c r="C559" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Engelmann, DC; Ferrando, A; Panisson, AR; Ancona, D; Bordini, RH; Mascardi, V</t>
+          <t>Chadaga K.; Prabhu S.; Sampathila N.; Chadaga R.; Bhat D.; Sharma A.K.; Swathi K.S.</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>ROBOTICS</t>
+          <t>SLAS technology</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>This paper presents a Runtime Verification (RV) approach for Multi-Agent Systems (MAS) using the JaCaMo framework. Our objective is to bring a layer of security to the MAS. This is achieved keeping in mind possible safety-critical uses of the MAS, such as robotic applications. This layer is capable of controlling events during the execution of the system without needing a specific implementation in the behaviour of each agent to recognise the events. In this paper, we mainly focus on MAS when used in the context of hybrid intelligence. This use requires communication between software agents and human beings. In some cases, communication takes place via natural language dialogues. However, this kind of communication brings us to a concern related to controlling the flow of dialogue so that agents can prevent any change in the topic of discussion that could impair their reasoning. The latter may be a problem and undermine the development of the software agents. In this paper, we tackle this problem by proposing and demonstrating the implementation of a framework that aims to control the dialogue flow in a MAS; especially when the MAS communicates with the user through natural language to aid decision-making in a hospital bed allocation scenario.</t>
+          <t>Social anxiety disorder (SAD), also known as social phobia, is a psychological condition in which a person has a persistent and overwhelming fear of being negatively judged or observed by other individuals. This fear can affect them at work, in relationships and other social activities. The intricate combination of several environmental and biological factors is the reason for the onset of this mental condition. SAD is diagnosed using a test called the "Diagnostic and Statistical Manual of Mental Health Disorders (DSM-5), which is based on several physical, emotional and demographic symptoms. Artificial Intelligence has been a boon for medicine and is regularly used to diagnose various health conditions and diseases. Hence, this study used demographic, emotional, and physical symptoms and multiple machine learning (ML) techniques to diagnose SAD. A thorough descriptive and statistical analysis has been conducted before using the classifiers. Among all the models, the AdaBoost and logistic regression obtained the highest accuracy of 88 % each. Four eXplainable artificial techniques (XAI) techniques are utilized to make the predictions interpretable, transparent and understandable. According to XAI, the "Liebowitz Social Anxiety Scale questionnaire" and "The fear of speaking in public" are the most critical attributes in the diagnosis of SAD. This clinical decision support system framework could be utilized in various suitable locations such as schools, hospitals and workplaces to identify SAD in people. Copyright © 2024. Published by Elsevier Inc.</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>10.3390/robotics12020049</t>
+          <t>10.1016/j.slast.2024.100129</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>sadxai: predicting social anxiety disorder using multiple interpretable artificial intelligence techniques</t>
+          <t>secure and explainable artificial intelligence (xai) in cloud ecosystems: challenges and opportunities</t>
         </is>
       </c>
       <c r="C560" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>Chadaga K.; Prabhu S.; Sampathila N.; Chadaga R.; Bhat D.; Sharma A.K.; Swathi K.S.</t>
+          <t>Khalasi D.; Bathwar D.; Bhatia J.; Kumhar M.; Thumar V.</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>SLAS technology</t>
+          <t>Lecture Notes in Networks and Systems</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Social anxiety disorder (SAD), also known as social phobia, is a psychological condition in which a person has a persistent and overwhelming fear of being negatively judged or observed by other individuals. This fear can affect them at work, in relationships and other social activities. The intricate combination of several environmental and biological factors is the reason for the onset of this mental condition. SAD is diagnosed using a test called the "Diagnostic and Statistical Manual of Mental Health Disorders (DSM-5), which is based on several physical, emotional and demographic symptoms. Artificial Intelligence has been a boon for medicine and is regularly used to diagnose various health conditions and diseases. Hence, this study used demographic, emotional, and physical symptoms and multiple machine learning (ML) techniques to diagnose SAD. A thorough descriptive and statistical analysis has been conducted before using the classifiers. Among all the models, the AdaBoost and logistic regression obtained the highest accuracy of 88 % each. Four eXplainable artificial techniques (XAI) techniques are utilized to make the predictions interpretable, transparent and understandable. According to XAI, the "Liebowitz Social Anxiety Scale questionnaire" and "The fear of speaking in public" are the most critical attributes in the diagnosis of SAD. This clinical decision support system framework could be utilized in various suitable locations such as schools, hospitals and workplaces to identify SAD in people. Copyright © 2024. Published by Elsevier Inc.</t>
+          <t>The widespread adoption of artificial intelligence (AI) in cloud ecosystems has revolutionized various domains, offering significant advantages such as improved efficiency, scalability, and cost-effectiveness. However, the use of AI also poses significant security risks, and the need for more transparency in AI models makes it difficult to understand how decisions are made. This paper reviews recent research efforts toward developing secure and explainable AI (XAI) for cloud ecosystems, highlights the critical need for secure XAI in cloud ecosystems, and explores the challenges and potential solutions. The paper also discusses a case study involving the security of cloud-based health care with intrusion detection systems (IDS). Finally, the paper concludes with open research directions in this domain and their potential impact on cloud ecosystems. © The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd 2023.</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>10.1016/j.slast.2024.100129</t>
+          <t>10.1007/978-981-99-4932-8_51</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
@@ -24426,11 +24514,11 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>secure and explainable artificial intelligence (xai) in cloud ecosystems: challenges and opportunities</t>
+          <t>semantic enrichment of explanations of ai models for healthcare</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -24438,22 +24526,22 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Khalasi D.; Bathwar D.; Bhatia J.; Kumhar M.; Thumar V.</t>
+          <t>Corbucci L.; Monreale A.; Panigutti C.; Natilli M.; Smiraglio S.; Pedreschi D.</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>Lecture Notes in Networks and Systems</t>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>The widespread adoption of artificial intelligence (AI) in cloud ecosystems has revolutionized various domains, offering significant advantages such as improved efficiency, scalability, and cost-effectiveness. However, the use of AI also poses significant security risks, and the need for more transparency in AI models makes it difficult to understand how decisions are made. This paper reviews recent research efforts toward developing secure and explainable AI (XAI) for cloud ecosystems, highlights the critical need for secure XAI in cloud ecosystems, and explores the challenges and potential solutions. The paper also discusses a case study involving the security of cloud-based health care with intrusion detection systems (IDS). Finally, the paper concludes with open research directions in this domain and their potential impact on cloud ecosystems. © The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd 2023.</t>
+          <t>Explaining AI-based clinical decision support systems is crucial to enhancing clinician trust in those powerful systems. Unfortunately, current explanations provided by eXplainable Artificial Intelligence techniques are not easily understandable by experts outside of AI. As a consequence, the enrichment of explanations with relevant clinical information concerning the health status of a patient is fundamental to increasing human experts’ ability to assess the reliability of AI decisions. Therefore, in this paper, we propose a methodology to enable clinical reasoning by semantically enriching AI explanations. Starting with a medical AI explanation based only on the input features provided to the algorithm, our methodology leverages medical ontologies and NLP embedding techniques to link relevant information present in the patient’s clinical notes to the original explanation. Our experiments, involving a human expert, highlight promising performance in correctly identifying relevant information about the diseases of the patients. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>10.1007/978-981-99-4932-8_51</t>
+          <t>10.1007/978-3-031-45275-8_15</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
@@ -24469,34 +24557,34 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>semantic enrichment of explanations of ai models for healthcare</t>
+          <t>shapley-lorenz explainable artificial intelligence</t>
         </is>
       </c>
       <c r="C562" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Corbucci L.; Monreale A.; Panigutti C.; Natilli M.; Smiraglio S.; Pedreschi D.</t>
+          <t>Giudici P.; Raffinetti E.</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+          <t>Expert Systems with Applications</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>Explaining AI-based clinical decision support systems is crucial to enhancing clinician trust in those powerful systems. Unfortunately, current explanations provided by eXplainable Artificial Intelligence techniques are not easily understandable by experts outside of AI. As a consequence, the enrichment of explanations with relevant clinical information concerning the health status of a patient is fundamental to increasing human experts’ ability to assess the reliability of AI decisions. Therefore, in this paper, we propose a methodology to enable clinical reasoning by semantically enriching AI explanations. Starting with a medical AI explanation based only on the input features provided to the algorithm, our methodology leverages medical ontologies and NLP embedding techniques to link relevant information present in the patient’s clinical notes to the original explanation. Our experiments, involving a human expert, highlight promising performance in correctly identifying relevant information about the diseases of the patients. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+          <t>Explainability of artificial intelligence methods has become a crucial issue, especially in the most regulated fields, such as health and finance. In this paper, we provide a global explainable AI method which is based on Lorenz decompositions, thus extending previous contributions based on variance decompositions. This allows the resulting Shapley-Lorenz decomposition to be more generally applicable, and provides a unifying variable importance criterion that combines predictive accuracy with explainability, using a normalised and easy to interpret metric. The proposed decomposition is illustrated within the context of a real financial problem: the prediction of bitcoin prices. © 2020 The Authors</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>10.1007/978-3-031-45275-8_15</t>
+          <t>10.1016/j.eswa.2020.114104</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
@@ -24506,40 +24594,40 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>shapley-lorenz explainable artificial intelligence</t>
+          <t>smart explainable artificial intelligence for sustainable secure healthcare application based on quantum optical neural network</t>
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>Giudici P.; Raffinetti E.</t>
+          <t>Suhasini S.; Tatini N.B.; Arslan F.; Bansal S.K.; Babu S.; Umaralievich M.S.</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>Expert Systems with Applications</t>
+          <t>Optical and Quantum Electronics</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>Explainability of artificial intelligence methods has become a crucial issue, especially in the most regulated fields, such as health and finance. In this paper, we provide a global explainable AI method which is based on Lorenz decompositions, thus extending previous contributions based on variance decompositions. This allows the resulting Shapley-Lorenz decomposition to be more generally applicable, and provides a unifying variable importance criterion that combines predictive accuracy with explainability, using a normalised and easy to interpret metric. The proposed decomposition is illustrated within the context of a real financial problem: the prediction of bitcoin prices. © 2020 The Authors</t>
+          <t>Managing expanding urbanisation, energy use, environmental preservation, citizen economic and living standards, and people's ability to effectively use and adopt modern information and communication technology (ICT) are all objectives of smart cities. A branch of machine intelligence engineering known as explaining artificial intelligence (XAI) makes complex techniques approachable and adaptable for efficient decision-making in the sciences and technologies. The quantum uncertainty problem may be applied to the network state, which consists of several states and dimensions and requires real-time information. Specifically pertinent are the linkages between the emerging paradigms of machine learning (ML), quantum computing (QC), and quantum machine learning (QML), and traditional communication networks. This study provides a new method in explainable deep learning for analysing healthcare data in multimedia for long-term quantum photonic applications. Input has been collected from multimedia healthcare data and processed for noise removal and normalization. Processed data features have been extracted using a gradient quantum neural network, and classification is carried out using an attention-based graph neural network (GNN). The experimental analysis is carried out in terms of accuracy, precision, recall, F-1 score, NSE (normalized square error), MAP (mean average precision),and Jaccard index.The proposed technique attained an accuracy of 93%, precision of 81%, recall of 79%, F-1 score of 71%, NSE of 65%, MAP of 58%, and Jaccard index of 53%. © 2023, The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature.</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>10.1016/j.eswa.2020.114104</t>
+          <t>10.1007/s11082-023-05155-3</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
@@ -24549,17 +24637,17 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>smart explainable artificial intelligence for sustainable secure healthcare application based on quantum optical neural network</t>
+          <t>smart healthcare</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -24567,22 +24655,22 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>Suhasini S.; Tatini N.B.; Arslan F.; Bansal S.K.; Babu S.; Umaralievich M.S.</t>
+          <t>Chen T.-C.T.</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>Optical and Quantum Electronics</t>
+          <t>SpringerBriefs in Applied Sciences and Technology</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>Managing expanding urbanisation, energy use, environmental preservation, citizen economic and living standards, and people's ability to effectively use and adopt modern information and communication technology (ICT) are all objectives of smart cities. A branch of machine intelligence engineering known as explaining artificial intelligence (XAI) makes complex techniques approachable and adaptable for efficient decision-making in the sciences and technologies. The quantum uncertainty problem may be applied to the network state, which consists of several states and dimensions and requires real-time information. Specifically pertinent are the linkages between the emerging paradigms of machine learning (ML), quantum computing (QC), and quantum machine learning (QML), and traditional communication networks. This study provides a new method in explainable deep learning for analysing healthcare data in multimedia for long-term quantum photonic applications. Input has been collected from multimedia healthcare data and processed for noise removal and normalization. Processed data features have been extracted using a gradient quantum neural network, and classification is carried out using an attention-based graph neural network (GNN). The experimental analysis is carried out in terms of accuracy, precision, recall, F-1 score, NSE (normalized square error), MAP (mean average precision),and Jaccard index.The proposed technique attained an accuracy of 93%, precision of 81%, recall of 79%, F-1 score of 71%, NSE of 65%, MAP of 58%, and Jaccard index of 53%. © 2023, The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature.</t>
+          <t>This chapter first defines smart healthcare and smart healthcare technologies. After observing changes in the number of smart healthcare applications explored before, during, and after the COVID-19 pandemic, we have to question the sustainability of smart healthcare applications. Answering this question requires a reassessment of the sustainability of each smart healthcare application. To this end, some common smart healthcare applications, including smartphone applications (apps), smartwatch applications, location-aware services (LASs), telemedicine and telecare, Internet of Things (IoT) applications, machine learning (ML) and deep learning (DL) applications, are first introduced by reviewing examples from the literature. The sustainabilities of these smart healthcare applications are then subjectively estimated. However, the actual sustainability of each smart healthcare application will be determined on a case-by-case basis and should be compared with those of other applications. © 2023, The Author(s).</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>10.1007/s11082-023-05155-3</t>
+          <t>10.1007/978-3-031-37146-2_1</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
@@ -24598,11 +24686,11 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>smart healthcare</t>
+          <t>smartphone-tracked digital markers of momentary subjective stress in college students: idiographic machine learning analysis</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -24610,22 +24698,22 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Chen T.-C.T.</t>
+          <t>Aalbers G.; Hendrickson A.T.; Abeele M.M.V.; Keijsers L.</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>SpringerBriefs in Applied Sciences and Technology</t>
+          <t>JMIR mHealth and uHealth</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>This chapter first defines smart healthcare and smart healthcare technologies. After observing changes in the number of smart healthcare applications explored before, during, and after the COVID-19 pandemic, we have to question the sustainability of smart healthcare applications. Answering this question requires a reassessment of the sustainability of each smart healthcare application. To this end, some common smart healthcare applications, including smartphone applications (apps), smartwatch applications, location-aware services (LASs), telemedicine and telecare, Internet of Things (IoT) applications, machine learning (ML) and deep learning (DL) applications, are first introduced by reviewing examples from the literature. The sustainabilities of these smart healthcare applications are then subjectively estimated. However, the actual sustainability of each smart healthcare application will be determined on a case-by-case basis and should be compared with those of other applications. © 2023, The Author(s).</t>
+          <t>Background: Stress is an important predictor of mental health problems such as burnout and depression. Acute stress is considered adaptive, whereas chronic stress is viewed as detrimental to well-being. To aid in the early detection of chronic stress, machine learning models are increasingly trained to learn the quantitative relation from digital footprints to self-reported stress. Prior studies have investigated general principles in population-wide studies, but the extent to which the findings apply to individuals is understudied. Objective: We aimed to explore to what extent machine learning models can leverage features of smartphone app use log data to recognize momentary subjective stress in individuals, which of these features are most important for predicting stress and represent potential digital markers of stress, the nature of the relations between these digital markers and stress, and the degree to which these relations differ across people. Methods: Student participants (N=224) self-reported momentary subjective stress 5 times per day up to 60 days in total (44,381 observations); in parallel, dedicated smartphone software continuously logged their smartphone app use. We extracted features from the log data (eg, time spent on app categories such as messenger apps and proxies for sleep duration and onset) and trained machine learning models to predict momentary subjective stress from these features using 2 approaches: modeling general relations at the group level (nomothetic approach) and modeling relations for each person separately (idiographic approach). To identify potential digital markers of momentary subjective stress, we applied explainable artificial intelligence methodology (ie, Shapley additive explanations). We evaluated model accuracy on a person-to-person basis in out-of-sample observations. Results: We identified prolonged use of messenger and social network site apps and proxies for sleep duration and onset as the most important features across modeling approaches (nomothetic vs idiographic). The relations of these digital markers with momentary subjective stress differed from person to person, as did model accuracy. Sleep proxies, messenger, and social network use were heterogeneously related to stress (ie, negative in some and positive or zero in others). Model predictions correlated positively and statistically significantly with self-reported stress in most individuals (median person-specific correlation=0.15-0.19 for nomothetic models and median person-specific correlation=0.00-0.09 for idiographic models). Conclusions: Our findings indicate that smartphone log data can be used for identifying digital markers of stress and also show that the relation between specific digital markers and stress differs from person to person. These findings warrant follow-up studies in other populations (eg, professionals and clinical populations) and pave the way for similar research using physiological measures of stress. © 2023 JMIR Publications. All rights reserved.</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>10.1007/978-3-031-37146-2_1</t>
+          <t>10.2196/37469</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
@@ -24635,17 +24723,17 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>smartphone-tracked digital markers of momentary subjective stress in college students: idiographic machine learning analysis</t>
+          <t>solving the explainable ai conundrum by bridging clinicians’ needs and developers’ goals</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -24653,22 +24741,22 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Aalbers G.; Hendrickson A.T.; Abeele M.M.V.; Keijsers L.</t>
+          <t>Bienefeld N.; Boss J.M.; Lüthy R.; Brodbeck D.; Azzati J.; Blaser M.; Willms J.; Keller E.</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>JMIR mHealth and uHealth</t>
+          <t>npj Digital Medicine</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>Background: Stress is an important predictor of mental health problems such as burnout and depression. Acute stress is considered adaptive, whereas chronic stress is viewed as detrimental to well-being. To aid in the early detection of chronic stress, machine learning models are increasingly trained to learn the quantitative relation from digital footprints to self-reported stress. Prior studies have investigated general principles in population-wide studies, but the extent to which the findings apply to individuals is understudied. Objective: We aimed to explore to what extent machine learning models can leverage features of smartphone app use log data to recognize momentary subjective stress in individuals, which of these features are most important for predicting stress and represent potential digital markers of stress, the nature of the relations between these digital markers and stress, and the degree to which these relations differ across people. Methods: Student participants (N=224) self-reported momentary subjective stress 5 times per day up to 60 days in total (44,381 observations); in parallel, dedicated smartphone software continuously logged their smartphone app use. We extracted features from the log data (eg, time spent on app categories such as messenger apps and proxies for sleep duration and onset) and trained machine learning models to predict momentary subjective stress from these features using 2 approaches: modeling general relations at the group level (nomothetic approach) and modeling relations for each person separately (idiographic approach). To identify potential digital markers of momentary subjective stress, we applied explainable artificial intelligence methodology (ie, Shapley additive explanations). We evaluated model accuracy on a person-to-person basis in out-of-sample observations. Results: We identified prolonged use of messenger and social network site apps and proxies for sleep duration and onset as the most important features across modeling approaches (nomothetic vs idiographic). The relations of these digital markers with momentary subjective stress differed from person to person, as did model accuracy. Sleep proxies, messenger, and social network use were heterogeneously related to stress (ie, negative in some and positive or zero in others). Model predictions correlated positively and statistically significantly with self-reported stress in most individuals (median person-specific correlation=0.15-0.19 for nomothetic models and median person-specific correlation=0.00-0.09 for idiographic models). Conclusions: Our findings indicate that smartphone log data can be used for identifying digital markers of stress and also show that the relation between specific digital markers and stress differs from person to person. These findings warrant follow-up studies in other populations (eg, professionals and clinical populations) and pave the way for similar research using physiological measures of stress. © 2023 JMIR Publications. All rights reserved.</t>
+          <t>Explainable artificial intelligence (XAI) has emerged as a promising solution for addressing the implementation challenges of AI/ML in healthcare. However, little is known about how developers and clinicians interpret XAI and what conflicting goals and requirements they may have. This paper presents the findings of a longitudinal multi-method study involving 112 developers and clinicians co-designing an XAI solution for a clinical decision support system. Our study identifies three key differences between developer and clinician mental models of XAI, including opposing goals (model interpretability vs. clinical plausibility), different sources of truth (data vs. patient), and the role of exploring new vs. exploiting old knowledge. Based on our findings, we propose design solutions that can help address the XAI conundrum in healthcare, including the use of causal inference models, personalized explanations, and ambidexterity between exploration and exploitation mindsets. Our study highlights the importance of considering the perspectives of both developers and clinicians in the design of XAI systems and provides practical recommendations for improving the effectiveness and usability of XAI in healthcare. © 2023, The Author(s).</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>10.2196/37469</t>
+          <t>10.1038/s41746-023-00837-4</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
@@ -24678,17 +24766,17 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>solving the explainable ai conundrum by bridging clinicians’ needs and developers’ goals</t>
+          <t>spatial analysis to investigate the relationship between tourism and wellbeing in italy</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -24696,108 +24784,108 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Bienefeld N.; Boss J.M.; Lüthy R.; Brodbeck D.; Azzati J.; Blaser M.; Willms J.; Keller E.</t>
+          <t>Firza N.; Antonucci L.; Crocetta C.; d’Ovidio F.D.; Monaco A.</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>npj Digital Medicine</t>
+          <t>Social Indicators Research</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>Explainable artificial intelligence (XAI) has emerged as a promising solution for addressing the implementation challenges of AI/ML in healthcare. However, little is known about how developers and clinicians interpret XAI and what conflicting goals and requirements they may have. This paper presents the findings of a longitudinal multi-method study involving 112 developers and clinicians co-designing an XAI solution for a clinical decision support system. Our study identifies three key differences between developer and clinician mental models of XAI, including opposing goals (model interpretability vs. clinical plausibility), different sources of truth (data vs. patient), and the role of exploring new vs. exploiting old knowledge. Based on our findings, we propose design solutions that can help address the XAI conundrum in healthcare, including the use of causal inference models, personalized explanations, and ambidexterity between exploration and exploitation mindsets. Our study highlights the importance of considering the perspectives of both developers and clinicians in the design of XAI systems and provides practical recommendations for improving the effectiveness and usability of XAI in healthcare. © 2023, The Author(s).</t>
+          <t>The level and variety of services offered by tourist destinations are intricately linked to the overall health and condition of its area. We would like to investigate the existence of a possible connection between tourism and the social, economic, and environmental well-being of a territory. The tourism industry can improve the general well-being of a specific area by promoting consumption, reducing the income gap, and improving infrastructures. However, the well-being of the territory through enhancing the specific features of the local context and its factors of excellence can also influence tourism. In this context, we applied Machine Learning methods to investigate the relationship between tourism and well-being in Italy. The analysis used Italian BES indicators at the provincial level, referred to a time window of 17 years (2004–2020). We developed a Machine Learning algorithm based on a hybrid (unsupervised and supervised) approach to study 51 well-being indexes and 9 tourism indicators. We found a close connection (80% of accuracy) between tourism and well-being. We also selected a group of tourism indicators that have a strong effect on this connection. Using eXplainable Artificial Intelligence (XAI) methods, we detected that tourism in low season periods ranks first for importance followed by the spread of farms business and urban green areas density. Our research suggests that improved social, economic, environmental, and health well-being can positively spill over the effect on tourism arrivals and revenues in the long period. © 2023, The Author(s).</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>10.1038/s41746-023-00837-4</t>
+          <t>10.1007/s11205-023-03234-2</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Article in press</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>spatial analysis to investigate the relationship between tourism and wellbeing in italy</t>
+          <t>statistical inference for clustering results interpretation in clinical practice</t>
         </is>
       </c>
       <c r="C568" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Firza N.; Antonucci L.; Crocetta C.; d’Ovidio F.D.; Monaco A.</t>
+          <t>Kanonirov A.; Balabaeva K.; Kovalchuk S.</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>Social Indicators Research</t>
+          <t>Studies in Health Technology and Informatics</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>The level and variety of services offered by tourist destinations are intricately linked to the overall health and condition of its area. We would like to investigate the existence of a possible connection between tourism and the social, economic, and environmental well-being of a territory. The tourism industry can improve the general well-being of a specific area by promoting consumption, reducing the income gap, and improving infrastructures. However, the well-being of the territory through enhancing the specific features of the local context and its factors of excellence can also influence tourism. In this context, we applied Machine Learning methods to investigate the relationship between tourism and well-being in Italy. The analysis used Italian BES indicators at the provincial level, referred to a time window of 17 years (2004–2020). We developed a Machine Learning algorithm based on a hybrid (unsupervised and supervised) approach to study 51 well-being indexes and 9 tourism indicators. We found a close connection (80% of accuracy) between tourism and well-being. We also selected a group of tourism indicators that have a strong effect on this connection. Using eXplainable Artificial Intelligence (XAI) methods, we detected that tourism in low season periods ranks first for importance followed by the spread of farms business and urban green areas density. Our research suggests that improved social, economic, environmental, and health well-being can positively spill over the effect on tourism arrivals and revenues in the long period. © 2023, The Author(s).</t>
+          <t>The relevance of this study lies in improvement of machine learning models understanding. We present a method for interpreting clustering results and apply it to the case of clinical pathways modeling. This method is based on statistical inference and allows to get the description of the clusters, determining the influence of a particular feature on the difference between them. Based on the proposed approach, it is possible to determine the characteristic features for each cluster. Finally, we compare the method with the Bayesian inference explanation and with the interpretation of medical experts [1]. © 2021 The authors and IOS Press.</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>10.1007/s11205-023-03234-2</t>
+          <t>10.3233/SHTI210580</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>Article in press</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>statistical inference for clustering results interpretation in clinical practice</t>
+          <t>stream temperature prediction in a shifting environment: explaining the influence of deep learning architecture</t>
         </is>
       </c>
       <c r="C569" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Kanonirov A.; Balabaeva K.; Kovalchuk S.</t>
+          <t>Topp S.N.; Barclay J.; Diaz J.; Sun A.Y.; Jia X.; Lu D.; Sadler J.M.; Appling A.P.</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>Studies in Health Technology and Informatics</t>
+          <t>Water Resources Research</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>The relevance of this study lies in improvement of machine learning models understanding. We present a method for interpreting clustering results and apply it to the case of clinical pathways modeling. This method is based on statistical inference and allows to get the description of the clusters, determining the influence of a particular feature on the difference between them. Based on the proposed approach, it is possible to determine the characteristic features for each cluster. Finally, we compare the method with the Bayesian inference explanation and with the interpretation of medical experts [1]. © 2021 The authors and IOS Press.</t>
+          <t>Stream temperature is a fundamental control on ecosystem health. Recent efforts incorporating process guidance into deep learning models for predicting stream temperature have been shown to outperform existing statistical and physical models. This performance is in part because deep learning architectures can actively learn spatiotemporal relationships that govern how water and energy propagate through a river network. However, exploration of how spatiotemporal awareness and process guidance influence a model's generalizability under shifting environmental conditions such as climate change is limited. Here, we use Explainable Artificial Intelligence (XAI) to interrogate how differing deep learning architectures affect a model's learned spatial and temporal dependencies, and how those learned dependencies affect a model's ability to maintain high accuracy when applied to unseen environmental conditions. Using the Delaware River Basin in the northeastern United States as a test case, we compare two spatiotemporally aware process-guided deep learning models for predicting stream temperature (a recurrent graph convolution network—RGCN, and a temporal convolution graph model—Graph WaveNet). Both models achieve equally high predictive performance when testing data are well represented in the training data (test root mean squared errors of 1.64°C and 1.65°C); however, Graph WaveNet significantly outperforms RGCN in 4 out of 5 experiments where test partitions represent different types of unseen environmental conditions. XAI results show that the architecture of Graph WaveNet leads to learned spatial relationships with greater fidelity to physical processes, and that this fidelity improves the generalizability of the model when applied to shifting and/or unseen environmental conditions. © 2023 The Authors. This article has been contributed to by U.S. Government employees and their work is in the public domain in the USA.</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>10.3233/SHTI210580</t>
+          <t>10.1029/2022WR033880</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
@@ -24807,17 +24895,17 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>stream temperature prediction in a shifting environment: explaining the influence of deep learning architecture</t>
+          <t>survey of explainable ai techniques in healthcare</t>
         </is>
       </c>
       <c r="C570" t="n">
@@ -24825,22 +24913,22 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Topp S.N.; Barclay J.; Diaz J.; Sun A.Y.; Jia X.; Lu D.; Sadler J.M.; Appling A.P.</t>
+          <t>Chaddad A.; Peng J.; Xu J.; Bouridane A.</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>Water Resources Research</t>
+          <t>Sensors</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>Stream temperature is a fundamental control on ecosystem health. Recent efforts incorporating process guidance into deep learning models for predicting stream temperature have been shown to outperform existing statistical and physical models. This performance is in part because deep learning architectures can actively learn spatiotemporal relationships that govern how water and energy propagate through a river network. However, exploration of how spatiotemporal awareness and process guidance influence a model's generalizability under shifting environmental conditions such as climate change is limited. Here, we use Explainable Artificial Intelligence (XAI) to interrogate how differing deep learning architectures affect a model's learned spatial and temporal dependencies, and how those learned dependencies affect a model's ability to maintain high accuracy when applied to unseen environmental conditions. Using the Delaware River Basin in the northeastern United States as a test case, we compare two spatiotemporally aware process-guided deep learning models for predicting stream temperature (a recurrent graph convolution network—RGCN, and a temporal convolution graph model—Graph WaveNet). Both models achieve equally high predictive performance when testing data are well represented in the training data (test root mean squared errors of 1.64°C and 1.65°C); however, Graph WaveNet significantly outperforms RGCN in 4 out of 5 experiments where test partitions represent different types of unseen environmental conditions. XAI results show that the architecture of Graph WaveNet leads to learned spatial relationships with greater fidelity to physical processes, and that this fidelity improves the generalizability of the model when applied to shifting and/or unseen environmental conditions. © 2023 The Authors. This article has been contributed to by U.S. Government employees and their work is in the public domain in the USA.</t>
+          <t>Artificial intelligence (AI) with deep learning models has been widely applied in numerous domains, including medical imaging and healthcare tasks. In the medical field, any judgment or decision is fraught with risk. A doctor will carefully judge whether a patient is sick before forming a reasonable explanation based on the patient’s symptoms and/or an examination. Therefore, to be a viable and accepted tool, AI needs to mimic human judgment and interpretation skills. Specifically, explainable AI (XAI) aims to explain the information behind the black-box model of deep learning that reveals how the decisions are made. This paper provides a survey of the most recent XAI techniques used in healthcare and related medical imaging applications. We summarize and categorize the XAI types, and highlight the algorithms used to increase interpretability in medical imaging topics. In addition, we focus on the challenging XAI problems in medical applications and provide guidelines to develop better interpretations of deep learning models using XAI concepts in medical image and text analysis. Furthermore, this survey provides future directions to guide developers and researchers for future prospective investigations on clinical topics, particularly on applications with medical imaging. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>10.1029/2022WR033880</t>
+          <t>10.3390/s23020634</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
@@ -24850,17 +24938,17 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>survey of explainable ai techniques in healthcare</t>
+          <t>survey of explainable ai techniques: a case study of healthcare</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -24868,22 +24956,22 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Chaddad A.; Peng J.; Xu J.; Bouridane A.</t>
+          <t>Patil T.; Arora S.</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>Sensors</t>
+          <t>Lecture Notes in Networks and Systems</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI) with deep learning models has been widely applied in numerous domains, including medical imaging and healthcare tasks. In the medical field, any judgment or decision is fraught with risk. A doctor will carefully judge whether a patient is sick before forming a reasonable explanation based on the patient’s symptoms and/or an examination. Therefore, to be a viable and accepted tool, AI needs to mimic human judgment and interpretation skills. Specifically, explainable AI (XAI) aims to explain the information behind the black-box model of deep learning that reveals how the decisions are made. This paper provides a survey of the most recent XAI techniques used in healthcare and related medical imaging applications. We summarize and categorize the XAI types, and highlight the algorithms used to increase interpretability in medical imaging topics. In addition, we focus on the challenging XAI problems in medical applications and provide guidelines to develop better interpretations of deep learning models using XAI concepts in medical image and text analysis. Furthermore, this survey provides future directions to guide developers and researchers for future prospective investigations on clinical topics, particularly on applications with medical imaging. © 2023 by the authors.</t>
+          <t>With its unparalleled predictive capabilities and decision-making power, artificial intelligence (AI) has transformed countless disciplines. Nevertheless, as AI technology advances in complexity and ubiquity, so does the requirement for transparency and interpretability increase commensurately. The opaqueness of AI models makes them difficult to comprehend, which leads to mounting concerns regarding their application. To address this issue effectively, Explainable Artificial Intelligence (XAI) has emerged as an attempt to demystify how machine learning model decisions are made possible by offering comprehensible explanations for opacities caused by variations in input features or noise in data collection processes using methods such as LIME or SHAP especially vital in domains such as health care where ethical considerations outweigh those faced in other areas. This study provides an overview of XAI techniques, a case study that talks about the importance of using techniques such as LIME and SHAP in a healthcare organization to predict whether or not the patient is likely to get a heart disease or not, why and how the outcomes have been obtained. In the concluding section, the paper elaborates on the challenges facing XAI and outlines prospective future directions for research in this domain. © The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd 2023.</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>10.3390/s23020634</t>
+          <t>10.1007/978-981-99-5652-4_30</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
@@ -24899,11 +24987,11 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>survey of explainable ai techniques: a case study of healthcare</t>
+          <t>survey of explainable artificial intelligence techniques for biomedical imaging with deep neural networks</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -24911,22 +24999,22 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>Patil T.; Arora S.</t>
+          <t>Nazir S.; Dickson D.M.; Akram M.U.</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>Lecture Notes in Networks and Systems</t>
+          <t>Computers in Biology and Medicine</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>With its unparalleled predictive capabilities and decision-making power, artificial intelligence (AI) has transformed countless disciplines. Nevertheless, as AI technology advances in complexity and ubiquity, so does the requirement for transparency and interpretability increase commensurately. The opaqueness of AI models makes them difficult to comprehend, which leads to mounting concerns regarding their application. To address this issue effectively, Explainable Artificial Intelligence (XAI) has emerged as an attempt to demystify how machine learning model decisions are made possible by offering comprehensible explanations for opacities caused by variations in input features or noise in data collection processes using methods such as LIME or SHAP especially vital in domains such as health care where ethical considerations outweigh those faced in other areas. This study provides an overview of XAI techniques, a case study that talks about the importance of using techniques such as LIME and SHAP in a healthcare organization to predict whether or not the patient is likely to get a heart disease or not, why and how the outcomes have been obtained. In the concluding section, the paper elaborates on the challenges facing XAI and outlines prospective future directions for research in this domain. © The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd 2023.</t>
+          <t>Artificial Intelligence (AI) techniques of deep learning have revolutionized the disease diagnosis with their outstanding image classification performance. In spite of the outstanding results, the widespread adoption of these techniques in clinical practice is still taking place at a moderate pace. One of the major hindrance is that a trained Deep Neural Networks (DNN) model provides a prediction, but questions about why and how that prediction was made remain unanswered. This linkage is of utmost importance for the regulated healthcare domain to increase the trust in the automated diagnosis system by the practitioners, patients and other stakeholders. The application of deep learning for medical imaging has to be interpreted with caution due to the health and safety concerns similar to blame attribution in the case of an accident involving autonomous cars. The consequences of both a false positive and false negative cases are far reaching for patients' welfare and cannot be ignored. This is exacerbated by the fact that the state-of-the-art deep learning algorithms comprise of complex interconnected structures, millions of parameters, and a ‘black box’ nature, offering little understanding of their inner working unlike the traditional machine learning algorithms. Explainable AI (XAI) techniques help to understand model predictions which help develop trust in the system, accelerate the disease diagnosis, and meet adherence to regulatory requirements. This survey provides a comprehensive review of the promising field of XAI for biomedical imaging diagnostics. We also provide a categorization of the XAI techniques, discuss the open challenges, and provide future directions for XAI which would be of interest to clinicians, regulators and model developers. © 2023 The Authors</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>10.1007/978-981-99-5652-4_30</t>
+          <t>10.1016/j.compbiomed.2023.106668</t>
         </is>
       </c>
       <c r="H572" t="inlineStr">
@@ -24936,40 +25024,40 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>survey of explainable artificial intelligence techniques for biomedical imaging with deep neural networks</t>
+          <t>symbolic ai for xai: evaluating lfit inductive programming for explaining biases in machine learning</t>
         </is>
       </c>
       <c r="C573" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>Nazir S.; Dickson D.M.; Akram M.U.</t>
+          <t>Ortega A.; Fierrez J.; Morales A.; Wang Z.; de la Cruz M.; Alonso C.L.; Ribeiro T.</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>Computers in Biology and Medicine</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI) techniques of deep learning have revolutionized the disease diagnosis with their outstanding image classification performance. In spite of the outstanding results, the widespread adoption of these techniques in clinical practice is still taking place at a moderate pace. One of the major hindrance is that a trained Deep Neural Networks (DNN) model provides a prediction, but questions about why and how that prediction was made remain unanswered. This linkage is of utmost importance for the regulated healthcare domain to increase the trust in the automated diagnosis system by the practitioners, patients and other stakeholders. The application of deep learning for medical imaging has to be interpreted with caution due to the health and safety concerns similar to blame attribution in the case of an accident involving autonomous cars. The consequences of both a false positive and false negative cases are far reaching for patients' welfare and cannot be ignored. This is exacerbated by the fact that the state-of-the-art deep learning algorithms comprise of complex interconnected structures, millions of parameters, and a ‘black box’ nature, offering little understanding of their inner working unlike the traditional machine learning algorithms. Explainable AI (XAI) techniques help to understand model predictions which help develop trust in the system, accelerate the disease diagnosis, and meet adherence to regulatory requirements. This survey provides a comprehensive review of the promising field of XAI for biomedical imaging diagnostics. We also provide a categorization of the XAI techniques, discuss the open challenges, and provide future directions for XAI which would be of interest to clinicians, regulators and model developers. © 2023 The Authors</t>
+          <t>Machine learning methods are growing in relevance for biometrics and personal information processing in domains such as forensics, e-health, recruitment, and e-learning. In these domains, white-box (human-readable) explanations of systems built on machine learning methods become crucial. Inductive logic programming (ILP) is a subfield of symbolic AI aimed to automatically learn declarative theories about the processing of data. Learning from interpretation transition (LFIT) is an ILP technique that can learn a propositional logic theory equivalent to a given black-box system (under certain conditions). The present work takes a first step to a general methodology to incorporate accurate declarative explanations to classic machine learning by checking the viability of LFIT in a specific AI application scenario: fair recruitment based on an automatic tool generated with machine learning methods for ranking Curricula Vitae that incorporates soft biometric information (gender and ethnicity). We show the expressiveness of LFIT for this specific problem and propose a scheme that can be applicable to other domains. In order to check the ability to cope with other domains no matter the machine learning paradigm used, we have done a preliminary test of the expressiveness of LFIT, feeding it with a real dataset about adult incomes taken from the US census, in which we consider the income level as a function of the rest of attributes to verify if LFIT can provide logical theory to support and explain to what extent higher incomes are biased by gender and ethnicity. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>10.1016/j.compbiomed.2023.106668</t>
+          <t>10.3390/computers10110154</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
@@ -24985,11 +25073,11 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>symbolic ai for xai: evaluating lfit inductive programming for explaining biases in machine learning</t>
+          <t>taming the chaos?! using explainable artificial intelligence (xai) to tackle the complexity in mental health research</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -24997,22 +25085,22 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>Ortega A.; Fierrez J.; Morales A.; Wang Z.; de la Cruz M.; Alonso C.L.; Ribeiro T.</t>
+          <t>Roessner V.; Rothe J.; Kohls G.; Schomerus G.; Ehrlich S.; Beste C.</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>European Child and Adolescent Psychiatry</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>Machine learning methods are growing in relevance for biometrics and personal information processing in domains such as forensics, e-health, recruitment, and e-learning. In these domains, white-box (human-readable) explanations of systems built on machine learning methods become crucial. Inductive logic programming (ILP) is a subfield of symbolic AI aimed to automatically learn declarative theories about the processing of data. Learning from interpretation transition (LFIT) is an ILP technique that can learn a propositional logic theory equivalent to a given black-box system (under certain conditions). The present work takes a first step to a general methodology to incorporate accurate declarative explanations to classic machine learning by checking the viability of LFIT in a specific AI application scenario: fair recruitment based on an automatic tool generated with machine learning methods for ranking Curricula Vitae that incorporates soft biometric information (gender and ethnicity). We show the expressiveness of LFIT for this specific problem and propose a scheme that can be applicable to other domains. In order to check the ability to cope with other domains no matter the machine learning paradigm used, we have done a preliminary test of the expressiveness of LFIT, feeding it with a real dataset about adult incomes taken from the US census, in which we consider the income level as a function of the rest of attributes to verify if LFIT can provide logical theory to support and explain to what extent higher incomes are biased by gender and ethnicity. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>[No abstract available]</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>10.3390/computers10110154</t>
+          <t>10.1007/s00787-021-01836-0</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
@@ -25028,54 +25116,54 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>taming the chaos?! using explainable artificial intelligence (xai) to tackle the complexity in mental health research</t>
+          <t>technical understanding from interactive machine learning experience: a study through a public event for science museum visitors</t>
         </is>
       </c>
       <c r="C575" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Roessner V.; Rothe J.; Kohls G.; Schomerus G.; Ehrlich S.; Beste C.</t>
+          <t>Kawabe, W; Nakao, Y; Shitara, A; Sugano, Y</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>European Child and Adolescent Psychiatry</t>
+          <t>INTERACTING WITH COMPUTERS</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>[No abstract available]</t>
+          <t>While AI technology is becoming increasingly prevalent in our daily lives, the comprehension of machine learning (ML) among non-experts remains limited. Interactive machine learning (IML) has the potential to serve as a tool for end users, but many existing IML systems are designed for users with a certain level of expertise. Consequently, it remains unclear whether IML experiences can enhance the comprehension of ordinary users. In this study, we conducted a public event using an IML system to assess whether participants could gain technical comprehension through hands-on IML experiences. We implemented an interactive sound classification system featuring visualization of internal feature representation and invited visitors at a science museum to freely interact with it. By analyzing user behavior and questionnaire responses, we discuss the potential and limitations of IML systems as a tool for promoting technical comprehension among non-experts.</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>10.1007/s00787-021-01836-0</t>
+          <t>10.1093/iwc/iwae007</t>
         </is>
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>technical understanding from interactive machine learning experience: a study through a public event for science museum visitors</t>
+          <t>textual features of peer review predict top-cited papers: an interpretable machine learning perspective</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -25083,65 +25171,65 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>Kawabe, W; Nakao, Y; Shitara, A; Sugano, Y</t>
+          <t>Sun Z.</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>INTERACTING WITH COMPUTERS</t>
+          <t>Journal of Informetrics</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>While AI technology is becoming increasingly prevalent in our daily lives, the comprehension of machine learning (ML) among non-experts remains limited. Interactive machine learning (IML) has the potential to serve as a tool for end users, but many existing IML systems are designed for users with a certain level of expertise. Consequently, it remains unclear whether IML experiences can enhance the comprehension of ordinary users. In this study, we conducted a public event using an IML system to assess whether participants could gain technical comprehension through hands-on IML experiences. We implemented an interactive sound classification system featuring visualization of internal feature representation and invited visitors at a science museum to freely interact with it. By analyzing user behavior and questionnaire responses, we discuss the potential and limitations of IML systems as a tool for promoting technical comprehension among non-experts.</t>
+          <t>Peer review is crucial in improving the quality and reliability of scientific research. However, the mechanisms through which peer review practices ensure papers become top-cited papers (TCPs) after publication are not well understood. In this study, by collecting a data set containing 13, 066 papers published between 2016 and 2020 from Nature communications with open peer review reports, we aim to examine how textual features embedded within the peer review reports of papers that reflect the reviewers’ emotions may predict the papers to be TCPs. We compiled a list of 15 textual features and classified them into three categories: peer review features, linguistic features, and sentiment features. We then chose the XGBoost machine learning model with the best performance in predicting TCPs, and utilized the explainable artificial intelligence techniques SHAP to interpret the role of feature importance on the prediction results. The distribution of feature importance ranking results demonstrates that sentiment features play a crucial role in determining papers’ potential to be highly cited. This conclusion still holds, even when the ranking of the feature importance changes in the subgroup analysis of dividing the samples into four disciplines (biological sciences, health sciences, physical sciences, and earth and environmental sciences), as well as two groups based on whether reviewers’ identities were revealed. This research emphasizes the textual features retrieved from peer review reports that play role in improving manuscript quality can predict the post-publication research impact. © 2024</t>
         </is>
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>10.1093/iwc/iwae007</t>
+          <t>10.1016/j.joi.2024.101501</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>textual features of peer review predict top-cited papers: an interpretable machine learning perspective</t>
+          <t>the association between childhood obesity and cardiovascular changes in 10 years using special data science analysis</t>
         </is>
       </c>
       <c r="C577" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>Sun Z.</t>
+          <t>Cordeiro J.R.; Mosca S.; Correia-Costa A.; Ferreira C.; Pimenta J.; Correia-Costa L.; Barros H.; Postolache O.</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>Journal of Informetrics</t>
+          <t>Children</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>Peer review is crucial in improving the quality and reliability of scientific research. However, the mechanisms through which peer review practices ensure papers become top-cited papers (TCPs) after publication are not well understood. In this study, by collecting a data set containing 13, 066 papers published between 2016 and 2020 from Nature communications with open peer review reports, we aim to examine how textual features embedded within the peer review reports of papers that reflect the reviewers’ emotions may predict the papers to be TCPs. We compiled a list of 15 textual features and classified them into three categories: peer review features, linguistic features, and sentiment features. We then chose the XGBoost machine learning model with the best performance in predicting TCPs, and utilized the explainable artificial intelligence techniques SHAP to interpret the role of feature importance on the prediction results. The distribution of feature importance ranking results demonstrates that sentiment features play a crucial role in determining papers’ potential to be highly cited. This conclusion still holds, even when the ranking of the feature importance changes in the subgroup analysis of dividing the samples into four disciplines (biological sciences, health sciences, physical sciences, and earth and environmental sciences), as well as two groups based on whether reviewers’ identities were revealed. This research emphasizes the textual features retrieved from peer review reports that play role in improving manuscript quality can predict the post-publication research impact. © 2024</t>
+          <t>The increasing prevalence of overweight and obesity is a worldwide problem, with several well-known consequences that might start to develop early in life during childhood. The present research based on data from children that have been followed since birth in a previously established cohort study (Generation XXI, Porto, Portugal), taking advantage of State-of-the-Art (SoA) data science techniques and methods, including Neural Architecture Search (NAS), explainable Artificial Intelligence (XAI), and Deep Learning (DL), aimed to explore the hidden value of data, namely on electrocardiogram (ECG) records performed during follow-up visits. The combination of these techniques allowed us to clarify subtle cardiovascular changes already present at 10 years of age, which are evident from ECG analysis and probably induced by the presence of obesity. The proposed novel combination of new methodologies and techniques is discussed, as well as their applicability in other health domains. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>10.1016/j.joi.2024.101501</t>
+          <t>10.3390/children10101655</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
@@ -25157,34 +25245,34 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>the association between childhood obesity and cardiovascular changes in 10 years using special data science analysis</t>
+          <t>the conflict between explainable and accountable decision-making algorithms</t>
         </is>
       </c>
       <c r="C578" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>Cordeiro J.R.; Mosca S.; Correia-Costa A.; Ferreira C.; Pimenta J.; Correia-Costa L.; Barros H.; Postolache O.</t>
+          <t>Lima G.; Grgić-Hlača N.; Jeong J.K.; Cha M.</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>Children</t>
+          <t>ACM International Conference Proceeding Series</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>The increasing prevalence of overweight and obesity is a worldwide problem, with several well-known consequences that might start to develop early in life during childhood. The present research based on data from children that have been followed since birth in a previously established cohort study (Generation XXI, Porto, Portugal), taking advantage of State-of-the-Art (SoA) data science techniques and methods, including Neural Architecture Search (NAS), explainable Artificial Intelligence (XAI), and Deep Learning (DL), aimed to explore the hidden value of data, namely on electrocardiogram (ECG) records performed during follow-up visits. The combination of these techniques allowed us to clarify subtle cardiovascular changes already present at 10 years of age, which are evident from ECG analysis and probably induced by the presence of obesity. The proposed novel combination of new methodologies and techniques is discussed, as well as their applicability in other health domains. © 2023 by the authors.</t>
+          <t>Decision-making algorithms are being used in important decisions, such as who should be enrolled in health care programs and be hired. Even though these systems are currently deployed in high-stakes scenarios, many of them cannot explain their decisions. This limitation has prompted the Explainable Artificial Intelligence (XAI) initiative, which aims to make algorithms explainable to comply with legal requirements, promote trust, and maintain accountability. This paper questions whether and to what extent explainability can help solve the responsibility issues posed by autonomous AI systems. We suggest that XAI systems that provide post-hoc explanations could be seen as blameworthy agents, obscuring the responsibility of developers in the decision-making process. Furthermore, we argue that XAI could result in incorrect attributions of responsibility to vulnerable stakeholders, such as those who are subjected to algorithmic decisions (i.e., patients), due to a misguided perception that they have control over explainable algorithms. This conflict between explainability and accountability can be exacerbated if designers choose to use algorithms and patients as moral and legal scapegoats. We conclude with a set of recommendations for how to approach this tension in the socio-technical process of algorithmic decision-making and a defense of hard regulation to prevent designers from escaping responsibility. © 2022 ACM.</t>
         </is>
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>10.3390/children10101655</t>
+          <t>10.1145/3531146.3534628</t>
         </is>
       </c>
       <c r="H578" t="inlineStr">
@@ -25194,60 +25282,60 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>the conflict between explainable and accountable decision-making algorithms</t>
+          <t>the cost of understanding-xai algorithms towards sustainable ml in the view of computational cost</t>
         </is>
       </c>
       <c r="C579" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Lima G.; Grgić-Hlača N.; Jeong J.K.; Cha M.</t>
+          <t>Jean-Quartier, C; Bein, K; Hejny, L; Hofer, E; Holzinger, A; Jeanquartier, F</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>ACM International Conference Proceeding Series</t>
+          <t>COMPUTATION</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>Decision-making algorithms are being used in important decisions, such as who should be enrolled in health care programs and be hired. Even though these systems are currently deployed in high-stakes scenarios, many of them cannot explain their decisions. This limitation has prompted the Explainable Artificial Intelligence (XAI) initiative, which aims to make algorithms explainable to comply with legal requirements, promote trust, and maintain accountability. This paper questions whether and to what extent explainability can help solve the responsibility issues posed by autonomous AI systems. We suggest that XAI systems that provide post-hoc explanations could be seen as blameworthy agents, obscuring the responsibility of developers in the decision-making process. Furthermore, we argue that XAI could result in incorrect attributions of responsibility to vulnerable stakeholders, such as those who are subjected to algorithmic decisions (i.e., patients), due to a misguided perception that they have control over explainable algorithms. This conflict between explainability and accountability can be exacerbated if designers choose to use algorithms and patients as moral and legal scapegoats. We conclude with a set of recommendations for how to approach this tension in the socio-technical process of algorithmic decision-making and a defense of hard regulation to prevent designers from escaping responsibility. © 2022 ACM.</t>
+          <t>In response to socioeconomic development, the number of machine learning applications has increased, along with the calls for algorithmic transparency and further sustainability in terms of energy efficient technologies. Modern computer algorithms that process large amounts of information, particularly artificial intelligence methods and their workhorse machine learning, can be used to promote and support sustainability; however, they consume a lot of energy themselves. This work focuses and interconnects two key aspects of artificial intelligence regarding the transparency and sustainability of model development. We identify frameworks for measuring carbon emissions from Python algorithms and evaluate energy consumption during model development. Additionally, we test the impact of explainability on algorithmic energy consumption during model optimization, particularly for applications in health and, to expand the scope and achieve a widespread use, civil engineering and computer vision. Specifically, we present three different models of classification, regression and object-based detection for the scenarios of cancer classification, building energy, and image detection, each integrated with explainable artificial intelligence (XAI) or feature reduction. This work can serve as a guide for selecting a tool to measure and scrutinize algorithmic energy consumption and raise awareness of emission-based model optimization by highlighting the sustainability of XAI.</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>10.1145/3531146.3534628</t>
+          <t>10.3390/computation11050092</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>the cost of understanding-xai algorithms towards sustainable ml in the view of computational cost</t>
+          <t>the cost of understanding—xai algorithms towards sustainable ml in the view of computational cost</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -25255,17 +25343,17 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>Jean-Quartier, C; Bein, K; Hejny, L; Hofer, E; Holzinger, A; Jeanquartier, F</t>
+          <t>Jean-Quartier C.; Bein K.; Hejny L.; Hofer E.; Holzinger A.; Jeanquartier F.</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>COMPUTATION</t>
+          <t>Computation</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>In response to socioeconomic development, the number of machine learning applications has increased, along with the calls for algorithmic transparency and further sustainability in terms of energy efficient technologies. Modern computer algorithms that process large amounts of information, particularly artificial intelligence methods and their workhorse machine learning, can be used to promote and support sustainability; however, they consume a lot of energy themselves. This work focuses and interconnects two key aspects of artificial intelligence regarding the transparency and sustainability of model development. We identify frameworks for measuring carbon emissions from Python algorithms and evaluate energy consumption during model development. Additionally, we test the impact of explainability on algorithmic energy consumption during model optimization, particularly for applications in health and, to expand the scope and achieve a widespread use, civil engineering and computer vision. Specifically, we present three different models of classification, regression and object-based detection for the scenarios of cancer classification, building energy, and image detection, each integrated with explainable artificial intelligence (XAI) or feature reduction. This work can serve as a guide for selecting a tool to measure and scrutinize algorithmic energy consumption and raise awareness of emission-based model optimization by highlighting the sustainability of XAI.</t>
+          <t>In response to socioeconomic development, the number of machine learning applications has increased, along with the calls for algorithmic transparency and further sustainability in terms of energy efficient technologies. Modern computer algorithms that process large amounts of information, particularly artificial intelligence methods and their workhorse machine learning, can be used to promote and support sustainability; however, they consume a lot of energy themselves. This work focuses and interconnects two key aspects of artificial intelligence regarding the transparency and sustainability of model development. We identify frameworks for measuring carbon emissions from Python algorithms and evaluate energy consumption during model development. Additionally, we test the impact of explainability on algorithmic energy consumption during model optimization, particularly for applications in health and, to expand the scope and achieve a widespread use, civil engineering and computer vision. Specifically, we present three different models of classification, regression and object-based detection for the scenarios of cancer classification, building energy, and image detection, each integrated with explainable artificial intelligence (XAI) or feature reduction. This work can serve as a guide for selecting a tool to measure and scrutinize algorithmic energy consumption and raise awareness of emission-based model optimization by highlighting the sustainability of XAI. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G580" t="inlineStr">
@@ -25275,22 +25363,22 @@
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>the cost of understanding—xai algorithms towards sustainable ml in the view of computational cost</t>
+          <t>the emergent role of explainable artificial intelligence in the materials sciences</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -25298,42 +25386,42 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Jean-Quartier C.; Bein K.; Hejny L.; Hofer E.; Holzinger A.; Jeanquartier F.</t>
+          <t>Liu, T; Barnard, AS</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>Computation</t>
+          <t>CELL REPORTS PHYSICAL SCIENCE</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>In response to socioeconomic development, the number of machine learning applications has increased, along with the calls for algorithmic transparency and further sustainability in terms of energy efficient technologies. Modern computer algorithms that process large amounts of information, particularly artificial intelligence methods and their workhorse machine learning, can be used to promote and support sustainability; however, they consume a lot of energy themselves. This work focuses and interconnects two key aspects of artificial intelligence regarding the transparency and sustainability of model development. We identify frameworks for measuring carbon emissions from Python algorithms and evaluate energy consumption during model development. Additionally, we test the impact of explainability on algorithmic energy consumption during model optimization, particularly for applications in health and, to expand the scope and achieve a widespread use, civil engineering and computer vision. Specifically, we present three different models of classification, regression and object-based detection for the scenarios of cancer classification, building energy, and image detection, each integrated with explainable artificial intelligence (XAI) or feature reduction. This work can serve as a guide for selecting a tool to measure and scrutinize algorithmic energy consumption and raise awareness of emission-based model optimization by highlighting the sustainability of XAI. © 2023 by the authors.</t>
+          <t>The combination of rational machine learning with creative materials science makes materials informatics a powerful way of discovering, designing, and screening new materials. However, moving from a promising prediction to a practical strategy often requires more than just an instructive structure-property relationship; understanding how a machine learning method uses the structural feature to predict the target properties becomes critical. Explainable artificial intelligence (XAI) is an emerging field in computer science based in statistics that can augment materials informatics workflows. XAI can be used as a forensic analysis to understand the consequences of data, model, and application decisions or as a model refinement method capable of distinguishing important features from nuisance variables. Here, we outline the state of the art in XAI and highlight methods most useful to the physical sciences. This practical guide focuses on characteristics of XAI methods that are relevant to materials informatics and will become increasingly important as more researchers move toward using deeper neural networks and large language models.</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>10.3390/computation11050092</t>
+          <t>10.1016/j.xcrp.2023.101630</t>
         </is>
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>the emergent role of explainable artificial intelligence in the materials sciences</t>
+          <t>the enlightening role of explainable artificial intelligence in medical &amp; healthcare domains: a systematic literature review</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -25341,65 +25429,65 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Liu, T; Barnard, AS</t>
+          <t>Ali S.; Akhlaq F.; Imran A.S.; Kastrati Z.; Daudpota S.M.; Moosa M.</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>CELL REPORTS PHYSICAL SCIENCE</t>
+          <t>Computers in Biology and Medicine</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>The combination of rational machine learning with creative materials science makes materials informatics a powerful way of discovering, designing, and screening new materials. However, moving from a promising prediction to a practical strategy often requires more than just an instructive structure-property relationship; understanding how a machine learning method uses the structural feature to predict the target properties becomes critical. Explainable artificial intelligence (XAI) is an emerging field in computer science based in statistics that can augment materials informatics workflows. XAI can be used as a forensic analysis to understand the consequences of data, model, and application decisions or as a model refinement method capable of distinguishing important features from nuisance variables. Here, we outline the state of the art in XAI and highlight methods most useful to the physical sciences. This practical guide focuses on characteristics of XAI methods that are relevant to materials informatics and will become increasingly important as more researchers move toward using deeper neural networks and large language models.</t>
+          <t>In domains such as medical and healthcare, the interpretability and explainability of machine learning and artificial intelligence systems are crucial for building trust in their results. Errors caused by these systems, such as incorrect diagnoses or treatments, can have severe and even life-threatening consequences for patients. To address this issue, Explainable Artificial Intelligence (XAI) has emerged as a popular area of research, focused on understanding the black-box nature of complex and hard-to-interpret machine learning models. While humans can increase the accuracy of these models through technical expertise, understanding how these models actually function during training can be difficult or even impossible. XAI algorithms such as Local Interpretable Model-Agnostic Explanations (LIME) and SHapley Additive exPlanations (SHAP) can provide explanations for these models, improving trust in their predictions by providing feature importance and increasing confidence in the systems. Many articles have been published that propose solutions to medical problems by using machine learning models alongside XAI algorithms to provide interpretability and explainability. In our study, we identified 454 articles published from 2018–2022 and analyzed 93 of them to explore the use of these techniques in the medical domain. © 2023 The Author(s)</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>10.1016/j.xcrp.2023.101630</t>
+          <t>10.1016/j.compbiomed.2023.107555</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>the enlightening role of explainable artificial intelligence in medical &amp; healthcare domains: a systematic literature review</t>
+          <t>the false hope of current approaches to explainable artificial intelligence in health care</t>
         </is>
       </c>
       <c r="C583" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Ali S.; Akhlaq F.; Imran A.S.; Kastrati Z.; Daudpota S.M.; Moosa M.</t>
+          <t>Ghassemi M.; Oakden-Rayner L.; Beam A.L.</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>Computers in Biology and Medicine</t>
+          <t>The Lancet Digital Health</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>In domains such as medical and healthcare, the interpretability and explainability of machine learning and artificial intelligence systems are crucial for building trust in their results. Errors caused by these systems, such as incorrect diagnoses or treatments, can have severe and even life-threatening consequences for patients. To address this issue, Explainable Artificial Intelligence (XAI) has emerged as a popular area of research, focused on understanding the black-box nature of complex and hard-to-interpret machine learning models. While humans can increase the accuracy of these models through technical expertise, understanding how these models actually function during training can be difficult or even impossible. XAI algorithms such as Local Interpretable Model-Agnostic Explanations (LIME) and SHapley Additive exPlanations (SHAP) can provide explanations for these models, improving trust in their predictions by providing feature importance and increasing confidence in the systems. Many articles have been published that propose solutions to medical problems by using machine learning models alongside XAI algorithms to provide interpretability and explainability. In our study, we identified 454 articles published from 2018–2022 and analyzed 93 of them to explore the use of these techniques in the medical domain. © 2023 The Author(s)</t>
+          <t>The black-box nature of current artificial intelligence (AI) has caused some to question whether AI must be explainable to be used in high-stakes scenarios such as medicine. It has been argued that explainable AI will engender trust with the health-care workforce, provide transparency into the AI decision making process, and potentially mitigate various kinds of bias. In this Viewpoint, we argue that this argument represents a false hope for explainable AI and that current explainability methods are unlikely to achieve these goals for patient-level decision support. We provide an overview of current explainability techniques and highlight how various failure cases can cause problems for decision making for individual patients. In the absence of suitable explainability methods, we advocate for rigorous internal and external validation of AI models as a more direct means of achieving the goals often associated with explainability, and we caution against having explainability be a requirement for clinically deployed models. © 2021 The Author(s). Published by Elsevier Ltd. This is an Open Access article under the CC BY 4.0 license</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>10.1016/j.compbiomed.2023.107555</t>
+          <t>10.1016/S2589-7500(21)00208-9</t>
         </is>
       </c>
       <c r="H583" t="inlineStr">
@@ -25415,34 +25503,34 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>the false hope of current approaches to explainable artificial intelligence in health care</t>
+          <t>the integration of clinical data in the assessment of multiple sclerosis – a review</t>
         </is>
       </c>
       <c r="C584" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Ghassemi M.; Oakden-Rayner L.; Beam A.L.</t>
+          <t>Ostellino S.; Benso A.; Politano G.</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>The Lancet Digital Health</t>
+          <t>Computer Methods and Programs in Biomedicine</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>The black-box nature of current artificial intelligence (AI) has caused some to question whether AI must be explainable to be used in high-stakes scenarios such as medicine. It has been argued that explainable AI will engender trust with the health-care workforce, provide transparency into the AI decision making process, and potentially mitigate various kinds of bias. In this Viewpoint, we argue that this argument represents a false hope for explainable AI and that current explainability methods are unlikely to achieve these goals for patient-level decision support. We provide an overview of current explainability techniques and highlight how various failure cases can cause problems for decision making for individual patients. In the absence of suitable explainability methods, we advocate for rigorous internal and external validation of AI models as a more direct means of achieving the goals often associated with explainability, and we caution against having explainability be a requirement for clinically deployed models. © 2021 The Author(s). Published by Elsevier Ltd. This is an Open Access article under the CC BY 4.0 license</t>
+          <t>Background and Objectives: Multiple Sclerosis (MS) is a neurological disease associated with various and heterogeneous clinical characteristics. Given its complex nature and its unpredictable evolution over time, there isn't an established and exhaustive clinical protocol (or tool) for its diagnosis nor for monitoring its progression. Instead, different clinical exams and physical/psychological evaluations need to be taken into account. The Expanded Disability Status Scale (EDSS) is the most used clinical scale, but it suffers from several limitations. Developing computational solutions for the identification of bio-markers of disease progression that overcome the downsides of currently used scales is crucial and is gaining interest in current literature and research. Methods: This Review focuses on the importance of approaching MS diagnosis and monitoring by investigating correlations between cognitive impairment and clinical data that refer to different MS domains. We review papers that integrate heterogeneous data and analyse them with statistical methods to understand their applicability into more advanced computational tools. Particular attention is paid to the impact that computational approaches can have on personalized-medicine. Results: Personalized medicine for neuro-degenerative diseases is an unmet clinical need which can be addressed using computational approaches able to efficiently integrate heterogeneous clinical data extracted from both private and publicly available electronic health databases. Conclusions: Reliable and explainable Artificial Intelligence are computational approaches required to understand the complex and demonstrated interactions between MS manifestations as well as to provide reliable predictions on the disease evolution, representing a promising research field. © 2022</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>10.1016/S2589-7500(21)00208-9</t>
+          <t>10.1016/j.cmpb.2022.106900</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
@@ -25458,11 +25546,11 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>the integration of clinical data in the assessment of multiple sclerosis – a review</t>
+          <t>the integration of clinical data in the assessment of multiple sclerosis-a review</t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -25470,17 +25558,17 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Ostellino S.; Benso A.; Politano G.</t>
+          <t>Ostellino, S; Benso, A; Politano, G</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>Computer Methods and Programs in Biomedicine</t>
+          <t>COMPUTER METHODS AND PROGRAMS IN BIOMEDICINE</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>Background and Objectives: Multiple Sclerosis (MS) is a neurological disease associated with various and heterogeneous clinical characteristics. Given its complex nature and its unpredictable evolution over time, there isn't an established and exhaustive clinical protocol (or tool) for its diagnosis nor for monitoring its progression. Instead, different clinical exams and physical/psychological evaluations need to be taken into account. The Expanded Disability Status Scale (EDSS) is the most used clinical scale, but it suffers from several limitations. Developing computational solutions for the identification of bio-markers of disease progression that overcome the downsides of currently used scales is crucial and is gaining interest in current literature and research. Methods: This Review focuses on the importance of approaching MS diagnosis and monitoring by investigating correlations between cognitive impairment and clinical data that refer to different MS domains. We review papers that integrate heterogeneous data and analyse them with statistical methods to understand their applicability into more advanced computational tools. Particular attention is paid to the impact that computational approaches can have on personalized-medicine. Results: Personalized medicine for neuro-degenerative diseases is an unmet clinical need which can be addressed using computational approaches able to efficiently integrate heterogeneous clinical data extracted from both private and publicly available electronic health databases. Conclusions: Reliable and explainable Artificial Intelligence are computational approaches required to understand the complex and demonstrated interactions between MS manifestations as well as to provide reliable predictions on the disease evolution, representing a promising research field. © 2022</t>
+          <t>Background and Objectives: Multiple Sclerosis (MS) is a neurological disease associated with various and heterogeneous clinical characteristics. Given its complex nature and its unpredictable evolution over time, there isn't an established and exhaustive clinical protocol (or tool) for its diagnosis nor for monitoring its progression. Instead, different clinical exams and physical/psychological evaluations need to be taken into account. The Expanded Disability Status Scale (EDSS) is the most used clinical scale, but it suffers from several limitations. Developing computational solutions for the identification of bio-markers of disease progression that overcome the downsides of currently used scales is crucial and is gaining interest in current literature and research. Methods: This Review focuses on the importance of approaching MS diagnosis and monitoring by investigating correlations between cognitive impairment and clinical data that refer to different MS domains. We review papers that integrate heterogeneous data and analyse them with statistical methods to understand their applicability into more advanced computational tools. Particular attention is paid to the impact that computational approaches can have on personalized-medicine. Results: Personalized medicine for neuro-degenerative diseases is an unmet clinical need which can be addressed using computational approaches able to efficiently integrate heterogeneous clinical data extracted from both private and publicly available electronic health databases. Conclusions: Reliable and explainable Artificial Intelligence are computational approaches required to understand the complex and demonstrated interactions between MS manifestations as well as to provide reliable predictions on the disease evolution, representing a promising research field.</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
@@ -25490,108 +25578,108 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>the integration of clinical data in the assessment of multiple sclerosis-a review</t>
+          <t>the next frontier: ai we can really trust</t>
         </is>
       </c>
       <c r="C586" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Ostellino, S; Benso, A; Politano, G</t>
+          <t>Holzinger A.</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>COMPUTER METHODS AND PROGRAMS IN BIOMEDICINE</t>
+          <t>Communications in Computer and Information Science</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>Background and Objectives: Multiple Sclerosis (MS) is a neurological disease associated with various and heterogeneous clinical characteristics. Given its complex nature and its unpredictable evolution over time, there isn't an established and exhaustive clinical protocol (or tool) for its diagnosis nor for monitoring its progression. Instead, different clinical exams and physical/psychological evaluations need to be taken into account. The Expanded Disability Status Scale (EDSS) is the most used clinical scale, but it suffers from several limitations. Developing computational solutions for the identification of bio-markers of disease progression that overcome the downsides of currently used scales is crucial and is gaining interest in current literature and research. Methods: This Review focuses on the importance of approaching MS diagnosis and monitoring by investigating correlations between cognitive impairment and clinical data that refer to different MS domains. We review papers that integrate heterogeneous data and analyse them with statistical methods to understand their applicability into more advanced computational tools. Particular attention is paid to the impact that computational approaches can have on personalized-medicine. Results: Personalized medicine for neuro-degenerative diseases is an unmet clinical need which can be addressed using computational approaches able to efficiently integrate heterogeneous clinical data extracted from both private and publicly available electronic health databases. Conclusions: Reliable and explainable Artificial Intelligence are computational approaches required to understand the complex and demonstrated interactions between MS manifestations as well as to provide reliable predictions on the disease evolution, representing a promising research field.</t>
+          <t>Enormous advances in the domain of statistical machine learning, the availability of large amounts of training data, and increasing computing power have made Artificial Intelligence (AI) very successful. For certain tasks, algorithms can even achieve performance beyond the human level. Unfortunately, the most powerful methods suffer from the fact that it is difficult to explain why a certain result was achieved on the one hand, and that they lack robustness on the other. Our most powerful machine learning models are very sensitive to even small changes. Perturbations in the input data can have a dramatic impact on the output and lead to entirely different results. This is of great importance in virtually all critical domains where we suffer from low data quality, i.e. we do not have the expected i.i.d. data. Therefore, the use of AI in domains that impact human life (agriculture, climate, health,..) has led to an increased demand for trustworthy AI. Explainability is now even mandatory due to regulatory requirements in sensitive domains such as medicine, which requires traceability, transparency and interpretability capabilities. One possible step to make AI more robust is to combine statistical learning with knowledge representations. For certain tasks, it can be advantageous to use a human in the loop. A human expert can - sometimes, of course not always - bring experience, domain knowledge and conceptual understanding to the AI pipeline. Such approaches are not only a solution from a legal point of view, but in many application areas the “why” is often more important than a pure classification result. Consequently, both explainability and robustness can promote reliability and trust and ensure that humans remain in control, thus complementing human intelligence with artificial intelligence. © 2021, Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>10.1016/j.cmpb.2022.106900</t>
+          <t>10.1007/978-3-030-93736-2_33</t>
         </is>
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>the next frontier: ai we can really trust</t>
+          <t>the pm2.5-bound polycyclic aromatic hydrocarbon behavior in indoor and outdoor environments, part ii: explainable prediction of benzo[a] pyrene levels</t>
         </is>
       </c>
       <c r="C587" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Holzinger A.</t>
+          <t>Stojic, A; Jovanovic, G; Stanisic, S; Romanic, SH; Sostaric, A; Udovicic, V; Perisic, M; Milicevic, T</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>Communications in Computer and Information Science</t>
+          <t>CHEMOSPHERE</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>Enormous advances in the domain of statistical machine learning, the availability of large amounts of training data, and increasing computing power have made Artificial Intelligence (AI) very successful. For certain tasks, algorithms can even achieve performance beyond the human level. Unfortunately, the most powerful methods suffer from the fact that it is difficult to explain why a certain result was achieved on the one hand, and that they lack robustness on the other. Our most powerful machine learning models are very sensitive to even small changes. Perturbations in the input data can have a dramatic impact on the output and lead to entirely different results. This is of great importance in virtually all critical domains where we suffer from low data quality, i.e. we do not have the expected i.i.d. data. Therefore, the use of AI in domains that impact human life (agriculture, climate, health,..) has led to an increased demand for trustworthy AI. Explainability is now even mandatory due to regulatory requirements in sensitive domains such as medicine, which requires traceability, transparency and interpretability capabilities. One possible step to make AI more robust is to combine statistical learning with knowledge representations. For certain tasks, it can be advantageous to use a human in the loop. A human expert can - sometimes, of course not always - bring experience, domain knowledge and conceptual understanding to the AI pipeline. Such approaches are not only a solution from a legal point of view, but in many application areas the “why” is often more important than a pure classification result. Consequently, both explainability and robustness can promote reliability and trust and ensure that humans remain in control, thus complementing human intelligence with artificial intelligence. © 2021, Springer Nature Switzerland AG.</t>
+          <t>Among the polycyclic aromatic hydrocarbons (PAH), benzo[a]pyrene (B[a]P) has been considered more relevant than other species when estimating the potential exposure-related health effects and has been recognized as a marker of carcinogenic potency of air pollutant mixture. The current understanding of the factors which govern non-linear behavior of B[a]P and associated pollutants and environmental processes is insufficient and further research has to rely on the advanced analytical approach which averts the assumptions and avoids simplifications required by linear modeling methods. For the purpose of this study, we employed eXtreme Gradient Boosting (XGBoost), SHapley Additive exPlanations (SHAP) attribution method, and SHAP value fuzzy clustering to investigate the concentrations of inorganic gaseous pollutants, radon, PM2.5 and particle constituents including trace metals, ions, 16 US EPA priority PM2.5-bound PAHs and 31 meteorological variables, as key factors which shape indoor and outdoor PM2.5-bound B[a]P distribution in a university building located in the urban area of Belgrade (Serbia). According to the results, the indoor and outdoor B[a]P levels were shown to be highly correlated and mostly influenced by the concentrations of Chry, B[b]F, CO, B[a]A, I[cd]P, B[k]F, Flt, D[ah]A, Pyr, B[ghi]P, Cr, As, and PM2.5 in both indoor and outdoor environments. Besides, high B[a]P concentration events were recorded during the periods of low ambient temperature (&lt;12 degrees C), unstable weather conditions with precipitation and increased soil humidity.</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-93736-2_33</t>
+          <t>10.1016/j.chemosphere.2021.133154</t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>the pm2.5-bound polycyclic aromatic hydrocarbon behavior in indoor and outdoor environments, part ii: explainable prediction of benzo[a] pyrene levels</t>
+          <t>the pm2.5-bound polycyclic aromatic hydrocarbon behavior in indoor and outdoor environments, part ii: explainable prediction of benzo[a]pyrene levels</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -25599,17 +25687,17 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Stojic, A; Jovanovic, G; Stanisic, S; Romanic, SH; Sostaric, A; Udovicic, V; Perisic, M; Milicevic, T</t>
+          <t>Stojić A.; Jovanović G.; Stanišić S.; Romanić S.H.; Šoštarić A.; Udovičić V.; Perišić M.; Milićević T.</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>CHEMOSPHERE</t>
+          <t>Chemosphere</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>Among the polycyclic aromatic hydrocarbons (PAH), benzo[a]pyrene (B[a]P) has been considered more relevant than other species when estimating the potential exposure-related health effects and has been recognized as a marker of carcinogenic potency of air pollutant mixture. The current understanding of the factors which govern non-linear behavior of B[a]P and associated pollutants and environmental processes is insufficient and further research has to rely on the advanced analytical approach which averts the assumptions and avoids simplifications required by linear modeling methods. For the purpose of this study, we employed eXtreme Gradient Boosting (XGBoost), SHapley Additive exPlanations (SHAP) attribution method, and SHAP value fuzzy clustering to investigate the concentrations of inorganic gaseous pollutants, radon, PM2.5 and particle constituents including trace metals, ions, 16 US EPA priority PM2.5-bound PAHs and 31 meteorological variables, as key factors which shape indoor and outdoor PM2.5-bound B[a]P distribution in a university building located in the urban area of Belgrade (Serbia). According to the results, the indoor and outdoor B[a]P levels were shown to be highly correlated and mostly influenced by the concentrations of Chry, B[b]F, CO, B[a]A, I[cd]P, B[k]F, Flt, D[ah]A, Pyr, B[ghi]P, Cr, As, and PM2.5 in both indoor and outdoor environments. Besides, high B[a]P concentration events were recorded during the periods of low ambient temperature (&lt;12 degrees C), unstable weather conditions with precipitation and increased soil humidity.</t>
+          <t>Among the polycyclic aromatic hydrocarbons (PAH), benzo[a]pyrene (B[a]P) has been considered more relevant than other species when estimating the potential exposure-related health effects and has been recognized as a marker of carcinogenic potency of air pollutant mixture. The current understanding of the factors which govern non-linear behavior of B[a]P and associated pollutants and environmental processes is insufficient and further research has to rely on the advanced analytical approach which averts the assumptions and avoids simplifications required by linear modeling methods. For the purpose of this study, we employed eXtreme Gradient Boosting (XGBoost), SHapley Additive exPlanations (SHAP) attribution method, and SHAP value fuzzy clustering to investigate the concentrations of inorganic gaseous pollutants, radon, PM2.5 and particle constituents including trace metals, ions, 16 US EPA priority PM2.5-bound PAHs and 31 meteorological variables, as key factors which shape indoor and outdoor PM2.5-bound B[a]P distribution in a university building located in the urban area of Belgrade (Serbia). According to the results, the indoor and outdoor B[a]P levels were shown to be highly correlated and mostly influenced by the concentrations of Chry, B[b]F, CO, B[a]A, I[cd]P, B[k]F, Flt, D[ah]A, Pyr, B[ghi]P, Cr, As, and PM2.5 in both indoor and outdoor environments. Besides, high B[a]P concentration events were recorded during the periods of low ambient temperature (&lt;12 °C), unstable weather conditions with precipitation and increased soil humidity. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
@@ -25619,22 +25707,22 @@
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>the pm2.5-bound polycyclic aromatic hydrocarbon behavior in indoor and outdoor environments, part ii: explainable prediction of benzo[a]pyrene levels</t>
+          <t>the potential of explainable artificial intelligence in precision livestock farming</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -25642,22 +25730,22 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Stojić A.; Jovanović G.; Stanišić S.; Romanić S.H.; Šoštarić A.; Udovičić V.; Perišić M.; Milićević T.</t>
+          <t>Hoxhallari K.; Purcell W.; Neubauer T.</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>Chemosphere</t>
+          <t>Precision Livestock Farming 2022 - Papers Presented at the 10th European Conference on Precision Livestock Farming, ECPLF 2022</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>Among the polycyclic aromatic hydrocarbons (PAH), benzo[a]pyrene (B[a]P) has been considered more relevant than other species when estimating the potential exposure-related health effects and has been recognized as a marker of carcinogenic potency of air pollutant mixture. The current understanding of the factors which govern non-linear behavior of B[a]P and associated pollutants and environmental processes is insufficient and further research has to rely on the advanced analytical approach which averts the assumptions and avoids simplifications required by linear modeling methods. For the purpose of this study, we employed eXtreme Gradient Boosting (XGBoost), SHapley Additive exPlanations (SHAP) attribution method, and SHAP value fuzzy clustering to investigate the concentrations of inorganic gaseous pollutants, radon, PM2.5 and particle constituents including trace metals, ions, 16 US EPA priority PM2.5-bound PAHs and 31 meteorological variables, as key factors which shape indoor and outdoor PM2.5-bound B[a]P distribution in a university building located in the urban area of Belgrade (Serbia). According to the results, the indoor and outdoor B[a]P levels were shown to be highly correlated and mostly influenced by the concentrations of Chry, B[b]F, CO, B[a]A, I[cd]P, B[k]F, Flt, D[ah]A, Pyr, B[ghi]P, Cr, As, and PM2.5 in both indoor and outdoor environments. Besides, high B[a]P concentration events were recorded during the periods of low ambient temperature (&lt;12 °C), unstable weather conditions with precipitation and increased soil humidity. © 2021 Elsevier Ltd</t>
+          <t>In the discussion on the increasing demand for food, which is to be met by efficient and sustainable increases in productivity, animal welfare is becoming increasingly important. Animal health issues must be identified to prevent epidemics that significantly impact the economic performance of farms or even cause societal harm. The use of cutting-edge technologies (IoT, sensors, Big Data processing, etc.) is increasingly enabling early intervention in livestock farming to curb productivity losses through real-time monitoring, alerts, and decision support. The ubiquity of these technological solutions has enabled stakeholders to create more robust agricultural supply chains, that deliver sustainable nutrition for a growing population. However, the increasing use of Artificial Intelligence (AI), which is responsible for many of the current breakthroughs in Precision Livestock Farming (PLF) and agriculture in general, has meant that modern decision-support solutions have increasingly transitioned toward black box systems. It has become apparent that a gap exists between efforts to develop more advanced machine learning models, and the growing demands for ethical assessment and transparency in agriculture decision-making. Explainable Artificial Intelligence (XAI) is one such solution that could prove effective in overcoming the current limitations of black-box models, by allowing the decision-making process of such models to be explored. Through a literature review, we evaluate the potential of XAI in various agricultural use cases and demonstrate the potential benefits of its application to precision livestock management. © ECPLF 2022. All rights reserved.</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>10.1016/j.chemosphere.2021.133154</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
@@ -25673,32 +25761,36 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>the potential of explainable artificial intelligence in precision livestock farming</t>
+          <t>the price of explainability in machine learning models for 100-day readmission prediction in heart failure: retrospective, comparative, machine learning study</t>
         </is>
       </c>
       <c r="C590" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Hoxhallari K.; Purcell W.; Neubauer T.</t>
+          <t>Soliman A.; Agvall B.; Etminani K.; Hamed O.; Lingman M.</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>Precision Livestock Farming 2022 - Papers Presented at the 10th European Conference on Precision Livestock Farming, ECPLF 2022</t>
+          <t>Journal of Medical Internet Research</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>In the discussion on the increasing demand for food, which is to be met by efficient and sustainable increases in productivity, animal welfare is becoming increasingly important. Animal health issues must be identified to prevent epidemics that significantly impact the economic performance of farms or even cause societal harm. The use of cutting-edge technologies (IoT, sensors, Big Data processing, etc.) is increasingly enabling early intervention in livestock farming to curb productivity losses through real-time monitoring, alerts, and decision support. The ubiquity of these technological solutions has enabled stakeholders to create more robust agricultural supply chains, that deliver sustainable nutrition for a growing population. However, the increasing use of Artificial Intelligence (AI), which is responsible for many of the current breakthroughs in Precision Livestock Farming (PLF) and agriculture in general, has meant that modern decision-support solutions have increasingly transitioned toward black box systems. It has become apparent that a gap exists between efforts to develop more advanced machine learning models, and the growing demands for ethical assessment and transparency in agriculture decision-making. Explainable Artificial Intelligence (XAI) is one such solution that could prove effective in overcoming the current limitations of black-box models, by allowing the decision-making process of such models to be explored. Through a literature review, we evaluate the potential of XAI in various agricultural use cases and demonstrate the potential benefits of its application to precision livestock management. © ECPLF 2022. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="G590" t="inlineStr"/>
+          <t>Background: Sensitive and interpretable machine learning (ML) models can provide valuable assistance to clinicians in managing patients with heart failure (HF) at discharge by identifying individual factors associated with a high risk of readmission. In this cohort study, we delve into the factors driving the potential utility of classification models as decision support tools for predicting readmissions in patients with HF. Objective: The primary objective of this study is to assess the trade-off between using deep learning (DL) and traditional ML models to identify the risk of 100-day readmissions in patients with HF. Additionally, the study aims to provide explanations for the model predictions by highlighting important features both on a global scale across the patient cohort and on a local level for individual patients. Methods: The retrospective data for this study were obtained from the Regional Health Care Information Platform in Region Halland, Sweden. The study cohort consisted of patients diagnosed with HF who were over 40 years old and had been hospitalized at least once between 2017 and 2019. Data analysis encompassed the period from January 1, 2017, to December 31, 2019. Two ML models were developed and validated to predict 100-day readmissions, with a focus on the explainability of the model’s decisions. These models were built based on decision trees and recurrent neural architecture. Model explainability was obtained using an ML explainer. The predictive performance of these models was compared against 2 risk assessment tools using multiple performance metrics. Results: The retrospective data set included a total of 15,612 admissions, and within these admissions, readmission occurred in 5597 cases, representing a readmission rate of 35.85%. It is noteworthy that a traditional and explainable model, informed by clinical knowledge, exhibited performance comparable to the DL model and surpassed conventional scoring methods in predicting readmission among patients with HF. The evaluation of predictive model performance was based on commonly used metrics, with an area under the precision-recall curve of 66% for the deep model and 68% for the traditional model on the holdout data set. Importantly, the explanations provided by the traditional model offer actionable insights that have the potential to enhance care planning. Conclusions: This study found that a widely used deep prediction model did not outperform an explainable ML model when predicting readmissions among patients with HF. The results suggest that model transparency does not necessarily compromise performance, which could facilitate the clinical adoption of such models. © 2023 Journal of Medical Internet Research. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>10.2196/46934</t>
+        </is>
+      </c>
       <c r="H590" t="inlineStr">
         <is>
           <t>Final</t>
@@ -25706,40 +25798,40 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>the price of explainability in machine learning models for 100-day readmission prediction in heart failure: retrospective, comparative, machine learning study</t>
+          <t>the promise of explainable ai in digital health for precision medicine: a systematic review</t>
         </is>
       </c>
       <c r="C591" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Soliman A.; Agvall B.; Etminani K.; Hamed O.; Lingman M.</t>
+          <t>Allen B.</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>Journal of Medical Internet Research</t>
+          <t>Journal of Personalized Medicine</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>Background: Sensitive and interpretable machine learning (ML) models can provide valuable assistance to clinicians in managing patients with heart failure (HF) at discharge by identifying individual factors associated with a high risk of readmission. In this cohort study, we delve into the factors driving the potential utility of classification models as decision support tools for predicting readmissions in patients with HF. Objective: The primary objective of this study is to assess the trade-off between using deep learning (DL) and traditional ML models to identify the risk of 100-day readmissions in patients with HF. Additionally, the study aims to provide explanations for the model predictions by highlighting important features both on a global scale across the patient cohort and on a local level for individual patients. Methods: The retrospective data for this study were obtained from the Regional Health Care Information Platform in Region Halland, Sweden. The study cohort consisted of patients diagnosed with HF who were over 40 years old and had been hospitalized at least once between 2017 and 2019. Data analysis encompassed the period from January 1, 2017, to December 31, 2019. Two ML models were developed and validated to predict 100-day readmissions, with a focus on the explainability of the model’s decisions. These models were built based on decision trees and recurrent neural architecture. Model explainability was obtained using an ML explainer. The predictive performance of these models was compared against 2 risk assessment tools using multiple performance metrics. Results: The retrospective data set included a total of 15,612 admissions, and within these admissions, readmission occurred in 5597 cases, representing a readmission rate of 35.85%. It is noteworthy that a traditional and explainable model, informed by clinical knowledge, exhibited performance comparable to the DL model and surpassed conventional scoring methods in predicting readmission among patients with HF. The evaluation of predictive model performance was based on commonly used metrics, with an area under the precision-recall curve of 66% for the deep model and 68% for the traditional model on the holdout data set. Importantly, the explanations provided by the traditional model offer actionable insights that have the potential to enhance care planning. Conclusions: This study found that a widely used deep prediction model did not outperform an explainable ML model when predicting readmissions among patients with HF. The results suggest that model transparency does not necessarily compromise performance, which could facilitate the clinical adoption of such models. © 2023 Journal of Medical Internet Research. All rights reserved.</t>
+          <t>This review synthesizes the literature on explaining machine-learning models for digital health data in precision medicine. As healthcare increasingly tailors treatments to individual characteristics, the integration of artificial intelligence with digital health data becomes crucial. Leveraging a topic-modeling approach, this paper distills the key themes of 27 journal articles. We included peer-reviewed journal articles written in English, with no time constraints on the search. A Google Scholar search, conducted up to 19 September 2023, yielded 27 journal articles. Through a topic-modeling approach, the identified topics encompassed optimizing patient healthcare through data-driven medicine, predictive modeling with data and algorithms, predicting diseases with deep learning of biomedical data, and machine learning in medicine. This review delves into specific applications of explainable artificial intelligence, emphasizing its role in fostering transparency, accountability, and trust within the healthcare domain. Our review highlights the necessity for further development and validation of explanation methods to advance precision healthcare delivery. © 2024 by the author.</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>10.2196/46934</t>
+          <t>10.3390/jpm14030277</t>
         </is>
       </c>
       <c r="H591" t="inlineStr">
@@ -25755,34 +25847,34 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>the promise of explainable ai in digital health for precision medicine: a systematic review</t>
+          <t>the role of explainability in creating trustworthy artificial intelligence for health care: a comprehensive survey of the terminology, design choices, and evaluation strategies</t>
         </is>
       </c>
       <c r="C592" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Allen B.</t>
+          <t>Markus A.F.; Kors J.A.; Rijnbeek P.R.</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>Journal of Personalized Medicine</t>
+          <t>Journal of Biomedical Informatics</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>This review synthesizes the literature on explaining machine-learning models for digital health data in precision medicine. As healthcare increasingly tailors treatments to individual characteristics, the integration of artificial intelligence with digital health data becomes crucial. Leveraging a topic-modeling approach, this paper distills the key themes of 27 journal articles. We included peer-reviewed journal articles written in English, with no time constraints on the search. A Google Scholar search, conducted up to 19 September 2023, yielded 27 journal articles. Through a topic-modeling approach, the identified topics encompassed optimizing patient healthcare through data-driven medicine, predictive modeling with data and algorithms, predicting diseases with deep learning of biomedical data, and machine learning in medicine. This review delves into specific applications of explainable artificial intelligence, emphasizing its role in fostering transparency, accountability, and trust within the healthcare domain. Our review highlights the necessity for further development and validation of explanation methods to advance precision healthcare delivery. © 2024 by the author.</t>
+          <t>Artificial intelligence (AI) has huge potential to improve the health and well-being of people, but adoption in clinical practice is still limited. Lack of transparency is identified as one of the main barriers to implementation, as clinicians should be confident the AI system can be trusted. Explainable AI has the potential to overcome this issue and can be a step towards trustworthy AI. In this paper we review the recent literature to provide guidance to researchers and practitioners on the design of explainable AI systems for the health-care domain and contribute to formalization of the field of explainable AI. We argue the reason to demand explainability determines what should be explained as this determines the relative importance of the properties of explainability (i.e. interpretability and fidelity). Based on this, we propose a framework to guide the choice between classes of explainable AI methods (explainable modelling versus post-hoc explanation; model-based, attribution-based, or example-based explanations; global and local explanations). Furthermore, we find that quantitative evaluation metrics, which are important for objective standardized evaluation, are still lacking for some properties (e.g. clarity) and types of explanations (e.g. example-based methods). We conclude that explainable modelling can contribute to trustworthy AI, but the benefits of explainability still need to be proven in practice and complementary measures might be needed to create trustworthy AI in health care (e.g. reporting data quality, performing extensive (external) validation, and regulation). © 2020 The Authors</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>10.3390/jpm14030277</t>
+          <t>10.1016/j.jbi.2020.103655</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
@@ -25798,34 +25890,34 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>the role of explainability in creating trustworthy artificial intelligence for health care: a comprehensive survey of the terminology, design choices, and evaluation strategies</t>
+          <t>time-series visual explainability for alzheimer's disease progression detection for smart healthcare</t>
         </is>
       </c>
       <c r="C593" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>Markus A.F.; Kors J.A.; Rijnbeek P.R.</t>
+          <t>Rahim N.; Abuhmed T.; Mirjalili S.; El-Sappagh S.; Muhammad K.</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>Journal of Biomedical Informatics</t>
+          <t>Alexandria Engineering Journal</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI) has huge potential to improve the health and well-being of people, but adoption in clinical practice is still limited. Lack of transparency is identified as one of the main barriers to implementation, as clinicians should be confident the AI system can be trusted. Explainable AI has the potential to overcome this issue and can be a step towards trustworthy AI. In this paper we review the recent literature to provide guidance to researchers and practitioners on the design of explainable AI systems for the health-care domain and contribute to formalization of the field of explainable AI. We argue the reason to demand explainability determines what should be explained as this determines the relative importance of the properties of explainability (i.e. interpretability and fidelity). Based on this, we propose a framework to guide the choice between classes of explainable AI methods (explainable modelling versus post-hoc explanation; model-based, attribution-based, or example-based explanations; global and local explanations). Furthermore, we find that quantitative evaluation metrics, which are important for objective standardized evaluation, are still lacking for some properties (e.g. clarity) and types of explanations (e.g. example-based methods). We conclude that explainable modelling can contribute to trustworthy AI, but the benefits of explainability still need to be proven in practice and complementary measures might be needed to create trustworthy AI in health care (e.g. reporting data quality, performing extensive (external) validation, and regulation). © 2020 The Authors</t>
+          <t>Artificial intelligence (AI)-based diagnostic systems provide less error-prone and safer support to clinicians, enhancing the medical decision-making process. This study presents a smart and reliable healthcare framework for detecting Alzheimer's disease (AD) progression. Early detection of AD before the onset of clinical symptoms is the most crucial step in starting timely treatment. To predict the conversion of cognitively normal patients to those with AD, three-dimensional 3D magnetic resonance imaging (MRI) whole-brain neuroimaging methods have been extensively studied. However, depending on the 3D volume, this method is computationally expensive. To solve this problem, we used an approximate rank pooling method originally designed for video action recognition with a 3D MRI volume to obtain a compressed representation of multiple two-dimensional (2D) MRI slices. This study proposes a hybrid multimodal CNN-BiLSTM deep model for AD progression detection, in which the resulting dynamic 2D images are fused with cognitive features. Moreover, a novel explainable AI approach is proposed to provide visual explanations using the resulting longitudinal 2D dynamic images. Temporal explanations were provided by visualizing the affected brain regions captured using longitudinal 2D MRIs. By utilizing a sample of 1,692 subjects with multimodal data from the Alzheimer's Disease Neuroimaging Initiative dataset, our method was assessed using a 10-fold cross-validation process. The model achieved an area under the receiver operating characteristics curve (AUC) of 94% using longitudinal 2D three-time-step dynamic image data. The fusion of 2D dynamic images with cognitive features enhanced the performance by 2% in terms of the AUC. Patients who gradually develop AD, show changes in various brain regions. For such patients, our system highlights the critical role of the hippocampus, medial amygdala, caudal hippocampus, and lateral amygdala at the initial time steps. In the late stages of AD, the system detects abnormalities in extra brain regions such as the medial temporal gyrus, superior temporal gyrus, fusiform gyrus, and caudal hippocampus; indicating that patients have completely progressed to AD. © 2023 THE AUTHORS</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>10.1016/j.jbi.2020.103655</t>
+          <t>10.1016/j.aej.2023.09.050</t>
         </is>
       </c>
       <c r="H593" t="inlineStr">
@@ -25835,17 +25927,17 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>time-series visual explainability for alzheimer's disease progression detection for smart healthcare</t>
+          <t>tiresia: an explainable artificial intelligence platform for predicting developmental toxicity</t>
         </is>
       </c>
       <c r="C594" t="n">
@@ -25853,22 +25945,22 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>Rahim N.; Abuhmed T.; Mirjalili S.; El-Sappagh S.; Muhammad K.</t>
+          <t>Togo M.V.; Mastrolorito F.; Ciriaco F.; Trisciuzzi D.; Tondo A.R.; Gambacorta N.; Bellantuono L.; Monaco A.; Leonetti F.; Bellotti R.; Altomare C.D.; Amoroso N.; Nicolotti O.</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>Alexandria Engineering Journal</t>
+          <t>Journal of Chemical Information and Modeling</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI)-based diagnostic systems provide less error-prone and safer support to clinicians, enhancing the medical decision-making process. This study presents a smart and reliable healthcare framework for detecting Alzheimer's disease (AD) progression. Early detection of AD before the onset of clinical symptoms is the most crucial step in starting timely treatment. To predict the conversion of cognitively normal patients to those with AD, three-dimensional 3D magnetic resonance imaging (MRI) whole-brain neuroimaging methods have been extensively studied. However, depending on the 3D volume, this method is computationally expensive. To solve this problem, we used an approximate rank pooling method originally designed for video action recognition with a 3D MRI volume to obtain a compressed representation of multiple two-dimensional (2D) MRI slices. This study proposes a hybrid multimodal CNN-BiLSTM deep model for AD progression detection, in which the resulting dynamic 2D images are fused with cognitive features. Moreover, a novel explainable AI approach is proposed to provide visual explanations using the resulting longitudinal 2D dynamic images. Temporal explanations were provided by visualizing the affected brain regions captured using longitudinal 2D MRIs. By utilizing a sample of 1,692 subjects with multimodal data from the Alzheimer's Disease Neuroimaging Initiative dataset, our method was assessed using a 10-fold cross-validation process. The model achieved an area under the receiver operating characteristics curve (AUC) of 94% using longitudinal 2D three-time-step dynamic image data. The fusion of 2D dynamic images with cognitive features enhanced the performance by 2% in terms of the AUC. Patients who gradually develop AD, show changes in various brain regions. For such patients, our system highlights the critical role of the hippocampus, medial amygdala, caudal hippocampus, and lateral amygdala at the initial time steps. In the late stages of AD, the system detects abnormalities in extra brain regions such as the medial temporal gyrus, superior temporal gyrus, fusiform gyrus, and caudal hippocampus; indicating that patients have completely progressed to AD. © 2023 THE AUTHORS</t>
+          <t>Herein, a robust and reproducible eXplainable Artificial Intelligence (XAI) approach is presented, which allows prediction of developmental toxicity, a challenging human-health endpoint in toxicology. The application of XAI as an alternative method is of the utmost importance with developmental toxicity being one of the most animal-intensive areas of regulatory toxicology. In this work, the established CAESAR (Computer Assisted Evaluation of industrial chemical Substances According to Regulations) training set made of 234 chemicals for model learning is employed. Two test sets, including as a whole 585 chemicals, were instead used for validation and generalization purposes. The proposed framework favorably compares with the state-of-the-art approaches in terms of accuracy, sensitivity, and specificity, thus resulting in a reliable support system for developmental toxicity ensuring informativeness, uncertainty estimation, generalization, and transparency. Based on the eXtreme Gradient Boosting (XGB) algorithm, our predictive model provides easy interpretative keys based on specific molecular descriptors and structural alerts enabling one to distinguish toxic and nontoxic chemicals. Inspired by the Organisation for Economic Co-operation and Development (OECD) principles for the validation of Quantitative Structure-Activity Relationships (QSARs) for regulatory purposes, the results are summarized in a standard report in portable document format, enclosing also details concerned with a density-based model applicability domain and SHAP (SHapley Additive exPlanations) explainability, the latter particularly useful to better understand the effective roles played by molecular features. Notably, our model has been implemented in TIRESIA (Toxicology Intelligence and Regulatory Evaluations for Scientific and Industry Applications), a free of charge web platform available at http://tiresia.uniba.it. © 2022 American Chemical Society.</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>10.1016/j.aej.2023.09.050</t>
+          <t>10.1021/acs.jcim.2c01126</t>
         </is>
       </c>
       <c r="H594" t="inlineStr">
@@ -25878,40 +25970,40 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>tiresia: an explainable artificial intelligence platform for predicting developmental toxicity</t>
+          <t>tisbe: a public web platform for the consensus-based explainable prediction of developmental toxicity</t>
         </is>
       </c>
       <c r="C595" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Togo M.V.; Mastrolorito F.; Ciriaco F.; Trisciuzzi D.; Tondo A.R.; Gambacorta N.; Bellantuono L.; Monaco A.; Leonetti F.; Bellotti R.; Altomare C.D.; Amoroso N.; Nicolotti O.</t>
+          <t>Mastrolorito F.; Togo M.V.; Gambacorta N.; Trisciuzzi D.; Giannuzzi V.; Bonifazi F.; Liantonio A.; Imbrici P.; De Luca A.; Altomare C.D.; Ciriaco F.; Amoroso N.; Nicolotti O.</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>Journal of Chemical Information and Modeling</t>
+          <t>Chemical Research in Toxicology</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>Herein, a robust and reproducible eXplainable Artificial Intelligence (XAI) approach is presented, which allows prediction of developmental toxicity, a challenging human-health endpoint in toxicology. The application of XAI as an alternative method is of the utmost importance with developmental toxicity being one of the most animal-intensive areas of regulatory toxicology. In this work, the established CAESAR (Computer Assisted Evaluation of industrial chemical Substances According to Regulations) training set made of 234 chemicals for model learning is employed. Two test sets, including as a whole 585 chemicals, were instead used for validation and generalization purposes. The proposed framework favorably compares with the state-of-the-art approaches in terms of accuracy, sensitivity, and specificity, thus resulting in a reliable support system for developmental toxicity ensuring informativeness, uncertainty estimation, generalization, and transparency. Based on the eXtreme Gradient Boosting (XGB) algorithm, our predictive model provides easy interpretative keys based on specific molecular descriptors and structural alerts enabling one to distinguish toxic and nontoxic chemicals. Inspired by the Organisation for Economic Co-operation and Development (OECD) principles for the validation of Quantitative Structure-Activity Relationships (QSARs) for regulatory purposes, the results are summarized in a standard report in portable document format, enclosing also details concerned with a density-based model applicability domain and SHAP (SHapley Additive exPlanations) explainability, the latter particularly useful to better understand the effective roles played by molecular features. Notably, our model has been implemented in TIRESIA (Toxicology Intelligence and Regulatory Evaluations for Scientific and Industry Applications), a free of charge web platform available at http://tiresia.uniba.it. © 2022 American Chemical Society.</t>
+          <t>Despite being extremely relevant for the protection of prenatal and neonatal health, the developmental toxicity (Dev Tox) is a highly complex endpoint whose molecular rationale is still largely unknown. The lack of availability of high-quality data as well as robust nontesting methods makes its understanding even more difficult. Thus, the application of new explainable alternative methods is of utmost importance, with Dev Tox being one of the most animal-intensive research themes of regulatory toxicology. Descending from TIRESIA (Toxicology Intelligence and Regulatory Evaluations for Scientific and Industry Applications), the present work describes TISBE (TIRESIA Improved on Structure-Based Explainability), a new public web platform implementing four fundamental advancements for in silico analyses: a three times larger dataset, a transparent XAI (explainable artificial intelligence) framework employing a fragment-based fingerprint coding, a novel consensus classifier based on five independent machine learning models, and a new applicability domain (AD) method based on a double top-down approach for better estimating the prediction reliability. The training set (TS) includes as many as 1008 chemicals annotated with experimental toxicity values. Based on a 5-fold cross-validation, a median value of 0.410 for the Matthews correlation coefficient was calculated; TISBE was very effective, with a median value of sensitivity and specificity equal to 0.984 and 0.274, respectively. TISBE was applied on two external pools made of 1484 bioactive compounds and 85 pediatric drugs taken from ChEMBL (Chemical European Molecular Biology Laboratory) and TEDDY (Task-Force in Europe for Drug Development in the Young) repositories, respectively. Notably, TISBE gives users the option to clearly spot the molecular fragments responsible for the toxicity or the safety of a given chemical query and is available for free at https://prometheus.farmacia.uniba.it/tisbe. © 2024 American Chemical Society.</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>10.1021/acs.jcim.2c01126</t>
+          <t>10.1021/acs.chemrestox.3c00310</t>
         </is>
       </c>
       <c r="H595" t="inlineStr">
@@ -25927,34 +26019,34 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>tisbe: a public web platform for the consensus-based explainable prediction of developmental toxicity</t>
+          <t>toward effective it services in defence talent management platform</t>
         </is>
       </c>
       <c r="C596" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Mastrolorito F.; Togo M.V.; Gambacorta N.; Trisciuzzi D.; Giannuzzi V.; Bonifazi F.; Liantonio A.; Imbrici P.; De Luca A.; Altomare C.D.; Ciriaco F.; Amoroso N.; Nicolotti O.</t>
+          <t>Cho E.; Son J.; Iordanov V.B.; Jun S.; Baek J.; Lee S.; Lee C.; Choi J.-M.; Gobana F.W.; Park S.</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>Chemical Research in Toxicology</t>
+          <t>International Conference on ICT Convergence</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>Despite being extremely relevant for the protection of prenatal and neonatal health, the developmental toxicity (Dev Tox) is a highly complex endpoint whose molecular rationale is still largely unknown. The lack of availability of high-quality data as well as robust nontesting methods makes its understanding even more difficult. Thus, the application of new explainable alternative methods is of utmost importance, with Dev Tox being one of the most animal-intensive research themes of regulatory toxicology. Descending from TIRESIA (Toxicology Intelligence and Regulatory Evaluations for Scientific and Industry Applications), the present work describes TISBE (TIRESIA Improved on Structure-Based Explainability), a new public web platform implementing four fundamental advancements for in silico analyses: a three times larger dataset, a transparent XAI (explainable artificial intelligence) framework employing a fragment-based fingerprint coding, a novel consensus classifier based on five independent machine learning models, and a new applicability domain (AD) method based on a double top-down approach for better estimating the prediction reliability. The training set (TS) includes as many as 1008 chemicals annotated with experimental toxicity values. Based on a 5-fold cross-validation, a median value of 0.410 for the Matthews correlation coefficient was calculated; TISBE was very effective, with a median value of sensitivity and specificity equal to 0.984 and 0.274, respectively. TISBE was applied on two external pools made of 1484 bioactive compounds and 85 pediatric drugs taken from ChEMBL (Chemical European Molecular Biology Laboratory) and TEDDY (Task-Force in Europe for Drug Development in the Young) repositories, respectively. Notably, TISBE gives users the option to clearly spot the molecular fragments responsible for the toxicity or the safety of a given chemical query and is available for free at https://prometheus.farmacia.uniba.it/tisbe. © 2024 American Chemical Society.</t>
+          <t>There are various problems in society that can be solved by IT technology, and we would like to provide a technique to mitigate safety incidents and accidents that occur continuously in military life. As the current use of smart devices by soldiers has had a positive effect, it becomes possible to provide specialized care services such as personalized health care, psychology care, physical strength check-up and feedback by AI coaches, based on the requirements of the soldiers. These services can provide a reliable and safe environment for personnel fulfilling the duty of defense. However, in order to figure out the psychological factors of problems such as barracks accidents caused by special environments of soldiers, those services need an AI technology with the level of explainable Artificial Intelligence (XAI) or Artificial Wisdom (AW) beyond handling a psychological feedback. Therefore, in this paper, we propose IT platform services that are able to support the needs currently raised to deal with problems that arise in the mid- to long-term life of the specific group as universal social welfare issues. © 2020 IEEE.</t>
         </is>
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>10.1021/acs.chemrestox.3c00310</t>
+          <t>10.1109/ICTC49870.2020.9289499</t>
         </is>
       </c>
       <c r="H596" t="inlineStr">
@@ -25970,34 +26062,34 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>toward effective it services in defence talent management platform</t>
+          <t>toward explainable ai-empowered cognitive health assessment</t>
         </is>
       </c>
       <c r="C597" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Cho E.; Son J.; Iordanov V.B.; Jun S.; Baek J.; Lee S.; Lee C.; Choi J.-M.; Gobana F.W.; Park S.</t>
+          <t>Javed A.R.; Khan H.U.; Alomari M.K.B.; Sarwar M.U.; Asim M.; Almadhor A.S.; Khan M.Z.</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>International Conference on ICT Convergence</t>
+          <t>Frontiers in Public Health</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>There are various problems in society that can be solved by IT technology, and we would like to provide a technique to mitigate safety incidents and accidents that occur continuously in military life. As the current use of smart devices by soldiers has had a positive effect, it becomes possible to provide specialized care services such as personalized health care, psychology care, physical strength check-up and feedback by AI coaches, based on the requirements of the soldiers. These services can provide a reliable and safe environment for personnel fulfilling the duty of defense. However, in order to figure out the psychological factors of problems such as barracks accidents caused by special environments of soldiers, those services need an AI technology with the level of explainable Artificial Intelligence (XAI) or Artificial Wisdom (AW) beyond handling a psychological feedback. Therefore, in this paper, we propose IT platform services that are able to support the needs currently raised to deal with problems that arise in the mid- to long-term life of the specific group as universal social welfare issues. © 2020 IEEE.</t>
+          <t>Explainable artificial intelligence (XAI) is of paramount importance to various domains, including healthcare, fitness, skill assessment, and personal assistants, to understand and explain the decision-making process of the artificial intelligence (AI) model. Smart homes embedded with smart devices and sensors enabled many context-aware applications to recognize physical activities. This study presents XAI-HAR, a novel XAI-empowered human activity recognition (HAR) approach based on key features identified from the data collected from sensors located at different places in a smart home. XAI-HAR identifies a set of new features (i.e., the total number of sensors used in a specific activity), as physical key features selection (PKFS) based on weighting criteria. Next, it presents statistical key features selection (SKFS) (i.e., mean, standard deviation) to handle the outliers and higher class variance. The proposed XAI-HAR is evaluated using machine learning models, namely, random forest (RF), K-nearest neighbor (KNN), support vector machine (SVM), decision tree (DT), naive Bayes (NB) and deep learning models such as deep neural network (DNN), convolution neural network (CNN), and CNN-based long short-term memory (CNN-LSTM). Experiments demonstrate the superior performance of XAI-HAR using RF classifier over all other machine learning and deep learning models. For explainability, XAI-HAR uses Local Interpretable Model Agnostic (LIME) with an RF classifier. XAI-HAR achieves 0.96% of F-score for health and dementia classification and 0.95 and 0.97% for activity recognition of dementia and healthy individuals, respectively. Copyright © 2023 Javed, Khan, Alomari, Sarwar, Asim, Almadhor and Khan.</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>10.1109/ICTC49870.2020.9289499</t>
+          <t>10.3389/fpubh.2023.1024195</t>
         </is>
       </c>
       <c r="H597" t="inlineStr">
@@ -26013,11 +26105,11 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>toward explainable ai-empowered cognitive health assessment</t>
+          <t>toward interactive visualizations for explaining machine learning models</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -26025,22 +26117,22 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Javed A.R.; Khan H.U.; Alomari M.K.B.; Sarwar M.U.; Asim M.; Almadhor A.S.; Khan M.Z.</t>
+          <t>Ramsey A.; Kale A.; Kassa Y.; Gandhi R.; Ricks B.</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>Frontiers in Public Health</t>
+          <t>Proceedings of the International ISCRAM Conference</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>Explainable artificial intelligence (XAI) is of paramount importance to various domains, including healthcare, fitness, skill assessment, and personal assistants, to understand and explain the decision-making process of the artificial intelligence (AI) model. Smart homes embedded with smart devices and sensors enabled many context-aware applications to recognize physical activities. This study presents XAI-HAR, a novel XAI-empowered human activity recognition (HAR) approach based on key features identified from the data collected from sensors located at different places in a smart home. XAI-HAR identifies a set of new features (i.e., the total number of sensors used in a specific activity), as physical key features selection (PKFS) based on weighting criteria. Next, it presents statistical key features selection (SKFS) (i.e., mean, standard deviation) to handle the outliers and higher class variance. The proposed XAI-HAR is evaluated using machine learning models, namely, random forest (RF), K-nearest neighbor (KNN), support vector machine (SVM), decision tree (DT), naive Bayes (NB) and deep learning models such as deep neural network (DNN), convolution neural network (CNN), and CNN-based long short-term memory (CNN-LSTM). Experiments demonstrate the superior performance of XAI-HAR using RF classifier over all other machine learning and deep learning models. For explainability, XAI-HAR uses Local Interpretable Model Agnostic (LIME) with an RF classifier. XAI-HAR achieves 0.96% of F-score for health and dementia classification and 0.95 and 0.97% for activity recognition of dementia and healthy individuals, respectively. Copyright © 2023 Javed, Khan, Alomari, Sarwar, Asim, Almadhor and Khan.</t>
+          <t>Researchers and end users generally demand more trust and transparency from Machine learning (ML) models due to the complexity of their learned rule spaces. The field of eXplainable Artificial Intelligence (XAI) seeks to rectify this problem by developing methods of explaining ML models and the attributes used in making inferences. In the area of structural health monitoring of bridges, machine learning can offer insight into the relation between a bridge’s conditions and its environment over time. In this paper, we describe three visualization techniques that explain decision tree (DT) ML models that identify which features of a bridge make it more likely to receive repairs. Each of these visualizations enable interpretation, exploration, and clarification of complex DT models. We outline the development of these visualizations, along with their validity by experts in AI and in bridge design and engineering. This work has inherent benefits in the field of XAI as a direction for future research and as a tool for interactive visual explanation of ML models. © 2023 Information Systems for Crisis Response and Management, ISCRAM. All rights reserved.</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>10.3389/fpubh.2023.1024195</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H598" t="inlineStr">
@@ -26050,38 +26142,42 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>toward interactive visualizations for explaining machine learning models</t>
+          <t>toward transparent ai for neurological disorders: a feature extraction and relevance analysis framework</t>
         </is>
       </c>
       <c r="C599" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>Ramsey A.; Kale A.; Kassa Y.; Gandhi R.; Ricks B.</t>
+          <t>Woodbright M.D.; Morshed A.; Browne M.; Ray B.; Moore S.</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>Proceedings of the International ISCRAM Conference</t>
+          <t>IEEE Access</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>Researchers and end users generally demand more trust and transparency from Machine learning (ML) models due to the complexity of their learned rule spaces. The field of eXplainable Artificial Intelligence (XAI) seeks to rectify this problem by developing methods of explaining ML models and the attributes used in making inferences. In the area of structural health monitoring of bridges, machine learning can offer insight into the relation between a bridge’s conditions and its environment over time. In this paper, we describe three visualization techniques that explain decision tree (DT) ML models that identify which features of a bridge make it more likely to receive repairs. Each of these visualizations enable interpretation, exploration, and clarification of complex DT models. We outline the development of these visualizations, along with their validity by experts in AI and in bridge design and engineering. This work has inherent benefits in the field of XAI as a direction for future research and as a tool for interactive visual explanation of ML models. © 2023 Information Systems for Crisis Response and Management, ISCRAM. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="G599" t="inlineStr"/>
+          <t>The lack of interpretability and transparency in deep learning architectures has raised concerns among professionals in various industries and academia. One of the main concerns is the ability to trust these architectures' without being provided any insight into the decision-making process. Despite these concerns, researchers continue to explore new models and architectures that do not incorporate explainability into their main construct. In the medical industry, it is crucial to provide explanations of any decision, as patient health outcomes can vary according to decisions made. Furthermore, in medical research, incorrectly diagnosed neurological conditions are a high-cost error that contributes significantly to morbidity and mortality. Therefore, the development of new transparent techniques for neurological conditions is critical. This paper presents a novel Autonomous Relevance Technique for an Explainable neurological disease prediction framework called ART-Explain. The proposed technique autonomously extracts features from within the deep learning architecture to create novel visual explanations of the resulting prediction. ART-Explain is an end-to-end autonomous explainable technique designed to present an intuitive and holistic overview of a prediction made by a deep learning classifier. To evaluate the effectiveness of our approach, we benchmark it with other state-of-the-art techniques using three data sets of neurological disorders. The results demonstrate the generalisation capabilities of our technique and its suitability for real-world applications. By providing transparent insights into the decision-making process, ART-Explain can improve end-user trust and enable a better understanding of classification outcomes in the detection of neurological diseases. © 2013 IEEE.</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2024.3375877</t>
+        </is>
+      </c>
       <c r="H599" t="inlineStr">
         <is>
           <t>Final</t>
@@ -26089,40 +26185,40 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>toward transparent ai for neurological disorders: a feature extraction and relevance analysis framework</t>
+          <t>towards a data collection methodology for responsible artificial intelligence in health: a prospective and qualitative study in pregnancy</t>
         </is>
       </c>
       <c r="C600" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Woodbright M.D.; Morshed A.; Browne M.; Ray B.; Moore S.</t>
+          <t>Oprescu A.M.; Miró-Amarante G.; García-Díaz L.; Rey V.E.; Chimenea-Toscano A.; Martínez-Martínez R.; Romero-Ternero M.C.</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>IEEE Access</t>
+          <t>Information Fusion</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>The lack of interpretability and transparency in deep learning architectures has raised concerns among professionals in various industries and academia. One of the main concerns is the ability to trust these architectures' without being provided any insight into the decision-making process. Despite these concerns, researchers continue to explore new models and architectures that do not incorporate explainability into their main construct. In the medical industry, it is crucial to provide explanations of any decision, as patient health outcomes can vary according to decisions made. Furthermore, in medical research, incorrectly diagnosed neurological conditions are a high-cost error that contributes significantly to morbidity and mortality. Therefore, the development of new transparent techniques for neurological conditions is critical. This paper presents a novel Autonomous Relevance Technique for an Explainable neurological disease prediction framework called ART-Explain. The proposed technique autonomously extracts features from within the deep learning architecture to create novel visual explanations of the resulting prediction. ART-Explain is an end-to-end autonomous explainable technique designed to present an intuitive and holistic overview of a prediction made by a deep learning classifier. To evaluate the effectiveness of our approach, we benchmark it with other state-of-the-art techniques using three data sets of neurological disorders. The results demonstrate the generalisation capabilities of our technique and its suitability for real-world applications. By providing transparent insights into the decision-making process, ART-Explain can improve end-user trust and enable a better understanding of classification outcomes in the detection of neurological diseases. © 2013 IEEE.</t>
+          <t>A medical field that is increasingly benefiting from Artificial Intelligence applications is Gyne- cology and Obstetrics. In previous work, we exposed that Artificial Intelligence (AI) technology and obstetric control by physicians can enhance pregnancy health, leading to better pregnancy outcomes and overall better experience, also reducing any possible long-term effects that can be produced by complications. This work presents a data collection methodology for responsible AI in Health and a case study in the pregnancy domain. It is a qualitative descriptive study on the preferences and expectations expressed by pregnant women regarding responsible AI and affective computing. A 41-items structured interview was distributed among 150 pregnant pa- tients attending prenatal care at Hospital Virgen del Rocío and the Clinic Victoria Rey (Seville, Spain) during the months of October and November 2020. A substantial interest in intelligent pregnancy solutions among pregnant women has been revealed in this study. Participants with a lower level of interest reported privacy concerns and lack of trust towards AI solutions. Re- garding affective computing based intelligent solutions specifically, most participants reported positively and no significant difference was found between women having a healthy or a high risk pregnancy on this matter. Our findings also suggest that a high demand of personalized intelligent solutions exists among participants. On the topic of sharing pregnancy data with the healthcare provider in favor of scientific research, pregnant women assisting public health- care services were found to be more likely to share their data when the provider was a public healthcare system rather than a private entity. Pregnant women who are interested in using an AI pregnancy application share a strong idea that it needs to be responsible, trustworthy, useful, and safe. Likewise, we found that pregnant women would change their mind about their concerns and they would feel more confident if the intelligent solution gives explanations about the system decisions and recommendations, as XAI approach promotes. © 2022 The Author(s)</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2024.3375877</t>
+          <t>10.1016/j.inffus.2022.03.011</t>
         </is>
       </c>
       <c r="H600" t="inlineStr">
@@ -26138,34 +26234,34 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>towards a data collection methodology for responsible artificial intelligence in health: a prospective and qualitative study in pregnancy</t>
+          <t>towards a knowledge-based decision support system for the management of type 2 diabetic patients</t>
         </is>
       </c>
       <c r="C601" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>Oprescu A.M.; Miró-Amarante G.; García-Díaz L.; Rey V.E.; Chimenea-Toscano A.; Martínez-Martínez R.; Romero-Ternero M.C.</t>
+          <t>Spoladore D.; Stella F.; Tosi M.; Lorenzini E.C.</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>Information Fusion</t>
+          <t>Lecture Notes in Networks and Systems</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>A medical field that is increasingly benefiting from Artificial Intelligence applications is Gyne- cology and Obstetrics. In previous work, we exposed that Artificial Intelligence (AI) technology and obstetric control by physicians can enhance pregnancy health, leading to better pregnancy outcomes and overall better experience, also reducing any possible long-term effects that can be produced by complications. This work presents a data collection methodology for responsible AI in Health and a case study in the pregnancy domain. It is a qualitative descriptive study on the preferences and expectations expressed by pregnant women regarding responsible AI and affective computing. A 41-items structured interview was distributed among 150 pregnant pa- tients attending prenatal care at Hospital Virgen del Rocío and the Clinic Victoria Rey (Seville, Spain) during the months of October and November 2020. A substantial interest in intelligent pregnancy solutions among pregnant women has been revealed in this study. Participants with a lower level of interest reported privacy concerns and lack of trust towards AI solutions. Re- garding affective computing based intelligent solutions specifically, most participants reported positively and no significant difference was found between women having a healthy or a high risk pregnancy on this matter. Our findings also suggest that a high demand of personalized intelligent solutions exists among participants. On the topic of sharing pregnancy data with the healthcare provider in favor of scientific research, pregnant women assisting public health- care services were found to be more likely to share their data when the provider was a public healthcare system rather than a private entity. Pregnant women who are interested in using an AI pregnancy application share a strong idea that it needs to be responsible, trustworthy, useful, and safe. Likewise, we found that pregnant women would change their mind about their concerns and they would feel more confident if the intelligent solution gives explanations about the system decisions and recommendations, as XAI approach promotes. © 2022 The Author(s)</t>
+          <t>The rise of Healthcare 5.0 paradigm calls for personalization of care and management of patients’ conditions. Though promising, data-driven techniques may raise some concerns as they are perceived as scarcely transparent and reliable by clinical personnel. With the emergence of Explainable Artificial Intelligence (AI), these limitations could significantly be overcome. In this regard, the exploitation of domain knowledge (properly formalized) can support explainable AI and foster the delivery of Decision Support Systems (DSS) for tailored treatment of many diseases. This work aims to present a knowledge-based DSS for managing patients with Type 2-Diabetes Mellitus (T2D), a non communicable disease that can take advantage of tailored medical nutrition therapies, taking into account patient’s specific health condition and comorbidities. The DSS leverages ontological representation of domain knowledge to automatically classify the patients’ phenotype and identify the potential comorbidities, then, it exploits a set of rules to provide tailored nutrition recommendations that can be adopted by general practice doctors and family clinicians to provide tailored dietary plans. In this way, the proposed DSS can support physicians and dieticians (who may lack specialized training in T2D management) in the management of diabetic patients through personalized medical nutrition therapies. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>10.1016/j.inffus.2022.03.011</t>
+          <t>10.1007/978-3-031-38274-1_26</t>
         </is>
       </c>
       <c r="H601" t="inlineStr">
@@ -26175,40 +26271,40 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>towards a knowledge-based decision support system for the management of type 2 diabetic patients</t>
+          <t>towards a theory-based evaluation of explainable predictions in healthcare</t>
         </is>
       </c>
       <c r="C602" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Spoladore D.; Stella F.; Tosi M.; Lorenzini E.C.</t>
+          <t>Ghanvatkar S.; Rajan V.</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>Lecture Notes in Networks and Systems</t>
+          <t>International Conference on Information Systems, ICIS 2022: "Digitization for the Next Generation"</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>The rise of Healthcare 5.0 paradigm calls for personalization of care and management of patients’ conditions. Though promising, data-driven techniques may raise some concerns as they are perceived as scarcely transparent and reliable by clinical personnel. With the emergence of Explainable Artificial Intelligence (AI), these limitations could significantly be overcome. In this regard, the exploitation of domain knowledge (properly formalized) can support explainable AI and foster the delivery of Decision Support Systems (DSS) for tailored treatment of many diseases. This work aims to present a knowledge-based DSS for managing patients with Type 2-Diabetes Mellitus (T2D), a non communicable disease that can take advantage of tailored medical nutrition therapies, taking into account patient’s specific health condition and comorbidities. The DSS leverages ontological representation of domain knowledge to automatically classify the patients’ phenotype and identify the potential comorbidities, then, it exploits a set of rules to provide tailored nutrition recommendations that can be adopted by general practice doctors and family clinicians to provide tailored dietary plans. In this way, the proposed DSS can support physicians and dieticians (who may lack specialized training in T2D management) in the management of diabetic patients through personalized medical nutrition therapies. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+          <t>Modern Artificial Intelligence (AI) models offer high predictive accuracy but often lack interpretability with respect to reasons for predictions. Explanations for predictions are usually necessary in making high-stakes clinical decisions. Hence, many Explainable AI (XAI) techniques have been designed to generate explanations for predictions from black-box models. However, there are no rigorous metrics to evaluate these explanations, especially with respect to their usefulness to clinicians. We develop a principled method to evaluate explanations by drawing on theories from social science and accounting for specific requirements of the clinical context. As a case study, we use our metric to evaluate explanations generated by two popular XAI algorithms in the task of predicting the onset of Alzheimer's disease using genetic data. Our preliminary findings are promising and illustrate the versatility and utility of our metric. Our work contributes to the practical and theoretical development of XAI techniques and Clinical Decision Support Systems. © 2022 International Conference on Information Systems, ICIS 2022: "Digitization for the Next Generation". All Rights Reserved.</t>
         </is>
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>10.1007/978-3-031-38274-1_26</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H602" t="inlineStr">
@@ -26224,50 +26320,54 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>towards a theory-based evaluation of explainable predictions in healthcare</t>
+          <t>towards an xai-assisted third-party evaluation of ai systems: illustration on decision trees</t>
         </is>
       </c>
       <c r="C603" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>Ghanvatkar S.; Rajan V.</t>
+          <t>Zhou, YX; Boussard, M; Delaborde, A</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>International Conference on Information Systems, ICIS 2022: "Digitization for the Next Generation"</t>
+          <t>EXPLAINABLE AND TRANSPARENT AI AND MULTI-AGENT SYSTEMS, EXTRAAMAS 2021</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>Modern Artificial Intelligence (AI) models offer high predictive accuracy but often lack interpretability with respect to reasons for predictions. Explanations for predictions are usually necessary in making high-stakes clinical decisions. Hence, many Explainable AI (XAI) techniques have been designed to generate explanations for predictions from black-box models. However, there are no rigorous metrics to evaluate these explanations, especially with respect to their usefulness to clinicians. We develop a principled method to evaluate explanations by drawing on theories from social science and accounting for specific requirements of the clinical context. As a case study, we use our metric to evaluate explanations generated by two popular XAI algorithms in the task of predicting the onset of Alzheimer's disease using genetic data. Our preliminary findings are promising and illustrate the versatility and utility of our metric. Our work contributes to the practical and theoretical development of XAI techniques and Clinical Decision Support Systems. © 2022 International Conference on Information Systems, ICIS 2022: "Digitization for the Next Generation". All Rights Reserved.</t>
-        </is>
-      </c>
-      <c r="G603" t="inlineStr"/>
+          <t>We explored the potential contribution of eXplainable Artificial Intelligence (XAI) for the evaluation of Artificial Intelligence (AI), in a context where such an evaluation is performed by independent third-party evaluators, for example in the objective of certification. The experimental approach of this paper is based on explainable by design decision trees that produce predictions on health data and bank data. Results presented in this paper show that the explanations could be used by the evaluators to identify the parameters used in decision making and their levels of importance. The explanations would thus make it possible to orient the constitution of the evaluation corpus, to explore the rules followed for decision-making and to identify potentially critical relationships between different parameters. In addition, the explanations make it possible to inspect the presence of bias in the database and in the algorithm. These first results lay the groundwork for further additional research in order to generalize the conclusions of this paper to different XAI methods.</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-030-82017-6_10</t>
+        </is>
+      </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>towards an xai-assisted third-party evaluation of ai systems: illustration on decision trees</t>
+          <t>towards an xai-assisted third-party evaluation of ai systems: illustration on decision trees</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -26275,17 +26375,17 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Zhou, YX; Boussard, M; Delaborde, A</t>
+          <t>Zhou Y.; Boussard M.; Delaborde A.</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>EXPLAINABLE AND TRANSPARENT AI AND MULTI-AGENT SYSTEMS, EXTRAAMAS 2021</t>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>We explored the potential contribution of eXplainable Artificial Intelligence (XAI) for the evaluation of Artificial Intelligence (AI), in a context where such an evaluation is performed by independent third-party evaluators, for example in the objective of certification. The experimental approach of this paper is based on explainable by design decision trees that produce predictions on health data and bank data. Results presented in this paper show that the explanations could be used by the evaluators to identify the parameters used in decision making and their levels of importance. The explanations would thus make it possible to orient the constitution of the evaluation corpus, to explore the rules followed for decision-making and to identify potentially critical relationships between different parameters. In addition, the explanations make it possible to inspect the presence of bias in the database and in the algorithm. These first results lay the groundwork for further additional research in order to generalize the conclusions of this paper to different XAI methods.</t>
+          <t>We explored the potential contribution of eXplainable Artificial Intelligence (XAI) for the evaluation of Artificial Intelligence (AI), in a context where such an evaluation is performed by independent third-party evaluators, for example in the objective of certification. The experimental approach of this paper is based on “explainable by design” decision trees that produce predictions on health data and bank data. Results presented in this paper show that the explanations could be used by the evaluators to identify the parameters used in decision making and their levels of importance. The explanations would thus make it possible to orient the constitution of the evaluation corpus, to explore the rules followed for decision-making and to identify potentially critical relationships between different parameters. In addition, the explanations make it possible to inspect the presence of bias in the database and in the algorithm. These first results lay the groundwork for further additional research in order to generalize the conclusions of this paper to different XAI methods. © 2021, Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G604" t="inlineStr">
@@ -26295,45 +26395,45 @@
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>towards an xai-assisted third-party evaluation of ai systems: illustration on decision trees</t>
+          <t>towards explainability in automated medical code prediction from clinical records</t>
         </is>
       </c>
       <c r="C605" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Zhou Y.; Boussard M.; Delaborde A.</t>
+          <t>Uma K.; Francis S.; Sun W.; Moens M.-F.</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+          <t>Lecture Notes in Networks and Systems</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>We explored the potential contribution of eXplainable Artificial Intelligence (XAI) for the evaluation of Artificial Intelligence (AI), in a context where such an evaluation is performed by independent third-party evaluators, for example in the objective of certification. The experimental approach of this paper is based on “explainable by design” decision trees that produce predictions on health data and bank data. Results presented in this paper show that the explanations could be used by the evaluators to identify the parameters used in decision making and their levels of importance. The explanations would thus make it possible to orient the constitution of the evaluation corpus, to explore the rules followed for decision-making and to identify potentially critical relationships between different parameters. In addition, the explanations make it possible to inspect the presence of bias in the database and in the algorithm. These first results lay the groundwork for further additional research in order to generalize the conclusions of this paper to different XAI methods. © 2021, Springer Nature Switzerland AG.</t>
+          <t>The International Statistical Classification of Diseases and Related Health Problems (ICD) is a global standard, a diagnostic tool that is frequently used for endemic research, health management, and clinical diagnosis, and it plays a crucial role in providing shrewd medical treatment. Comparable statistics on the causes of mortality and morbidity across locations and throughout time have been based on the ICD. The traditional procedure of assigning codes is expensive, error-prone and time-consuming, and automated mapping of ICD codes is now a significant area of scholarly research. With the help of statistical modeling, rule-engines, conventional machine learning, and deep learning techniques like graph embedding, attention mechanisms, adversarial learning, and pre-trained language models (PLMs), this paper aims to analyze and document inferences on the evolution of clinical coding automation. We try to summarize with comparative performance analysis various approaches addressed towards codification of free-text clinical narratives on the publicly available Medical Information Mart. This study investigates whether clinicians and researchers could benefit from an adequate interpretation of model predictions from an Explainable Artificial Intelligence (XAI) perspective. Finally, the survey illustrates ICD coding and disease classification applications and its challenges, evaluation metrics, datasets, and directions towards automating explanatory medical code predictions. © The Author(s), under exclusive license to Springer Nature Switzerland AG 2024.</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-82017-6_10</t>
+          <t>10.1007/978-3-031-47718-8_40</t>
         </is>
       </c>
       <c r="H605" t="inlineStr">
@@ -26349,34 +26449,34 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>towards explainability in automated medical code prediction from clinical records</t>
+          <t>towards greater neuroimaging classification transparency via the integration of explainability methods and confidence estimation approaches</t>
         </is>
       </c>
       <c r="C606" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>Uma K.; Francis S.; Sun W.; Moens M.-F.</t>
+          <t>Ellis C.A.; Miller R.L.; Calhoun V.D.</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>Lecture Notes in Networks and Systems</t>
+          <t>Informatics in Medicine Unlocked</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>The International Statistical Classification of Diseases and Related Health Problems (ICD) is a global standard, a diagnostic tool that is frequently used for endemic research, health management, and clinical diagnosis, and it plays a crucial role in providing shrewd medical treatment. Comparable statistics on the causes of mortality and morbidity across locations and throughout time have been based on the ICD. The traditional procedure of assigning codes is expensive, error-prone and time-consuming, and automated mapping of ICD codes is now a significant area of scholarly research. With the help of statistical modeling, rule-engines, conventional machine learning, and deep learning techniques like graph embedding, attention mechanisms, adversarial learning, and pre-trained language models (PLMs), this paper aims to analyze and document inferences on the evolution of clinical coding automation. We try to summarize with comparative performance analysis various approaches addressed towards codification of free-text clinical narratives on the publicly available Medical Information Mart. This study investigates whether clinicians and researchers could benefit from an adequate interpretation of model predictions from an Explainable Artificial Intelligence (XAI) perspective. Finally, the survey illustrates ICD coding and disease classification applications and its challenges, evaluation metrics, datasets, and directions towards automating explanatory medical code predictions. © The Author(s), under exclusive license to Springer Nature Switzerland AG 2024.</t>
+          <t>The field of neuroimaging has increasingly sought to develop artificial intelligence-based models for neurological and neuropsychiatric disorder automated diagnosis and clinical decision support. However, if these models are to be implemented in a clinical setting, transparency will be vital. Two aspects of transparency are (1) confidence estimation and (2) explainability. Confidence estimation approaches indicate confidence in individual predictions. Explainability methods give insight into the importance of features to model predictions. In this study, we integrate confidence estimation and explainability approaches for the first time. We demonstrate their viability for schizophrenia diagnosis using resting state functional magnetic resonance imaging (rs-fMRI) dynamic functional network connectivity (dFNC) data. We compare two confidence estimation approaches: Monte Carlo dropout (MCD) and MC batch normalization (MCBN). We combine them with two gradient-based explainability approaches, saliency and layer-wise relevance propagation (LRP), and examine their effects upon explanations. We find that MCD often adversely affects model gradients, making it ill-suited for integration with gradient-based explainability methods. In contrast, MCBN does not affect model gradients. Additionally, we find many participant-level differences between regular explanations and the distributions of explanations for combined explainability and confidence estimation approaches. This suggests that a similar confidence estimation approach used in a clinical context with explanations only output for the regular model would likely not yield adequate explanations. We hope that our findings will provide a starting point for the integration of the two fields, provide useful guidance for future studies, and accelerate the development of transparent neuroimaging clinical decision support systems. © 2023 The Authors</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>10.1007/978-3-031-47718-8_40</t>
+          <t>10.1016/j.imu.2023.101176</t>
         </is>
       </c>
       <c r="H606" t="inlineStr">
@@ -26392,34 +26492,34 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>towards greater neuroimaging classification transparency via the integration of explainability methods and confidence estimation approaches</t>
+          <t>towards personalised mood prediction and explanation for depression from biophysical data</t>
         </is>
       </c>
       <c r="C607" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Ellis C.A.; Miller R.L.; Calhoun V.D.</t>
+          <t>Chatterjee S.; Mishra J.; Sundram F.; Roop P.</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>Informatics in Medicine Unlocked</t>
+          <t>Sensors</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>The field of neuroimaging has increasingly sought to develop artificial intelligence-based models for neurological and neuropsychiatric disorder automated diagnosis and clinical decision support. However, if these models are to be implemented in a clinical setting, transparency will be vital. Two aspects of transparency are (1) confidence estimation and (2) explainability. Confidence estimation approaches indicate confidence in individual predictions. Explainability methods give insight into the importance of features to model predictions. In this study, we integrate confidence estimation and explainability approaches for the first time. We demonstrate their viability for schizophrenia diagnosis using resting state functional magnetic resonance imaging (rs-fMRI) dynamic functional network connectivity (dFNC) data. We compare two confidence estimation approaches: Monte Carlo dropout (MCD) and MC batch normalization (MCBN). We combine them with two gradient-based explainability approaches, saliency and layer-wise relevance propagation (LRP), and examine their effects upon explanations. We find that MCD often adversely affects model gradients, making it ill-suited for integration with gradient-based explainability methods. In contrast, MCBN does not affect model gradients. Additionally, we find many participant-level differences between regular explanations and the distributions of explanations for combined explainability and confidence estimation approaches. This suggests that a similar confidence estimation approach used in a clinical context with explanations only output for the regular model would likely not yield adequate explanations. We hope that our findings will provide a starting point for the integration of the two fields, provide useful guidance for future studies, and accelerate the development of transparent neuroimaging clinical decision support systems. © 2023 The Authors</t>
+          <t>Digital health applications using Artificial Intelligence (AI) are a promising opportunity to address the widening gap between available resources and mental health needs globally. Increasingly, passively acquired data from wearables are augmented with carefully selected active data from depressed individuals to develop Machine Learning (ML) models of depression based on mood scores. However, most ML models are black box in nature, and hence the outputs are not explainable. Depression is also multimodal, and the reasons for depression may vary significantly between individuals. Explainable and personalised models will thus be beneficial to clinicians to determine the main features that lead to a decline in the mood state of a depressed individual, thus enabling suitable personalised therapy. This is currently lacking. Therefore, this study presents a methodology for developing personalised and accurate Deep Learning (DL)-based predictive mood models for depression, along with novel methods for identifying the key facets that lead to the exacerbation of depressive symptoms. We illustrate our approach by using an existing multimodal dataset containing longitudinal Ecological Momentary Assessments of depression, lifestyle data from wearables and neurocognitive assessments for 14 mild to moderately depressed participants over one month. We develop classification- and regression-based DL models to predict participants’ current mood scores—a discrete score given to a participant based on the severity of their depressive symptoms. The models are trained inside eight different evolutionary-algorithm-based optimisation schemes that optimise the model parameters for a maximum predictive performance. A five-fold cross-validation scheme is used to verify the DL model’s predictive performance against 10 classical ML-based models, with a model error as low as 6% for some participants. We use the best model from the optimisation process to extract indicators, using SHAP, ALE and Anchors from explainable AI literature to explain why certain predictions are made and how they affect mood. These feature insights can assist health professionals in incorporating personalised interventions into a depressed individual’s treatment regimen. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>10.1016/j.imu.2023.101176</t>
+          <t>10.3390/s24010164</t>
         </is>
       </c>
       <c r="H607" t="inlineStr">
@@ -26435,34 +26535,34 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>towards personalised mood prediction and explanation for depression from biophysical data</t>
+          <t>towards semantic integration for explainable artificial intelligence in the biomedical domain</t>
         </is>
       </c>
       <c r="C608" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>Chatterjee S.; Mishra J.; Sundram F.; Roop P.</t>
+          <t>Pesquita C.</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>Sensors</t>
+          <t>HEALTHINF 2021 - 14th International Conference on Health Informatics; Part of the 14th International Joint Conference on Biomedical Engineering Systems and Technologies, BIOSTEC 2021</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>Digital health applications using Artificial Intelligence (AI) are a promising opportunity to address the widening gap between available resources and mental health needs globally. Increasingly, passively acquired data from wearables are augmented with carefully selected active data from depressed individuals to develop Machine Learning (ML) models of depression based on mood scores. However, most ML models are black box in nature, and hence the outputs are not explainable. Depression is also multimodal, and the reasons for depression may vary significantly between individuals. Explainable and personalised models will thus be beneficial to clinicians to determine the main features that lead to a decline in the mood state of a depressed individual, thus enabling suitable personalised therapy. This is currently lacking. Therefore, this study presents a methodology for developing personalised and accurate Deep Learning (DL)-based predictive mood models for depression, along with novel methods for identifying the key facets that lead to the exacerbation of depressive symptoms. We illustrate our approach by using an existing multimodal dataset containing longitudinal Ecological Momentary Assessments of depression, lifestyle data from wearables and neurocognitive assessments for 14 mild to moderately depressed participants over one month. We develop classification- and regression-based DL models to predict participants’ current mood scores—a discrete score given to a participant based on the severity of their depressive symptoms. The models are trained inside eight different evolutionary-algorithm-based optimisation schemes that optimise the model parameters for a maximum predictive performance. A five-fold cross-validation scheme is used to verify the DL model’s predictive performance against 10 classical ML-based models, with a model error as low as 6% for some participants. We use the best model from the optimisation process to extract indicators, using SHAP, ALE and Anchors from explainable AI literature to explain why certain predictions are made and how they affect mood. These feature insights can assist health professionals in incorporating personalised interventions into a depressed individual’s treatment regimen. © 2023 by the authors.</t>
+          <t>Explainable artificial intelligence typically focuses on data-based explanations, lacking the semantic context needed to produce human-centric explanations. This is especially relevant in healthcare and life sciences where the heterogeneity in both data sources and user expertise, and the underlying complexity of the domain and applications poses serious challenges. The Semantic Web represents an unparalleled opportunity in this area: it provides large amounts of freely available data in the form of Knowledge Graphs, which link data to ontologies, and can thus act as background knowledge for building explanations closer to human conceptualizations. In particular, knowledge graphs support the computation of semantic similarity between objects, providing an understanding of why certain objects are considered similar or different. This is a basic aspect of explainability and is at the core of many machine learning applications. However, when data covers multiple domains, it may be necessary to integrate different ontologies to cover the full semantic landscape of the underlying data. We propose a methodology for semantic explanations in the biomedical domain that is based on the semantic annotation and integration of heterogenous data into a common semantic landscape that supports semantic similarity assessments. This methodology builds upon state of the art semantic web technologies and produces post-hoc explanations that are independent of the machine learning method employed. Copyright © 2021 by SCITEPRESS – Science and Technology Publications, Lda. All rights reserved</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>10.3390/s24010164</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H608" t="inlineStr">
@@ -26472,38 +26572,42 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>towards semantic integration for explainable artificial intelligence in the biomedical domain</t>
+          <t>towards third generation ai: explainable and interpretable ai; [ufuncu nesil yapay zekaya dogru: afiklanabilir ve yorumlanabilir yapay zeka]</t>
         </is>
       </c>
       <c r="C609" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Pesquita C.</t>
+          <t>Sengoz N.; Yigit T.</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>HEALTHINF 2021 - 14th International Conference on Health Informatics; Part of the 14th International Joint Conference on Biomedical Engineering Systems and Technologies, BIOSTEC 2021</t>
+          <t>Proceedings - 7th International Conference on Computer Science and Engineering, UBMK 2022</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>Explainable artificial intelligence typically focuses on data-based explanations, lacking the semantic context needed to produce human-centric explanations. This is especially relevant in healthcare and life sciences where the heterogeneity in both data sources and user expertise, and the underlying complexity of the domain and applications poses serious challenges. The Semantic Web represents an unparalleled opportunity in this area: it provides large amounts of freely available data in the form of Knowledge Graphs, which link data to ontologies, and can thus act as background knowledge for building explanations closer to human conceptualizations. In particular, knowledge graphs support the computation of semantic similarity between objects, providing an understanding of why certain objects are considered similar or different. This is a basic aspect of explainability and is at the core of many machine learning applications. However, when data covers multiple domains, it may be necessary to integrate different ontologies to cover the full semantic landscape of the underlying data. We propose a methodology for semantic explanations in the biomedical domain that is based on the semantic annotation and integration of heterogenous data into a common semantic landscape that supports semantic similarity assessments. This methodology builds upon state of the art semantic web technologies and produces post-hoc explanations that are independent of the machine learning method employed. Copyright © 2021 by SCITEPRESS – Science and Technology Publications, Lda. All rights reserved</t>
-        </is>
-      </c>
-      <c r="G609" t="inlineStr"/>
+          <t>Today, artificial intelligence-based systems, especially machine learning and deep neural network algorithms, make decisions that directly affect people's lives, from health to autonomous vehicles and even to the defense sector. And yet, algorithms like deep neural networks that are high in performance accuracy but low in explainability and trust bring problems in ethics and interpretability. Explainable Artificial Intelligence (XAJD) is a branch of artificial intelligence that produces highquality interpretability, end-user-oriented understanding and explainable tools, techniques and algorithms. In this study, general information about XAI is given.  © 2022 IEEE.</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>10.1109/UBMK55850.2022.9919510</t>
+        </is>
+      </c>
       <c r="H609" t="inlineStr">
         <is>
           <t>Final</t>
@@ -26511,17 +26615,17 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>towards third generation ai: explainable and interpretable ai; [ufuncu nesil yapay zekaya dogru: afiklanabilir ve yorumlanabilir yapay zeka]</t>
+          <t>towards trustworthy artificial intelligence in healthcare</t>
         </is>
       </c>
       <c r="C610" t="n">
@@ -26529,22 +26633,22 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>Sengoz N.; Yigit T.</t>
+          <t>Leung C.K.; Madill E.W.R.; Souza J.; Zhang C.Y.</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>Proceedings - 7th International Conference on Computer Science and Engineering, UBMK 2022</t>
+          <t>Proceedings - 2022 IEEE 10th International Conference on Healthcare Informatics, ICHI 2022</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>Today, artificial intelligence-based systems, especially machine learning and deep neural network algorithms, make decisions that directly affect people's lives, from health to autonomous vehicles and even to the defense sector. And yet, algorithms like deep neural networks that are high in performance accuracy but low in explainability and trust bring problems in ethics and interpretability. Explainable Artificial Intelligence (XAJD) is a branch of artificial intelligence that produces highquality interpretability, end-user-oriented understanding and explainable tools, techniques and algorithms. In this study, general information about XAI is given.  © 2022 IEEE.</t>
+          <t>Healthcare informatics is an interdisciplinary area where computer science, data science, cognitive science, informatics principles, and information technology meet to address problems and support healthcare, medicine, public health, and/or everyday wellness. In many healthcare and medical applications, it is helpful to have models that can learn from historical healthcare data or instances to make predictions on future instances. For human to trust these models or to perceive these models to be trustworthy, it is equally important to build a trustworthy artificial intelligence (AI) solution. Hence, in this paper, towards trustworthy AI in healthcare, we present an explainable AI (XAI) solution that makes accurate predictions and explains the predictions. Evaluation results on real-life datasets demonstrates the effectiveness of our XAI solution towards trustworthy AI in healthcare.  © 2022 IEEE.</t>
         </is>
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>10.1109/UBMK55850.2022.9919510</t>
+          <t>10.1109/ICHI54592.2022.00127</t>
         </is>
       </c>
       <c r="H610" t="inlineStr">
@@ -26554,103 +26658,103 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>towards trustworthy artificial intelligence in healthcare</t>
+          <t>trading-off machine learning algorithms towards data-driven administrative-socio-economic population health management</t>
         </is>
       </c>
       <c r="C611" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Leung C.K.; Madill E.W.R.; Souza J.; Zhang C.Y.</t>
+          <t>Panicacci, S; Donati, M; Profili, F; Francesconi, P; Fanucci, L</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>Proceedings - 2022 IEEE 10th International Conference on Healthcare Informatics, ICHI 2022</t>
+          <t>COMPUTERS</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>Healthcare informatics is an interdisciplinary area where computer science, data science, cognitive science, informatics principles, and information technology meet to address problems and support healthcare, medicine, public health, and/or everyday wellness. In many healthcare and medical applications, it is helpful to have models that can learn from historical healthcare data or instances to make predictions on future instances. For human to trust these models or to perceive these models to be trustworthy, it is equally important to build a trustworthy artificial intelligence (AI) solution. Hence, in this paper, towards trustworthy AI in healthcare, we present an explainable AI (XAI) solution that makes accurate predictions and explains the predictions. Evaluation results on real-life datasets demonstrates the effectiveness of our XAI solution towards trustworthy AI in healthcare.  © 2022 IEEE.</t>
+          <t>Together with population ageing, the number of people suffering from multimorbidity is increasing, up to more than half of the population by 2035. This part of the population is composed by the highest-risk patients, who are, at the same time, the major users of the healthcare systems. The early identification of this sub-population can really help to improve people's quality of life and reduce healthcare costs. In this paper, we describe a population health management tool based on state-of-the-art intelligent algorithms, starting from administrative and socio-economic data, for the early identification of high-risk patients. The study refers to the population of the Local Health Unit of Central Tuscany in 2015, which amounts to 1,670,129 residents. After a trade-off on machine learning models and on input data, Random Forest applied to 1-year of historical data achieves the best results, outperforming state-of-the-art models. The most important variables for this model, in terms of mean minimal depth, accuracy decrease and Gini decrease, result to be age and some group of drugs, such as high-ceiling diuretics. Thanks to the low inference time and reduced memory usage, the resulting model allows for real-time risk prediction updates whenever new data become available, giving General Practitioners the possibility to early adopt personalised medicine.</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>10.1109/ICHI54592.2022.00127</t>
+          <t>10.3390/computers10010004</t>
         </is>
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>trading-off machine learning algorithms towards data-driven administrative-socio-economic population health management</t>
+          <t>training recurrent neural network-based model to predict covid-19 patient risk for pasc using pytorch-ehr - hands-on tutorial on n3c</t>
         </is>
       </c>
       <c r="C612" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Panicacci, S; Donati, M; Profili, F; Francesconi, P; Fanucci, L</t>
+          <t>Rasmy L.; Xie Z.; Zhi D.</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>COMPUTERS</t>
+          <t>Proceedings - 2023 IEEE 11th International Conference on Healthcare Informatics, ICHI 2023</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>Together with population ageing, the number of people suffering from multimorbidity is increasing, up to more than half of the population by 2035. This part of the population is composed by the highest-risk patients, who are, at the same time, the major users of the healthcare systems. The early identification of this sub-population can really help to improve people's quality of life and reduce healthcare costs. In this paper, we describe a population health management tool based on state-of-the-art intelligent algorithms, starting from administrative and socio-economic data, for the early identification of high-risk patients. The study refers to the population of the Local Health Unit of Central Tuscany in 2015, which amounts to 1,670,129 residents. After a trade-off on machine learning models and on input data, Random Forest applied to 1-year of historical data achieves the best results, outperforming state-of-the-art models. The most important variables for this model, in terms of mean minimal depth, accuracy decrease and Gini decrease, result to be age and some group of drugs, such as high-ceiling diuretics. Thanks to the low inference time and reduced memory usage, the resulting model allows for real-time risk prediction updates whenever new data become available, giving General Practitioners the possibility to early adopt personalised medicine.</t>
+          <t>Pytorch-EHR is a codebase enabling fast prototyping of deep learning-based predictive models using electronic health records structured data. Rather than a collection of vertical pipelines implementing methods from papers claiming state-of the-art results, Pytorch-EHR offers efficient implementations of data flow, padding, embeddings, choices of popular recurrent neural networks (RNN) cells and layers structures, prediction heads, and also predictions explanation and visualization. This tutorial will provide participants with a clear understanding of deep learning theoretical concepts behind Pytorch-EHR different components, as well as hands-on experience in building an explainable RNN-based model to solve a real-world clinical problem on a cloud-based platform hosting the National COVID Cohort Collaborative (N3C) data. URL: https://github.com/ZhiGroup/pytorch-ehr © 2023 IEEE.</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>10.3390/computers10010004</t>
+          <t>10.1109/ICHI57859.2023.00094</t>
         </is>
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>training recurrent neural network-based model to predict covid-19 patient risk for pasc using pytorch-ehr - hands-on tutorial on n3c</t>
+          <t>transamr: an interpretable transformer model for accurate prediction of antimicrobial resistance using antibiotic administration data</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -26658,22 +26762,22 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>Rasmy L.; Xie Z.; Zhi D.</t>
+          <t>Tharmakulasingam M.; Wang W.; Kerby M.; Ragione R.L.; Fernando A.</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>Proceedings - 2023 IEEE 11th International Conference on Healthcare Informatics, ICHI 2023</t>
+          <t>IEEE Access</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>Pytorch-EHR is a codebase enabling fast prototyping of deep learning-based predictive models using electronic health records structured data. Rather than a collection of vertical pipelines implementing methods from papers claiming state-of the-art results, Pytorch-EHR offers efficient implementations of data flow, padding, embeddings, choices of popular recurrent neural networks (RNN) cells and layers structures, prediction heads, and also predictions explanation and visualization. This tutorial will provide participants with a clear understanding of deep learning theoretical concepts behind Pytorch-EHR different components, as well as hands-on experience in building an explainable RNN-based model to solve a real-world clinical problem on a cloud-based platform hosting the National COVID Cohort Collaborative (N3C) data. URL: https://github.com/ZhiGroup/pytorch-ehr © 2023 IEEE.</t>
+          <t>Antimicrobial Resistance (AMR) is a growing public and veterinary health concern, and the ability to accurately predict AMR from antibiotics administration data is crucial for effectively treating and managing infections. While genomics-based approaches can provide better results, sequencing, assembling, and applying Machine Learning (ML) methods can take several hours. Therefore, alternative approaches are required. This study focused on using ML for antimicrobial stewardship by utilising data extracted from hospital electronic health records, which can be done in real-time, and developing an interpretable 1D-Transformer model for predicting AMR. A multi-baseline Integrated Gradient pipeline was also incorporated to interpret the model, and quantitative validation metrics were introduced to validate the model. The performance of the proposed 1D-Transformer model was evaluated using a dataset of urinary tract infection (UTI) patients with four antibiotics. The proposed 1D-Transformer model achieved 10% higher area under curve (AUC) in predicting AMR and outperformed traditional ML models. The Explainable Artificial Intelligence (XAI) pipeline also provided interpretable results, identifying the signatures contributing to the predictions. This could be used as a decision support tool for personalised treatment, introducing AMR-aware food and management of AMR, and it could also be used to identify signatures for targeted interventions.  © 2013 IEEE.</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>10.1109/ICHI57859.2023.00094</t>
+          <t>10.1109/ACCESS.2023.3296221</t>
         </is>
       </c>
       <c r="H613" t="inlineStr">
@@ -26683,126 +26787,126 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>transamr: an interpretable transformer model for accurate prediction of antimicrobial resistance using antibiotic administration data</t>
+          <t>transfer learning based approach for lung and colon cancer detection using local binary pattern features and explainable artificial intelligence (ai) techniques</t>
         </is>
       </c>
       <c r="C614" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Tharmakulasingam M.; Wang W.; Kerby M.; Ragione R.L.; Fernando A.</t>
+          <t>Alsubai, S</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>IEEE Access</t>
+          <t>PEERJ COMPUTER SCIENCE</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>Antimicrobial Resistance (AMR) is a growing public and veterinary health concern, and the ability to accurately predict AMR from antibiotics administration data is crucial for effectively treating and managing infections. While genomics-based approaches can provide better results, sequencing, assembling, and applying Machine Learning (ML) methods can take several hours. Therefore, alternative approaches are required. This study focused on using ML for antimicrobial stewardship by utilising data extracted from hospital electronic health records, which can be done in real-time, and developing an interpretable 1D-Transformer model for predicting AMR. A multi-baseline Integrated Gradient pipeline was also incorporated to interpret the model, and quantitative validation metrics were introduced to validate the model. The performance of the proposed 1D-Transformer model was evaluated using a dataset of urinary tract infection (UTI) patients with four antibiotics. The proposed 1D-Transformer model achieved 10% higher area under curve (AUC) in predicting AMR and outperformed traditional ML models. The Explainable Artificial Intelligence (XAI) pipeline also provided interpretable results, identifying the signatures contributing to the predictions. This could be used as a decision support tool for personalised treatment, introducing AMR-aware food and management of AMR, and it could also be used to identify signatures for targeted interventions.  © 2013 IEEE.</t>
+          <t>Cancer, a life-threatening disorder caused by genetic abnormalities and metabolic irregularities, is a substantial health danger, with lung and colon cancer being major contributors to death. Histopathological identification is critical in directing effective treatment regimens for these cancers. The earlier these disorders are identified, the lesser the risk of death. The use of machine learning and deep learning approaches has the potential to speed up cancer diagnosis processes by allowing researchers to analyse large patient databases quickly and affordably. This study introduces the InceptionResNetV2 model with strategically incorporated local binary patterns (LBP) features to improve diagnostic accuracy for lung and colon cancer identification. The model is trained on histopathological images, and the integration of deep learning and texturebased features has demonstrated its exceptional performance with 99.98% accuracy. Importantly, the study employs explainable artificial intelligence (AI) through SHapley Additive exPlanations (SHAP) to unravel the complex inner workings of deep learning models, providing transparency in decision-making processes. This study highlights the potential to revolutionize cancer diagnosis in an era of more accurate and reliable medical assessments.</t>
         </is>
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2023.3296221</t>
+          <t>10.7717/peerj-cs.1996</t>
         </is>
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>transfer learning based approach for lung and colon cancer detection using local binary pattern features and explainable artificial intelligence (ai) techniques</t>
+          <t>transmissibility functions-based structural damage assessment with the use of explainable convolutional neural networks</t>
         </is>
       </c>
       <c r="C615" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Alsubai, S</t>
+          <t>Parziale M.; Lomazzi L.; Giglio M.; Cadini F.</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>PEERJ COMPUTER SCIENCE</t>
+          <t>Lecture Notes in Civil Engineering</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>Cancer, a life-threatening disorder caused by genetic abnormalities and metabolic irregularities, is a substantial health danger, with lung and colon cancer being major contributors to death. Histopathological identification is critical in directing effective treatment regimens for these cancers. The earlier these disorders are identified, the lesser the risk of death. The use of machine learning and deep learning approaches has the potential to speed up cancer diagnosis processes by allowing researchers to analyse large patient databases quickly and affordably. This study introduces the InceptionResNetV2 model with strategically incorporated local binary patterns (LBP) features to improve diagnostic accuracy for lung and colon cancer identification. The model is trained on histopathological images, and the integration of deep learning and texturebased features has demonstrated its exceptional performance with 99.98% accuracy. Importantly, the study employs explainable artificial intelligence (AI) through SHapley Additive exPlanations (SHAP) to unravel the complex inner workings of deep learning models, providing transparency in decision-making processes. This study highlights the potential to revolutionize cancer diagnosis in an era of more accurate and reliable medical assessments.</t>
+          <t>Damage assessment in the structural field is an important area of study and research. In this context, the use of vibration data has always created a lot of interest due to the great and cheap availability of sensors, as well as the strong relationship that the gathered signals have with the system damages. Among the different vibration-based features that have been exploited, transmissibility functions (TFs) have shown the potential to solely rely on the system outputs, making their use particularly convenient in practical engineering. However, most of the damage-related signals features are often hidden and to extract them, many pre-processing steps are typically required. With this aim, this paper proposes a new vibration-based structural diagnosis tool that exploits the capabilities of convolutional neural networks (CNNs) to directly extract subtle damage-related features from complex raw TFs spectra. The method is presented for an experimental case study of a steel structure made of beams connected by means of bolted joints. In particular, a CNN is used to accurately localize the damage in the structure, which is introduced by loosening the joint bolts. In addition, to then understand which are the most important input features exploited by the CNN in the damage characterization, an explainable artificial intelligence method, based on the layer-wise relevance propagation algorithm, is also used. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>10.7717/peerj-cs.1996</t>
+          <t>10.1007/978-3-031-39117-0_55</t>
         </is>
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>transmissibility functions-based structural damage assessment with the use of explainable convolutional neural networks</t>
+          <t>transparency and trust in human-ai-interaction: the role of model-agnostic explanations in computer vision-based decision support</t>
         </is>
       </c>
       <c r="C616" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Parziale M.; Lomazzi L.; Giglio M.; Cadini F.</t>
+          <t>Meske C.; Bunde E.</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>Lecture Notes in Civil Engineering</t>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>Damage assessment in the structural field is an important area of study and research. In this context, the use of vibration data has always created a lot of interest due to the great and cheap availability of sensors, as well as the strong relationship that the gathered signals have with the system damages. Among the different vibration-based features that have been exploited, transmissibility functions (TFs) have shown the potential to solely rely on the system outputs, making their use particularly convenient in practical engineering. However, most of the damage-related signals features are often hidden and to extract them, many pre-processing steps are typically required. With this aim, this paper proposes a new vibration-based structural diagnosis tool that exploits the capabilities of convolutional neural networks (CNNs) to directly extract subtle damage-related features from complex raw TFs spectra. The method is presented for an experimental case study of a steel structure made of beams connected by means of bolted joints. In particular, a CNN is used to accurately localize the damage in the structure, which is introduced by loosening the joint bolts. In addition, to then understand which are the most important input features exploited by the CNN in the damage characterization, an explainable artificial intelligence method, based on the layer-wise relevance propagation algorithm, is also used. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+          <t>Computer Vision, and hence Artificial Intelligence-based extraction of information from images, has increasingly received attention over the last years, for instance in medical diagnostics. While the algorithms’ complexity is a reason for their increased performance, it also leads to the ‘black box’ problem, consequently decreasing trust towards AI. In this regard, “Explainable Artificial Intelligence” (XAI) allows to open that black box and to improve the degree of AI transparency. In this paper, we first discuss the theoretical impact of explainability on trust towards AI, followed by showcasing how the usage of XAI in a health-related setting can look like. More specifically, we show how XAI can be applied to understand why Computer Vision, based on deep learning, did or did not detect a disease (malaria) on image data (thin blood smear slide images). Furthermore, we investigate, how XAI can be used to compare the detection strategy of two different deep learning models often used for Computer Vision: Convolutional Neural Network and Multi-Layer Perceptron. Our empirical results show that i) the AI sometimes used questionable or irrelevant data features of an image to detect malaria (even if correctly predicted), and ii) that there may be significant discrepancies in how different deep learning models explain the same prediction. Our theoretical discussion highlights that XAI can support trust in Computer Vision systems, and AI systems in general, especially through an increased understandability and predictability. © Springer Nature Switzerland AG 2020.</t>
         </is>
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>10.1007/978-3-031-39117-0_55</t>
+          <t>10.1007/978-3-030-50334-5_4</t>
         </is>
       </c>
       <c r="H616" t="inlineStr">
@@ -26818,34 +26922,34 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>transparency and trust in human-ai-interaction: the role of model-agnostic explanations in computer vision-based decision support</t>
+          <t>transparency in medical arti¯cial intelligence systems</t>
         </is>
       </c>
       <c r="C617" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Meske C.; Bunde E.</t>
+          <t>Quakulinski L.; Koumpis A.; Beyan O.D.</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+          <t>International Journal of Semantic Computing</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>Computer Vision, and hence Artificial Intelligence-based extraction of information from images, has increasingly received attention over the last years, for instance in medical diagnostics. While the algorithms’ complexity is a reason for their increased performance, it also leads to the ‘black box’ problem, consequently decreasing trust towards AI. In this regard, “Explainable Artificial Intelligence” (XAI) allows to open that black box and to improve the degree of AI transparency. In this paper, we first discuss the theoretical impact of explainability on trust towards AI, followed by showcasing how the usage of XAI in a health-related setting can look like. More specifically, we show how XAI can be applied to understand why Computer Vision, based on deep learning, did or did not detect a disease (malaria) on image data (thin blood smear slide images). Furthermore, we investigate, how XAI can be used to compare the detection strategy of two different deep learning models often used for Computer Vision: Convolutional Neural Network and Multi-Layer Perceptron. Our empirical results show that i) the AI sometimes used questionable or irrelevant data features of an image to detect malaria (even if correctly predicted), and ii) that there may be significant discrepancies in how different deep learning models explain the same prediction. Our theoretical discussion highlights that XAI can support trust in Computer Vision systems, and AI systems in general, especially through an increased understandability and predictability. © Springer Nature Switzerland AG 2020.</t>
+          <t>Many of the artificial intelligence (AI) systems used nowadays have a very high level of accuracy but fail to explain their decisions. This is critical, especially in sensitive areas such as medicine and the health area at large but also for applications of the law, finance etc., where explanations for certain decisions are needed and are often useful and valuable as the decision itself. This paper presents a review of four different methods for creating transparency in AI systems. It also suggests a list of criteria under which circumstances one should use which methods. © World Scientific Publishing Company.</t>
         </is>
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-50334-5_4</t>
+          <t>10.1142/S1793351X23630011</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">
@@ -26861,34 +26965,34 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>transparency in medical arti¯cial intelligence systems</t>
+          <t>trustworthy explanations for knowledge discovered from e-health records</t>
         </is>
       </c>
       <c r="C618" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Quakulinski L.; Koumpis A.; Beyan O.D.</t>
+          <t>Dhaliwal B.S.; Imran R.; Leung C.K.; R. Madill E.W.</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>International Journal of Semantic Computing</t>
+          <t>2022 IEEE International Conference on E-Health Networking, Application and Services, HealthCom 2022</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>Many of the artificial intelligence (AI) systems used nowadays have a very high level of accuracy but fail to explain their decisions. This is critical, especially in sensitive areas such as medicine and the health area at large but also for applications of the law, finance etc., where explanations for certain decisions are needed and are often useful and valuable as the decision itself. This paper presents a review of four different methods for creating transparency in AI systems. It also suggests a list of criteria under which circumstances one should use which methods. © World Scientific Publishing Company.</t>
+          <t>In the current era of big data, very large amounts of data are generating at a rapid rate from a wide variety of rich data sources. Electronic health (e-health) records are examples of the big data. With the technological advancements, more healthcare practice has gradually been supported by electronic processes and communication. This enables health informatics, in which computer science meets the healthcare sector to address healthcare and medical problems. Embedded in the big data are valuable information and knowledge that can be discovered by data science, data mining and machine learning techniques. Many of these techniques apply "opaque box"approaches to make accurate predictions. However, these techniques may not be crystal clear to the users. As the users not necessarily be able to clearly view the entire knowledge discovery (e.g., prediction) process, they may not easily trust the discovered knowledge (e.g., predictions). Hence, in this paper, we present a system for providing trustworthy explanations for knowledge discovered from e-health records. Specifically, our system provides users with global explanations for the important features among the records. It also provides users with local explanations for a particular record. Evaluation results on real-life e-health records show the practicality of our system in providing trustworthy explanations to knowledge discovered (e.g., accurate predictions made).  © 2022 IEEE.</t>
         </is>
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>10.1142/S1793351X23630011</t>
+          <t>10.1109/HealthCom54947.2022.9982786</t>
         </is>
       </c>
       <c r="H618" t="inlineStr">
@@ -26904,11 +27008,11 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>trustworthy explanations for knowledge discovered from e-health records</t>
+          <t>two-stage deep learning for online prediction of knee-point in li-ion battery capacity degradation</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -26916,42 +27020,42 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Dhaliwal B.S.; Imran R.; Leung C.K.; R. Madill E.W.</t>
+          <t>Sohn, S; Byun, HE; Lee, JH</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>2022 IEEE International Conference on E-Health Networking, Application and Services, HealthCom 2022</t>
+          <t>APPLIED ENERGY</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>In the current era of big data, very large amounts of data are generating at a rapid rate from a wide variety of rich data sources. Electronic health (e-health) records are examples of the big data. With the technological advancements, more healthcare practice has gradually been supported by electronic processes and communication. This enables health informatics, in which computer science meets the healthcare sector to address healthcare and medical problems. Embedded in the big data are valuable information and knowledge that can be discovered by data science, data mining and machine learning techniques. Many of these techniques apply "opaque box"approaches to make accurate predictions. However, these techniques may not be crystal clear to the users. As the users not necessarily be able to clearly view the entire knowledge discovery (e.g., prediction) process, they may not easily trust the discovered knowledge (e.g., predictions). Hence, in this paper, we present a system for providing trustworthy explanations for knowledge discovered from e-health records. Specifically, our system provides users with global explanations for the important features among the records. It also provides users with local explanations for a particular record. Evaluation results on real-life e-health records show the practicality of our system in providing trustworthy explanations to knowledge discovered (e.g., accurate predictions made).  © 2022 IEEE.</t>
+          <t>Accurate monitoring of capacity degradation of a lithium-ion battery is important as it enables the user to manage the battery usage for optimal performance/lifetime and to take preemptive measures against any potential explosion or fire. Battery capacity fades gradually through repetitive charging and discharging until it reaches the so called 'knee-point', after which it goes through rapid and irreversible deterioration to reach its end-of-life. It is crucial to forecast the knee-point early and accurately for safety and economic use of the battery. Machine learning based methods have been used to predict the knee-point with early cycles cell data. Despite some notable progress made, the existing methods make the unrealistic assumption of constant cycle-to-cycle charge/discharge operation. In this study, a novel two-stage deep learning method is proposed for online knee-point prediction under variable battery usage. A CNN-based model extracts temporal features across past and current cycles to sort out those that should be monitored closely for near-term failures, and then predict the number of cycles left to reach the knee-point for them. The proposed method extracts features from time-series data and thus reflects dynamic changes in battery properties, resulting in improved prediction performance under realistic scenarios.</t>
         </is>
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>10.1109/HealthCom54947.2022.9982786</t>
+          <t>10.1016/j.apenergy.2022.120204</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>two-stage deep learning for online prediction of knee-point in li-ion battery capacity degradation</t>
+          <t>type-ii fuzzy approach with explainable artificial intelligence for nature-based leisure travel destination selection amid the covid-19 pandemic</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -26959,42 +27063,42 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>Sohn, S; Byun, HE; Lee, JH</t>
+          <t>Lin Y.-C.; Chen T.-C.T.</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>APPLIED ENERGY</t>
+          <t>Digital Health</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>Accurate monitoring of capacity degradation of a lithium-ion battery is important as it enables the user to manage the battery usage for optimal performance/lifetime and to take preemptive measures against any potential explosion or fire. Battery capacity fades gradually through repetitive charging and discharging until it reaches the so called 'knee-point', after which it goes through rapid and irreversible deterioration to reach its end-of-life. It is crucial to forecast the knee-point early and accurately for safety and economic use of the battery. Machine learning based methods have been used to predict the knee-point with early cycles cell data. Despite some notable progress made, the existing methods make the unrealistic assumption of constant cycle-to-cycle charge/discharge operation. In this study, a novel two-stage deep learning method is proposed for online knee-point prediction under variable battery usage. A CNN-based model extracts temporal features across past and current cycles to sort out those that should be monitored closely for near-term failures, and then predict the number of cycles left to reach the knee-point for them. The proposed method extracts features from time-series data and thus reflects dynamic changes in battery properties, resulting in improved prediction performance under realistic scenarios.</t>
+          <t>During the coronavirus disease 2019 (COVID-19) pandemic, it is difficult for travelers to choose suitable nature-based leisure travel destinations because many factors are related to health risks and are highly uncertain. This research proposes a type-II fuzzy approach with explainable artificial intelligence to overcome this difficulty. First, an innovative type-II alpha-cut operations fuzzy collaborative intelligence method was used to derive the fuzzy priorities of factors critical for nature-based leisure travel destination selection. Subsequently, a type-II fuzzy Vise Kriterijumska Optimizacija I Kompromisno Resenje method, which is also novel, was employed to evaluate and compare the overall performance of nature-based leisure travel destinations. Furthermore, several measures were taken to enhance the explainability of the selection process and result. The effectiveness of the proposed type-II fuzzy approach was evaluated in a regional experiment conducted in Taichung City, Taiwan, during the COVID-19 pandemic. © The Author(s) 2022.</t>
         </is>
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>10.1016/j.apenergy.2022.120204</t>
+          <t>10.1177/20552076221106322</t>
         </is>
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>type-ii fuzzy approach with explainable artificial intelligence for nature-based leisure travel destination selection amid the covid-19 pandemic</t>
+          <t>unbox the black-box for the medical explainable ai via multi-modal and multi-centre data fusion: a mini-review, two showcases and beyond</t>
         </is>
       </c>
       <c r="C621" t="n">
@@ -27002,22 +27106,22 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Lin Y.-C.; Chen T.-C.T.</t>
+          <t>Yang G.; Ye Q.; Xia J.</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>Digital Health</t>
+          <t>Information Fusion</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>During the coronavirus disease 2019 (COVID-19) pandemic, it is difficult for travelers to choose suitable nature-based leisure travel destinations because many factors are related to health risks and are highly uncertain. This research proposes a type-II fuzzy approach with explainable artificial intelligence to overcome this difficulty. First, an innovative type-II alpha-cut operations fuzzy collaborative intelligence method was used to derive the fuzzy priorities of factors critical for nature-based leisure travel destination selection. Subsequently, a type-II fuzzy Vise Kriterijumska Optimizacija I Kompromisno Resenje method, which is also novel, was employed to evaluate and compare the overall performance of nature-based leisure travel destinations. Furthermore, several measures were taken to enhance the explainability of the selection process and result. The effectiveness of the proposed type-II fuzzy approach was evaluated in a regional experiment conducted in Taichung City, Taiwan, during the COVID-19 pandemic. © The Author(s) 2022.</t>
+          <t>Explainable Artificial Intelligence (XAI) is an emerging research topic of machine learning aimed at unboxing how AI systems’ black-box choices are made. This research field inspects the measures and models involved in decision-making and seeks solutions to explain them explicitly. Many of the machine learning algorithms cannot manifest how and why a decision has been cast. This is particularly true of the most popular deep neural network approaches currently in use. Consequently, our confidence in AI systems can be hindered by the lack of explainability in these black-box models. The XAI becomes more and more crucial for deep learning powered applications, especially for medical and healthcare studies, although in general these deep neural networks can return an arresting dividend in performance. The insufficient explainability and transparency in most existing AI systems can be one of the major reasons that successful implementation and integration of AI tools into routine clinical practice are uncommon. In this study, we first surveyed the current progress of XAI and in particular its advances in healthcare applications. We then introduced our solutions for XAI leveraging multi-modal and multi-centre data fusion, and subsequently validated in two showcases following real clinical scenarios. Comprehensive quantitative and qualitative analyses can prove the efficacy of our proposed XAI solutions, from which we can envisage successful applications in a broader range of clinical questions. © 2021 The Authors</t>
         </is>
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>10.1177/20552076221106322</t>
+          <t>10.1016/j.inffus.2021.07.016</t>
         </is>
       </c>
       <c r="H621" t="inlineStr">
@@ -27027,40 +27131,40 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>unbox the black-box for the medical explainable ai via multi-modal and multi-centre data fusion: a mini-review, two showcases and beyond</t>
+          <t>unboxing industry-standard ai models for male fertility prediction with shap</t>
         </is>
       </c>
       <c r="C622" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Yang G.; Ye Q.; Xia J.</t>
+          <t>GhoshRoy D.; Alvi P.A.; Santosh K.C.</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>Information Fusion</t>
+          <t>Healthcare (Switzerland)</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>Explainable Artificial Intelligence (XAI) is an emerging research topic of machine learning aimed at unboxing how AI systems’ black-box choices are made. This research field inspects the measures and models involved in decision-making and seeks solutions to explain them explicitly. Many of the machine learning algorithms cannot manifest how and why a decision has been cast. This is particularly true of the most popular deep neural network approaches currently in use. Consequently, our confidence in AI systems can be hindered by the lack of explainability in these black-box models. The XAI becomes more and more crucial for deep learning powered applications, especially for medical and healthcare studies, although in general these deep neural networks can return an arresting dividend in performance. The insufficient explainability and transparency in most existing AI systems can be one of the major reasons that successful implementation and integration of AI tools into routine clinical practice are uncommon. In this study, we first surveyed the current progress of XAI and in particular its advances in healthcare applications. We then introduced our solutions for XAI leveraging multi-modal and multi-centre data fusion, and subsequently validated in two showcases following real clinical scenarios. Comprehensive quantitative and qualitative analyses can prove the efficacy of our proposed XAI solutions, from which we can envisage successful applications in a broader range of clinical questions. © 2021 The Authors</t>
+          <t>Infertility is a social stigma for individuals, and male factors cause approximately 30% of infertility. Despite this, male infertility is underrecognized and underrepresented as a disease. According to the World Health Organization (WHO), changes in lifestyle and environmental factors are the prime reasons for the declining rate of male fertility. Artificial intelligence (AI)/machine learning (ML) models have become an effective solution for early fertility detection. Seven industry-standard ML models are used: support vector machine, random forest (RF), decision tree, logistic regression, naïve bayes, adaboost, and multi-layer perception to detect male fertility. Shapley additive explanations (SHAP) are vital tools that examine the feature’s impact on each model’s decision making. On these, we perform a comprehensive comparative study to identify good and poor classification models. While dealing with the all-above-mentioned models, the RF model achieves an optimal accuracy and area under curve (AUC) of 90.47% and 99.98%, respectively, by considering five-fold cross-validation (CV) with the balanced dataset. Furthermore, we provide the SHAP explanations of existing models that attain good and poor performance. The findings of this study show that decision making (based on ML models) with SHAP provides thorough explanations for detecting male fertility, as well as a reference for clinicians for further treatment planning. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>10.1016/j.inffus.2021.07.016</t>
+          <t>10.3390/healthcare11070929</t>
         </is>
       </c>
       <c r="H622" t="inlineStr">
@@ -27070,40 +27174,40 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>unboxing industry-standard ai models for male fertility prediction with shap</t>
+          <t>uncertainty-aware multi-criteria decision analysis for evaluation of explainable artificial intelligence methods: a use case from the healthcare domain</t>
         </is>
       </c>
       <c r="C623" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>GhoshRoy D.; Alvi P.A.; Santosh K.C.</t>
+          <t>Aliyeva K.; Mehdiyev N.</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>Healthcare (Switzerland)</t>
+          <t>Information Sciences</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>Infertility is a social stigma for individuals, and male factors cause approximately 30% of infertility. Despite this, male infertility is underrecognized and underrepresented as a disease. According to the World Health Organization (WHO), changes in lifestyle and environmental factors are the prime reasons for the declining rate of male fertility. Artificial intelligence (AI)/machine learning (ML) models have become an effective solution for early fertility detection. Seven industry-standard ML models are used: support vector machine, random forest (RF), decision tree, logistic regression, naïve bayes, adaboost, and multi-layer perception to detect male fertility. Shapley additive explanations (SHAP) are vital tools that examine the feature’s impact on each model’s decision making. On these, we perform a comprehensive comparative study to identify good and poor classification models. While dealing with the all-above-mentioned models, the RF model achieves an optimal accuracy and area under curve (AUC) of 90.47% and 99.98%, respectively, by considering five-fold cross-validation (CV) with the balanced dataset. Furthermore, we provide the SHAP explanations of existing models that attain good and poor performance. The findings of this study show that decision making (based on ML models) with SHAP provides thorough explanations for detecting male fertility, as well as a reference for clinicians for further treatment planning. © 2023 by the authors.</t>
+          <t>This study introduces a Z-numbers-based Weighted Sum Model (WSM) tailored to evaluate user satisfaction with explanations provided by Explainable Artificial Intelligence (XAI) methods in the healthcare domain. Focusing on the interpretability of XAI, we measure how users perceive the adequacy of explanations through the lens of SHapley Additive exPlanations (SHAP), Individual Conditional Expectation (ICE) plots, and Counterfactual Explanations (CFE). By conducting interviews with healthcare professionals, we integrate their qualitative feedback with quantitative analysis to assess the effectiveness of these methods. The results present a user-centric perspective on the clarity, relevance, and trustworthiness of the generated post-hoc explanations. This study advances the fields of information sciences and healthcare by offering a systematic approach for evaluating XAI, enhancing the transparency and reliability of AI in critical decision-making processes. © 2023 Elsevier Inc.</t>
         </is>
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>10.3390/healthcare11070929</t>
+          <t>10.1016/j.ins.2023.119987</t>
         </is>
       </c>
       <c r="H623" t="inlineStr">
@@ -27113,40 +27217,40 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>uncertainty-aware multi-criteria decision analysis for evaluation of explainable artificial intelligence methods: a use case from the healthcare domain</t>
+          <t>understanding the effect of counterfactual explanations on trust and reliance on ai for human-ai collaborative clinical decision making</t>
         </is>
       </c>
       <c r="C624" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>Aliyeva K.; Mehdiyev N.</t>
+          <t>Lee M.H.; Chew C.J.</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>Information Sciences</t>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>This study introduces a Z-numbers-based Weighted Sum Model (WSM) tailored to evaluate user satisfaction with explanations provided by Explainable Artificial Intelligence (XAI) methods in the healthcare domain. Focusing on the interpretability of XAI, we measure how users perceive the adequacy of explanations through the lens of SHapley Additive exPlanations (SHAP), Individual Conditional Expectation (ICE) plots, and Counterfactual Explanations (CFE). By conducting interviews with healthcare professionals, we integrate their qualitative feedback with quantitative analysis to assess the effectiveness of these methods. The results present a user-centric perspective on the clarity, relevance, and trustworthiness of the generated post-hoc explanations. This study advances the fields of information sciences and healthcare by offering a systematic approach for evaluating XAI, enhancing the transparency and reliability of AI in critical decision-making processes. © 2023 Elsevier Inc.</t>
+          <t>Artificial intelligence (AI) is increasingly being considered to assist human decision-making in high-stake domains (e.g. health). However, researchers have discussed an issue that humans can over-rely on wrong suggestions of the AI model instead of achieving human AI complementary performance. In this work, we utilized salient feature explanations along with what-if, counterfactual explanations to make humans review AI suggestions more analytically to reduce overreliance on AI and explored the effect of these explanations on trust and reliance on AI during clinical decision-making. We conducted an experiment with seven therapists and ten laypersons on the task of assessing post-stroke survivors' quality of motion, and analyzed their performance, agreement level on the task, and reliance on AI without and with two types of AI explanations. Our results showed that the AI model with both salient features and counterfactual explanations assisted therapists and laypersons to improve their performance and agreement level on the task when 'right' AI outputs are presented. While both therapists and laypersons over-relied on 'wrong' AI outputs, counterfactual explanations assisted both therapists and laypersons to reduce their over-reliance on 'wrong' AI outputs by 21% compared to salient feature explanations. Specifically, laypersons had higher performance degrades by 18.0 f1-score with salient feature explanations and 14.0 f1-score with counterfactual explanations than therapists with performance degrades of 8.6 and 2.8 f1-scores respectively. Our work discusses the potential of counterfactual explanations to better estimate the accuracy of an AI model and reduce over-reliance on 'wrong' AI outputs and implications for improving human-AI collaborative decision-making. © 2023 Owner/Author.</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>10.1016/j.ins.2023.119987</t>
+          <t>10.1145/3610218</t>
         </is>
       </c>
       <c r="H624" t="inlineStr">
@@ -27162,34 +27266,34 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>understanding the effect of counterfactual explanations on trust and reliance on ai for human-ai collaborative clinical decision making</t>
+          <t>understanding the impact of explanations on advice-taking: a user study for ai-based clinical decision support systems</t>
         </is>
       </c>
       <c r="C625" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>Lee M.H.; Chew C.J.</t>
+          <t>Panigutti C.; Beretta A.; Giannotti F.; Pedreschi D.</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+          <t>Conference on Human Factors in Computing Systems - Proceedings</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>Artificial intelligence (AI) is increasingly being considered to assist human decision-making in high-stake domains (e.g. health). However, researchers have discussed an issue that humans can over-rely on wrong suggestions of the AI model instead of achieving human AI complementary performance. In this work, we utilized salient feature explanations along with what-if, counterfactual explanations to make humans review AI suggestions more analytically to reduce overreliance on AI and explored the effect of these explanations on trust and reliance on AI during clinical decision-making. We conducted an experiment with seven therapists and ten laypersons on the task of assessing post-stroke survivors' quality of motion, and analyzed their performance, agreement level on the task, and reliance on AI without and with two types of AI explanations. Our results showed that the AI model with both salient features and counterfactual explanations assisted therapists and laypersons to improve their performance and agreement level on the task when 'right' AI outputs are presented. While both therapists and laypersons over-relied on 'wrong' AI outputs, counterfactual explanations assisted both therapists and laypersons to reduce their over-reliance on 'wrong' AI outputs by 21% compared to salient feature explanations. Specifically, laypersons had higher performance degrades by 18.0 f1-score with salient feature explanations and 14.0 f1-score with counterfactual explanations than therapists with performance degrades of 8.6 and 2.8 f1-scores respectively. Our work discusses the potential of counterfactual explanations to better estimate the accuracy of an AI model and reduce over-reliance on 'wrong' AI outputs and implications for improving human-AI collaborative decision-making. © 2023 Owner/Author.</t>
+          <t>The field of eXplainable Artificial Intelligence (XAI) focuses on providing explanations for AI systems' decisions. XAI applications to AI-based Clinical Decision Support Systems (DSS) should increase trust in the DSS by allowing clinicians to investigate the reasons behind its suggestions. In this paper, we present the results of a user study on the impact of advice from a clinical DSS on healthcare providers' judgment in two different cases: the case where the clinical DSS explains its suggestion and the case it does not. We examined the weight of advice, the behavioral intention to use the system, and the perceptions with quantitative and qualitative measures. Our results indicate a more significant impact of advice when an explanation for the DSS decision is provided. Additionally, through the open-ended questions, we provide some insights on how to improve the explanations in the diagnosis forecasts for healthcare assistants, nurses, and doctors. © 2022 Owner/Author.</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>10.1145/3610218</t>
+          <t>10.1145/3491102.3502104</t>
         </is>
       </c>
       <c r="H625" t="inlineStr">
@@ -27205,34 +27309,34 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>understanding the impact of explanations on advice-taking: a user study for ai-based clinical decision support systems</t>
+          <t>understanding the impact of sisu on workforce and well-being: a machine learning-based analysis</t>
         </is>
       </c>
       <c r="C626" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>Panigutti C.; Beretta A.; Giannotti F.; Pedreschi D.</t>
+          <t>Khan U.A.; Kauttonen J.; Henttonen P.; Määttänen I.</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>Conference on Human Factors in Computing Systems - Proceedings</t>
+          <t>Heliyon</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>The field of eXplainable Artificial Intelligence (XAI) focuses on providing explanations for AI systems' decisions. XAI applications to AI-based Clinical Decision Support Systems (DSS) should increase trust in the DSS by allowing clinicians to investigate the reasons behind its suggestions. In this paper, we present the results of a user study on the impact of advice from a clinical DSS on healthcare providers' judgment in two different cases: the case where the clinical DSS explains its suggestion and the case it does not. We examined the weight of advice, the behavioral intention to use the system, and the perceptions with quantitative and qualitative measures. Our results indicate a more significant impact of advice when an explanation for the DSS decision is provided. Additionally, through the open-ended questions, we provide some insights on how to improve the explanations in the diagnosis forecasts for healthcare assistants, nurses, and doctors. © 2022 Owner/Author.</t>
+          <t>This study investigates the construct of sisu, a Finnish attribute representing mental resilience and fortitude when confronted with difficult situations. By leveraging advanced analytical methods and explainable Artificial Intelligence, we gain insights into how sisu factors influence well-being, work efficiency, and overall health. We investigate how the beneficial aspects of sisu contribute significantly to mental and physical health, satisfaction, and professional accomplishments. Conversely, we analyze the harmful sisu and its adverse impacts on the same domains. Our findings, including intriguing trends related to age, educational level, emotional states, and gender, pave the way for developing tailored solutions and initiatives to nurture the beneficial aspects of sisu and curtail the damaging consequences of sisu within professional settings and personal welfare. © 2024 The Authors</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>10.1145/3491102.3502104</t>
+          <t>10.1016/j.heliyon.2024.e24148</t>
         </is>
       </c>
       <c r="H626" t="inlineStr">
@@ -27242,17 +27346,17 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>understanding the impact of sisu on workforce and well-being: a machine learning-based analysis</t>
+          <t>unraveling the microbiome-metabolome nexus: a comprehensive study protocol for personalized management of behçet's disease using explainable artificial intelligence</t>
         </is>
       </c>
       <c r="C627" t="n">
@@ -27260,42 +27364,42 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>Khan U.A.; Kauttonen J.; Henttonen P.; Määttänen I.</t>
+          <t>Tangaro, S; Lopalco, G; Sabella, D; Venerito, V; Novielli, P; Romano, D; Di Gilio, A; Palmisani, J; de Gennaro, G; Filannino, P; Latronico, R; Bellotti, R; De Angelis, M; Iannone, F</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>Heliyon</t>
+          <t>FRONTIERS IN MICROBIOLOGY</t>
         </is>
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>This study investigates the construct of sisu, a Finnish attribute representing mental resilience and fortitude when confronted with difficult situations. By leveraging advanced analytical methods and explainable Artificial Intelligence, we gain insights into how sisu factors influence well-being, work efficiency, and overall health. We investigate how the beneficial aspects of sisu contribute significantly to mental and physical health, satisfaction, and professional accomplishments. Conversely, we analyze the harmful sisu and its adverse impacts on the same domains. Our findings, including intriguing trends related to age, educational level, emotional states, and gender, pave the way for developing tailored solutions and initiatives to nurture the beneficial aspects of sisu and curtail the damaging consequences of sisu within professional settings and personal welfare. © 2024 The Authors</t>
+          <t>The presented study protocol outlines a comprehensive investigation into the interplay among the human microbiota, volatilome, and disease biomarkers, with a specific focus on Beh &amp; ccedil;et's disease (BD) using methods based on explainable artificial intelligence. The protocol is structured in three phases. During the initial three-month clinical study, participants will be divided into control and experimental groups. The experimental groups will receive a soluble fiber-based dietary supplement alongside standard therapy. Data collection will encompass oral and fecal microbiota, breath samples, clinical characteristics, laboratory parameters, and dietary habits. The subsequent biological data analysis will involve gas chromatography, mass spectrometry, and metagenetic analysis to examine the volatilome and microbiota composition of salivary and fecal samples. Additionally, chemical characterization of breath samples will be performed. The third phase introduces Explainable Artificial Intelligence (XAI) for the analysis of the collected data. This novel approach aims to evaluate eubiosis and dysbiosis conditions, identify markers associated with BD, dietary habits, and the supplement. Primary objectives include establishing correlations between microbiota, volatilome, phenotypic BD characteristics, and identifying patient groups with shared features. The study aims to identify taxonomic units and metabolic markers predicting clinical outcomes, assess the supplement's impact, and investigate the relationship between dietary habits and patient outcomes. This protocol contributes to understanding the microbiome's role in health and disease and pioneers an XAI-driven approach for personalized BD management. With 70 recruited BD patients, XAI algorithms will analyze multi-modal clinical data, potentially revolutionizing BD management and paving the way for improved patient outcomes.</t>
         </is>
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>10.1016/j.heliyon.2024.e24148</t>
+          <t>10.3389/fmicb.2024.1341152</t>
         </is>
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>unraveling the microbiome-metabolome nexus: a comprehensive study protocol for personalized management of behçet's disease using explainable artificial intelligence</t>
+          <t>unraveling the microbiome-metabolome nexus: a comprehensive study protocol for personalized management of behçet’s disease using explainable artificial intelligence</t>
         </is>
       </c>
       <c r="C628" t="n">
@@ -27303,17 +27407,17 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>Tangaro, S; Lopalco, G; Sabella, D; Venerito, V; Novielli, P; Romano, D; Di Gilio, A; Palmisani, J; de Gennaro, G; Filannino, P; Latronico, R; Bellotti, R; De Angelis, M; Iannone, F</t>
+          <t>Tangaro S.; Lopalco G.; Sabella D.; Venerito V.; Novielli P.; Romano D.; Di Gilio A.; Palmisani J.; de Gennaro G.; Filannino P.; Latronico R.; Bellotti R.; De Angelis M.; Iannone F.</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>FRONTIERS IN MICROBIOLOGY</t>
+          <t>Frontiers in Microbiology</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>The presented study protocol outlines a comprehensive investigation into the interplay among the human microbiota, volatilome, and disease biomarkers, with a specific focus on Beh &amp; ccedil;et's disease (BD) using methods based on explainable artificial intelligence. The protocol is structured in three phases. During the initial three-month clinical study, participants will be divided into control and experimental groups. The experimental groups will receive a soluble fiber-based dietary supplement alongside standard therapy. Data collection will encompass oral and fecal microbiota, breath samples, clinical characteristics, laboratory parameters, and dietary habits. The subsequent biological data analysis will involve gas chromatography, mass spectrometry, and metagenetic analysis to examine the volatilome and microbiota composition of salivary and fecal samples. Additionally, chemical characterization of breath samples will be performed. The third phase introduces Explainable Artificial Intelligence (XAI) for the analysis of the collected data. This novel approach aims to evaluate eubiosis and dysbiosis conditions, identify markers associated with BD, dietary habits, and the supplement. Primary objectives include establishing correlations between microbiota, volatilome, phenotypic BD characteristics, and identifying patient groups with shared features. The study aims to identify taxonomic units and metabolic markers predicting clinical outcomes, assess the supplement's impact, and investigate the relationship between dietary habits and patient outcomes. This protocol contributes to understanding the microbiome's role in health and disease and pioneers an XAI-driven approach for personalized BD management. With 70 recruited BD patients, XAI algorithms will analyze multi-modal clinical data, potentially revolutionizing BD management and paving the way for improved patient outcomes.</t>
+          <t>The presented study protocol outlines a comprehensive investigation into the interplay among the human microbiota, volatilome, and disease biomarkers, with a specific focus on Behçet’s disease (BD) using methods based on explainable artificial intelligence. The protocol is structured in three phases. During the initial three-month clinical study, participants will be divided into control and experimental groups. The experimental groups will receive a soluble fiber-based dietary supplement alongside standard therapy. Data collection will encompass oral and fecal microbiota, breath samples, clinical characteristics, laboratory parameters, and dietary habits. The subsequent biological data analysis will involve gas chromatography, mass spectrometry, and metagenetic analysis to examine the volatilome and microbiota composition of salivary and fecal samples. Additionally, chemical characterization of breath samples will be performed. The third phase introduces Explainable Artificial Intelligence (XAI) for the analysis of the collected data. This novel approach aims to evaluate eubiosis and dysbiosis conditions, identify markers associated with BD, dietary habits, and the supplement. Primary objectives include establishing correlations between microbiota, volatilome, phenotypic BD characteristics, and identifying patient groups with shared features. The study aims to identify taxonomic units and metabolic markers predicting clinical outcomes, assess the supplement’s impact, and investigate the relationship between dietary habits and patient outcomes. This protocol contributes to understanding the microbiome’s role in health and disease and pioneers an XAI-driven approach for personalized BD management. With 70 recruited BD patients, XAI algorithms will analyze multi-modal clinical data, potentially revolutionizing BD management and paving the way for improved patient outcomes. Copyright © 2024 Tangaro, Lopalco, Sabella, Venerito, Novielli, Romano, Di Gilio, Palmisani, de Gennaro, Filannino, Latronico, Bellotti, De Angelis and Iannone.</t>
         </is>
       </c>
       <c r="G628" t="inlineStr">
@@ -27323,45 +27427,45 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>unraveling the microbiome-metabolome nexus: a comprehensive study protocol for personalized management of behçet’s disease using explainable artificial intelligence</t>
+          <t>untangling explainable ai in applicative domains: taxonomy, tools, and open challenges</t>
         </is>
       </c>
       <c r="C629" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Tangaro S.; Lopalco G.; Sabella D.; Venerito V.; Novielli P.; Romano D.; Di Gilio A.; Palmisani J.; de Gennaro G.; Filannino P.; Latronico R.; Bellotti R.; De Angelis M.; Iannone F.</t>
+          <t>Chaudhary S.; Joshi P.; Bhattacharya P.; Prasad V.K.; Shah R.; Tanwar S.</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>Frontiers in Microbiology</t>
+          <t>Lecture Notes in Networks and Systems</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>The presented study protocol outlines a comprehensive investigation into the interplay among the human microbiota, volatilome, and disease biomarkers, with a specific focus on Behçet’s disease (BD) using methods based on explainable artificial intelligence. The protocol is structured in three phases. During the initial three-month clinical study, participants will be divided into control and experimental groups. The experimental groups will receive a soluble fiber-based dietary supplement alongside standard therapy. Data collection will encompass oral and fecal microbiota, breath samples, clinical characteristics, laboratory parameters, and dietary habits. The subsequent biological data analysis will involve gas chromatography, mass spectrometry, and metagenetic analysis to examine the volatilome and microbiota composition of salivary and fecal samples. Additionally, chemical characterization of breath samples will be performed. The third phase introduces Explainable Artificial Intelligence (XAI) for the analysis of the collected data. This novel approach aims to evaluate eubiosis and dysbiosis conditions, identify markers associated with BD, dietary habits, and the supplement. Primary objectives include establishing correlations between microbiota, volatilome, phenotypic BD characteristics, and identifying patient groups with shared features. The study aims to identify taxonomic units and metabolic markers predicting clinical outcomes, assess the supplement’s impact, and investigate the relationship between dietary habits and patient outcomes. This protocol contributes to understanding the microbiome’s role in health and disease and pioneers an XAI-driven approach for personalized BD management. With 70 recruited BD patients, XAI algorithms will analyze multi-modal clinical data, potentially revolutionizing BD management and paving the way for improved patient outcomes. Copyright © 2024 Tangaro, Lopalco, Sabella, Venerito, Novielli, Romano, Di Gilio, Palmisani, de Gennaro, Filannino, Latronico, Bellotti, De Angelis and Iannone.</t>
+          <t>Recently, a paradigm shift is observed toward Industry 5.0, where tasks (processes) are automated at massive scales. This shift has initiated modern developments in artificial intelligence (AI) to support a plethora of applications like manufacturing, health care, vehicular net- works, and others. However, owing to the black-box nature of AI models, the research has shifted toward the proposal of novel techniques that aim toward the explainability and validity of these AI models. Thus, explainable AI (XAI) has become a norm in modern applicative domains, and the study of its frameworks and tools has become the buzzword among researchers. Thus, the paper intends to present the key concepts of XAI and aims at improving the model transparency. The survey systematically untangles the key concepts of XAI and presents a solution taxonomy in different applications. Modern XAI techniques are classified as self-explanatory, visual-based-model-agnostic, global surrogate, and local surrogate-model-agnostic. We also cover the tools and frameworks of XAI and discuss the open issues and challenges in practical realization. Thus, the survey intends to arm AI practitioners to design optimal solutions to realize XAI in practical use-case setups. © 2023, The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd.</t>
         </is>
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>10.3389/fmicb.2024.1341152</t>
+          <t>10.1007/978-981-99-1479-1_63</t>
         </is>
       </c>
       <c r="H629" t="inlineStr">
@@ -27377,120 +27481,120 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>untangling explainable ai in applicative domains: taxonomy, tools, and open challenges</t>
+          <t>unveiling the spectrum of uv-induced dna damage in melanoma: insights from ai-based analysis of environmental factors, repair mechanisms, and skin pigment interactions</t>
         </is>
       </c>
       <c r="C630" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>Chaudhary S.; Joshi P.; Bhattacharya P.; Prasad V.K.; Shah R.; Tanwar S.</t>
+          <t>Almufareh, MF</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>Lecture Notes in Networks and Systems</t>
+          <t>IEEE ACCESS</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>Recently, a paradigm shift is observed toward Industry 5.0, where tasks (processes) are automated at massive scales. This shift has initiated modern developments in artificial intelligence (AI) to support a plethora of applications like manufacturing, health care, vehicular net- works, and others. However, owing to the black-box nature of AI models, the research has shifted toward the proposal of novel techniques that aim toward the explainability and validity of these AI models. Thus, explainable AI (XAI) has become a norm in modern applicative domains, and the study of its frameworks and tools has become the buzzword among researchers. Thus, the paper intends to present the key concepts of XAI and aims at improving the model transparency. The survey systematically untangles the key concepts of XAI and presents a solution taxonomy in different applications. Modern XAI techniques are classified as self-explanatory, visual-based-model-agnostic, global surrogate, and local surrogate-model-agnostic. We also cover the tools and frameworks of XAI and discuss the open issues and challenges in practical realization. Thus, the survey intends to arm AI practitioners to design optimal solutions to realize XAI in practical use-case setups. © 2023, The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd.</t>
+          <t>Melanoma, a global health concern, undergoes a transformative shift in early diagnosis through the integration of artificial intelligence (AI) and environmental factors. Exposure to UVB is the main cause of DNA deterioration in skin cells. The DNA molecules absorb UVB photons, which causes the creation of photoproducts such as pyrimidine (6-4), pyrimidone photoproducts (6-4PPS), and cyclobutane pyrimidine dimers (CPDs). These photoproducts alter important genes, including those that control cell development and apoptosis. These genetic changes accumulate over time as a result of UV-induced DNA damage to melanocytes, turning normal cells into malignant melanoma cells. This study explores the incorporation of ultraviolet (UV) radiation, DNA damage, UV signature mutations, skin pigmentation, melanin biochemistry, and gene-environment interactions into AI-powered melanoma identification systems. The analysis highlights the importance of these factors, contributing to the intricacies of melanoma and emphasizing their critical inclusion in predictive models. Design goals for AI systems prioritize accuracy, customization, comprehensibility, and ethical adherence. AI emerges as a potent ally in reshaping public health initiatives, identifying high-risk areas and populations, redefining early detection, and preventing melanoma on a population-wide scale. The increased incidence of melanoma cases globally can be attributed to overexposure to ultraviolet (UV) radiation. As a significant risk component, this environmental factor is responsible for the startling increase in melanoma incidence that has been occurring since the mid-1960s. The digital dermoscopy in conjunction with AI and environmental factors has demonstrated potential to support early melanoma detection. This study underscores the potential of AI to revolutionize melanoma research, leveraging insights from UV radiation, DNA damage, UV signature mutations, skin pigmentation, melanin biochemistry, and their interactions for enhanced diagnostic capabilities and improved public health outcomes.</t>
         </is>
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>10.1007/978-981-99-1479-1_63</t>
+          <t>10.1109/ACCESS.2024.3395988</t>
         </is>
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>unveiling the spectrum of uv-induced dna damage in melanoma: insights from ai-based analysis of environmental factors, repair mechanisms, and skin pigment interactions</t>
+          <t>unveiling the transparency of prediction models for spatial pm2.5 over singapore: comparison of different machine learning approaches with explainable artificial intelligence</t>
         </is>
       </c>
       <c r="C631" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>Almufareh, MF</t>
+          <t>Sunder M.S.S.; Tikkiwal V.A.; Kumar A.; Tyagi B.</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>IEEE ACCESS</t>
+          <t>AI (Switzerland)</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>Melanoma, a global health concern, undergoes a transformative shift in early diagnosis through the integration of artificial intelligence (AI) and environmental factors. Exposure to UVB is the main cause of DNA deterioration in skin cells. The DNA molecules absorb UVB photons, which causes the creation of photoproducts such as pyrimidine (6-4), pyrimidone photoproducts (6-4PPS), and cyclobutane pyrimidine dimers (CPDs). These photoproducts alter important genes, including those that control cell development and apoptosis. These genetic changes accumulate over time as a result of UV-induced DNA damage to melanocytes, turning normal cells into malignant melanoma cells. This study explores the incorporation of ultraviolet (UV) radiation, DNA damage, UV signature mutations, skin pigmentation, melanin biochemistry, and gene-environment interactions into AI-powered melanoma identification systems. The analysis highlights the importance of these factors, contributing to the intricacies of melanoma and emphasizing their critical inclusion in predictive models. Design goals for AI systems prioritize accuracy, customization, comprehensibility, and ethical adherence. AI emerges as a potent ally in reshaping public health initiatives, identifying high-risk areas and populations, redefining early detection, and preventing melanoma on a population-wide scale. The increased incidence of melanoma cases globally can be attributed to overexposure to ultraviolet (UV) radiation. As a significant risk component, this environmental factor is responsible for the startling increase in melanoma incidence that has been occurring since the mid-1960s. The digital dermoscopy in conjunction with AI and environmental factors has demonstrated potential to support early melanoma detection. This study underscores the potential of AI to revolutionize melanoma research, leveraging insights from UV radiation, DNA damage, UV signature mutations, skin pigmentation, melanin biochemistry, and their interactions for enhanced diagnostic capabilities and improved public health outcomes.</t>
+          <t>Aerosols play a crucial role in the climate system due to direct and indirect effects, such as scattering and absorbing radiant energy. They also have adverse effects on visibility and human health. Humans are exposed to fine PM2.5, which has adverse health impacts related to cardiovascular and respiratory-related diseases. Long-term trends in PM concentrations are influenced by emissions and meteorological variations, while meteorological factors primarily drive short-term variations. Factors such as vegetation cover, relative humidity, temperature, and wind speed impact the divergence in the PM2.5 concentrations on the surface. Machine learning proved to be a good predictor of air quality. This study focuses on predicting PM2.5 with these parameters as input for spatial and temporal information. The work analyzes the in situ observations for PM2.5 over Singapore for seven years (2014–2021) at five locations, and these datasets are used for spatial prediction of PM2.5. The study aims to provide a novel framework based on temporal-based prediction using Random Forest (RF), Gradient Boosting (GB) regression, and Tree-based Pipeline Optimization Tool (TP) Auto ML works based on meta-heuristic via genetic algorithm. TP produced reasonable Global Performance Index values; 7.4 was the highest GPI value in August 2016, and the lowest was −0.6 in June 2019. This indicates the positive performance of the TP model; even the negative values are less than other models, denoting less pessimistic predictions. The outcomes are explained with the eXplainable Artificial Intelligence (XAI) techniques which help to investigate the fidelity of feature importance of the machine learning models to extract information regarding the rhythmic shift of the PM2.5 pattern. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2024.3395988</t>
+          <t>10.3390/ai4040040</t>
         </is>
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>unveiling the transparency of prediction models for spatial pm2.5 over singapore: comparison of different machine learning approaches with explainable artificial intelligence</t>
+          <t>use of fitness sharing in the local rule-based explanations method</t>
         </is>
       </c>
       <c r="C632" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>Sunder M.S.S.; Tikkiwal V.A.; Kumar A.; Tyagi B.</t>
+          <t>Santos D.A.; Baranauskas J.A.; Tinos R.</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>AI (Switzerland)</t>
+          <t>2021 IEEE Latin American Conference on Computational Intelligence, LA-CCI 2021</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>Aerosols play a crucial role in the climate system due to direct and indirect effects, such as scattering and absorbing radiant energy. They also have adverse effects on visibility and human health. Humans are exposed to fine PM2.5, which has adverse health impacts related to cardiovascular and respiratory-related diseases. Long-term trends in PM concentrations are influenced by emissions and meteorological variations, while meteorological factors primarily drive short-term variations. Factors such as vegetation cover, relative humidity, temperature, and wind speed impact the divergence in the PM2.5 concentrations on the surface. Machine learning proved to be a good predictor of air quality. This study focuses on predicting PM2.5 with these parameters as input for spatial and temporal information. The work analyzes the in situ observations for PM2.5 over Singapore for seven years (2014–2021) at five locations, and these datasets are used for spatial prediction of PM2.5. The study aims to provide a novel framework based on temporal-based prediction using Random Forest (RF), Gradient Boosting (GB) regression, and Tree-based Pipeline Optimization Tool (TP) Auto ML works based on meta-heuristic via genetic algorithm. TP produced reasonable Global Performance Index values; 7.4 was the highest GPI value in August 2016, and the lowest was −0.6 in June 2019. This indicates the positive performance of the TP model; even the negative values are less than other models, denoting less pessimistic predictions. The outcomes are explained with the eXplainable Artificial Intelligence (XAI) techniques which help to investigate the fidelity of feature importance of the machine learning models to extract information regarding the rhythmic shift of the PM2.5 pattern. © 2023 by the authors.</t>
+          <t>Recent machine learning algorithms present remarkable results in many problems. However, the decisions made by some of these algorithms are very often difficult for human experts to interpret. Some recent works in the literature try to minimize this disadvantage, proposing algorithms that explain the decisions taken by any black-box model. One of these models is the Local Rule Based Explanations (LORE), that generates local explanations by using a Decision Tree (DT) that locally reproduces the decision boundaries of the black-box model. In LORE, the DT is trained by using an artificial dataset generated by a standard Genetic Algorithm (GA). In this paper, we show that the GA employed in LORE does not necessarily preserve the diversity of solutions in the final population. The diversity of the population is important to generate DTs that can more accurately reproduce the decision boundaries of the black-box model close to the instance to be explained. We then propose the use of fitness sharing in the GA in order to preserve the diversity of the population and generate local decision boundaries of the DT more similar to those of the black-box model. Experimental results show that LORE with fitness sharing generally produces better local explanations.  © 2021 IEEE.</t>
         </is>
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>10.3390/ai4040040</t>
+          <t>10.1109/LA-CCI48322.2021.9769789</t>
         </is>
       </c>
       <c r="H632" t="inlineStr">
@@ -27500,40 +27604,40 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>use of fitness sharing in the local rule-based explanations method</t>
+          <t>user-centric explainability in healthcare: a knowledge-level perspective of informed machine learning</t>
         </is>
       </c>
       <c r="C633" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>Santos D.A.; Baranauskas J.A.; Tinos R.</t>
+          <t>Oberste L.; Heinzl A.</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>2021 IEEE Latin American Conference on Computational Intelligence, LA-CCI 2021</t>
+          <t>IEEE Transactions on Artificial Intelligence</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>Recent machine learning algorithms present remarkable results in many problems. However, the decisions made by some of these algorithms are very often difficult for human experts to interpret. Some recent works in the literature try to minimize this disadvantage, proposing algorithms that explain the decisions taken by any black-box model. One of these models is the Local Rule Based Explanations (LORE), that generates local explanations by using a Decision Tree (DT) that locally reproduces the decision boundaries of the black-box model. In LORE, the DT is trained by using an artificial dataset generated by a standard Genetic Algorithm (GA). In this paper, we show that the GA employed in LORE does not necessarily preserve the diversity of solutions in the final population. The diversity of the population is important to generate DTs that can more accurately reproduce the decision boundaries of the black-box model close to the instance to be explained. We then propose the use of fitness sharing in the GA in order to preserve the diversity of the population and generate local decision boundaries of the DT more similar to those of the black-box model. Experimental results show that LORE with fitness sharing generally produces better local explanations.  © 2021 IEEE.</t>
+          <t>Explaining increasingly complex machine learning will remain crucial to cope with risks, regulations, responsibilities, and human support in healthcare. However, extant explainable systems mostly provide explanations that mismatch clinical users' conceptions and fail their expectations to leverage validated and clinically relevant information. A key to more user-centric and satisfying explanations can be seen in combining data-driven and knowledge-based systems, i.e., to utilize prior knowledge jointly with the patterns learned from data. We conduct a structured review of knowledge-informed machine learning in healthcare. In this article, we build on a framework to characterize user knowledge and prior knowledge embodied in explanations. Specifically, we explicate the types and contexts of knowledge to examine the fit between knowledge-informed approaches and users. Our results highlight that knowledge-informed machine learning is a promising paradigm to enrich former data-driven systems, yielding explanations that can increase formal understanding, convey useful medical knowledge, and are more intuitive. Although complying with medical conception, it still needs to be investigated whether knowledge-informed explanations increase medical user acceptance and trust in clinical machine learning-based information systems. © 2020 IEEE.</t>
         </is>
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>10.1109/LA-CCI48322.2021.9769789</t>
+          <t>10.1109/TAI.2022.3227225</t>
         </is>
       </c>
       <c r="H633" t="inlineStr">
@@ -27549,34 +27653,34 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>user-centric explainability in healthcare: a knowledge-level perspective of informed machine learning</t>
+          <t>using explainable ai to identify differences between clinical and experimental pain detection models based on facial expressions</t>
         </is>
       </c>
       <c r="C634" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Oberste L.; Heinzl A.</t>
+          <t>Prajod P.; Huber T.; André E.</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Artificial Intelligence</t>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>Explaining increasingly complex machine learning will remain crucial to cope with risks, regulations, responsibilities, and human support in healthcare. However, extant explainable systems mostly provide explanations that mismatch clinical users' conceptions and fail their expectations to leverage validated and clinically relevant information. A key to more user-centric and satisfying explanations can be seen in combining data-driven and knowledge-based systems, i.e., to utilize prior knowledge jointly with the patterns learned from data. We conduct a structured review of knowledge-informed machine learning in healthcare. In this article, we build on a framework to characterize user knowledge and prior knowledge embodied in explanations. Specifically, we explicate the types and contexts of knowledge to examine the fit between knowledge-informed approaches and users. Our results highlight that knowledge-informed machine learning is a promising paradigm to enrich former data-driven systems, yielding explanations that can increase formal understanding, convey useful medical knowledge, and are more intuitive. Although complying with medical conception, it still needs to be investigated whether knowledge-informed explanations increase medical user acceptance and trust in clinical machine learning-based information systems. © 2020 IEEE.</t>
+          <t>Most of the currently available pain datasets use two types of pain stimuli - people with clinically diagnosed conditions (e.g. surgery) performing tasks that cause them pain (we call this clinical pain) and pain caused by external stimuli such as heat or electricity (we call this experimental pain). In high-risk domains like healthcare, understanding the decisions and limitations of various types of pain recognition models is pivotal for the acceptance of the technology. In this paper, we present a process based on Explainable Artificial Intelligence techniques to investigate the differences in the learned representations of models trained on experimental pain (BioVid heat pain dataset) and clinical pain (UNBC shoulder pain dataset). To this end, we first train two convolutional neural networks - one for each dataset - to automatically discern between pain and no pain. Next, we perform a cross-dataset evaluation, i.e., evaluate the performance of the heat pain model on images from the shoulder pain dataset and vice versa. Then, we use Layer-wise Relevance Propagation to analyze which parts of the images in our test sets were relevant for each pain model. Based on this analysis, we rely on the visual inspection by a human observer to generate hypotheses about learned concepts that distinguish the two models. Finally, we test those hypotheses quantitatively utilizing concept embedding analysis methods. Through this process, we identify (1) a concept which the clinical pain model is more strongly relying on and, (2) a concept which the experimental pain model is paying more attention to. Finally, we discuss how both of these concepts are involved in known pain patterns and can be attributed to behavioral differences found in the datasets. © 2022, Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>10.1109/TAI.2022.3227225</t>
+          <t>10.1007/978-3-030-98358-1_25</t>
         </is>
       </c>
       <c r="H634" t="inlineStr">
@@ -27592,11 +27696,11 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>using explainable ai to identify differences between clinical and experimental pain detection models based on facial expressions</t>
+          <t>using explainable artificial intelligence to discover interactions in an ecological model for obesity</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -27604,22 +27708,22 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>Prajod P.; Huber T.; André E.</t>
+          <t>Allen B.; Lane M.; Steeves E.A.; Raynor H.</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+          <t>International Journal of Environmental Research and Public Health</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>Most of the currently available pain datasets use two types of pain stimuli - people with clinically diagnosed conditions (e.g. surgery) performing tasks that cause them pain (we call this clinical pain) and pain caused by external stimuli such as heat or electricity (we call this experimental pain). In high-risk domains like healthcare, understanding the decisions and limitations of various types of pain recognition models is pivotal for the acceptance of the technology. In this paper, we present a process based on Explainable Artificial Intelligence techniques to investigate the differences in the learned representations of models trained on experimental pain (BioVid heat pain dataset) and clinical pain (UNBC shoulder pain dataset). To this end, we first train two convolutional neural networks - one for each dataset - to automatically discern between pain and no pain. Next, we perform a cross-dataset evaluation, i.e., evaluate the performance of the heat pain model on images from the shoulder pain dataset and vice versa. Then, we use Layer-wise Relevance Propagation to analyze which parts of the images in our test sets were relevant for each pain model. Based on this analysis, we rely on the visual inspection by a human observer to generate hypotheses about learned concepts that distinguish the two models. Finally, we test those hypotheses quantitatively utilizing concept embedding analysis methods. Through this process, we identify (1) a concept which the clinical pain model is more strongly relying on and, (2) a concept which the experimental pain model is paying more attention to. Finally, we discuss how both of these concepts are involved in known pain patterns and can be attributed to behavioral differences found in the datasets. © 2022, Springer Nature Switzerland AG.</t>
+          <t>Ecological theories suggest that environmental, social, and individual factors interact to cause obesity. Yet, many analytic techniques, such as multilevel modeling, require manual specification of interacting factors, making them inept in their ability to search for interactions. This paper shows evidence that an explainable artificial intelligence approach, commonly employed in genomics research, can address this problem. The method entails using random intersection trees to decode interactions learned by random forest models. Here, this approach is used to extract interactions between features of a multi-level environment from random forest models of waist-to-height ratios using 11,112 participants from the Adolescent Brain Cognitive Development study. This study shows that methods used to discover interactions between genes can also discover interacting features of the environment that impact obesity. This new approach to modeling ecosystems may help shine a spotlight on combinations of environmental features that are important to obesity, as well as other health outcomes. © 2022 by the authors.</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-98358-1_25</t>
+          <t>10.3390/ijerph19159447</t>
         </is>
       </c>
       <c r="H635" t="inlineStr">
@@ -27629,60 +27733,60 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>using explainable artificial intelligence to discover interactions in an ecological model for obesity</t>
+          <t>using explainable artificial intelligence to predict potentially preventable hospitalizations a population-based cohort study in denmark</t>
         </is>
       </c>
       <c r="C636" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>Allen B.; Lane M.; Steeves E.A.; Raynor H.</t>
+          <t>Riis, AH; Kristensen, PK; Lauritsen, SM; Thiesson, B; Jorgensen, MJ</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>International Journal of Environmental Research and Public Health</t>
+          <t>MEDICAL CARE</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>Ecological theories suggest that environmental, social, and individual factors interact to cause obesity. Yet, many analytic techniques, such as multilevel modeling, require manual specification of interacting factors, making them inept in their ability to search for interactions. This paper shows evidence that an explainable artificial intelligence approach, commonly employed in genomics research, can address this problem. The method entails using random intersection trees to decode interactions learned by random forest models. Here, this approach is used to extract interactions between features of a multi-level environment from random forest models of waist-to-height ratios using 11,112 participants from the Adolescent Brain Cognitive Development study. This study shows that methods used to discover interactions between genes can also discover interacting features of the environment that impact obesity. This new approach to modeling ecosystems may help shine a spotlight on combinations of environmental features that are important to obesity, as well as other health outcomes. © 2022 by the authors.</t>
+          <t>Background:The increasing aging population and limited health care resources have placed new demands on the healthcare sector. Reducing the number of hospitalizations has become a political priority in many countries, and special focus has been directed at potentially preventable hospitalizations. Objectives:We aimed to develop an artificial intelligence (AI) prediction model for potentially preventable hospitalizations in the coming year, and to apply explainable AI to identify predictors of hospitalization and their interaction. Methods:We used the Danish CROSS-TRACKS cohort and included citizens in 2016-2017. We predicted potentially preventable hospitalizations within the following year using the citizens' sociodemographic characteristics, clinical characteristics, and health care utilization as predictors. Extreme gradient boosting was used to predict potentially preventable hospitalizations with Shapley additive explanations values serving to explain the impact of each predictor. We reported the area under the receiver operating characteristic curve, the area under the precision-recall curve, and 95% confidence intervals (CI) based on five-fold cross-validation. Results:The best performing prediction model showed an area under the receiver operating characteristic curve of 0.789 (CI: 0.782-0.795) and an area under the precision-recall curve of 0.232 (CI: 0.219-0.246). The predictors with the highest impact on the prediction model were age, prescription drugs for obstructive airway diseases, antibiotics, and use of municipality services. We found an interaction between age and use of municipality services, suggesting that citizens aged 75+ years receiving municipality services had a lower risk of potentially preventable hospitalization. Conclusion:AI is suitable for predicting potentially preventable hospitalizations. The municipality-based health services seem to have a preventive effect on potentially preventable hospitalizations.</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>10.3390/ijerph19159447</t>
+          <t>10.1097/MLR.0000000000001830</t>
         </is>
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>using explainable artificial intelligence to predict potentially preventable hospitalizations a population-based cohort study in denmark</t>
+          <t>using explainable artificial intelligence to predict potentially preventable hospitalizations: a population-based cohort study in denmark</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -27690,17 +27794,17 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>Riis, AH; Kristensen, PK; Lauritsen, SM; Thiesson, B; Jorgensen, MJ</t>
+          <t>Riis A.H.; Kristensen P.K.; Lauritsen S.M.; Thiesson B.; Jørgensen M.J.</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>MEDICAL CARE</t>
+          <t>Medical Care</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>Background:The increasing aging population and limited health care resources have placed new demands on the healthcare sector. Reducing the number of hospitalizations has become a political priority in many countries, and special focus has been directed at potentially preventable hospitalizations. Objectives:We aimed to develop an artificial intelligence (AI) prediction model for potentially preventable hospitalizations in the coming year, and to apply explainable AI to identify predictors of hospitalization and their interaction. Methods:We used the Danish CROSS-TRACKS cohort and included citizens in 2016-2017. We predicted potentially preventable hospitalizations within the following year using the citizens' sociodemographic characteristics, clinical characteristics, and health care utilization as predictors. Extreme gradient boosting was used to predict potentially preventable hospitalizations with Shapley additive explanations values serving to explain the impact of each predictor. We reported the area under the receiver operating characteristic curve, the area under the precision-recall curve, and 95% confidence intervals (CI) based on five-fold cross-validation. Results:The best performing prediction model showed an area under the receiver operating characteristic curve of 0.789 (CI: 0.782-0.795) and an area under the precision-recall curve of 0.232 (CI: 0.219-0.246). The predictors with the highest impact on the prediction model were age, prescription drugs for obstructive airway diseases, antibiotics, and use of municipality services. We found an interaction between age and use of municipality services, suggesting that citizens aged 75+ years receiving municipality services had a lower risk of potentially preventable hospitalization. Conclusion:AI is suitable for predicting potentially preventable hospitalizations. The municipality-based health services seem to have a preventive effect on potentially preventable hospitalizations.</t>
+          <t>Background: The increasing aging population and limited health care resources have placed new demands on the healthcare sector. Reducing the number of hospitalizations has become a political priority in many countries, and special focus has been directed at potentially preventable hospitalizations. Objectives: We aimed to develop an artificial intelligence (AI) prediction model for potentially preventable hospitalizations in the coming year, and to apply explainable AI to identify predictors of hospitalization and their interaction. Methods: We used the Danish CROSS-TRACKS cohort and included citizens in 2016-2017. We predicted potentially preventable hospitalizations within the following year using the citizens' sociodemographic characteristics, clinical characteristics, and health care utilization as predictors. Extreme gradient boosting was used to predict potentially preventable hospitalizations with Shapley additive explanations values serving to explain the impact of each predictor. We reported the area under the receiver operating characteristic curve, the area under the precision-recall curve, and 95% confidence intervals (CI) based on five-fold cross-validation. Results: The best performing prediction model showed an area under the receiver operating characteristic curve of 0.789 (CI: 0.782-0.795) and an area under the precision-recall curve of 0.232 (CI: 0.219-0.246). The predictors with the highest impact on the prediction model were age, prescription drugs for obstructive airway diseases, antibiotics, and use of municipality services. We found an interaction between age and use of municipality services, suggesting that citizens aged 75+ years receiving municipality services had a lower risk of potentially preventable hospitalization. Conclusion: AI is suitable for predicting potentially preventable hospitalizations. The municipality-based health services seem to have a preventive effect on potentially preventable hospitalizations. © 2023 Lippincott Williams and Wilkins. All rights reserved.</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
@@ -27710,22 +27814,22 @@
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>using explainable artificial intelligence to predict potentially preventable hospitalizations: a population-based cohort study in denmark</t>
+          <t>using iterative random forest to find geospatial environmental and sociodemographic predictors of suicide attempts</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -27733,22 +27837,22 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>Riis A.H.; Kristensen P.K.; Lauritsen S.M.; Thiesson B.; Jørgensen M.J.</t>
+          <t>Pavicic M.; Walker A.M.; Sullivan K.A.; Lagergren J.; Cliff A.; Romero J.; Streich J.; Garvin M.R.; Pestian J.; McMahon B.; Oslin D.W.; Beckham J.C.; Kimbrel N.A.; Jacobson D.A.</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>Medical Care</t>
+          <t>Frontiers in Psychiatry</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>Background: The increasing aging population and limited health care resources have placed new demands on the healthcare sector. Reducing the number of hospitalizations has become a political priority in many countries, and special focus has been directed at potentially preventable hospitalizations. Objectives: We aimed to develop an artificial intelligence (AI) prediction model for potentially preventable hospitalizations in the coming year, and to apply explainable AI to identify predictors of hospitalization and their interaction. Methods: We used the Danish CROSS-TRACKS cohort and included citizens in 2016-2017. We predicted potentially preventable hospitalizations within the following year using the citizens' sociodemographic characteristics, clinical characteristics, and health care utilization as predictors. Extreme gradient boosting was used to predict potentially preventable hospitalizations with Shapley additive explanations values serving to explain the impact of each predictor. We reported the area under the receiver operating characteristic curve, the area under the precision-recall curve, and 95% confidence intervals (CI) based on five-fold cross-validation. Results: The best performing prediction model showed an area under the receiver operating characteristic curve of 0.789 (CI: 0.782-0.795) and an area under the precision-recall curve of 0.232 (CI: 0.219-0.246). The predictors with the highest impact on the prediction model were age, prescription drugs for obstructive airway diseases, antibiotics, and use of municipality services. We found an interaction between age and use of municipality services, suggesting that citizens aged 75+ years receiving municipality services had a lower risk of potentially preventable hospitalization. Conclusion: AI is suitable for predicting potentially preventable hospitalizations. The municipality-based health services seem to have a preventive effect on potentially preventable hospitalizations. © 2023 Lippincott Williams and Wilkins. All rights reserved.</t>
+          <t>Introduction: Despite a recent global decrease in suicide rates, death by suicide has increased in the United States. It is therefore imperative to identify the risk factors associated with suicide attempts to combat this growing epidemic. In this study, we aim to identify potential risk factors of suicide attempt using geospatial features in an Artificial intelligence framework. Methods: We use iterative Random Forest, an explainable artificial intelligence method, to predict suicide attempts using data from the Million Veteran Program. This cohort incorporated 405,540 patients with 391,409 controls and 14,131 attempts. Our predictive model incorporates multiple climatic features at ZIP-code-level geospatial resolution. We additionally consider demographic features from the American Community Survey as well as the number of firearms and alcohol vendors per 10,000 people to assess the contributions of proximal environment, access to means, and restraint decrease to suicide attempts. In total 1,784 features were included in the predictive model. Results: Our results show that geographic areas with higher concentrations of married males living with spouses are predictive of lower rates of suicide attempts, whereas geographic areas where males are more likely to live alone and to rent housing are predictive of higher rates of suicide attempts. We also identified climatic features that were associated with suicide attempt risk by age group. Additionally, we observed that firearms and alcohol vendors were associated with increased risk for suicide attempts irrespective of the age group examined, but that their effects were small in comparison to the top features. Discussion: Taken together, our findings highlight the importance of social determinants and environmental factors in understanding suicide risk among veterans. 2023, At least a portion of this work is authored by David W. Oslin, Jean C. Beckham and Nathan A. Kimbrel on behalf of the U.S. Government and as regards Dr Oslin, Dr. Beckham, Dr. Kimbrel and the U.S. Government, is not subject to copyright protection in the United States. Foreign and other copyrights may apply.</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>10.1097/MLR.0000000000001830</t>
+          <t>10.3389/fpsyt.2023.1178633</t>
         </is>
       </c>
       <c r="H638" t="inlineStr">
@@ -27758,40 +27862,40 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>using iterative random forest to find geospatial environmental and sociodemographic predictors of suicide attempts</t>
+          <t>vbridge: connecting the dots between features and data to explain healthcare models</t>
         </is>
       </c>
       <c r="C639" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>Pavicic M.; Walker A.M.; Sullivan K.A.; Lagergren J.; Cliff A.; Romero J.; Streich J.; Garvin M.R.; Pestian J.; McMahon B.; Oslin D.W.; Beckham J.C.; Kimbrel N.A.; Jacobson D.A.</t>
+          <t>Cheng F.; Liu D.; Du F.; Lin Y.; Zytek A.; Li H.; Qu H.; Veeramachaneni K.</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>Frontiers in Psychiatry</t>
+          <t>IEEE Transactions on Visualization and Computer Graphics</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>Introduction: Despite a recent global decrease in suicide rates, death by suicide has increased in the United States. It is therefore imperative to identify the risk factors associated with suicide attempts to combat this growing epidemic. In this study, we aim to identify potential risk factors of suicide attempt using geospatial features in an Artificial intelligence framework. Methods: We use iterative Random Forest, an explainable artificial intelligence method, to predict suicide attempts using data from the Million Veteran Program. This cohort incorporated 405,540 patients with 391,409 controls and 14,131 attempts. Our predictive model incorporates multiple climatic features at ZIP-code-level geospatial resolution. We additionally consider demographic features from the American Community Survey as well as the number of firearms and alcohol vendors per 10,000 people to assess the contributions of proximal environment, access to means, and restraint decrease to suicide attempts. In total 1,784 features were included in the predictive model. Results: Our results show that geographic areas with higher concentrations of married males living with spouses are predictive of lower rates of suicide attempts, whereas geographic areas where males are more likely to live alone and to rent housing are predictive of higher rates of suicide attempts. We also identified climatic features that were associated with suicide attempt risk by age group. Additionally, we observed that firearms and alcohol vendors were associated with increased risk for suicide attempts irrespective of the age group examined, but that their effects were small in comparison to the top features. Discussion: Taken together, our findings highlight the importance of social determinants and environmental factors in understanding suicide risk among veterans. 2023, At least a portion of this work is authored by David W. Oslin, Jean C. Beckham and Nathan A. Kimbrel on behalf of the U.S. Government and as regards Dr Oslin, Dr. Beckham, Dr. Kimbrel and the U.S. Government, is not subject to copyright protection in the United States. Foreign and other copyrights may apply.</t>
+          <t>Machine learning (ML) is increasingly applied to Electronic Health Records (EHRs) to solve clinical prediction tasks. Although many ML models perform promisingly, issues with model transparency and interpretability limit their adoption in clinical practice. Directly using existing explainable ML techniques in clinical settings can be challenging. Through literature surveys and collaborations with six clinicians with an average of 17 years of clinical experience, we identified three key challenges, including clinicians' unfamiliarity with ML features, lack of contextual information, and the need for cohort-level evidence. Following an iterative design process, we further designed and developed VBridge, a visual analytics tool that seamlessly incorporates ML explanations into clinicians' decision-making workflow. The system includes a novel hierarchical display of contribution-based feature explanations and enriched interactions that connect the dots between ML features, explanations, and data. We demonstrated the effectiveness of VBridge through two case studies and expert interviews with four clinicians, showing that visually associating model explanations with patients' situational records can help clinicians better interpret and use model predictions when making clinician decisions. We further derived a list of design implications for developing future explainable ML tools to support clinical decision-making.  © 1995-2012 IEEE.</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>10.3389/fpsyt.2023.1178633</t>
+          <t>10.1109/TVCG.2021.3114836</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
@@ -27807,11 +27911,11 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>vbridge: connecting the dots between features and data to explain healthcare models</t>
+          <t>vec2image: an explainable artificial intelligence model for the feature representation and classification of high-dimensional biological data by vector-to-image conversion</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -27819,113 +27923,113 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Cheng F.; Liu D.; Du F.; Lin Y.; Zytek A.; Li H.; Qu H.; Veeramachaneni K.</t>
+          <t>Tang, H; Yu, XT; Liu, R; Zeng, T</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>IEEE Transactions on Visualization and Computer Graphics</t>
+          <t>BRIEFINGS IN BIOINFORMATICS</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>Machine learning (ML) is increasingly applied to Electronic Health Records (EHRs) to solve clinical prediction tasks. Although many ML models perform promisingly, issues with model transparency and interpretability limit their adoption in clinical practice. Directly using existing explainable ML techniques in clinical settings can be challenging. Through literature surveys and collaborations with six clinicians with an average of 17 years of clinical experience, we identified three key challenges, including clinicians' unfamiliarity with ML features, lack of contextual information, and the need for cohort-level evidence. Following an iterative design process, we further designed and developed VBridge, a visual analytics tool that seamlessly incorporates ML explanations into clinicians' decision-making workflow. The system includes a novel hierarchical display of contribution-based feature explanations and enriched interactions that connect the dots between ML features, explanations, and data. We demonstrated the effectiveness of VBridge through two case studies and expert interviews with four clinicians, showing that visually associating model explanations with patients' situational records can help clinicians better interpret and use model predictions when making clinician decisions. We further derived a list of design implications for developing future explainable ML tools to support clinical decision-making.  © 1995-2012 IEEE.</t>
+          <t>Feature representation and discriminative learning are proven models and technologies in artificial intelligence fields; however, major challenges for machine learning on large biological datasets are learning an effective model with mechanistical explanation on the model determination and prediction. To satisfy such demands, we developed Vec2image, an explainable convolutional neural network framework for characterizing the feature engineering, feature selection and classifier training that is mainly based on the collaboration of principal component coordinate conversion, deep residual neural networks and embedded k-nearest neighbor representation on pseudo images of high-dimensional biological data, where the pseudo images represent feature measurements and feature associations simultaneously. Vec2image has achieved better performance compared with other popular methods and illustrated its efficiency on feature selection in cell marker identification from tissue-specific single-cell datasets. In particular, in a case study on type 2 diabetes (T2D) by multiple human islet scRNA-seq datasets, Vec2image first displayed robust performance on T2D classification model building across different datasets, then a specific Vec2image model was trained to accurately recognize the cell state and efficiently rank feature genes relevant to T2D which uncovered potential T2D cellular pathogenesis; and next the cell activity changes, cell composition imbalances and cell-cell communication dysfunctions were associated to our finding T2D feature genes from both population-shared and individual-specific perspectives. Collectively, Vec2image is a new and efficient explainable artificial intelligence methodology that can be widely applied in human-readable classification and prediction on the basis of pseudo image representation of biological deep sequencing data.</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>10.1109/TVCG.2021.3114836</t>
+          <t>10.1093/bib/bbab584</t>
         </is>
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>vec2image: an explainable artificial intelligence model for the feature representation and classification of high-dimensional biological data by vector-to-image conversion</t>
+          <t>velocious: a resilient iot architecture for 6g based intelligent transportation system with expeditious movement mechanism</t>
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>Tang, H; Yu, XT; Liu, R; Zeng, T</t>
+          <t>Robinsha S.D.; Amutha B.</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>BRIEFINGS IN BIOINFORMATICS</t>
+          <t>Wireless Personal Communications</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>Feature representation and discriminative learning are proven models and technologies in artificial intelligence fields; however, major challenges for machine learning on large biological datasets are learning an effective model with mechanistical explanation on the model determination and prediction. To satisfy such demands, we developed Vec2image, an explainable convolutional neural network framework for characterizing the feature engineering, feature selection and classifier training that is mainly based on the collaboration of principal component coordinate conversion, deep residual neural networks and embedded k-nearest neighbor representation on pseudo images of high-dimensional biological data, where the pseudo images represent feature measurements and feature associations simultaneously. Vec2image has achieved better performance compared with other popular methods and illustrated its efficiency on feature selection in cell marker identification from tissue-specific single-cell datasets. In particular, in a case study on type 2 diabetes (T2D) by multiple human islet scRNA-seq datasets, Vec2image first displayed robust performance on T2D classification model building across different datasets, then a specific Vec2image model was trained to accurately recognize the cell state and efficiently rank feature genes relevant to T2D which uncovered potential T2D cellular pathogenesis; and next the cell activity changes, cell composition imbalances and cell-cell communication dysfunctions were associated to our finding T2D feature genes from both population-shared and individual-specific perspectives. Collectively, Vec2image is a new and efficient explainable artificial intelligence methodology that can be widely applied in human-readable classification and prediction on the basis of pseudo image representation of biological deep sequencing data.</t>
+          <t>The Internet of Things [IoT] has provided fascinating solutions in various fields. As the significant usages of IoT in smart cities incorporate almost all the domains such as healthcare, Vehicle to Vehicle (V2V), Energy sector, home automation, pollution monitoring, garbage collection, gardening, environment, road and rail transportation, education, public and private sector organization, etc., the need for developing an intelligent IoT architecture for every domain is a paramount criterion. In this research, we are interested in designing and developing, an IoT architecture, Velocious, which will provide a fast and speedy transportation system without delay and with a greater obstacle avoidance mechanism. The integration of sensors and actuators with a cognitive level of thinking based on circumstances leads to decisions with reasoning using the explainable Artificial Intelligence (AI) concept. The procedure of data acquisition, data transferring, and data interpretation requires a federated learning concept with context awareness where the location, time, and situation act as the prime context in decision-making. It can be purported that the development of a smart city relies on different sectors, and consequently the development of an Intelligent Transport System (ITS), highly relies on expansion. Development, penetration, and growth of IoT technologies with seamless integration with other domain architectures too. To lead smart and safe travel with fuel consumption, obstacle avoidance, and traffic management decisions are mandated with explainable Artificial Intelligence (AI) which could be built in Velocious. This research provides Velocious to be applicable to incorporate integrating all the necessary information required for setting up decisions and making rules. These types of rules can also be viewed as a rule set with proper explanations in decision-making in critical circumstances. Meanwhile, the developed Velocious IoT architecture can also be integrated seamlessly with other IoT architectures for smart Energy, smart health care, etc., for the development of smart cities. © The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature 2024.</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>10.1093/bib/bbab584</t>
+          <t>10.1007/s11277-024-11072-9</t>
         </is>
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Article in press</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>velocious: a resilient iot architecture for 6g based intelligent transportation system with expeditious movement mechanism</t>
+          <t>visual interpretability of capsule network for medical image analysis</t>
         </is>
       </c>
       <c r="C642" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>Robinsha S.D.; Amutha B.</t>
+          <t>Ayidzoe M.A.; Yu Y.; Mensah P.K.; Cai J.; Bawah F.U.</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>Wireless Personal Communications</t>
+          <t>Turkish Journal of Electrical Engineering and Computer Sciences</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>The Internet of Things [IoT] has provided fascinating solutions in various fields. As the significant usages of IoT in smart cities incorporate almost all the domains such as healthcare, Vehicle to Vehicle (V2V), Energy sector, home automation, pollution monitoring, garbage collection, gardening, environment, road and rail transportation, education, public and private sector organization, etc., the need for developing an intelligent IoT architecture for every domain is a paramount criterion. In this research, we are interested in designing and developing, an IoT architecture, Velocious, which will provide a fast and speedy transportation system without delay and with a greater obstacle avoidance mechanism. The integration of sensors and actuators with a cognitive level of thinking based on circumstances leads to decisions with reasoning using the explainable Artificial Intelligence (AI) concept. The procedure of data acquisition, data transferring, and data interpretation requires a federated learning concept with context awareness where the location, time, and situation act as the prime context in decision-making. It can be purported that the development of a smart city relies on different sectors, and consequently the development of an Intelligent Transport System (ITS), highly relies on expansion. Development, penetration, and growth of IoT technologies with seamless integration with other domain architectures too. To lead smart and safe travel with fuel consumption, obstacle avoidance, and traffic management decisions are mandated with explainable Artificial Intelligence (AI) which could be built in Velocious. This research provides Velocious to be applicable to incorporate integrating all the necessary information required for setting up decisions and making rules. These types of rules can also be viewed as a rule set with proper explanations in decision-making in critical circumstances. Meanwhile, the developed Velocious IoT architecture can also be integrated seamlessly with other IoT architectures for smart Energy, smart health care, etc., for the development of smart cities. © The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature 2024.</t>
+          <t>Deep learning (DL) models are currently not widely deployed for critical tasks such as in health. This is attributable to the”black box,” making it difficult to gain the trust of practitioners. This paper proposes the use of visualizations to enhance performance verification, improve monitoring, ensure understandability, and improve interpretability needed to gain practitioners' confidence. These are demonstrated through the development of a CapsNet model for the recognition of gastrointestinal tract infection. The gastrointestinal tract comprises several organs joined in a long tube from the mouth to the anus. It is susceptive to diseases that are difficult for medics to diagnose, since it is not easy to have physical access to the sick regions. Consequently, manual access and analysis of images of the unhealthy parts requires the skills of an expert, as it is tedious, prone to errors, and costly. Experimental results show that visualizations in the form of post-hoc interpretability can demonstrate the reliability and interpretability of the CapsNet model applied to gastrointestinal tract diseases. The outputs can also be explained to gain practitioners' confidence in paving the way for its adoption in critical areas of society. © TÜBİTAK</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>10.1007/s11277-024-11072-9</t>
+          <t>10.3906/ELK-2107-146</t>
         </is>
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>Article in press</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -27936,34 +28040,34 @@
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>visual interpretability of capsule network for medical image analysis</t>
+          <t>visualizing research on explainable artificial intelligence for medical and healthcare</t>
         </is>
       </c>
       <c r="C643" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>Ayidzoe M.A.; Yu Y.; Mensah P.K.; Cai J.; Bawah F.U.</t>
+          <t>Ali S.; Imran A.S.; Kastrati Z.; Daudpota S.M.</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>Turkish Journal of Electrical Engineering and Computer Sciences</t>
+          <t>2023 4th International Conference on Computing, Mathematics and Engineering Technologies: Sustainable Technologies for Socio-Economic Development, iCoMET 2023</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>Deep learning (DL) models are currently not widely deployed for critical tasks such as in health. This is attributable to the”black box,” making it difficult to gain the trust of practitioners. This paper proposes the use of visualizations to enhance performance verification, improve monitoring, ensure understandability, and improve interpretability needed to gain practitioners' confidence. These are demonstrated through the development of a CapsNet model for the recognition of gastrointestinal tract infection. The gastrointestinal tract comprises several organs joined in a long tube from the mouth to the anus. It is susceptive to diseases that are difficult for medics to diagnose, since it is not easy to have physical access to the sick regions. Consequently, manual access and analysis of images of the unhealthy parts requires the skills of an expert, as it is tedious, prone to errors, and costly. Experimental results show that visualizations in the form of post-hoc interpretability can demonstrate the reliability and interpretability of the CapsNet model applied to gastrointestinal tract diseases. The outputs can also be explained to gain practitioners' confidence in paving the way for its adoption in critical areas of society. © TÜBİTAK</t>
+          <t>Understanding complex machine learning and artificial intelligence models have always been challenging because these models are black-box, and often we don't know what information models rely upon to infer. Explainable Artificial Intelligence (XAI) has emerged as a new exciting field to explain and understand these machine learning models as humans can understand and improve them. In the past few years, there have been numerous research articles on explainable artificial intelligence for medical and healthcare. 1687 documents are being studied and analysed using bibliometric methods in this work. There are certain systematic reviews on the same topic, but this study is the first of its kind to use a quantitative method to analyze a large number of publications. The results of this study show that the research in this field took pace in 2011, and there have been quite many publications in the following years. We have also identified top-cited journals and articles. Through thematic analysis, we have found some important thematic areas of research in the field of XAI for medical and healthcare. The findings showed that the USA is the global leader in XAI research, followed by China and Canada at second and third place, respectively.  © 2023 IEEE.</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>10.3906/ELK-2107-146</t>
+          <t>10.1109/iCoMET57998.2023.10099343</t>
         </is>
       </c>
       <c r="H643" t="inlineStr">
@@ -27973,17 +28077,17 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>visualizing research on explainable artificial intelligence for medical and healthcare</t>
+          <t>what are the users' needs? design of a user-centered explainable artificial intelligence diagnostic system</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -27991,108 +28095,108 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>Ali S.; Imran A.S.; Kastrati Z.; Daudpota S.M.</t>
+          <t>He, X; Hong, YY; Zheng, X; Zhang, Y</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>2023 4th International Conference on Computing, Mathematics and Engineering Technologies: Sustainable Technologies for Socio-Economic Development, iCoMET 2023</t>
+          <t>INTERNATIONAL JOURNAL OF HUMAN-COMPUTER INTERACTION</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>Understanding complex machine learning and artificial intelligence models have always been challenging because these models are black-box, and often we don't know what information models rely upon to infer. Explainable Artificial Intelligence (XAI) has emerged as a new exciting field to explain and understand these machine learning models as humans can understand and improve them. In the past few years, there have been numerous research articles on explainable artificial intelligence for medical and healthcare. 1687 documents are being studied and analysed using bibliometric methods in this work. There are certain systematic reviews on the same topic, but this study is the first of its kind to use a quantitative method to analyze a large number of publications. The results of this study show that the research in this field took pace in 2011, and there have been quite many publications in the following years. We have also identified top-cited journals and articles. Through thematic analysis, we have found some important thematic areas of research in the field of XAI for medical and healthcare. The findings showed that the USA is the global leader in XAI research, followed by China and Canada at second and third place, respectively.  © 2023 IEEE.</t>
+          <t>The application of artificial intelligence (AI) systems has surged in the high-risk area of medicine, and these systems must explain their decisions to different users. However, existing explainable AI (XAI) design practices in the medical domain are mostly focused on domain experts, such as physicians, and there is a lack of XAI design practices for consumer users. Therefore, we developed a library of XAI user needs in the medical domain, which can be used as an auxiliary tool for the development of user-centered XAI design solutions in this domain. Moreover, through empirical research, based on our XAI user Needs Library, we designed an XAI-based electrocardiogram diagnostic system prototype for consumer users and conducted a user evaluation. The results provide the empirical experience of the design space of XAI and promote consumer user-centered XAI practices.</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>10.1109/iCoMET57998.2023.10099343</t>
+          <t>10.1080/10447318.2022.2095093</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>what are the users' needs? design of a user-centered explainable artificial intelligence diagnostic system</t>
+          <t>what information on volatile organic compounds can be obtained from the data of a single measurement site through the use of artificial intelligence?</t>
         </is>
       </c>
       <c r="C645" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>He, X; Hong, YY; Zheng, X; Zhang, Y</t>
+          <t>Stanišić S.; Perišić M.; Jovanović G.; Maletić D.; Vudragović D.; Vranić A.; Stojić A.</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>INTERNATIONAL JOURNAL OF HUMAN-COMPUTER INTERACTION</t>
+          <t>Studies in Computational Intelligence</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>The application of artificial intelligence (AI) systems has surged in the high-risk area of medicine, and these systems must explain their decisions to different users. However, existing explainable AI (XAI) design practices in the medical domain are mostly focused on domain experts, such as physicians, and there is a lack of XAI design practices for consumer users. Therefore, we developed a library of XAI user needs in the medical domain, which can be used as an auxiliary tool for the development of user-centered XAI design solutions in this domain. Moreover, through empirical research, based on our XAI user Needs Library, we designed an XAI-based electrocardiogram diagnostic system prototype for consumer users and conducted a user evaluation. The results provide the empirical experience of the design space of XAI and promote consumer user-centered XAI practices.</t>
+          <t>Increasing air pollutant concentrations over the last few decades have been a focus of contemporary scientific research due to adverse effects on public health, the environment and climate change. In this chapter, we used an innovative integrated methodology for spatio-temporal characterization of sources and concentration forecasts of toxic, mutagenic and carcinogenic representatives of volatile organic species—benzene, toluene, ethylbenzene and xylene, commonly referred to as BTEX. The methodology is based on receptor-oriented air circulation modeling and artificial intelligence implemented through machine learning and explainable artificial intelligence methods. The study covered two years of data obtained from a single monitoring station located at 54a Despota Stefana Boulevard (44 ∘ 49’68” N, 20 ∘ 28’04” E). This station was selected from the local and state network for air quality monitoring in the territory of Belgrade. The receptor-oriented modeling was effective for classifying sources of BTEX and the assessment of BTEX concentrations in the Belgrade urban area surrounding the receptor site that was not regularly monitored. The correlations and ratios between BTEX compounds were used for estimating their interrelationships and presence in the air, which contributed to the identification of their origin. Also, this study evaluated the possibilities of BTEX spatio-temporal forecasts based on the integrated methodology. For this purpose, XGBoost was efficient at forecasting BTEX levels, with estimated errors (6–15%) significantly below the uncertainty obtained by conventional models for the evaluation of average annual pollutant concentrations. The results suggest that temperature, wind speed and wind direction represented the main parameters which explain the spatio-temporal distribution of BTEX, while the impact of other factors showed significant variations depending on the locations of the receptor and the compound. © 2021, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>10.1080/10447318.2022.2095093</t>
+          <t>10.1007/978-3-030-72711-6_12</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>what information on volatile organic compounds can be obtained from the data of a single measurement site through the use of artificial intelligence?</t>
+          <t>when an explanation is not enough: an overview of evaluation metrics of explainable ai systems in the healthcare domain</t>
         </is>
       </c>
       <c r="C646" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Stanišić S.; Perišić M.; Jovanović G.; Maletić D.; Vudragović D.; Vranić A.; Stojić A.</t>
+          <t>Pietilä E.; Moreno-Sánchez P.A.</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>Studies in Computational Intelligence</t>
+          <t>IFMBE Proceedings</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>Increasing air pollutant concentrations over the last few decades have been a focus of contemporary scientific research due to adverse effects on public health, the environment and climate change. In this chapter, we used an innovative integrated methodology for spatio-temporal characterization of sources and concentration forecasts of toxic, mutagenic and carcinogenic representatives of volatile organic species—benzene, toluene, ethylbenzene and xylene, commonly referred to as BTEX. The methodology is based on receptor-oriented air circulation modeling and artificial intelligence implemented through machine learning and explainable artificial intelligence methods. The study covered two years of data obtained from a single monitoring station located at 54a Despota Stefana Boulevard (44 ∘ 49’68” N, 20 ∘ 28’04” E). This station was selected from the local and state network for air quality monitoring in the territory of Belgrade. The receptor-oriented modeling was effective for classifying sources of BTEX and the assessment of BTEX concentrations in the Belgrade urban area surrounding the receptor site that was not regularly monitored. The correlations and ratios between BTEX compounds were used for estimating their interrelationships and presence in the air, which contributed to the identification of their origin. Also, this study evaluated the possibilities of BTEX spatio-temporal forecasts based on the integrated methodology. For this purpose, XGBoost was efficient at forecasting BTEX levels, with estimated errors (6–15%) significantly below the uncertainty obtained by conventional models for the evaluation of average annual pollutant concentrations. The results suggest that temperature, wind speed and wind direction represented the main parameters which explain the spatio-temporal distribution of BTEX, while the impact of other factors showed significant variations depending on the locations of the receptor and the compound. © 2021, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+          <t>Despite the promising advantages in diagnostics and treatment that Artificial Intelligence (AI) and Machine Learning (ML) can bring to the healthcare domain, the complexity and black-box behavior of the AI/ML algorithms hinder the adoption by healthcare professionals and patients due to issues regarding explainability and trustworthiness of the results. Explainable AI (XAI) has emerged to support the need for understanding the AI/ML models’ outputs and is expected to have a substantial relevance in the success of these models within the healthcare domain. Nevertheless, the information provided by XAI systems might be not enough to generate the required trustworthiness in the models. Thus, the existence of tools and metrics that allow domain experts and stakeholders to evaluate the explanations arises as needed solution. At the moment, there is an obvious lack of standardization and validation of metrics, and researchers require studies that compile the metrics together to know what, how, and why should be measured. This paper aims to provide an overview of the current metrics to evaluate XAI systems with a particular view on the healthcare domain. From the metrics identified and reviewed by following the PRISMA methodology, we present a taxonomy in which certain aspects are considered, such as the domain (general or healthcare) of the metric, as well as whether the expert is included in the validation process (human-in-the-loop). From our results, we observed many metrics developed in the general domain are being used for clinical XAI models. Nevertheless, it is essential to evaluate the XAI models in a more domain-specific manner, particularly because medical experts have valuable specialist information about the use cases that computer scientists might lack. © 2024, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>10.1007/978-3-030-72711-6_12</t>
+          <t>10.1007/978-3-031-49062-0_60</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
@@ -28108,34 +28212,34 @@
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>when an explanation is not enough: an overview of evaluation metrics of explainable ai systems in the healthcare domain</t>
+          <t>when artificial intelligence models surpass physician performance: medical malpractice liability in an era of advanced artificial intelligence</t>
         </is>
       </c>
       <c r="C647" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Pietilä E.; Moreno-Sánchez P.A.</t>
+          <t>Banja J.D.; Hollstein R.D.; Bruno M.A.</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>IFMBE Proceedings</t>
+          <t>Journal of the American College of Radiology</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>Despite the promising advantages in diagnostics and treatment that Artificial Intelligence (AI) and Machine Learning (ML) can bring to the healthcare domain, the complexity and black-box behavior of the AI/ML algorithms hinder the adoption by healthcare professionals and patients due to issues regarding explainability and trustworthiness of the results. Explainable AI (XAI) has emerged to support the need for understanding the AI/ML models’ outputs and is expected to have a substantial relevance in the success of these models within the healthcare domain. Nevertheless, the information provided by XAI systems might be not enough to generate the required trustworthiness in the models. Thus, the existence of tools and metrics that allow domain experts and stakeholders to evaluate the explanations arises as needed solution. At the moment, there is an obvious lack of standardization and validation of metrics, and researchers require studies that compile the metrics together to know what, how, and why should be measured. This paper aims to provide an overview of the current metrics to evaluate XAI systems with a particular view on the healthcare domain. From the metrics identified and reviewed by following the PRISMA methodology, we present a taxonomy in which certain aspects are considered, such as the domain (general or healthcare) of the metric, as well as whether the expert is included in the validation process (human-in-the-loop). From our results, we observed many metrics developed in the general domain are being used for clinical XAI models. Nevertheless, it is essential to evaluate the XAI models in a more domain-specific manner, particularly because medical experts have valuable specialist information about the use cases that computer scientists might lack. © 2024, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+          <t>It seems inevitable that diagnostic and recommender artificial intelligence models will ultimately reach a point when they outperform human clinicians. Just as antibiotics displaced a host of medicinals for treating infections, the superior performance of such models will force their adoption. This article contemplates certain ethical and legal implications bearing on that adoption, especially because they involve a clinician's exposure to allegations of malpractice. The article discusses four relevant considerations: (1) the imperative of using explainable artificial intelligence models in clinical care, (2) specific strategies for diminishing liability when a clinician agrees or disagrees with a model's findings or recommendations but the patient nevertheless experiences a poor outcome, (3) relieving liability through legislation or regulation, and (4) comprehending such models as “persons” and therefore as potential defendants in legal proceedings. We conclude with observations on clinician–vendor relationships and argue that, although advanced artificial intelligence models have not yet arrived, clinicians must begin considering their implications now. © 2022 American College of Radiology</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>10.1007/978-3-031-49062-0_60</t>
+          <t>10.1016/j.jacr.2021.11.014</t>
         </is>
       </c>
       <c r="H647" t="inlineStr">
@@ -28151,82 +28255,82 @@
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>when artificial intelligence models surpass physician performance: medical malpractice liability in an era of advanced artificial intelligence</t>
+          <t>where developmental toxicity meets explainable artificial intelligence: state-of-the-art and perspectives</t>
         </is>
       </c>
       <c r="C648" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>Banja J.D.; Hollstein R.D.; Bruno M.A.</t>
+          <t>Vittoria Togo M.; Mastrolorito F.; Orfino A.; Graps E.A.; Tondo A.R.; Altomare C.D.; Ciriaco F.; Trisciuzzi D.; Nicolotti O.; Amoroso N.</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>Journal of the American College of Radiology</t>
+          <t>Expert Opinion on Drug Metabolism and Toxicology</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>It seems inevitable that diagnostic and recommender artificial intelligence models will ultimately reach a point when they outperform human clinicians. Just as antibiotics displaced a host of medicinals for treating infections, the superior performance of such models will force their adoption. This article contemplates certain ethical and legal implications bearing on that adoption, especially because they involve a clinician's exposure to allegations of malpractice. The article discusses four relevant considerations: (1) the imperative of using explainable artificial intelligence models in clinical care, (2) specific strategies for diminishing liability when a clinician agrees or disagrees with a model's findings or recommendations but the patient nevertheless experiences a poor outcome, (3) relieving liability through legislation or regulation, and (4) comprehending such models as “persons” and therefore as potential defendants in legal proceedings. We conclude with observations on clinician–vendor relationships and argue that, although advanced artificial intelligence models have not yet arrived, clinicians must begin considering their implications now. © 2022 American College of Radiology</t>
+          <t>Introduction: The application of Artificial Intelligence (AI) to predictive toxicology is rapidly increasing, particularly aiming to develop non-testing methods that effectively address ethical concerns and reduce economic costs. In this context, Developmental Toxicity (Dev Tox) stands as a key human health endpoint, especially significant for safeguarding maternal and child well-being. Areas covered: This review outlines the existing methods employed in Dev Tox predictions and underscores the benefits of utilizing New Approach Methodologies (NAMs), specifically focusing on eXplainable Artificial Intelligence (XAI), which proves highly efficient in constructing reliable and transparent models aligned with recommendations from international regulatory bodies. Expert opinion: The limited availability of high-quality data and the absence of dependable Dev Tox methodologies render XAI an appealing avenue for systematically developing interpretable and transparent models, which hold immense potential for both scientific evaluations and regulatory decision-making. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>10.1016/j.jacr.2021.11.014</t>
+          <t>10.1080/17425255.2023.2298827</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Article in press</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>where developmental toxicity meets explainable artificial intelligence: state-of-the-art and perspectives</t>
+          <t>worldwide impact of lifestyle predictors of dementia prevalence: an explainable artificial intelligence analysis</t>
         </is>
       </c>
       <c r="C649" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>Vittoria Togo M.; Mastrolorito F.; Orfino A.; Graps E.A.; Tondo A.R.; Altomare C.D.; Ciriaco F.; Trisciuzzi D.; Nicolotti O.; Amoroso N.</t>
+          <t>Bellantuono L.; Monaco A.; Amoroso N.; Lacalamita A.; Pantaleo E.; Tangaro S.; Bellotti R.</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>Expert Opinion on Drug Metabolism and Toxicology</t>
+          <t>Frontiers in Big Data</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>Introduction: The application of Artificial Intelligence (AI) to predictive toxicology is rapidly increasing, particularly aiming to develop non-testing methods that effectively address ethical concerns and reduce economic costs. In this context, Developmental Toxicity (Dev Tox) stands as a key human health endpoint, especially significant for safeguarding maternal and child well-being. Areas covered: This review outlines the existing methods employed in Dev Tox predictions and underscores the benefits of utilizing New Approach Methodologies (NAMs), specifically focusing on eXplainable Artificial Intelligence (XAI), which proves highly efficient in constructing reliable and transparent models aligned with recommendations from international regulatory bodies. Expert opinion: The limited availability of high-quality data and the absence of dependable Dev Tox methodologies render XAI an appealing avenue for systematically developing interpretable and transparent models, which hold immense potential for both scientific evaluations and regulatory decision-making. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Introduction: Dementia is an umbrella term indicating a group of diseases that affect the cognitive sphere. Dementia is not a mere individual health issue, since its interference with the ability to carry out daily activities entails a series of collateral problems, comprising exclusion of patients from civil rights and welfare, unpaid caregiving work, mostly performed by women, and an additional burden on the public healthcare systems. Thus, gender and wealth inequalities (both among individuals and among countries) tend to amplify the social impact of such a disease. Since at present there is no cure for dementia but only drug treatments to slow down its progress and mitigate the symptoms, it is essential to work on prevention and early diagnosis, identifying the risk factors that increase the probability of its onset. The complex and multifactorial etiology of dementia, resulting from an interplay between genetics and environmental factors, can benefit from a multidisciplinary approach that follows the “One Health” guidelines of the World Health Organization. Methods: In this work, we apply methods of Artificial Intelligence and complex systems physics to investigate the possibility to predict dementia prevalence throughout world countries from a set of variables concerning individual health, food consumption, substance use and abuse, healthcare system efficiency. The analysis uses publicly available indicator values at a country level, referred to a time window of 26 years. Results: Employing methods based on eXplainable Artificial Intelligence (XAI) and complex networks, we identify a group of lifestyle factors, mostly concerning nutrition, that contribute the most to dementia incidence prediction. Discussion: The proposed approach provides a methodological basis to develop quantitative tools for action patterns against such a disease, which involves issues deeply related with sustainable, such as good health and resposible food consumption. Copyright © 2022 Bellantuono, Monaco, Amoroso, Lacalamita, Pantaleo, Tangaro and Bellotti.</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>10.1080/17425255.2023.2298827</t>
+          <t>10.3389/fdata.2022.1027783</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Article in press</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -28237,34 +28341,34 @@
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>worldwide impact of lifestyle predictors of dementia prevalence: an explainable artificial intelligence analysis</t>
+          <t>x-phm: prognostics and health management knowledge-based framework for sme</t>
         </is>
       </c>
       <c r="C650" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Bellantuono L.; Monaco A.; Amoroso N.; Lacalamita A.; Pantaleo E.; Tangaro S.; Bellotti R.</t>
+          <t>Omri N.; Masry Z.A.; Mairot N.; Giampiccolo S.; Zerhouni N.</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>Frontiers in Big Data</t>
+          <t>Procedia CIRP</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>Introduction: Dementia is an umbrella term indicating a group of diseases that affect the cognitive sphere. Dementia is not a mere individual health issue, since its interference with the ability to carry out daily activities entails a series of collateral problems, comprising exclusion of patients from civil rights and welfare, unpaid caregiving work, mostly performed by women, and an additional burden on the public healthcare systems. Thus, gender and wealth inequalities (both among individuals and among countries) tend to amplify the social impact of such a disease. Since at present there is no cure for dementia but only drug treatments to slow down its progress and mitigate the symptoms, it is essential to work on prevention and early diagnosis, identifying the risk factors that increase the probability of its onset. The complex and multifactorial etiology of dementia, resulting from an interplay between genetics and environmental factors, can benefit from a multidisciplinary approach that follows the “One Health” guidelines of the World Health Organization. Methods: In this work, we apply methods of Artificial Intelligence and complex systems physics to investigate the possibility to predict dementia prevalence throughout world countries from a set of variables concerning individual health, food consumption, substance use and abuse, healthcare system efficiency. The analysis uses publicly available indicator values at a country level, referred to a time window of 26 years. Results: Employing methods based on eXplainable Artificial Intelligence (XAI) and complex networks, we identify a group of lifestyle factors, mostly concerning nutrition, that contribute the most to dementia incidence prediction. Discussion: The proposed approach provides a methodological basis to develop quantitative tools for action patterns against such a disease, which involves issues deeply related with sustainable, such as good health and resposible food consumption. Copyright © 2022 Bellantuono, Monaco, Amoroso, Lacalamita, Pantaleo, Tangaro and Bellotti.</t>
+          <t>Prognostics and Health Management (PHM) is an emerging concept based on industrial data management. The implementation of PHM in small and medium-sized enterprises (SMEs) is currently limited due to data accessibility difficulties. In order to overcome this pitfall, one could formalize the operators' knowledge and integrate it in the SME's information system. Thus, the implementation of the PHM will be based on this information system associating data with knowledge. To this end, we propose a collaborative PHM approach (X-PHM) to ensure the extraction of operators' knowledge and its integration into the PHM process. The decision resulting from this approach is restituted with a concern of explainability. This paper details the proposed approach while focusing on the data management process and its integration in explainable decisions. This new framework is applied in a French SME to understand its production process and facilitate its digital transformation. © 2021 Elsevier B.V.. All rights reserved.</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>10.3389/fdata.2022.1027783</t>
+          <t>10.1016/j.procir.2021.11.269</t>
         </is>
       </c>
       <c r="H650" t="inlineStr">
@@ -28274,40 +28378,40 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>x-phm: prognostics and health management knowledge-based framework for sme</t>
+          <t>x-rcrnet: an explainable deep-learning network for covid-19 detection using ecg beat signals</t>
         </is>
       </c>
       <c r="C651" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>Omri N.; Masry Z.A.; Mairot N.; Giampiccolo S.; Zerhouni N.</t>
+          <t>Nkengue M.J.; Zeng X.; Koehl L.; Tao X.</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>Procedia CIRP</t>
+          <t>Biomedical Signal Processing and Control</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>Prognostics and Health Management (PHM) is an emerging concept based on industrial data management. The implementation of PHM in small and medium-sized enterprises (SMEs) is currently limited due to data accessibility difficulties. In order to overcome this pitfall, one could formalize the operators' knowledge and integrate it in the SME's information system. Thus, the implementation of the PHM will be based on this information system associating data with knowledge. To this end, we propose a collaborative PHM approach (X-PHM) to ensure the extraction of operators' knowledge and its integration into the PHM process. The decision resulting from this approach is restituted with a concern of explainability. This paper details the proposed approach while focusing on the data management process and its integration in explainable decisions. This new framework is applied in a French SME to understand its production process and facilitate its digital transformation. © 2021 Elsevier B.V.. All rights reserved.</t>
+          <t>Wearable systems measuring human physiological indicators with integrated sensors and supervised learning-based medical image analysis (e.g. ECG, X-ray, CT or ultrasound images for lung or the chest) have been considered relevant tools for COVID-19 monitoring and diagnosis. However, these two technical roadmaps have their respective advantages and drawbacks. The current wearable systems enable to realize real-time monitoring of COVID-19 but are limited to its basic symptoms only, neither allowing to distinguish it from other diseases nor performing deep analysis. Current medical image analysis can provide accurate decision support for diagnosis but rarely deals with real-time data processing. In this context, we propose a new wearable system by combining the advantages of these two technical roadmaps. Considering that electrocardiogram (ECG) has been proved relevant to evolution of COVID-19 symptoms, the proposed wearable system will integrate an explainable Deep Neural Network to realize online monitoring of COVID-19 gravity by using ECG beat signal. This paper will focus on the Deep Neural Network model named X-RCRNet. The network is based on ResNet18 but with few enhancements: 1) LSTM Layers for regenerating the backpropagation error and further extracting the involved time-varying features; 2) LeakyReLU for increasing the performances of the model. With an accuracy of 96.48 % after experiments, our model has not only outperformed the existing methods in terms of accuracy and robustness, but also originally identify the ST interval of the ECG pattern, as the most prominent key features affected by the virus. © 2023 The Authors</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>10.1016/j.procir.2021.11.269</t>
+          <t>10.1016/j.bspc.2023.105424</t>
         </is>
       </c>
       <c r="H651" t="inlineStr">
@@ -28323,11 +28427,11 @@
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>x-rcrnet: an explainable deep-learning network for covid-19 detection using ecg beat signals</t>
+          <t>xai transformer based approach for interpreting depressed and suicidal user behavior on online social networks</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -28335,22 +28439,22 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>Nkengue M.J.; Zeng X.; Koehl L.; Tao X.</t>
+          <t>Malhotra A.; Jindal R.</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>Biomedical Signal Processing and Control</t>
+          <t>Cognitive Systems Research</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>Wearable systems measuring human physiological indicators with integrated sensors and supervised learning-based medical image analysis (e.g. ECG, X-ray, CT or ultrasound images for lung or the chest) have been considered relevant tools for COVID-19 monitoring and diagnosis. However, these two technical roadmaps have their respective advantages and drawbacks. The current wearable systems enable to realize real-time monitoring of COVID-19 but are limited to its basic symptoms only, neither allowing to distinguish it from other diseases nor performing deep analysis. Current medical image analysis can provide accurate decision support for diagnosis but rarely deals with real-time data processing. In this context, we propose a new wearable system by combining the advantages of these two technical roadmaps. Considering that electrocardiogram (ECG) has been proved relevant to evolution of COVID-19 symptoms, the proposed wearable system will integrate an explainable Deep Neural Network to realize online monitoring of COVID-19 gravity by using ECG beat signal. This paper will focus on the Deep Neural Network model named X-RCRNet. The network is based on ResNet18 but with few enhancements: 1) LSTM Layers for regenerating the backpropagation error and further extracting the involved time-varying features; 2) LeakyReLU for increasing the performances of the model. With an accuracy of 96.48 % after experiments, our model has not only outperformed the existing methods in terms of accuracy and robustness, but also originally identify the ST interval of the ECG pattern, as the most prominent key features affected by the virus. © 2023 The Authors</t>
+          <t>Online social networks can be used for mental healthcare monitoring using Artificial Intelligence and Machine Learning techniques for detecting various mental health disorders and corresponding risk assessment. Recent research in this domain has primarily been focused on leveraging deep neural networks and various Transformer based Large Language Models, which have now become state-of-the-art for most natural language processing and computational linguistic tasks due to their unmatched prediction accuracy. Unlike conventional machine learning algorithms, these deep neural networks are black box architectures, where it is difficult to interpret and explain their predicted outcome. However, a black box classification outcome is insufficient for healthcare applications. Such systems will not be widely adopted and trusted by healthcare practitioners if they are not able to understand and explain the reasoning behind the predicted decisions made by an AI and ML based healthcare diagnostic system. The key objective of our research is to demonstrate the applications of model agnostic, post hoc surrogate XAI techniques for providing explainability to classification decisions of pretrained LLMs (Transformers) based mental healthcare diagnostic systems fine-tuned (or trained) to detect depressive and suicidal behavior using UGC from online social networks. For this, we have used the two most recent and popular techniques, SHAP and LIME. We have conducted extensive and in-depth experiments with four datasets and six pretrained LLMs, three of which have already been domain-adapted using mental health related datasets. We have also performed Few Shot Learning experiments with these three pretrained mental health domain-adapted LLMs. The results of qualitative and descriptive data analysis in this paper demonstrate that in order to build a comprehensive understanding of a person's psychological state, emotion, and behavior and to discover the causes, symptoms, and triggers of mental health issues, it is essential to utilize eXplAInable (XAI) techniques with Transformer based LLMs (supervised). Alternatively, Transformer based unsupervised topic modeling technique BERTopic may be used for mental health risk monitoring and cause or symptom extraction when supervised training of LLMs is not feasible due to dataset annotation or availability challenges. © 2023 Elsevier B.V.</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>10.1016/j.bspc.2023.105424</t>
+          <t>10.1016/j.cogsys.2023.101186</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
@@ -28360,40 +28464,40 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Scopus</t>
+          <t>Scopus + Web of Science</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>xai transformer based approach for interpreting depressed and suicidal user behavior on online social networks</t>
+          <t>xai-driven explainable multi-view game cheating detection</t>
         </is>
       </c>
       <c r="C653" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>Malhotra A.; Jindal R.</t>
+          <t>Tao J.; Xiong Y.; Zhao S.; Xu Y.; Lin J.; Wu R.; Fan C.</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>Cognitive Systems Research</t>
+          <t>IEEE Conference on Computatonal Intelligence and Games, CIG</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>Online social networks can be used for mental healthcare monitoring using Artificial Intelligence and Machine Learning techniques for detecting various mental health disorders and corresponding risk assessment. Recent research in this domain has primarily been focused on leveraging deep neural networks and various Transformer based Large Language Models, which have now become state-of-the-art for most natural language processing and computational linguistic tasks due to their unmatched prediction accuracy. Unlike conventional machine learning algorithms, these deep neural networks are black box architectures, where it is difficult to interpret and explain their predicted outcome. However, a black box classification outcome is insufficient for healthcare applications. Such systems will not be widely adopted and trusted by healthcare practitioners if they are not able to understand and explain the reasoning behind the predicted decisions made by an AI and ML based healthcare diagnostic system. The key objective of our research is to demonstrate the applications of model agnostic, post hoc surrogate XAI techniques for providing explainability to classification decisions of pretrained LLMs (Transformers) based mental healthcare diagnostic systems fine-tuned (or trained) to detect depressive and suicidal behavior using UGC from online social networks. For this, we have used the two most recent and popular techniques, SHAP and LIME. We have conducted extensive and in-depth experiments with four datasets and six pretrained LLMs, three of which have already been domain-adapted using mental health related datasets. We have also performed Few Shot Learning experiments with these three pretrained mental health domain-adapted LLMs. The results of qualitative and descriptive data analysis in this paper demonstrate that in order to build a comprehensive understanding of a person's psychological state, emotion, and behavior and to discover the causes, symptoms, and triggers of mental health issues, it is essential to utilize eXplAInable (XAI) techniques with Transformer based LLMs (supervised). Alternatively, Transformer based unsupervised topic modeling technique BERTopic may be used for mental health risk monitoring and cause or symptom extraction when supervised training of LLMs is not feasible due to dataset annotation or availability challenges. © 2023 Elsevier B.V.</t>
+          <t>Online gaming is one of the most successful applications having a large number of players interacting in an online persistent virtual world through the Internet. However, some cheating players gain improper advantages over normal players by using illegal automated plugins which has brought huge harm to game health and player enjoyment. Game industries have been devoting much efforts on cheating detection with multiview data sources and achieved great accuracy improvements by applying artificial intelligence (AI) techniques. However, generating explanations for cheating detection from multiple views still remains a challenging task. To respond to the different purposes of explainability in AI models from different audience profiles, we propose the EMGCD, the first explainable multi-view game cheating detection framework driven by explainable AI (XAI). It combines cheating explainers to cheating classifiers from different views to generate individual, local and global explanations which contributes to the evidence generation, reason generation, model debugging and model compression. The EMGCD has been implemented and deployed in multiple game productions in NetEase Games, achieving remarkable and trustworthy performance. Our framework can also easily generalize to other types of related tasks in online games, such as explainable recommender systems, explainable churn prediction, etc.  © 2020 IEEE.</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>10.1016/j.cogsys.2023.101186</t>
+          <t>10.1109/CoG47356.2020.9231843</t>
         </is>
       </c>
       <c r="H653" t="inlineStr">
@@ -28409,34 +28513,34 @@
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>xai-driven explainable multi-view game cheating detection</t>
+          <t>xai4eeg: spectral and spatio-temporal explanation of deep learning-based seizure detection in eeg time series</t>
         </is>
       </c>
       <c r="C654" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Tao J.; Xiong Y.; Zhao S.; Xu Y.; Lin J.; Wu R.; Fan C.</t>
+          <t>Raab D.; Theissler A.; Spiliopoulou M.</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>IEEE Conference on Computatonal Intelligence and Games, CIG</t>
+          <t>Neural Computing and Applications</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>Online gaming is one of the most successful applications having a large number of players interacting in an online persistent virtual world through the Internet. However, some cheating players gain improper advantages over normal players by using illegal automated plugins which has brought huge harm to game health and player enjoyment. Game industries have been devoting much efforts on cheating detection with multiview data sources and achieved great accuracy improvements by applying artificial intelligence (AI) techniques. However, generating explanations for cheating detection from multiple views still remains a challenging task. To respond to the different purposes of explainability in AI models from different audience profiles, we propose the EMGCD, the first explainable multi-view game cheating detection framework driven by explainable AI (XAI). It combines cheating explainers to cheating classifiers from different views to generate individual, local and global explanations which contributes to the evidence generation, reason generation, model debugging and model compression. The EMGCD has been implemented and deployed in multiple game productions in NetEase Games, achieving remarkable and trustworthy performance. Our framework can also easily generalize to other types of related tasks in online games, such as explainable recommender systems, explainable churn prediction, etc.  © 2020 IEEE.</t>
+          <t>In clinical practice, algorithmic predictions may seriously jeopardise patients’ health and thus are required to be validated by medical experts before a final clinical decision is met. Towards that aim, there is need to incorporate explainable artificial intelligence techniques into medical research. In the specific field of epileptic seizure detection there are several machine learning algorithms but less methods on explaining them in an interpretable way. Therefore, we introduce XAI4EEG: an application-aware approach for an explainable and hybrid deep learning-based detection of seizures in multivariate EEG time series. In XAI4EEG, we combine deep learning models and domain knowledge on seizure detection, namely (a) frequency bands, (b) location of EEG leads and (c) temporal characteristics. XAI4EEG encompasses EEG data preparation, two deep learning models and our proposed explanation module visualizing feature contributions that are obtained by two SHAP explainers, each explaining the predictions of one of the two models. The resulting visual explanations provide an intuitive identification of decision-relevant regions in the spectral, spatial and temporal EEG dimensions. To evaluate XAI4EEG, we conducted a user study, where users were asked to assess the outputs of XAI4EEG, while working under time constraints, in order to emulate the fact that clinical diagnosis is done - more often than not - under time pressure. We found that the visualizations of our explanation module (1) lead to a substantially lower time for validating the predictions and (2) leverage an increase in interpretability, trust and confidence compared to selected SHAP feature contribution plots. © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>10.1109/CoG47356.2020.9231843</t>
+          <t>10.1007/s00521-022-07809-x</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
@@ -28452,54 +28556,54 @@
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>xai4eeg: spectral and spatio-temporal explanation of deep learning-based seizure detection in eeg time series</t>
+          <t>xaiot - the future of wearable internet of things</t>
         </is>
       </c>
       <c r="C655" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Raab D.; Theissler A.; Spiliopoulou M.</t>
+          <t>Krzysiak, R; Nguyen, S; Chen, YQ</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>Neural Computing and Applications</t>
+          <t>2022 18TH IEEE/ASME INTERNATIONAL CONFERENCE ON MECHATRONIC AND EMBEDDED SYSTEMS AND APPLICATIONS (MESA 2022)</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>In clinical practice, algorithmic predictions may seriously jeopardise patients’ health and thus are required to be validated by medical experts before a final clinical decision is met. Towards that aim, there is need to incorporate explainable artificial intelligence techniques into medical research. In the specific field of epileptic seizure detection there are several machine learning algorithms but less methods on explaining them in an interpretable way. Therefore, we introduce XAI4EEG: an application-aware approach for an explainable and hybrid deep learning-based detection of seizures in multivariate EEG time series. In XAI4EEG, we combine deep learning models and domain knowledge on seizure detection, namely (a) frequency bands, (b) location of EEG leads and (c) temporal characteristics. XAI4EEG encompasses EEG data preparation, two deep learning models and our proposed explanation module visualizing feature contributions that are obtained by two SHAP explainers, each explaining the predictions of one of the two models. The resulting visual explanations provide an intuitive identification of decision-relevant regions in the spectral, spatial and temporal EEG dimensions. To evaluate XAI4EEG, we conducted a user study, where users were asked to assess the outputs of XAI4EEG, while working under time constraints, in order to emulate the fact that clinical diagnosis is done - more often than not - under time pressure. We found that the visualizations of our explanation module (1) lead to a substantially lower time for validating the predictions and (2) leverage an increase in interpretability, trust and confidence compared to selected SHAP feature contribution plots. © 2022, The Author(s).</t>
+          <t>The addition of Machine Learning and other Artificial Intelligent (AI) algorithms has expanded the capabilities of the Internet of Things (IoT) framework. However, the Artificial Internet of Things (AIoT), has also brought forward many issues with the combination, mainly lack of explanations and transparency. This lack of explanations of what AI models are doing is problematic in many fields, especially in the medical field. Explainable Artificial Intelligence (XAI) allows users to be given more in depth knowledge with the background processes of the model prediction. Enabling XAI into the IoT framework would develop a system that would not only capture Big Data more effectively, but also allow the system to be more transparent and explainable, causing wider adoption of the framework. This review focuses on current work done in AIoT and how it can be vastly improved with XAIoT. We propose an Explainable Artificial Intelligent Internet of Things (XAIoT) framework for monitoring physiological health using a smart watch.</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>10.1007/s00521-022-07809-x</t>
+          <t>10.1109/MESA55290.2022.10004460</t>
         </is>
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Scopus + Web of Science</t>
+          <t>Web of Science</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>xaiot - the future of wearable internet of things</t>
+          <t>xaiot-the future of wearable internet of things</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -28507,17 +28611,17 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>Krzysiak, R; Nguyen, S; Chen, YQ</t>
+          <t>Krzysiak R.; Nguyen S.; Chen Y.</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>2022 18TH IEEE/ASME INTERNATIONAL CONFERENCE ON MECHATRONIC AND EMBEDDED SYSTEMS AND APPLICATIONS (MESA 2022)</t>
+          <t>MESA 2022 - 18th IEEE/ASME International Conference on Mechatronic and Embedded Systems and Applications, Proceedings</t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>The addition of Machine Learning and other Artificial Intelligent (AI) algorithms has expanded the capabilities of the Internet of Things (IoT) framework. However, the Artificial Internet of Things (AIoT), has also brought forward many issues with the combination, mainly lack of explanations and transparency. This lack of explanations of what AI models are doing is problematic in many fields, especially in the medical field. Explainable Artificial Intelligence (XAI) allows users to be given more in depth knowledge with the background processes of the model prediction. Enabling XAI into the IoT framework would develop a system that would not only capture Big Data more effectively, but also allow the system to be more transparent and explainable, causing wider adoption of the framework. This review focuses on current work done in AIoT and how it can be vastly improved with XAIoT. We propose an Explainable Artificial Intelligent Internet of Things (XAIoT) framework for monitoring physiological health using a smart watch.</t>
+          <t>The addition of Machine Learning and other Artificial Intelligent (AI) algorithms has expanded the capabilities of the Internet of Things (IoT) framework. However, the Artificial Internet of Things (AIoT), has also brought forward many issues with the combination, mainly lack of explanations and transparency. This lack of explanations of what AI models are doing is problematic in many fields, especially in the medical field. Explainable Artificial Intelligence (XAI) allows users to be given more in depth knowledge with the background processes of the model prediction. Enabling XAI into the IoT framework would develop a system that would not only capture Big Data more effectively, but also allow the system to be more transparent and explainable, causing wider adoption of the framework. This review focuses on current work done in AIoT and how it can be vastly improved with XAIoT. We propose an Explainable Artificial Intelligent Internet of Things (XAIoT) framework for monitoring physiological health using a smart watch.  © 2022 IEEE.</t>
         </is>
       </c>
       <c r="G656" t="inlineStr">
@@ -28527,45 +28631,45 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Web of Science</t>
+          <t>Scopus</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>xaiot-the future of wearable internet of things</t>
+          <t>xlaam: explainable lstm-based activity and anomaly monitoring in a fog environment</t>
         </is>
       </c>
       <c r="C657" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>Krzysiak R.; Nguyen S.; Chen Y.</t>
+          <t>Sharma M.; Kaur P.</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>MESA 2022 - 18th IEEE/ASME International Conference on Mechatronic and Embedded Systems and Applications, Proceedings</t>
+          <t>Journal of Reliable Intelligent Environments</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>The addition of Machine Learning and other Artificial Intelligent (AI) algorithms has expanded the capabilities of the Internet of Things (IoT) framework. However, the Artificial Internet of Things (AIoT), has also brought forward many issues with the combination, mainly lack of explanations and transparency. This lack of explanations of what AI models are doing is problematic in many fields, especially in the medical field. Explainable Artificial Intelligence (XAI) allows users to be given more in depth knowledge with the background processes of the model prediction. Enabling XAI into the IoT framework would develop a system that would not only capture Big Data more effectively, but also allow the system to be more transparent and explainable, causing wider adoption of the framework. This review focuses on current work done in AIoT and how it can be vastly improved with XAIoT. We propose an Explainable Artificial Intelligent Internet of Things (XAIoT) framework for monitoring physiological health using a smart watch.  © 2022 IEEE.</t>
+          <t>Study of activities of daily life is gaining wide attention in today’s smart world powered by advanced sensing technologies. It is particularly significant in context of health applications useful for monitoring of elderly living alone and checking on patients in isolation or suffering from chronic diseases. Any significant deviation from an individual’s routine behaviour, such as a fall or ill-health, can be identified as an anomaly. This paper proposes XLAAM, an eXplainable LSTM-based framework to classify the activities of daily life and detect anomalies within a fog-enhanced smart home. Data from sensors in a smart home are forwarded to fog nodes where the classification and anomaly detection tasks are carried out. In case of abnormal activity detection, an alarm is raised or a notification is sent to a health worker or family. Entire data are also streamed to a cloud-based server where eXplainable Artificial Intelligence (XAI) tools are used to interpret explanations of the LSTM model decisions. This is crucial considering the impact of the framework on health and lives of patients. Interpretation of the model and its decision increases the reliability of the model for the patients or users as well as the health practitioners. We have evaluated the proposed approach on a standard dataset to demonstrate its application and feasibility in real-world applications. © 2022, The Author(s), under exclusive licence to Springer Nature Switzerland AG.</t>
         </is>
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>10.1109/MESA55290.2022.10004460</t>
+          <t>10.1007/s40860-022-00185-2</t>
         </is>
       </c>
       <c r="H657" t="inlineStr">
@@ -28581,34 +28685,34 @@
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>xlaam: explainable lstm-based activity and anomaly monitoring in a fog environment</t>
+          <t>xxai - beyond explainable artificial intelligence</t>
         </is>
       </c>
       <c r="C658" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Sharma M.; Kaur P.</t>
+          <t>Holzinger A.; Goebel R.; Fong R.; Moon T.; Müller K.-R.; Samek W.</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>Journal of Reliable Intelligent Environments</t>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>Study of activities of daily life is gaining wide attention in today’s smart world powered by advanced sensing technologies. It is particularly significant in context of health applications useful for monitoring of elderly living alone and checking on patients in isolation or suffering from chronic diseases. Any significant deviation from an individual’s routine behaviour, such as a fall or ill-health, can be identified as an anomaly. This paper proposes XLAAM, an eXplainable LSTM-based framework to classify the activities of daily life and detect anomalies within a fog-enhanced smart home. Data from sensors in a smart home are forwarded to fog nodes where the classification and anomaly detection tasks are carried out. In case of abnormal activity detection, an alarm is raised or a notification is sent to a health worker or family. Entire data are also streamed to a cloud-based server where eXplainable Artificial Intelligence (XAI) tools are used to interpret explanations of the LSTM model decisions. This is crucial considering the impact of the framework on health and lives of patients. Interpretation of the model and its decision increases the reliability of the model for the patients or users as well as the health practitioners. We have evaluated the proposed approach on a standard dataset to demonstrate its application and feasibility in real-world applications. © 2022, The Author(s), under exclusive licence to Springer Nature Switzerland AG.</t>
+          <t>The success of statistical machine learning from big data, especially of deep learning, has made artificial intelligence (AI) very popular. Unfortunately, especially with the most successful methods, the results are very difficult to comprehend by human experts. The application of AI in areas that impact human life (e.g., agriculture, climate, forestry, health, etc.) has therefore led to an demand for trust, which can be fostered if the methods can be interpreted and thus explained to humans. The research field of explainable artificial intelligence (XAI) provides the necessary foundations and methods. Historically, XAI has focused on the development of methods to explain the decisions and internal mechanisms of complex AI systems, with much initial research concentrating on explaining how convolutional neural networks produce image classification predictions by producing visualizations which highlight what input patterns are most influential in activating hidden units, or are most responsible for a model’s decision. In this volume, we summarize research that outlines and takes next steps towards a broader vision for explainable AI in moving beyond explaining classifiers via such methods, to include explaining other kinds of models (e.g., unsupervised and reinforcement learning models) via a diverse array of XAI techniques (e.g., question-and-answering systems, structured explanations). In addition, we also intend to move beyond simply providing model explanations to directly improving the transparency, efficiency and generalization ability of models. We hope this volume presents not only exciting research developments in explainable AI but also a guide for what next areas to focus on within this fascinating and highly relevant research field as we enter the second decade of the deep learning revolution. This volume is an outcome of the ICML 2020 workshop on “XXAI: Extending Explainable AI Beyond Deep Models and Classifiers.” © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>10.1007/s40860-022-00185-2</t>
+          <t>10.1007/978-3-031-04083-2_1</t>
         </is>
       </c>
       <c r="H658" t="inlineStr">
@@ -28617,49 +28721,6 @@
         </is>
       </c>
       <c r="I658" t="inlineStr">
-        <is>
-          <t>Scopus</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>xxai - beyond explainable artificial intelligence</t>
-        </is>
-      </c>
-      <c r="C659" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>Holzinger A.; Goebel R.; Fong R.; Moon T.; Müller K.-R.; Samek W.</t>
-        </is>
-      </c>
-      <c r="E659" t="inlineStr">
-        <is>
-          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
-        </is>
-      </c>
-      <c r="F659" t="inlineStr">
-        <is>
-          <t>The success of statistical machine learning from big data, especially of deep learning, has made artificial intelligence (AI) very popular. Unfortunately, especially with the most successful methods, the results are very difficult to comprehend by human experts. The application of AI in areas that impact human life (e.g., agriculture, climate, forestry, health, etc.) has therefore led to an demand for trust, which can be fostered if the methods can be interpreted and thus explained to humans. The research field of explainable artificial intelligence (XAI) provides the necessary foundations and methods. Historically, XAI has focused on the development of methods to explain the decisions and internal mechanisms of complex AI systems, with much initial research concentrating on explaining how convolutional neural networks produce image classification predictions by producing visualizations which highlight what input patterns are most influential in activating hidden units, or are most responsible for a model’s decision. In this volume, we summarize research that outlines and takes next steps towards a broader vision for explainable AI in moving beyond explaining classifiers via such methods, to include explaining other kinds of models (e.g., unsupervised and reinforcement learning models) via a diverse array of XAI techniques (e.g., question-and-answering systems, structured explanations). In addition, we also intend to move beyond simply providing model explanations to directly improving the transparency, efficiency and generalization ability of models. We hope this volume presents not only exciting research developments in explainable AI but also a guide for what next areas to focus on within this fascinating and highly relevant research field as we enter the second decade of the deep learning revolution. This volume is an outcome of the ICML 2020 workshop on “XXAI: Extending Explainable AI Beyond Deep Models and Classifiers.” © 2022, The Author(s).</t>
-        </is>
-      </c>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>10.1007/978-3-031-04083-2_1</t>
-        </is>
-      </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="I659" t="inlineStr">
         <is>
           <t>Scopus + Web of Science</t>
         </is>
